--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Dropbox\FYP_WhitePinnacle\Project Management\Project Management\Metrics\Task Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Metrics\Task Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,12 @@
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Iteration 1" sheetId="3" r:id="rId2"/>
     <sheet name="Iteration 2" sheetId="5" r:id="rId3"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId4"/>
+    <sheet name="Iteration 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="204">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -628,6 +632,24 @@
   </si>
   <si>
     <t>Shi Qi, Wei Yi</t>
+  </si>
+  <si>
+    <t>Update sequence diagram and database scripts</t>
+  </si>
+  <si>
+    <t>Patient Management/Student's Assessment - Submission of multidisiplinary notes</t>
+  </si>
+  <si>
+    <t>Student is able to CRU patient vitals, submit multidisciplinary notes and view patient's investigation reports</t>
+  </si>
+  <si>
+    <t>Beautify UI</t>
+  </si>
+  <si>
+    <t>Conduct User Test *</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting 1</t>
   </si>
 </sst>
 </file>
@@ -1072,6 +1094,9 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1113,9 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1430,11 +1452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1756741136"/>
-        <c:axId val="1756749296"/>
+        <c:axId val="-866298432"/>
+        <c:axId val="-866293536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1756741136"/>
+        <c:axId val="-866298432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756749296"/>
+        <c:crossAx val="-866293536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1756749296"/>
+        <c:axId val="-866293536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1537,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756741136"/>
+        <c:crossAx val="-866298432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1660,7 +1682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1763,7 +1784,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1950,11 +1970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1756743856"/>
-        <c:axId val="1756751472"/>
+        <c:axId val="-1004095072"/>
+        <c:axId val="-1004090176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1756743856"/>
+        <c:axId val="-1004095072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756751472"/>
+        <c:crossAx val="-1004090176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1756751472"/>
+        <c:axId val="-1004090176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2057,7 +2077,509 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756743856"/>
+        <c:crossAx val="-1004095072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Iteration 3'!$B$3:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Review Requirements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update sequence diagram and database scripts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Patient Management - CRU patient's vitals </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Patient Management/Student's Assessment - Submission of multidisiplinary notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Patient Management - View patient's investigation reports</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Student is able to CRU patient vitals, submit multidisciplinary notes and view patient's investigation reports</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Beautify UI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation of test cases for functionalities in Iteration 3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Create User Test document, identify users for testing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Conduct User Test *</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Debugging of failed test plans</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Client Meeting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Supervisor Meeting 1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Internal Meeting to prepare for acceptance slides</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Proposal Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Iteration 3'!$K$3:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-712706384"/>
+        <c:axId val="-712721616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-712706384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-712721616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-712721616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-712706384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2180,6 +2702,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3225,6 +3787,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3295,6 +4360,225 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Detailed Schedule"/>
+      <sheetName val="Iteration 1"/>
+      <sheetName val="Iteration 2"/>
+      <sheetName val="Iteration 3"/>
+      <sheetName val="Guidelines for Task Metrics"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Review Requirements</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Update UI Mockup</v>
+          </cell>
+          <cell r="K4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Update sequence diagram and database scripts</v>
+          </cell>
+          <cell r="K5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v xml:space="preserve">Patient Management - CRU patient's vitals </v>
+          </cell>
+          <cell r="K6">
+            <v>0.95238095238095233</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Patient Management/Student's Assessment - Submission of multidisiplinary notes</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Patient Management - View patient's investigation reports</v>
+          </cell>
+          <cell r="K8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Student is able to CRU patient vitals, submit multidisciplinary notes and view patient's investigation reports</v>
+          </cell>
+          <cell r="K9">
+            <v>1.1428571428571428</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Beautify UI</v>
+          </cell>
+          <cell r="K10">
+            <v>1.0434782608695652</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Deployment</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Generation of test cases for functionalities in Iteration 3</v>
+          </cell>
+          <cell r="K12">
+            <v>1.1428571428571428</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Regression Testing of functionalities in previous iterations + current iteration</v>
+          </cell>
+          <cell r="K13">
+            <v>1.1666666666666667</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Create User Test document, identify users for testing</v>
+          </cell>
+          <cell r="K14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Conduct User Test *</v>
+          </cell>
+          <cell r="K15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Debugging of failed test plans</v>
+          </cell>
+          <cell r="K16">
+            <v>1.3333333333333333</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Client Meeting</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Supervisor Meeting 1</v>
+          </cell>
+          <cell r="K18">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Gather metrics and update metrics</v>
+          </cell>
+          <cell r="K19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v xml:space="preserve">Update wiki with progress </v>
+          </cell>
+          <cell r="K20">
+            <v>1.1428571428571428</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Internal Meeting to prepare for acceptance slides</v>
+          </cell>
+          <cell r="K21">
+            <v>1.0714285714285714</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Proposal Submission</v>
+          </cell>
+          <cell r="K22">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3587,28 +4871,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -4073,26 +5357,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -4679,25 +5963,25 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -4745,20 +6029,20 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
       <c r="O33" s="7" t="s">
         <v>18</v>
       </c>
@@ -4820,20 +6104,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -4895,20 +6179,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="63"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -5091,11 +6375,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="67" t="s">
+      <c r="O41" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -5191,20 +6475,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -5325,20 +6609,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -5381,20 +6665,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="63"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -5593,25 +6877,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="66"/>
-      <c r="O57" s="67" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="67"/>
+      <c r="O57" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -5659,20 +6943,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="63"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -5726,20 +7010,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -5832,20 +7116,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="63"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -6001,20 +7285,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="63"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -6045,20 +7329,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="63"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -6118,20 +7402,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="63"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -6162,20 +7446,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="63"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -6347,25 +7631,25 @@
       <c r="M83" s="7"/>
     </row>
     <row r="85" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
-      <c r="O85" s="67" t="s">
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="O85" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -6411,20 +7695,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -6478,20 +7762,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="63" t="s">
+      <c r="B89" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="63"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -6583,20 +7867,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="63"/>
-      <c r="L92" s="63"/>
-      <c r="M92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="64"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -6698,20 +7982,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="63" t="s">
+      <c r="B96" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -6742,20 +8026,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="63"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="63"/>
-      <c r="J98" s="63"/>
-      <c r="K98" s="63"/>
-      <c r="L98" s="63"/>
-      <c r="M98" s="63"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -6871,20 +8155,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="63"/>
-      <c r="J103" s="63"/>
-      <c r="K103" s="63"/>
-      <c r="L103" s="63"/>
-      <c r="M103" s="63"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -6915,20 +8199,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="63"/>
-      <c r="L105" s="63"/>
-      <c r="M105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -7090,25 +8374,25 @@
       <c r="M111" s="35"/>
     </row>
     <row r="113" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="64" t="s">
+      <c r="B113" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="64"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="64"/>
-      <c r="O113" s="67" t="s">
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="65"/>
+      <c r="O113" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
+      <c r="P113" s="68"/>
+      <c r="Q113" s="68"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -7154,20 +8438,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="63" t="s">
+      <c r="B115" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="63"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="63"/>
-      <c r="K115" s="63"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="63"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="64"/>
+      <c r="K115" s="64"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="64"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -7221,20 +8505,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="63" t="s">
+      <c r="B117" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="63"/>
-      <c r="D117" s="63"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="63"/>
-      <c r="H117" s="63"/>
-      <c r="I117" s="63"/>
-      <c r="J117" s="63"/>
-      <c r="K117" s="63"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="63"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
+      <c r="K117" s="64"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="64"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -7326,20 +8610,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="63" t="s">
+      <c r="B120" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="63"/>
-      <c r="D120" s="63"/>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
-      <c r="G120" s="63"/>
-      <c r="H120" s="63"/>
-      <c r="I120" s="63"/>
-      <c r="J120" s="63"/>
-      <c r="K120" s="63"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="63"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
+      <c r="K120" s="64"/>
+      <c r="L120" s="64"/>
+      <c r="M120" s="64"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -7439,20 +8723,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="63" t="s">
+      <c r="B124" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="63"/>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63"/>
-      <c r="F124" s="63"/>
-      <c r="G124" s="63"/>
-      <c r="H124" s="63"/>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-      <c r="K124" s="63"/>
-      <c r="L124" s="63"/>
-      <c r="M124" s="63"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64"/>
+      <c r="J124" s="64"/>
+      <c r="K124" s="64"/>
+      <c r="L124" s="64"/>
+      <c r="M124" s="64"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -7483,20 +8767,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="63"/>
-      <c r="D126" s="63"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
-      <c r="L126" s="63"/>
-      <c r="M126" s="63"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="64"/>
+      <c r="J126" s="64"/>
+      <c r="K126" s="64"/>
+      <c r="L126" s="64"/>
+      <c r="M126" s="64"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -7556,20 +8840,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="63" t="s">
+      <c r="B129" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
-      <c r="E129" s="63"/>
-      <c r="F129" s="63"/>
-      <c r="G129" s="63"/>
-      <c r="H129" s="63"/>
-      <c r="I129" s="63"/>
-      <c r="J129" s="63"/>
-      <c r="K129" s="63"/>
-      <c r="L129" s="63"/>
-      <c r="M129" s="63"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="64"/>
+      <c r="J129" s="64"/>
+      <c r="K129" s="64"/>
+      <c r="L129" s="64"/>
+      <c r="M129" s="64"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -7600,20 +8884,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="63" t="s">
+      <c r="B131" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
-      <c r="F131" s="63"/>
-      <c r="G131" s="63"/>
-      <c r="H131" s="63"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="63"/>
-      <c r="K131" s="63"/>
-      <c r="L131" s="63"/>
-      <c r="M131" s="63"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="64"/>
+      <c r="K131" s="64"/>
+      <c r="L131" s="64"/>
+      <c r="M131" s="64"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -7775,20 +9059,20 @@
       <c r="M137" s="35"/>
     </row>
     <row r="139" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="64" t="s">
+      <c r="B139" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="64"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="64"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65"/>
+      <c r="M139" s="65"/>
     </row>
     <row r="140" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
@@ -7827,20 +9111,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="63" t="s">
+      <c r="B141" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="63"/>
-      <c r="D141" s="63"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="63"/>
-      <c r="J141" s="63"/>
-      <c r="K141" s="63"/>
-      <c r="L141" s="63"/>
-      <c r="M141" s="63"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="64"/>
+      <c r="F141" s="64"/>
+      <c r="G141" s="64"/>
+      <c r="H141" s="64"/>
+      <c r="I141" s="64"/>
+      <c r="J141" s="64"/>
+      <c r="K141" s="64"/>
+      <c r="L141" s="64"/>
+      <c r="M141" s="64"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -7872,20 +9156,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="63" t="s">
+      <c r="B143" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
-      <c r="H143" s="63"/>
-      <c r="I143" s="63"/>
-      <c r="J143" s="63"/>
-      <c r="K143" s="63"/>
-      <c r="L143" s="63"/>
-      <c r="M143" s="63"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="64"/>
+      <c r="J143" s="64"/>
+      <c r="K143" s="64"/>
+      <c r="L143" s="64"/>
+      <c r="M143" s="64"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -7944,20 +9228,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="63" t="s">
+      <c r="B146" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="63"/>
-      <c r="H146" s="63"/>
-      <c r="I146" s="63"/>
-      <c r="J146" s="63"/>
-      <c r="K146" s="63"/>
-      <c r="L146" s="63"/>
-      <c r="M146" s="63"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="64"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="64"/>
+      <c r="K146" s="64"/>
+      <c r="L146" s="64"/>
+      <c r="M146" s="64"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -8104,20 +9388,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="63"/>
-      <c r="J152" s="63"/>
-      <c r="K152" s="63"/>
-      <c r="L152" s="63"/>
-      <c r="M152" s="63"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="64"/>
+      <c r="F152" s="64"/>
+      <c r="G152" s="64"/>
+      <c r="H152" s="64"/>
+      <c r="I152" s="64"/>
+      <c r="J152" s="64"/>
+      <c r="K152" s="64"/>
+      <c r="L152" s="64"/>
+      <c r="M152" s="64"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -8148,20 +9432,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="63" t="s">
+      <c r="B154" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="63"/>
-      <c r="H154" s="63"/>
-      <c r="I154" s="63"/>
-      <c r="J154" s="63"/>
-      <c r="K154" s="63"/>
-      <c r="L154" s="63"/>
-      <c r="M154" s="63"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="64"/>
+      <c r="F154" s="64"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="64"/>
+      <c r="I154" s="64"/>
+      <c r="J154" s="64"/>
+      <c r="K154" s="64"/>
+      <c r="L154" s="64"/>
+      <c r="M154" s="64"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -8221,20 +9505,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="63" t="s">
+      <c r="B157" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="63"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
-      <c r="H157" s="63"/>
-      <c r="I157" s="63"/>
-      <c r="J157" s="63"/>
-      <c r="K157" s="63"/>
-      <c r="L157" s="63"/>
-      <c r="M157" s="63"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="64"/>
+      <c r="H157" s="64"/>
+      <c r="I157" s="64"/>
+      <c r="J157" s="64"/>
+      <c r="K157" s="64"/>
+      <c r="L157" s="64"/>
+      <c r="M157" s="64"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -8265,20 +9549,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="63" t="s">
+      <c r="B159" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="63"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="63"/>
-      <c r="F159" s="63"/>
-      <c r="G159" s="63"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="63"/>
-      <c r="J159" s="63"/>
-      <c r="K159" s="63"/>
-      <c r="L159" s="63"/>
-      <c r="M159" s="63"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="64"/>
+      <c r="J159" s="64"/>
+      <c r="K159" s="64"/>
+      <c r="L159" s="64"/>
+      <c r="M159" s="64"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -8357,20 +9641,20 @@
       <c r="M162" s="18"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="64"/>
-      <c r="F165" s="64"/>
-      <c r="G165" s="64"/>
-      <c r="H165" s="64"/>
-      <c r="I165" s="64"/>
-      <c r="J165" s="64"/>
-      <c r="K165" s="64"/>
-      <c r="L165" s="64"/>
-      <c r="M165" s="64"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="65"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="65"/>
+      <c r="K165" s="65"/>
+      <c r="L165" s="65"/>
+      <c r="M165" s="65"/>
     </row>
     <row r="166" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
@@ -8409,20 +9693,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="63" t="s">
+      <c r="B167" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="63"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="63"/>
-      <c r="F167" s="63"/>
-      <c r="G167" s="63"/>
-      <c r="H167" s="63"/>
-      <c r="I167" s="63"/>
-      <c r="J167" s="63"/>
-      <c r="K167" s="63"/>
-      <c r="L167" s="63"/>
-      <c r="M167" s="63"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="64"/>
+      <c r="L167" s="64"/>
+      <c r="M167" s="64"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -8454,20 +9738,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="63"/>
-      <c r="D169" s="63"/>
-      <c r="E169" s="63"/>
-      <c r="F169" s="63"/>
-      <c r="G169" s="63"/>
-      <c r="H169" s="63"/>
-      <c r="I169" s="63"/>
-      <c r="J169" s="63"/>
-      <c r="K169" s="63"/>
-      <c r="L169" s="63"/>
-      <c r="M169" s="63"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="64"/>
+      <c r="J169" s="64"/>
+      <c r="K169" s="64"/>
+      <c r="L169" s="64"/>
+      <c r="M169" s="64"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -8526,20 +9810,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="63" t="s">
+      <c r="B172" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="63"/>
-      <c r="G172" s="63"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="63"/>
-      <c r="J172" s="63"/>
-      <c r="K172" s="63"/>
-      <c r="L172" s="63"/>
-      <c r="M172" s="63"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="64"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="64"/>
+      <c r="J172" s="64"/>
+      <c r="K172" s="64"/>
+      <c r="L172" s="64"/>
+      <c r="M172" s="64"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -8599,20 +9883,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="63" t="s">
+      <c r="B175" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="63"/>
-      <c r="F175" s="63"/>
-      <c r="G175" s="63"/>
-      <c r="H175" s="63"/>
-      <c r="I175" s="63"/>
-      <c r="J175" s="63"/>
-      <c r="K175" s="63"/>
-      <c r="L175" s="63"/>
-      <c r="M175" s="63"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="64"/>
+      <c r="L175" s="64"/>
+      <c r="M175" s="64"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -8643,20 +9927,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="63" t="s">
+      <c r="B177" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="63"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="63"/>
-      <c r="F177" s="63"/>
-      <c r="G177" s="63"/>
-      <c r="H177" s="63"/>
-      <c r="I177" s="63"/>
-      <c r="J177" s="63"/>
-      <c r="K177" s="63"/>
-      <c r="L177" s="63"/>
-      <c r="M177" s="63"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="64"/>
+      <c r="I177" s="64"/>
+      <c r="J177" s="64"/>
+      <c r="K177" s="64"/>
+      <c r="L177" s="64"/>
+      <c r="M177" s="64"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -8716,20 +10000,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="63" t="s">
+      <c r="B180" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
+      <c r="F180" s="64"/>
+      <c r="G180" s="64"/>
+      <c r="H180" s="64"/>
+      <c r="I180" s="64"/>
+      <c r="J180" s="64"/>
+      <c r="K180" s="64"/>
+      <c r="L180" s="64"/>
+      <c r="M180" s="64"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -8760,20 +10044,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="63" t="s">
+      <c r="B182" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="63"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="63"/>
-      <c r="H182" s="63"/>
-      <c r="I182" s="63"/>
-      <c r="J182" s="63"/>
-      <c r="K182" s="63"/>
-      <c r="L182" s="63"/>
-      <c r="M182" s="63"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="64"/>
+      <c r="F182" s="64"/>
+      <c r="G182" s="64"/>
+      <c r="H182" s="64"/>
+      <c r="I182" s="64"/>
+      <c r="J182" s="64"/>
+      <c r="K182" s="64"/>
+      <c r="L182" s="64"/>
+      <c r="M182" s="64"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -8852,20 +10136,20 @@
       <c r="M185" s="18"/>
     </row>
     <row r="187" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B187" s="64" t="s">
+      <c r="B187" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-      <c r="H187" s="64"/>
-      <c r="I187" s="64"/>
-      <c r="J187" s="64"/>
-      <c r="K187" s="64"/>
-      <c r="L187" s="64"/>
-      <c r="M187" s="64"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+      <c r="F187" s="65"/>
+      <c r="G187" s="65"/>
+      <c r="H187" s="65"/>
+      <c r="I187" s="65"/>
+      <c r="J187" s="65"/>
+      <c r="K187" s="65"/>
+      <c r="L187" s="65"/>
+      <c r="M187" s="65"/>
     </row>
     <row r="188" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
@@ -8904,20 +10188,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="63" t="s">
+      <c r="B189" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="63"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="63"/>
-      <c r="F189" s="63"/>
-      <c r="G189" s="63"/>
-      <c r="H189" s="63"/>
-      <c r="I189" s="63"/>
-      <c r="J189" s="63"/>
-      <c r="K189" s="63"/>
-      <c r="L189" s="63"/>
-      <c r="M189" s="63"/>
+      <c r="C189" s="64"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="64"/>
+      <c r="F189" s="64"/>
+      <c r="G189" s="64"/>
+      <c r="H189" s="64"/>
+      <c r="I189" s="64"/>
+      <c r="J189" s="64"/>
+      <c r="K189" s="64"/>
+      <c r="L189" s="64"/>
+      <c r="M189" s="64"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -8949,20 +10233,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="63" t="s">
+      <c r="B191" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="63"/>
-      <c r="D191" s="63"/>
-      <c r="E191" s="63"/>
-      <c r="F191" s="63"/>
-      <c r="G191" s="63"/>
-      <c r="H191" s="63"/>
-      <c r="I191" s="63"/>
-      <c r="J191" s="63"/>
-      <c r="K191" s="63"/>
-      <c r="L191" s="63"/>
-      <c r="M191" s="63"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="64"/>
+      <c r="G191" s="64"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
+      <c r="J191" s="64"/>
+      <c r="K191" s="64"/>
+      <c r="L191" s="64"/>
+      <c r="M191" s="64"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -9021,20 +10305,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="63" t="s">
+      <c r="B194" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="63"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="63"/>
-      <c r="F194" s="63"/>
-      <c r="G194" s="63"/>
-      <c r="H194" s="63"/>
-      <c r="I194" s="63"/>
-      <c r="J194" s="63"/>
-      <c r="K194" s="63"/>
-      <c r="L194" s="63"/>
-      <c r="M194" s="63"/>
+      <c r="C194" s="64"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="64"/>
+      <c r="F194" s="64"/>
+      <c r="G194" s="64"/>
+      <c r="H194" s="64"/>
+      <c r="I194" s="64"/>
+      <c r="J194" s="64"/>
+      <c r="K194" s="64"/>
+      <c r="L194" s="64"/>
+      <c r="M194" s="64"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -9093,20 +10377,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="63" t="s">
+      <c r="B197" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="63"/>
-      <c r="D197" s="63"/>
-      <c r="E197" s="63"/>
-      <c r="F197" s="63"/>
-      <c r="G197" s="63"/>
-      <c r="H197" s="63"/>
-      <c r="I197" s="63"/>
-      <c r="J197" s="63"/>
-      <c r="K197" s="63"/>
-      <c r="L197" s="63"/>
-      <c r="M197" s="63"/>
+      <c r="C197" s="64"/>
+      <c r="D197" s="64"/>
+      <c r="E197" s="64"/>
+      <c r="F197" s="64"/>
+      <c r="G197" s="64"/>
+      <c r="H197" s="64"/>
+      <c r="I197" s="64"/>
+      <c r="J197" s="64"/>
+      <c r="K197" s="64"/>
+      <c r="L197" s="64"/>
+      <c r="M197" s="64"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -9137,20 +10421,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="63" t="s">
+      <c r="B199" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="63"/>
-      <c r="D199" s="63"/>
-      <c r="E199" s="63"/>
-      <c r="F199" s="63"/>
-      <c r="G199" s="63"/>
-      <c r="H199" s="63"/>
-      <c r="I199" s="63"/>
-      <c r="J199" s="63"/>
-      <c r="K199" s="63"/>
-      <c r="L199" s="63"/>
-      <c r="M199" s="63"/>
+      <c r="C199" s="64"/>
+      <c r="D199" s="64"/>
+      <c r="E199" s="64"/>
+      <c r="F199" s="64"/>
+      <c r="G199" s="64"/>
+      <c r="H199" s="64"/>
+      <c r="I199" s="64"/>
+      <c r="J199" s="64"/>
+      <c r="K199" s="64"/>
+      <c r="L199" s="64"/>
+      <c r="M199" s="64"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -9265,20 +10549,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="63" t="s">
+      <c r="B204" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
-      <c r="G204" s="63"/>
-      <c r="H204" s="63"/>
-      <c r="I204" s="63"/>
-      <c r="J204" s="63"/>
-      <c r="K204" s="63"/>
-      <c r="L204" s="63"/>
-      <c r="M204" s="63"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="64"/>
+      <c r="F204" s="64"/>
+      <c r="G204" s="64"/>
+      <c r="H204" s="64"/>
+      <c r="I204" s="64"/>
+      <c r="J204" s="64"/>
+      <c r="K204" s="64"/>
+      <c r="L204" s="64"/>
+      <c r="M204" s="64"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -9309,20 +10593,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="63" t="s">
+      <c r="B206" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="63"/>
-      <c r="D206" s="63"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="63"/>
-      <c r="I206" s="63"/>
-      <c r="J206" s="63"/>
-      <c r="K206" s="63"/>
-      <c r="L206" s="63"/>
-      <c r="M206" s="63"/>
+      <c r="C206" s="64"/>
+      <c r="D206" s="64"/>
+      <c r="E206" s="64"/>
+      <c r="F206" s="64"/>
+      <c r="G206" s="64"/>
+      <c r="H206" s="64"/>
+      <c r="I206" s="64"/>
+      <c r="J206" s="64"/>
+      <c r="K206" s="64"/>
+      <c r="L206" s="64"/>
+      <c r="M206" s="64"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -9429,20 +10713,20 @@
       <c r="M210" s="18"/>
     </row>
     <row r="212" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B212" s="64" t="s">
+      <c r="B212" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="64"/>
-      <c r="J212" s="64"/>
-      <c r="K212" s="64"/>
-      <c r="L212" s="64"/>
-      <c r="M212" s="64"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
+      <c r="L212" s="65"/>
+      <c r="M212" s="65"/>
     </row>
     <row r="213" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -9481,20 +10765,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="63" t="s">
+      <c r="B214" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="63"/>
-      <c r="D214" s="63"/>
-      <c r="E214" s="63"/>
-      <c r="F214" s="63"/>
-      <c r="G214" s="63"/>
-      <c r="H214" s="63"/>
-      <c r="I214" s="63"/>
-      <c r="J214" s="63"/>
-      <c r="K214" s="63"/>
-      <c r="L214" s="63"/>
-      <c r="M214" s="63"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="64"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="64"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="64"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="64"/>
+      <c r="K214" s="64"/>
+      <c r="L214" s="64"/>
+      <c r="M214" s="64"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -9526,20 +10810,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="63" t="s">
+      <c r="B216" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="63"/>
-      <c r="D216" s="63"/>
-      <c r="E216" s="63"/>
-      <c r="F216" s="63"/>
-      <c r="G216" s="63"/>
-      <c r="H216" s="63"/>
-      <c r="I216" s="63"/>
-      <c r="J216" s="63"/>
-      <c r="K216" s="63"/>
-      <c r="L216" s="63"/>
-      <c r="M216" s="63"/>
+      <c r="C216" s="64"/>
+      <c r="D216" s="64"/>
+      <c r="E216" s="64"/>
+      <c r="F216" s="64"/>
+      <c r="G216" s="64"/>
+      <c r="H216" s="64"/>
+      <c r="I216" s="64"/>
+      <c r="J216" s="64"/>
+      <c r="K216" s="64"/>
+      <c r="L216" s="64"/>
+      <c r="M216" s="64"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -9598,20 +10882,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="63" t="s">
+      <c r="B219" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="63"/>
-      <c r="D219" s="63"/>
-      <c r="E219" s="63"/>
-      <c r="F219" s="63"/>
-      <c r="G219" s="63"/>
-      <c r="H219" s="63"/>
-      <c r="I219" s="63"/>
-      <c r="J219" s="63"/>
-      <c r="K219" s="63"/>
-      <c r="L219" s="63"/>
-      <c r="M219" s="63"/>
+      <c r="C219" s="64"/>
+      <c r="D219" s="64"/>
+      <c r="E219" s="64"/>
+      <c r="F219" s="64"/>
+      <c r="G219" s="64"/>
+      <c r="H219" s="64"/>
+      <c r="I219" s="64"/>
+      <c r="J219" s="64"/>
+      <c r="K219" s="64"/>
+      <c r="L219" s="64"/>
+      <c r="M219" s="64"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -9673,20 +10957,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="63" t="s">
+      <c r="B222" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="63"/>
-      <c r="D222" s="63"/>
-      <c r="E222" s="63"/>
-      <c r="F222" s="63"/>
-      <c r="G222" s="63"/>
-      <c r="H222" s="63"/>
-      <c r="I222" s="63"/>
-      <c r="J222" s="63"/>
-      <c r="K222" s="63"/>
-      <c r="L222" s="63"/>
-      <c r="M222" s="63"/>
+      <c r="C222" s="64"/>
+      <c r="D222" s="64"/>
+      <c r="E222" s="64"/>
+      <c r="F222" s="64"/>
+      <c r="G222" s="64"/>
+      <c r="H222" s="64"/>
+      <c r="I222" s="64"/>
+      <c r="J222" s="64"/>
+      <c r="K222" s="64"/>
+      <c r="L222" s="64"/>
+      <c r="M222" s="64"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -9717,20 +11001,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="63" t="s">
+      <c r="B224" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="63"/>
-      <c r="D224" s="63"/>
-      <c r="E224" s="63"/>
-      <c r="F224" s="63"/>
-      <c r="G224" s="63"/>
-      <c r="H224" s="63"/>
-      <c r="I224" s="63"/>
-      <c r="J224" s="63"/>
-      <c r="K224" s="63"/>
-      <c r="L224" s="63"/>
-      <c r="M224" s="63"/>
+      <c r="C224" s="64"/>
+      <c r="D224" s="64"/>
+      <c r="E224" s="64"/>
+      <c r="F224" s="64"/>
+      <c r="G224" s="64"/>
+      <c r="H224" s="64"/>
+      <c r="I224" s="64"/>
+      <c r="J224" s="64"/>
+      <c r="K224" s="64"/>
+      <c r="L224" s="64"/>
+      <c r="M224" s="64"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -9790,20 +11074,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="63" t="s">
+      <c r="B227" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="63"/>
-      <c r="D227" s="63"/>
-      <c r="E227" s="63"/>
-      <c r="F227" s="63"/>
-      <c r="G227" s="63"/>
-      <c r="H227" s="63"/>
-      <c r="I227" s="63"/>
-      <c r="J227" s="63"/>
-      <c r="K227" s="63"/>
-      <c r="L227" s="63"/>
-      <c r="M227" s="63"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="64"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="64"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="64"/>
+      <c r="K227" s="64"/>
+      <c r="L227" s="64"/>
+      <c r="M227" s="64"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -9834,20 +11118,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="63" t="s">
+      <c r="B229" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="63"/>
-      <c r="D229" s="63"/>
-      <c r="E229" s="63"/>
-      <c r="F229" s="63"/>
-      <c r="G229" s="63"/>
-      <c r="H229" s="63"/>
-      <c r="I229" s="63"/>
-      <c r="J229" s="63"/>
-      <c r="K229" s="63"/>
-      <c r="L229" s="63"/>
-      <c r="M229" s="63"/>
+      <c r="C229" s="64"/>
+      <c r="D229" s="64"/>
+      <c r="E229" s="64"/>
+      <c r="F229" s="64"/>
+      <c r="G229" s="64"/>
+      <c r="H229" s="64"/>
+      <c r="I229" s="64"/>
+      <c r="J229" s="64"/>
+      <c r="K229" s="64"/>
+      <c r="L229" s="64"/>
+      <c r="M229" s="64"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -9926,20 +11210,20 @@
       <c r="M232" s="18"/>
     </row>
     <row r="234" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B234" s="64" t="s">
+      <c r="B234" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
-      <c r="H234" s="64"/>
-      <c r="I234" s="64"/>
-      <c r="J234" s="64"/>
-      <c r="K234" s="64"/>
-      <c r="L234" s="64"/>
-      <c r="M234" s="64"/>
+      <c r="C234" s="65"/>
+      <c r="D234" s="65"/>
+      <c r="E234" s="65"/>
+      <c r="F234" s="65"/>
+      <c r="G234" s="65"/>
+      <c r="H234" s="65"/>
+      <c r="I234" s="65"/>
+      <c r="J234" s="65"/>
+      <c r="K234" s="65"/>
+      <c r="L234" s="65"/>
+      <c r="M234" s="65"/>
     </row>
     <row r="235" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -9978,36 +11262,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="63" t="s">
+      <c r="B236" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="63"/>
-      <c r="D236" s="63"/>
-      <c r="E236" s="63"/>
-      <c r="F236" s="63"/>
-      <c r="G236" s="63"/>
-      <c r="H236" s="63"/>
-      <c r="I236" s="63"/>
-      <c r="J236" s="63"/>
-      <c r="K236" s="63"/>
-      <c r="L236" s="63"/>
-      <c r="M236" s="63"/>
+      <c r="C236" s="64"/>
+      <c r="D236" s="64"/>
+      <c r="E236" s="64"/>
+      <c r="F236" s="64"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="64"/>
+      <c r="I236" s="64"/>
+      <c r="J236" s="64"/>
+      <c r="K236" s="64"/>
+      <c r="L236" s="64"/>
+      <c r="M236" s="64"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="63" t="s">
+      <c r="B237" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="63"/>
-      <c r="D237" s="63"/>
-      <c r="E237" s="63"/>
-      <c r="F237" s="63"/>
-      <c r="G237" s="63"/>
-      <c r="H237" s="63"/>
-      <c r="I237" s="63"/>
-      <c r="J237" s="63"/>
-      <c r="K237" s="63"/>
-      <c r="L237" s="63"/>
-      <c r="M237" s="63"/>
+      <c r="C237" s="64"/>
+      <c r="D237" s="64"/>
+      <c r="E237" s="64"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="64"/>
+      <c r="H237" s="64"/>
+      <c r="I237" s="64"/>
+      <c r="J237" s="64"/>
+      <c r="K237" s="64"/>
+      <c r="L237" s="64"/>
+      <c r="M237" s="64"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -10066,36 +11350,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="63" t="s">
+      <c r="B240" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="63"/>
-      <c r="D240" s="63"/>
-      <c r="E240" s="63"/>
-      <c r="F240" s="63"/>
-      <c r="G240" s="63"/>
-      <c r="H240" s="63"/>
-      <c r="I240" s="63"/>
-      <c r="J240" s="63"/>
-      <c r="K240" s="63"/>
-      <c r="L240" s="63"/>
-      <c r="M240" s="63"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="64"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="64"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="64"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="64"/>
+      <c r="K240" s="64"/>
+      <c r="L240" s="64"/>
+      <c r="M240" s="64"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="63" t="s">
+      <c r="B241" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="63"/>
-      <c r="D241" s="63"/>
-      <c r="E241" s="63"/>
-      <c r="F241" s="63"/>
-      <c r="G241" s="63"/>
-      <c r="H241" s="63"/>
-      <c r="I241" s="63"/>
-      <c r="J241" s="63"/>
-      <c r="K241" s="63"/>
-      <c r="L241" s="63"/>
-      <c r="M241" s="63"/>
+      <c r="C241" s="64"/>
+      <c r="D241" s="64"/>
+      <c r="E241" s="64"/>
+      <c r="F241" s="64"/>
+      <c r="G241" s="64"/>
+      <c r="H241" s="64"/>
+      <c r="I241" s="64"/>
+      <c r="J241" s="64"/>
+      <c r="K241" s="64"/>
+      <c r="L241" s="64"/>
+      <c r="M241" s="64"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -10126,20 +11410,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="63" t="s">
+      <c r="B243" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="63"/>
-      <c r="D243" s="63"/>
-      <c r="E243" s="63"/>
-      <c r="F243" s="63"/>
-      <c r="G243" s="63"/>
-      <c r="H243" s="63"/>
-      <c r="I243" s="63"/>
-      <c r="J243" s="63"/>
-      <c r="K243" s="63"/>
-      <c r="L243" s="63"/>
-      <c r="M243" s="63"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="64"/>
+      <c r="F243" s="64"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="64"/>
+      <c r="I243" s="64"/>
+      <c r="J243" s="64"/>
+      <c r="K243" s="64"/>
+      <c r="L243" s="64"/>
+      <c r="M243" s="64"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -10170,20 +11454,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="63" t="s">
+      <c r="B245" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="63"/>
-      <c r="D245" s="63"/>
-      <c r="E245" s="63"/>
-      <c r="F245" s="63"/>
-      <c r="G245" s="63"/>
-      <c r="H245" s="63"/>
-      <c r="I245" s="63"/>
-      <c r="J245" s="63"/>
-      <c r="K245" s="63"/>
-      <c r="L245" s="63"/>
-      <c r="M245" s="63"/>
+      <c r="C245" s="64"/>
+      <c r="D245" s="64"/>
+      <c r="E245" s="64"/>
+      <c r="F245" s="64"/>
+      <c r="G245" s="64"/>
+      <c r="H245" s="64"/>
+      <c r="I245" s="64"/>
+      <c r="J245" s="64"/>
+      <c r="K245" s="64"/>
+      <c r="L245" s="64"/>
+      <c r="M245" s="64"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -10214,20 +11498,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="63" t="s">
+      <c r="B247" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="63"/>
-      <c r="D247" s="63"/>
-      <c r="E247" s="63"/>
-      <c r="F247" s="63"/>
-      <c r="G247" s="63"/>
-      <c r="H247" s="63"/>
-      <c r="I247" s="63"/>
-      <c r="J247" s="63"/>
-      <c r="K247" s="63"/>
-      <c r="L247" s="63"/>
-      <c r="M247" s="63"/>
+      <c r="C247" s="64"/>
+      <c r="D247" s="64"/>
+      <c r="E247" s="64"/>
+      <c r="F247" s="64"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
+      <c r="I247" s="64"/>
+      <c r="J247" s="64"/>
+      <c r="K247" s="64"/>
+      <c r="L247" s="64"/>
+      <c r="M247" s="64"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -10343,20 +11627,20 @@
       <c r="M251" s="18"/>
     </row>
     <row r="253" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B253" s="64" t="s">
+      <c r="B253" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C253" s="64"/>
-      <c r="D253" s="64"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="64"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="64"/>
-      <c r="I253" s="64"/>
-      <c r="J253" s="64"/>
-      <c r="K253" s="64"/>
-      <c r="L253" s="64"/>
-      <c r="M253" s="64"/>
+      <c r="C253" s="65"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="65"/>
+      <c r="G253" s="65"/>
+      <c r="H253" s="65"/>
+      <c r="I253" s="65"/>
+      <c r="J253" s="65"/>
+      <c r="K253" s="65"/>
+      <c r="L253" s="65"/>
+      <c r="M253" s="65"/>
     </row>
     <row r="254" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
@@ -10395,36 +11679,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="63" t="s">
+      <c r="B255" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="63"/>
-      <c r="D255" s="63"/>
-      <c r="E255" s="63"/>
-      <c r="F255" s="63"/>
-      <c r="G255" s="63"/>
-      <c r="H255" s="63"/>
-      <c r="I255" s="63"/>
-      <c r="J255" s="63"/>
-      <c r="K255" s="63"/>
-      <c r="L255" s="63"/>
-      <c r="M255" s="63"/>
+      <c r="C255" s="64"/>
+      <c r="D255" s="64"/>
+      <c r="E255" s="64"/>
+      <c r="F255" s="64"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
+      <c r="I255" s="64"/>
+      <c r="J255" s="64"/>
+      <c r="K255" s="64"/>
+      <c r="L255" s="64"/>
+      <c r="M255" s="64"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="63" t="s">
+      <c r="B256" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="63"/>
-      <c r="D256" s="63"/>
-      <c r="E256" s="63"/>
-      <c r="F256" s="63"/>
-      <c r="G256" s="63"/>
-      <c r="H256" s="63"/>
-      <c r="I256" s="63"/>
-      <c r="J256" s="63"/>
-      <c r="K256" s="63"/>
-      <c r="L256" s="63"/>
-      <c r="M256" s="63"/>
+      <c r="C256" s="64"/>
+      <c r="D256" s="64"/>
+      <c r="E256" s="64"/>
+      <c r="F256" s="64"/>
+      <c r="G256" s="64"/>
+      <c r="H256" s="64"/>
+      <c r="I256" s="64"/>
+      <c r="J256" s="64"/>
+      <c r="K256" s="64"/>
+      <c r="L256" s="64"/>
+      <c r="M256" s="64"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -10483,20 +11767,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="63" t="s">
+      <c r="B259" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="63"/>
-      <c r="D259" s="63"/>
-      <c r="E259" s="63"/>
-      <c r="F259" s="63"/>
-      <c r="G259" s="63"/>
-      <c r="H259" s="63"/>
-      <c r="I259" s="63"/>
-      <c r="J259" s="63"/>
-      <c r="K259" s="63"/>
-      <c r="L259" s="63"/>
-      <c r="M259" s="63"/>
+      <c r="C259" s="64"/>
+      <c r="D259" s="64"/>
+      <c r="E259" s="64"/>
+      <c r="F259" s="64"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="64"/>
+      <c r="I259" s="64"/>
+      <c r="J259" s="64"/>
+      <c r="K259" s="64"/>
+      <c r="L259" s="64"/>
+      <c r="M259" s="64"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -10557,20 +11841,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="63" t="s">
+      <c r="B262" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="63"/>
-      <c r="D262" s="63"/>
-      <c r="E262" s="63"/>
-      <c r="F262" s="63"/>
-      <c r="G262" s="63"/>
-      <c r="H262" s="63"/>
-      <c r="I262" s="63"/>
-      <c r="J262" s="63"/>
-      <c r="K262" s="63"/>
-      <c r="L262" s="63"/>
-      <c r="M262" s="63"/>
+      <c r="C262" s="64"/>
+      <c r="D262" s="64"/>
+      <c r="E262" s="64"/>
+      <c r="F262" s="64"/>
+      <c r="G262" s="64"/>
+      <c r="H262" s="64"/>
+      <c r="I262" s="64"/>
+      <c r="J262" s="64"/>
+      <c r="K262" s="64"/>
+      <c r="L262" s="64"/>
+      <c r="M262" s="64"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -10601,20 +11885,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="63" t="s">
+      <c r="B264" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="63"/>
-      <c r="D264" s="63"/>
-      <c r="E264" s="63"/>
-      <c r="F264" s="63"/>
-      <c r="G264" s="63"/>
-      <c r="H264" s="63"/>
-      <c r="I264" s="63"/>
-      <c r="J264" s="63"/>
-      <c r="K264" s="63"/>
-      <c r="L264" s="63"/>
-      <c r="M264" s="63"/>
+      <c r="C264" s="64"/>
+      <c r="D264" s="64"/>
+      <c r="E264" s="64"/>
+      <c r="F264" s="64"/>
+      <c r="G264" s="64"/>
+      <c r="H264" s="64"/>
+      <c r="I264" s="64"/>
+      <c r="J264" s="64"/>
+      <c r="K264" s="64"/>
+      <c r="L264" s="64"/>
+      <c r="M264" s="64"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -10673,20 +11957,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="63" t="s">
+      <c r="B267" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="63"/>
-      <c r="D267" s="63"/>
-      <c r="E267" s="63"/>
-      <c r="F267" s="63"/>
-      <c r="G267" s="63"/>
-      <c r="H267" s="63"/>
-      <c r="I267" s="63"/>
-      <c r="J267" s="63"/>
-      <c r="K267" s="63"/>
-      <c r="L267" s="63"/>
-      <c r="M267" s="63"/>
+      <c r="C267" s="64"/>
+      <c r="D267" s="64"/>
+      <c r="E267" s="64"/>
+      <c r="F267" s="64"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="64"/>
+      <c r="I267" s="64"/>
+      <c r="J267" s="64"/>
+      <c r="K267" s="64"/>
+      <c r="L267" s="64"/>
+      <c r="M267" s="64"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -10717,20 +12001,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="63" t="s">
+      <c r="B269" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="63"/>
-      <c r="D269" s="63"/>
-      <c r="E269" s="63"/>
-      <c r="F269" s="63"/>
-      <c r="G269" s="63"/>
-      <c r="H269" s="63"/>
-      <c r="I269" s="63"/>
-      <c r="J269" s="63"/>
-      <c r="K269" s="63"/>
-      <c r="L269" s="63"/>
-      <c r="M269" s="63"/>
+      <c r="C269" s="64"/>
+      <c r="D269" s="64"/>
+      <c r="E269" s="64"/>
+      <c r="F269" s="64"/>
+      <c r="G269" s="64"/>
+      <c r="H269" s="64"/>
+      <c r="I269" s="64"/>
+      <c r="J269" s="64"/>
+      <c r="K269" s="64"/>
+      <c r="L269" s="64"/>
+      <c r="M269" s="64"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -10813,20 +12097,20 @@
       <c r="M272" s="35"/>
     </row>
     <row r="274" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B274" s="64" t="s">
+      <c r="B274" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C274" s="64"/>
-      <c r="D274" s="64"/>
-      <c r="E274" s="64"/>
-      <c r="F274" s="64"/>
-      <c r="G274" s="64"/>
-      <c r="H274" s="64"/>
-      <c r="I274" s="64"/>
-      <c r="J274" s="64"/>
-      <c r="K274" s="64"/>
-      <c r="L274" s="64"/>
-      <c r="M274" s="64"/>
+      <c r="C274" s="65"/>
+      <c r="D274" s="65"/>
+      <c r="E274" s="65"/>
+      <c r="F274" s="65"/>
+      <c r="G274" s="65"/>
+      <c r="H274" s="65"/>
+      <c r="I274" s="65"/>
+      <c r="J274" s="65"/>
+      <c r="K274" s="65"/>
+      <c r="L274" s="65"/>
+      <c r="M274" s="65"/>
     </row>
     <row r="275" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
@@ -10865,20 +12149,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="63" t="s">
+      <c r="B276" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="63"/>
-      <c r="D276" s="63"/>
-      <c r="E276" s="63"/>
-      <c r="F276" s="63"/>
-      <c r="G276" s="63"/>
-      <c r="H276" s="63"/>
-      <c r="I276" s="63"/>
-      <c r="J276" s="63"/>
-      <c r="K276" s="63"/>
-      <c r="L276" s="63"/>
-      <c r="M276" s="63"/>
+      <c r="C276" s="64"/>
+      <c r="D276" s="64"/>
+      <c r="E276" s="64"/>
+      <c r="F276" s="64"/>
+      <c r="G276" s="64"/>
+      <c r="H276" s="64"/>
+      <c r="I276" s="64"/>
+      <c r="J276" s="64"/>
+      <c r="K276" s="64"/>
+      <c r="L276" s="64"/>
+      <c r="M276" s="64"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -10909,20 +12193,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="63" t="s">
+      <c r="B278" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="63"/>
-      <c r="D278" s="63"/>
-      <c r="E278" s="63"/>
-      <c r="F278" s="63"/>
-      <c r="G278" s="63"/>
-      <c r="H278" s="63"/>
-      <c r="I278" s="63"/>
-      <c r="J278" s="63"/>
-      <c r="K278" s="63"/>
-      <c r="L278" s="63"/>
-      <c r="M278" s="63"/>
+      <c r="C278" s="64"/>
+      <c r="D278" s="64"/>
+      <c r="E278" s="64"/>
+      <c r="F278" s="64"/>
+      <c r="G278" s="64"/>
+      <c r="H278" s="64"/>
+      <c r="I278" s="64"/>
+      <c r="J278" s="64"/>
+      <c r="K278" s="64"/>
+      <c r="L278" s="64"/>
+      <c r="M278" s="64"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -10981,20 +12265,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="63" t="s">
+      <c r="B281" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="63"/>
-      <c r="D281" s="63"/>
-      <c r="E281" s="63"/>
-      <c r="F281" s="63"/>
-      <c r="G281" s="63"/>
-      <c r="H281" s="63"/>
-      <c r="I281" s="63"/>
-      <c r="J281" s="63"/>
-      <c r="K281" s="63"/>
-      <c r="L281" s="63"/>
-      <c r="M281" s="63"/>
+      <c r="C281" s="64"/>
+      <c r="D281" s="64"/>
+      <c r="E281" s="64"/>
+      <c r="F281" s="64"/>
+      <c r="G281" s="64"/>
+      <c r="H281" s="64"/>
+      <c r="I281" s="64"/>
+      <c r="J281" s="64"/>
+      <c r="K281" s="64"/>
+      <c r="L281" s="64"/>
+      <c r="M281" s="64"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -11054,20 +12338,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="63" t="s">
+      <c r="B284" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="63"/>
-      <c r="D284" s="63"/>
-      <c r="E284" s="63"/>
-      <c r="F284" s="63"/>
-      <c r="G284" s="63"/>
-      <c r="H284" s="63"/>
-      <c r="I284" s="63"/>
-      <c r="J284" s="63"/>
-      <c r="K284" s="63"/>
-      <c r="L284" s="63"/>
-      <c r="M284" s="63"/>
+      <c r="C284" s="64"/>
+      <c r="D284" s="64"/>
+      <c r="E284" s="64"/>
+      <c r="F284" s="64"/>
+      <c r="G284" s="64"/>
+      <c r="H284" s="64"/>
+      <c r="I284" s="64"/>
+      <c r="J284" s="64"/>
+      <c r="K284" s="64"/>
+      <c r="L284" s="64"/>
+      <c r="M284" s="64"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -11126,20 +12410,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="63" t="s">
+      <c r="B287" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="63"/>
-      <c r="D287" s="63"/>
-      <c r="E287" s="63"/>
-      <c r="F287" s="63"/>
-      <c r="G287" s="63"/>
-      <c r="H287" s="63"/>
-      <c r="I287" s="63"/>
-      <c r="J287" s="63"/>
-      <c r="K287" s="63"/>
-      <c r="L287" s="63"/>
-      <c r="M287" s="63"/>
+      <c r="C287" s="64"/>
+      <c r="D287" s="64"/>
+      <c r="E287" s="64"/>
+      <c r="F287" s="64"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="64"/>
+      <c r="I287" s="64"/>
+      <c r="J287" s="64"/>
+      <c r="K287" s="64"/>
+      <c r="L287" s="64"/>
+      <c r="M287" s="64"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -11255,20 +12539,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="63" t="s">
+      <c r="B292" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="63"/>
-      <c r="D292" s="63"/>
-      <c r="E292" s="63"/>
-      <c r="F292" s="63"/>
-      <c r="G292" s="63"/>
-      <c r="H292" s="63"/>
-      <c r="I292" s="63"/>
-      <c r="J292" s="63"/>
-      <c r="K292" s="63"/>
-      <c r="L292" s="63"/>
-      <c r="M292" s="63"/>
+      <c r="C292" s="64"/>
+      <c r="D292" s="64"/>
+      <c r="E292" s="64"/>
+      <c r="F292" s="64"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="64"/>
+      <c r="I292" s="64"/>
+      <c r="J292" s="64"/>
+      <c r="K292" s="64"/>
+      <c r="L292" s="64"/>
+      <c r="M292" s="64"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -11299,20 +12583,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="63" t="s">
+      <c r="B294" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="63"/>
-      <c r="D294" s="63"/>
-      <c r="E294" s="63"/>
-      <c r="F294" s="63"/>
-      <c r="G294" s="63"/>
-      <c r="H294" s="63"/>
-      <c r="I294" s="63"/>
-      <c r="J294" s="63"/>
-      <c r="K294" s="63"/>
-      <c r="L294" s="63"/>
-      <c r="M294" s="63"/>
+      <c r="C294" s="64"/>
+      <c r="D294" s="64"/>
+      <c r="E294" s="64"/>
+      <c r="F294" s="64"/>
+      <c r="G294" s="64"/>
+      <c r="H294" s="64"/>
+      <c r="I294" s="64"/>
+      <c r="J294" s="64"/>
+      <c r="K294" s="64"/>
+      <c r="L294" s="64"/>
+      <c r="M294" s="64"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -11395,20 +12679,20 @@
       <c r="M297" s="35"/>
     </row>
     <row r="299" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B299" s="64" t="s">
+      <c r="B299" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C299" s="64"/>
-      <c r="D299" s="64"/>
-      <c r="E299" s="64"/>
-      <c r="F299" s="64"/>
-      <c r="G299" s="64"/>
-      <c r="H299" s="64"/>
-      <c r="I299" s="64"/>
-      <c r="J299" s="64"/>
-      <c r="K299" s="64"/>
-      <c r="L299" s="64"/>
-      <c r="M299" s="64"/>
+      <c r="C299" s="65"/>
+      <c r="D299" s="65"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="65"/>
+      <c r="L299" s="65"/>
+      <c r="M299" s="65"/>
     </row>
     <row r="300" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B300" s="3" t="s">
@@ -11447,68 +12731,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="63" t="s">
+      <c r="B301" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="63"/>
-      <c r="D301" s="63"/>
-      <c r="E301" s="63"/>
-      <c r="F301" s="63"/>
-      <c r="G301" s="63"/>
-      <c r="H301" s="63"/>
-      <c r="I301" s="63"/>
-      <c r="J301" s="63"/>
-      <c r="K301" s="63"/>
-      <c r="L301" s="63"/>
-      <c r="M301" s="63"/>
+      <c r="C301" s="64"/>
+      <c r="D301" s="64"/>
+      <c r="E301" s="64"/>
+      <c r="F301" s="64"/>
+      <c r="G301" s="64"/>
+      <c r="H301" s="64"/>
+      <c r="I301" s="64"/>
+      <c r="J301" s="64"/>
+      <c r="K301" s="64"/>
+      <c r="L301" s="64"/>
+      <c r="M301" s="64"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="63" t="s">
+      <c r="B302" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="63"/>
-      <c r="D302" s="63"/>
-      <c r="E302" s="63"/>
-      <c r="F302" s="63"/>
-      <c r="G302" s="63"/>
-      <c r="H302" s="63"/>
-      <c r="I302" s="63"/>
-      <c r="J302" s="63"/>
-      <c r="K302" s="63"/>
-      <c r="L302" s="63"/>
-      <c r="M302" s="63"/>
+      <c r="C302" s="64"/>
+      <c r="D302" s="64"/>
+      <c r="E302" s="64"/>
+      <c r="F302" s="64"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="64"/>
+      <c r="I302" s="64"/>
+      <c r="J302" s="64"/>
+      <c r="K302" s="64"/>
+      <c r="L302" s="64"/>
+      <c r="M302" s="64"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="63" t="s">
+      <c r="B303" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="63"/>
-      <c r="D303" s="63"/>
-      <c r="E303" s="63"/>
-      <c r="F303" s="63"/>
-      <c r="G303" s="63"/>
-      <c r="H303" s="63"/>
-      <c r="I303" s="63"/>
-      <c r="J303" s="63"/>
-      <c r="K303" s="63"/>
-      <c r="L303" s="63"/>
-      <c r="M303" s="63"/>
+      <c r="C303" s="64"/>
+      <c r="D303" s="64"/>
+      <c r="E303" s="64"/>
+      <c r="F303" s="64"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="64"/>
+      <c r="I303" s="64"/>
+      <c r="J303" s="64"/>
+      <c r="K303" s="64"/>
+      <c r="L303" s="64"/>
+      <c r="M303" s="64"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="63" t="s">
+      <c r="B304" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="63"/>
-      <c r="D304" s="63"/>
-      <c r="E304" s="63"/>
-      <c r="F304" s="63"/>
-      <c r="G304" s="63"/>
-      <c r="H304" s="63"/>
-      <c r="I304" s="63"/>
-      <c r="J304" s="63"/>
-      <c r="K304" s="63"/>
-      <c r="L304" s="63"/>
-      <c r="M304" s="63"/>
+      <c r="C304" s="64"/>
+      <c r="D304" s="64"/>
+      <c r="E304" s="64"/>
+      <c r="F304" s="64"/>
+      <c r="G304" s="64"/>
+      <c r="H304" s="64"/>
+      <c r="I304" s="64"/>
+      <c r="J304" s="64"/>
+      <c r="K304" s="64"/>
+      <c r="L304" s="64"/>
+      <c r="M304" s="64"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -11525,20 +12809,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="63" t="s">
+      <c r="B306" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="63"/>
-      <c r="D306" s="63"/>
-      <c r="E306" s="63"/>
-      <c r="F306" s="63"/>
-      <c r="G306" s="63"/>
-      <c r="H306" s="63"/>
-      <c r="I306" s="63"/>
-      <c r="J306" s="63"/>
-      <c r="K306" s="63"/>
-      <c r="L306" s="63"/>
-      <c r="M306" s="63"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+      <c r="F306" s="64"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="64"/>
+      <c r="I306" s="64"/>
+      <c r="J306" s="64"/>
+      <c r="K306" s="64"/>
+      <c r="L306" s="64"/>
+      <c r="M306" s="64"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -11569,20 +12853,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="63" t="s">
+      <c r="B309" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="63"/>
-      <c r="D309" s="63"/>
-      <c r="E309" s="63"/>
-      <c r="F309" s="63"/>
-      <c r="G309" s="63"/>
-      <c r="H309" s="63"/>
-      <c r="I309" s="63"/>
-      <c r="J309" s="63"/>
-      <c r="K309" s="63"/>
-      <c r="L309" s="63"/>
-      <c r="M309" s="63"/>
+      <c r="C309" s="64"/>
+      <c r="D309" s="64"/>
+      <c r="E309" s="64"/>
+      <c r="F309" s="64"/>
+      <c r="G309" s="64"/>
+      <c r="H309" s="64"/>
+      <c r="I309" s="64"/>
+      <c r="J309" s="64"/>
+      <c r="K309" s="64"/>
+      <c r="L309" s="64"/>
+      <c r="M309" s="64"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -11599,20 +12883,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="63" t="s">
+      <c r="B311" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="63"/>
-      <c r="D311" s="63"/>
-      <c r="E311" s="63"/>
-      <c r="F311" s="63"/>
-      <c r="G311" s="63"/>
-      <c r="H311" s="63"/>
-      <c r="I311" s="63"/>
-      <c r="J311" s="63"/>
-      <c r="K311" s="63"/>
-      <c r="L311" s="63"/>
-      <c r="M311" s="63"/>
+      <c r="C311" s="64"/>
+      <c r="D311" s="64"/>
+      <c r="E311" s="64"/>
+      <c r="F311" s="64"/>
+      <c r="G311" s="64"/>
+      <c r="H311" s="64"/>
+      <c r="I311" s="64"/>
+      <c r="J311" s="64"/>
+      <c r="K311" s="64"/>
+      <c r="L311" s="64"/>
+      <c r="M311" s="64"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -11698,20 +12982,20 @@
       <c r="M314" s="18"/>
     </row>
     <row r="316" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B316" s="64" t="s">
+      <c r="B316" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="65"/>
-      <c r="D316" s="65"/>
-      <c r="E316" s="65"/>
-      <c r="F316" s="65"/>
-      <c r="G316" s="65"/>
-      <c r="H316" s="65"/>
-      <c r="I316" s="65"/>
-      <c r="J316" s="65"/>
-      <c r="K316" s="65"/>
-      <c r="L316" s="65"/>
-      <c r="M316" s="66"/>
+      <c r="C316" s="66"/>
+      <c r="D316" s="66"/>
+      <c r="E316" s="66"/>
+      <c r="F316" s="66"/>
+      <c r="G316" s="66"/>
+      <c r="H316" s="66"/>
+      <c r="I316" s="66"/>
+      <c r="J316" s="66"/>
+      <c r="K316" s="66"/>
+      <c r="L316" s="66"/>
+      <c r="M316" s="67"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -11750,52 +13034,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="60" t="s">
+      <c r="B318" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="61"/>
-      <c r="D318" s="61"/>
-      <c r="E318" s="61"/>
-      <c r="F318" s="61"/>
-      <c r="G318" s="61"/>
-      <c r="H318" s="61"/>
-      <c r="I318" s="61"/>
-      <c r="J318" s="61"/>
-      <c r="K318" s="61"/>
-      <c r="L318" s="61"/>
-      <c r="M318" s="62"/>
+      <c r="C318" s="62"/>
+      <c r="D318" s="62"/>
+      <c r="E318" s="62"/>
+      <c r="F318" s="62"/>
+      <c r="G318" s="62"/>
+      <c r="H318" s="62"/>
+      <c r="I318" s="62"/>
+      <c r="J318" s="62"/>
+      <c r="K318" s="62"/>
+      <c r="L318" s="62"/>
+      <c r="M318" s="63"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="60" t="s">
+      <c r="B319" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="61"/>
-      <c r="D319" s="61"/>
-      <c r="E319" s="61"/>
-      <c r="F319" s="61"/>
-      <c r="G319" s="61"/>
-      <c r="H319" s="61"/>
-      <c r="I319" s="61"/>
-      <c r="J319" s="61"/>
-      <c r="K319" s="61"/>
-      <c r="L319" s="61"/>
-      <c r="M319" s="62"/>
+      <c r="C319" s="62"/>
+      <c r="D319" s="62"/>
+      <c r="E319" s="62"/>
+      <c r="F319" s="62"/>
+      <c r="G319" s="62"/>
+      <c r="H319" s="62"/>
+      <c r="I319" s="62"/>
+      <c r="J319" s="62"/>
+      <c r="K319" s="62"/>
+      <c r="L319" s="62"/>
+      <c r="M319" s="63"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="63" t="s">
+      <c r="B320" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="63"/>
-      <c r="D320" s="63"/>
-      <c r="E320" s="63"/>
-      <c r="F320" s="63"/>
-      <c r="G320" s="63"/>
-      <c r="H320" s="63"/>
-      <c r="I320" s="63"/>
-      <c r="J320" s="63"/>
-      <c r="K320" s="63"/>
-      <c r="L320" s="63"/>
-      <c r="M320" s="63"/>
+      <c r="C320" s="64"/>
+      <c r="D320" s="64"/>
+      <c r="E320" s="64"/>
+      <c r="F320" s="64"/>
+      <c r="G320" s="64"/>
+      <c r="H320" s="64"/>
+      <c r="I320" s="64"/>
+      <c r="J320" s="64"/>
+      <c r="K320" s="64"/>
+      <c r="L320" s="64"/>
+      <c r="M320" s="64"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -11812,20 +13096,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="60" t="s">
+      <c r="B322" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="61"/>
-      <c r="D322" s="61"/>
-      <c r="E322" s="61"/>
-      <c r="F322" s="61"/>
-      <c r="G322" s="61"/>
-      <c r="H322" s="61"/>
-      <c r="I322" s="61"/>
-      <c r="J322" s="61"/>
-      <c r="K322" s="61"/>
-      <c r="L322" s="61"/>
-      <c r="M322" s="62"/>
+      <c r="C322" s="62"/>
+      <c r="D322" s="62"/>
+      <c r="E322" s="62"/>
+      <c r="F322" s="62"/>
+      <c r="G322" s="62"/>
+      <c r="H322" s="62"/>
+      <c r="I322" s="62"/>
+      <c r="J322" s="62"/>
+      <c r="K322" s="62"/>
+      <c r="L322" s="62"/>
+      <c r="M322" s="63"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -11842,20 +13126,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="60" t="s">
+      <c r="B324" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="61"/>
-      <c r="D324" s="61"/>
-      <c r="E324" s="61"/>
-      <c r="F324" s="61"/>
-      <c r="G324" s="61"/>
-      <c r="H324" s="61"/>
-      <c r="I324" s="61"/>
-      <c r="J324" s="61"/>
-      <c r="K324" s="61"/>
-      <c r="L324" s="61"/>
-      <c r="M324" s="62"/>
+      <c r="C324" s="62"/>
+      <c r="D324" s="62"/>
+      <c r="E324" s="62"/>
+      <c r="F324" s="62"/>
+      <c r="G324" s="62"/>
+      <c r="H324" s="62"/>
+      <c r="I324" s="62"/>
+      <c r="J324" s="62"/>
+      <c r="K324" s="62"/>
+      <c r="L324" s="62"/>
+      <c r="M324" s="63"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -11886,20 +13170,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="60" t="s">
+      <c r="B327" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="61"/>
-      <c r="D327" s="61"/>
-      <c r="E327" s="61"/>
-      <c r="F327" s="61"/>
-      <c r="G327" s="61"/>
-      <c r="H327" s="61"/>
-      <c r="I327" s="61"/>
-      <c r="J327" s="61"/>
-      <c r="K327" s="61"/>
-      <c r="L327" s="61"/>
-      <c r="M327" s="62"/>
+      <c r="C327" s="62"/>
+      <c r="D327" s="62"/>
+      <c r="E327" s="62"/>
+      <c r="F327" s="62"/>
+      <c r="G327" s="62"/>
+      <c r="H327" s="62"/>
+      <c r="I327" s="62"/>
+      <c r="J327" s="62"/>
+      <c r="K327" s="62"/>
+      <c r="L327" s="62"/>
+      <c r="M327" s="63"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -11916,20 +13200,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="60" t="s">
+      <c r="B329" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="61"/>
-      <c r="D329" s="61"/>
-      <c r="E329" s="61"/>
-      <c r="F329" s="61"/>
-      <c r="G329" s="61"/>
-      <c r="H329" s="61"/>
-      <c r="I329" s="61"/>
-      <c r="J329" s="61"/>
-      <c r="K329" s="61"/>
-      <c r="L329" s="61"/>
-      <c r="M329" s="62"/>
+      <c r="C329" s="62"/>
+      <c r="D329" s="62"/>
+      <c r="E329" s="62"/>
+      <c r="F329" s="62"/>
+      <c r="G329" s="62"/>
+      <c r="H329" s="62"/>
+      <c r="I329" s="62"/>
+      <c r="J329" s="62"/>
+      <c r="K329" s="62"/>
+      <c r="L329" s="62"/>
+      <c r="M329" s="63"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -12235,20 +13519,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -12991,20 +14275,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -13667,7 +14951,7 @@
         <v>1.25</v>
       </c>
       <c r="K18" s="58">
-        <f>G18/J18</f>
+        <f t="shared" ref="K18:K25" si="1">G18/J18</f>
         <v>1.2</v>
       </c>
       <c r="L18" s="11" t="s">
@@ -13706,7 +14990,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="10">
-        <f>G19/J19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L19" s="11" t="s">
@@ -13735,17 +15019,17 @@
       <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="60">
         <v>41931</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="60">
         <v>41931</v>
       </c>
       <c r="J20" s="8">
         <v>3.75</v>
       </c>
       <c r="K20" s="10">
-        <f>G20/J20</f>
+        <f t="shared" si="1"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="L20" s="11" t="s">
@@ -13784,7 +15068,7 @@
         <v>1.5</v>
       </c>
       <c r="K21" s="10">
-        <f>G21/J21</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L21" s="11" t="s">
@@ -13823,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="10">
-        <f>G22/J22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L22" s="11" t="s">
@@ -13862,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="10">
-        <f>G23/J23</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L23" s="11" t="s">
@@ -13901,7 +15185,7 @@
         <v>1.75</v>
       </c>
       <c r="K24" s="10">
-        <f>G24/J24</f>
+        <f t="shared" si="1"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="L24" s="11" t="s">
@@ -13941,7 +15225,7 @@
         <v>4.5</v>
       </c>
       <c r="K25" s="10">
-        <f>G25/J25</f>
+        <f t="shared" si="1"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="L25" s="11" t="s">
@@ -13959,9 +15243,878 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="57">
+        <v>41918</v>
+      </c>
+      <c r="F3" s="57">
+        <f>E3</f>
+        <v>41918</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57">
+        <v>41918</v>
+      </c>
+      <c r="I3" s="57">
+        <f>H3</f>
+        <v>41918</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="58">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>41932</v>
+      </c>
+      <c r="F4" s="9">
+        <v>41932</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>41932</v>
+      </c>
+      <c r="I4" s="9">
+        <v>41933</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K22" si="0">G4/J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>41932</v>
+      </c>
+      <c r="F5" s="9">
+        <v>41933</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>41932</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41933</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>41934</v>
+      </c>
+      <c r="F6" s="9">
+        <v>41936</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>41934</v>
+      </c>
+      <c r="I6" s="26">
+        <v>41934</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>41934</v>
+      </c>
+      <c r="F7" s="9">
+        <v>41936</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>41934</v>
+      </c>
+      <c r="I7" s="26">
+        <v>41934</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>41934</v>
+      </c>
+      <c r="F8" s="9">
+        <v>41936</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>41934</v>
+      </c>
+      <c r="I8" s="26">
+        <v>41935</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>41936</v>
+      </c>
+      <c r="F9" s="9">
+        <v>41936</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>41936</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41936</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>41937</v>
+      </c>
+      <c r="F10" s="9">
+        <v>41938</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>41937</v>
+      </c>
+      <c r="I10" s="9">
+        <v>41938</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>41939</v>
+      </c>
+      <c r="F11" s="9">
+        <v>41939</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>41939</v>
+      </c>
+      <c r="I11" s="9">
+        <v>41939</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <f>F12-E12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>41935</v>
+      </c>
+      <c r="F12" s="9">
+        <v>41938</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>41935</v>
+      </c>
+      <c r="I12" s="9">
+        <v>41940</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>41942</v>
+      </c>
+      <c r="F13" s="9">
+        <v>41942</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="H13" s="9">
+        <v>41940</v>
+      </c>
+      <c r="I13" s="9">
+        <v>41940</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>41932</v>
+      </c>
+      <c r="F14" s="9">
+        <v>41937</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>41932</v>
+      </c>
+      <c r="I14" s="9">
+        <v>41937</v>
+      </c>
+      <c r="J14" s="19">
+        <v>3</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>41941</v>
+      </c>
+      <c r="F15" s="9">
+        <v>41941</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>41941</v>
+      </c>
+      <c r="I15" s="9">
+        <v>41941</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>14</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>41943</v>
+      </c>
+      <c r="F16" s="9">
+        <v>41943</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>41942</v>
+      </c>
+      <c r="I16" s="9">
+        <v>41942</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>41941</v>
+      </c>
+      <c r="F17" s="9">
+        <v>41941</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>41941</v>
+      </c>
+      <c r="I17" s="9">
+        <v>41941</v>
+      </c>
+      <c r="J17" s="33">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>41942</v>
+      </c>
+      <c r="F18" s="9">
+        <v>41942</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="9">
+        <v>41942</v>
+      </c>
+      <c r="I18" s="9">
+        <v>41942</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>41945</v>
+      </c>
+      <c r="F19" s="9">
+        <v>41945</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>41945</v>
+      </c>
+      <c r="I19" s="9">
+        <v>41945</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>41945</v>
+      </c>
+      <c r="F20" s="9">
+        <v>41945</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9">
+        <v>41942</v>
+      </c>
+      <c r="I20" s="9">
+        <v>41945</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <f>F21-E21+1</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>41934</v>
+      </c>
+      <c r="F21" s="9">
+        <v>41934</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>41934</v>
+      </c>
+      <c r="I21" s="9">
+        <v>41934</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>21</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37">
+        <v>41932</v>
+      </c>
+      <c r="F22" s="37">
+        <v>41932</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="37">
+        <v>41932</v>
+      </c>
+      <c r="I22" s="37">
+        <v>41932</v>
+      </c>
+      <c r="J22" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Iteration 1" sheetId="3" r:id="rId2"/>
     <sheet name="Iteration 2" sheetId="5" r:id="rId3"/>
     <sheet name="Iteration 3" sheetId="6" r:id="rId4"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId5"/>
+    <sheet name="Iteration 4" sheetId="9" r:id="rId5"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="209">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -650,6 +652,21 @@
   </si>
   <si>
     <t>Supervisor Meeting 1</t>
+  </si>
+  <si>
+    <t>Update sequence and database</t>
+  </si>
+  <si>
+    <t>View previously submitted multidisciplinary notes</t>
+  </si>
+  <si>
+    <t>View activated scenario information (Student's view)</t>
+  </si>
+  <si>
+    <t>Generation of test scenarios for functionalities in Iteration 4</t>
+  </si>
+  <si>
+    <t>Client Meeting 5</t>
   </si>
 </sst>
 </file>
@@ -921,7 +938,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1096,6 +1113,15 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1452,11 +1478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-866298432"/>
-        <c:axId val="-866293536"/>
+        <c:axId val="942031296"/>
+        <c:axId val="942032384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-866298432"/>
+        <c:axId val="942031296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-866293536"/>
+        <c:crossAx val="942032384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-866293536"/>
+        <c:axId val="942032384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1559,7 +1585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-866298432"/>
+        <c:crossAx val="942031296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1970,11 +1996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1004095072"/>
-        <c:axId val="-1004090176"/>
+        <c:axId val="942031840"/>
+        <c:axId val="942021504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1004095072"/>
+        <c:axId val="942031840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1004090176"/>
+        <c:crossAx val="942021504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1004090176"/>
+        <c:axId val="942021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2077,7 +2103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1004095072"/>
+        <c:crossAx val="942031840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2200,7 +2226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2303,7 +2328,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2472,11 +2496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-712706384"/>
-        <c:axId val="-712721616"/>
+        <c:axId val="942022592"/>
+        <c:axId val="942028032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-712706384"/>
+        <c:axId val="942022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712721616"/>
+        <c:crossAx val="942028032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712721616"/>
+        <c:axId val="942028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2579,7 +2603,479 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712706384"/>
+        <c:crossAx val="942022592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 4'!$B$3:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Internal Meeting 12- Review Requirements and review UT1 results</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update sequence and database</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>View previously submitted multidisciplinary notes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>View activated scenario information (Student's view)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Implement changes from UT1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation of test scenarios for functionalities in Iteration 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Debugging of failed test plans</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Client Meeting 5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Prepare for acceptance slides </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Acceptance Presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 4'!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="877597776"/>
+        <c:axId val="877598864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="877597776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877598864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="877598864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877597776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2742,6 +3238,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4290,6 +4826,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4399,12 +5438,50 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Detailed Schedule"/>
       <sheetName val="Iteration 1"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="Iteration 2"/>
       <sheetName val="Iteration 3"/>
       <sheetName val="Guidelines for Task Metrics"/>
@@ -4413,7 +5490,8 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="3">
           <cell r="B3" t="str">
             <v>Review Requirements</v>
@@ -4575,7 +5653,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4846,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q335"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B57" sqref="B57:M83"/>
     </sheetView>
   </sheetViews>
@@ -4871,28 +5949,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -5357,26 +6435,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -5963,25 +7041,25 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="68" t="s">
+      <c r="O31" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -6029,20 +7107,20 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75"/>
       <c r="O33" s="7" t="s">
         <v>18</v>
       </c>
@@ -6104,20 +7182,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -6179,20 +7257,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -6375,11 +7453,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="68" t="s">
+      <c r="O41" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -6475,20 +7553,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="66"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -6609,20 +7687,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="66"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -6665,20 +7743,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="63"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="66"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -6877,25 +7955,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="67"/>
-      <c r="O57" s="68" t="s">
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="70"/>
+      <c r="O57" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -6943,20 +8021,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="63"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="66"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -7010,20 +8088,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -7116,20 +8194,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="63"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="66"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -7285,20 +8363,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="63"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="66"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -7329,20 +8407,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="63"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="66"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -7402,20 +8480,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="63"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="66"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -7446,20 +8524,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="63"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="66"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -7631,25 +8709,25 @@
       <c r="M83" s="7"/>
     </row>
     <row r="85" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="O85" s="68" t="s">
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="O85" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="68"/>
-      <c r="Q85" s="68"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -7695,20 +8773,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -7762,20 +8840,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="67"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -7867,20 +8945,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -7982,20 +9060,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="67"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -8026,20 +9104,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -8155,20 +9233,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="67"/>
+      <c r="M103" s="67"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -8199,20 +9277,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="67"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -8374,25 +9452,25 @@
       <c r="M111" s="35"/>
     </row>
     <row r="113" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="65" t="s">
+      <c r="B113" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="O113" s="68" t="s">
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="68"/>
+      <c r="L113" s="68"/>
+      <c r="M113" s="68"/>
+      <c r="O113" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="68"/>
-      <c r="Q113" s="68"/>
+      <c r="P113" s="71"/>
+      <c r="Q113" s="71"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -8438,20 +9516,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="64"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="67"/>
+      <c r="M115" s="67"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -8505,20 +9583,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="64"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="67"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -8610,20 +9688,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="64" t="s">
+      <c r="B120" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="64"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="64"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="67"/>
+      <c r="L120" s="67"/>
+      <c r="M120" s="67"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -8723,20 +9801,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="64" t="s">
+      <c r="B124" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
-      <c r="L124" s="64"/>
-      <c r="M124" s="64"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
+      <c r="L124" s="67"/>
+      <c r="M124" s="67"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -8767,20 +9845,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="64"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="67"/>
+      <c r="M126" s="67"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -8840,20 +9918,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="64" t="s">
+      <c r="B129" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
-      <c r="J129" s="64"/>
-      <c r="K129" s="64"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="64"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
+      <c r="L129" s="67"/>
+      <c r="M129" s="67"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -8884,20 +9962,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="64" t="s">
+      <c r="B131" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="64"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="64"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
+      <c r="L131" s="67"/>
+      <c r="M131" s="67"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -9059,20 +10137,20 @@
       <c r="M137" s="35"/>
     </row>
     <row r="139" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="65" t="s">
+      <c r="B139" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="65"/>
-      <c r="K139" s="65"/>
-      <c r="L139" s="65"/>
-      <c r="M139" s="65"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
+      <c r="H139" s="68"/>
+      <c r="I139" s="68"/>
+      <c r="J139" s="68"/>
+      <c r="K139" s="68"/>
+      <c r="L139" s="68"/>
+      <c r="M139" s="68"/>
     </row>
     <row r="140" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
@@ -9111,20 +10189,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="64" t="s">
+      <c r="B141" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="64"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="64"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="64"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+      <c r="I141" s="67"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
+      <c r="L141" s="67"/>
+      <c r="M141" s="67"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -9156,20 +10234,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="64" t="s">
+      <c r="B143" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="64"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="64"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+      <c r="I143" s="67"/>
+      <c r="J143" s="67"/>
+      <c r="K143" s="67"/>
+      <c r="L143" s="67"/>
+      <c r="M143" s="67"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -9228,20 +10306,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="64" t="s">
+      <c r="B146" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="64"/>
-      <c r="J146" s="64"/>
-      <c r="K146" s="64"/>
-      <c r="L146" s="64"/>
-      <c r="M146" s="64"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+      <c r="I146" s="67"/>
+      <c r="J146" s="67"/>
+      <c r="K146" s="67"/>
+      <c r="L146" s="67"/>
+      <c r="M146" s="67"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -9388,20 +10466,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="64"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="64"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="64"/>
-      <c r="L152" s="64"/>
-      <c r="M152" s="64"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="67"/>
+      <c r="K152" s="67"/>
+      <c r="L152" s="67"/>
+      <c r="M152" s="67"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -9432,20 +10510,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="64" t="s">
+      <c r="B154" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
-      <c r="M154" s="64"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="67"/>
+      <c r="K154" s="67"/>
+      <c r="L154" s="67"/>
+      <c r="M154" s="67"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -9505,20 +10583,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="64" t="s">
+      <c r="B157" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="64"/>
-      <c r="K157" s="64"/>
-      <c r="L157" s="64"/>
-      <c r="M157" s="64"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+      <c r="I157" s="67"/>
+      <c r="J157" s="67"/>
+      <c r="K157" s="67"/>
+      <c r="L157" s="67"/>
+      <c r="M157" s="67"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -9549,20 +10627,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="64" t="s">
+      <c r="B159" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="64"/>
-      <c r="J159" s="64"/>
-      <c r="K159" s="64"/>
-      <c r="L159" s="64"/>
-      <c r="M159" s="64"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="67"/>
+      <c r="M159" s="67"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -9641,20 +10719,20 @@
       <c r="M162" s="18"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="65" t="s">
+      <c r="B165" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C165" s="65"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="65"/>
-      <c r="F165" s="65"/>
-      <c r="G165" s="65"/>
-      <c r="H165" s="65"/>
-      <c r="I165" s="65"/>
-      <c r="J165" s="65"/>
-      <c r="K165" s="65"/>
-      <c r="L165" s="65"/>
-      <c r="M165" s="65"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="68"/>
+      <c r="I165" s="68"/>
+      <c r="J165" s="68"/>
+      <c r="K165" s="68"/>
+      <c r="L165" s="68"/>
+      <c r="M165" s="68"/>
     </row>
     <row r="166" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
@@ -9693,20 +10771,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="64" t="s">
+      <c r="B167" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="64"/>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64"/>
-      <c r="I167" s="64"/>
-      <c r="J167" s="64"/>
-      <c r="K167" s="64"/>
-      <c r="L167" s="64"/>
-      <c r="M167" s="64"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+      <c r="I167" s="67"/>
+      <c r="J167" s="67"/>
+      <c r="K167" s="67"/>
+      <c r="L167" s="67"/>
+      <c r="M167" s="67"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -9738,20 +10816,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="64"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="64"/>
-      <c r="F169" s="64"/>
-      <c r="G169" s="64"/>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
-      <c r="J169" s="64"/>
-      <c r="K169" s="64"/>
-      <c r="L169" s="64"/>
-      <c r="M169" s="64"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="67"/>
+      <c r="J169" s="67"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="67"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -9810,20 +10888,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="64" t="s">
+      <c r="B172" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="64"/>
-      <c r="H172" s="64"/>
-      <c r="I172" s="64"/>
-      <c r="J172" s="64"/>
-      <c r="K172" s="64"/>
-      <c r="L172" s="64"/>
-      <c r="M172" s="64"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="67"/>
+      <c r="J172" s="67"/>
+      <c r="K172" s="67"/>
+      <c r="L172" s="67"/>
+      <c r="M172" s="67"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -9883,20 +10961,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="64" t="s">
+      <c r="B175" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="64"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="64"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="64"/>
-      <c r="K175" s="64"/>
-      <c r="L175" s="64"/>
-      <c r="M175" s="64"/>
+      <c r="C175" s="67"/>
+      <c r="D175" s="67"/>
+      <c r="E175" s="67"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="67"/>
+      <c r="J175" s="67"/>
+      <c r="K175" s="67"/>
+      <c r="L175" s="67"/>
+      <c r="M175" s="67"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -9927,20 +11005,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="64" t="s">
+      <c r="B177" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64"/>
-      <c r="I177" s="64"/>
-      <c r="J177" s="64"/>
-      <c r="K177" s="64"/>
-      <c r="L177" s="64"/>
-      <c r="M177" s="64"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+      <c r="I177" s="67"/>
+      <c r="J177" s="67"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="67"/>
+      <c r="M177" s="67"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -10000,20 +11078,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="64" t="s">
+      <c r="B180" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
-      <c r="F180" s="64"/>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
-      <c r="I180" s="64"/>
-      <c r="J180" s="64"/>
-      <c r="K180" s="64"/>
-      <c r="L180" s="64"/>
-      <c r="M180" s="64"/>
+      <c r="C180" s="67"/>
+      <c r="D180" s="67"/>
+      <c r="E180" s="67"/>
+      <c r="F180" s="67"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+      <c r="I180" s="67"/>
+      <c r="J180" s="67"/>
+      <c r="K180" s="67"/>
+      <c r="L180" s="67"/>
+      <c r="M180" s="67"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -10044,20 +11122,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="64" t="s">
+      <c r="B182" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="64"/>
-      <c r="H182" s="64"/>
-      <c r="I182" s="64"/>
-      <c r="J182" s="64"/>
-      <c r="K182" s="64"/>
-      <c r="L182" s="64"/>
-      <c r="M182" s="64"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
+      <c r="J182" s="67"/>
+      <c r="K182" s="67"/>
+      <c r="L182" s="67"/>
+      <c r="M182" s="67"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -10136,20 +11214,20 @@
       <c r="M185" s="18"/>
     </row>
     <row r="187" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B187" s="65" t="s">
+      <c r="B187" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C187" s="65"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="65"/>
-      <c r="G187" s="65"/>
-      <c r="H187" s="65"/>
-      <c r="I187" s="65"/>
-      <c r="J187" s="65"/>
-      <c r="K187" s="65"/>
-      <c r="L187" s="65"/>
-      <c r="M187" s="65"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="68"/>
+      <c r="F187" s="68"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="68"/>
+      <c r="I187" s="68"/>
+      <c r="J187" s="68"/>
+      <c r="K187" s="68"/>
+      <c r="L187" s="68"/>
+      <c r="M187" s="68"/>
     </row>
     <row r="188" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
@@ -10188,20 +11266,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="64" t="s">
+      <c r="B189" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="64"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="64"/>
-      <c r="I189" s="64"/>
-      <c r="J189" s="64"/>
-      <c r="K189" s="64"/>
-      <c r="L189" s="64"/>
-      <c r="M189" s="64"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+      <c r="I189" s="67"/>
+      <c r="J189" s="67"/>
+      <c r="K189" s="67"/>
+      <c r="L189" s="67"/>
+      <c r="M189" s="67"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -10233,20 +11311,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="64" t="s">
+      <c r="B191" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
-      <c r="J191" s="64"/>
-      <c r="K191" s="64"/>
-      <c r="L191" s="64"/>
-      <c r="M191" s="64"/>
+      <c r="C191" s="67"/>
+      <c r="D191" s="67"/>
+      <c r="E191" s="67"/>
+      <c r="F191" s="67"/>
+      <c r="G191" s="67"/>
+      <c r="H191" s="67"/>
+      <c r="I191" s="67"/>
+      <c r="J191" s="67"/>
+      <c r="K191" s="67"/>
+      <c r="L191" s="67"/>
+      <c r="M191" s="67"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -10305,20 +11383,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="64" t="s">
+      <c r="B194" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64"/>
-      <c r="K194" s="64"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
+      <c r="C194" s="67"/>
+      <c r="D194" s="67"/>
+      <c r="E194" s="67"/>
+      <c r="F194" s="67"/>
+      <c r="G194" s="67"/>
+      <c r="H194" s="67"/>
+      <c r="I194" s="67"/>
+      <c r="J194" s="67"/>
+      <c r="K194" s="67"/>
+      <c r="L194" s="67"/>
+      <c r="M194" s="67"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -10377,20 +11455,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="64" t="s">
+      <c r="B197" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="64"/>
-      <c r="F197" s="64"/>
-      <c r="G197" s="64"/>
-      <c r="H197" s="64"/>
-      <c r="I197" s="64"/>
-      <c r="J197" s="64"/>
-      <c r="K197" s="64"/>
-      <c r="L197" s="64"/>
-      <c r="M197" s="64"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="67"/>
+      <c r="F197" s="67"/>
+      <c r="G197" s="67"/>
+      <c r="H197" s="67"/>
+      <c r="I197" s="67"/>
+      <c r="J197" s="67"/>
+      <c r="K197" s="67"/>
+      <c r="L197" s="67"/>
+      <c r="M197" s="67"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -10421,20 +11499,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="64" t="s">
+      <c r="B199" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
-      <c r="F199" s="64"/>
-      <c r="G199" s="64"/>
-      <c r="H199" s="64"/>
-      <c r="I199" s="64"/>
-      <c r="J199" s="64"/>
-      <c r="K199" s="64"/>
-      <c r="L199" s="64"/>
-      <c r="M199" s="64"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="67"/>
+      <c r="F199" s="67"/>
+      <c r="G199" s="67"/>
+      <c r="H199" s="67"/>
+      <c r="I199" s="67"/>
+      <c r="J199" s="67"/>
+      <c r="K199" s="67"/>
+      <c r="L199" s="67"/>
+      <c r="M199" s="67"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -10549,20 +11627,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="64" t="s">
+      <c r="B204" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
-      <c r="J204" s="64"/>
-      <c r="K204" s="64"/>
-      <c r="L204" s="64"/>
-      <c r="M204" s="64"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="67"/>
+      <c r="F204" s="67"/>
+      <c r="G204" s="67"/>
+      <c r="H204" s="67"/>
+      <c r="I204" s="67"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="67"/>
+      <c r="L204" s="67"/>
+      <c r="M204" s="67"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -10593,20 +11671,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="64" t="s">
+      <c r="B206" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="64"/>
-      <c r="J206" s="64"/>
-      <c r="K206" s="64"/>
-      <c r="L206" s="64"/>
-      <c r="M206" s="64"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="67"/>
+      <c r="F206" s="67"/>
+      <c r="G206" s="67"/>
+      <c r="H206" s="67"/>
+      <c r="I206" s="67"/>
+      <c r="J206" s="67"/>
+      <c r="K206" s="67"/>
+      <c r="L206" s="67"/>
+      <c r="M206" s="67"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -10713,20 +11791,20 @@
       <c r="M210" s="18"/>
     </row>
     <row r="212" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B212" s="65" t="s">
+      <c r="B212" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="65"/>
-      <c r="G212" s="65"/>
-      <c r="H212" s="65"/>
-      <c r="I212" s="65"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="65"/>
-      <c r="L212" s="65"/>
-      <c r="M212" s="65"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="68"/>
+      <c r="H212" s="68"/>
+      <c r="I212" s="68"/>
+      <c r="J212" s="68"/>
+      <c r="K212" s="68"/>
+      <c r="L212" s="68"/>
+      <c r="M212" s="68"/>
     </row>
     <row r="213" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -10765,20 +11843,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="64" t="s">
+      <c r="B214" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="64"/>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="64"/>
-      <c r="K214" s="64"/>
-      <c r="L214" s="64"/>
-      <c r="M214" s="64"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="67"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="67"/>
+      <c r="J214" s="67"/>
+      <c r="K214" s="67"/>
+      <c r="L214" s="67"/>
+      <c r="M214" s="67"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -10810,20 +11888,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="64" t="s">
+      <c r="B216" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="64"/>
-      <c r="J216" s="64"/>
-      <c r="K216" s="64"/>
-      <c r="L216" s="64"/>
-      <c r="M216" s="64"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="67"/>
+      <c r="F216" s="67"/>
+      <c r="G216" s="67"/>
+      <c r="H216" s="67"/>
+      <c r="I216" s="67"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="67"/>
+      <c r="L216" s="67"/>
+      <c r="M216" s="67"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -10882,20 +11960,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="64" t="s">
+      <c r="B219" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="64"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="64"/>
-      <c r="J219" s="64"/>
-      <c r="K219" s="64"/>
-      <c r="L219" s="64"/>
-      <c r="M219" s="64"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="67"/>
+      <c r="F219" s="67"/>
+      <c r="G219" s="67"/>
+      <c r="H219" s="67"/>
+      <c r="I219" s="67"/>
+      <c r="J219" s="67"/>
+      <c r="K219" s="67"/>
+      <c r="L219" s="67"/>
+      <c r="M219" s="67"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -10957,20 +12035,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="64" t="s">
+      <c r="B222" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="64"/>
-      <c r="J222" s="64"/>
-      <c r="K222" s="64"/>
-      <c r="L222" s="64"/>
-      <c r="M222" s="64"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="67"/>
+      <c r="E222" s="67"/>
+      <c r="F222" s="67"/>
+      <c r="G222" s="67"/>
+      <c r="H222" s="67"/>
+      <c r="I222" s="67"/>
+      <c r="J222" s="67"/>
+      <c r="K222" s="67"/>
+      <c r="L222" s="67"/>
+      <c r="M222" s="67"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -11001,20 +12079,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="64" t="s">
+      <c r="B224" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="64"/>
-      <c r="J224" s="64"/>
-      <c r="K224" s="64"/>
-      <c r="L224" s="64"/>
-      <c r="M224" s="64"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="67"/>
+      <c r="F224" s="67"/>
+      <c r="G224" s="67"/>
+      <c r="H224" s="67"/>
+      <c r="I224" s="67"/>
+      <c r="J224" s="67"/>
+      <c r="K224" s="67"/>
+      <c r="L224" s="67"/>
+      <c r="M224" s="67"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -11074,20 +12152,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="64" t="s">
+      <c r="B227" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="64"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="64"/>
-      <c r="K227" s="64"/>
-      <c r="L227" s="64"/>
-      <c r="M227" s="64"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="67"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="67"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="67"/>
+      <c r="J227" s="67"/>
+      <c r="K227" s="67"/>
+      <c r="L227" s="67"/>
+      <c r="M227" s="67"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -11118,20 +12196,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="64" t="s">
+      <c r="B229" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="64"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="64"/>
-      <c r="H229" s="64"/>
-      <c r="I229" s="64"/>
-      <c r="J229" s="64"/>
-      <c r="K229" s="64"/>
-      <c r="L229" s="64"/>
-      <c r="M229" s="64"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="67"/>
+      <c r="F229" s="67"/>
+      <c r="G229" s="67"/>
+      <c r="H229" s="67"/>
+      <c r="I229" s="67"/>
+      <c r="J229" s="67"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="67"/>
+      <c r="M229" s="67"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -11210,20 +12288,20 @@
       <c r="M232" s="18"/>
     </row>
     <row r="234" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B234" s="65" t="s">
+      <c r="B234" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C234" s="65"/>
-      <c r="D234" s="65"/>
-      <c r="E234" s="65"/>
-      <c r="F234" s="65"/>
-      <c r="G234" s="65"/>
-      <c r="H234" s="65"/>
-      <c r="I234" s="65"/>
-      <c r="J234" s="65"/>
-      <c r="K234" s="65"/>
-      <c r="L234" s="65"/>
-      <c r="M234" s="65"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="68"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="68"/>
+      <c r="H234" s="68"/>
+      <c r="I234" s="68"/>
+      <c r="J234" s="68"/>
+      <c r="K234" s="68"/>
+      <c r="L234" s="68"/>
+      <c r="M234" s="68"/>
     </row>
     <row r="235" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -11262,36 +12340,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="64" t="s">
+      <c r="B236" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
-      <c r="H236" s="64"/>
-      <c r="I236" s="64"/>
-      <c r="J236" s="64"/>
-      <c r="K236" s="64"/>
-      <c r="L236" s="64"/>
-      <c r="M236" s="64"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="67"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="67"/>
+      <c r="G236" s="67"/>
+      <c r="H236" s="67"/>
+      <c r="I236" s="67"/>
+      <c r="J236" s="67"/>
+      <c r="K236" s="67"/>
+      <c r="L236" s="67"/>
+      <c r="M236" s="67"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="64" t="s">
+      <c r="B237" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="64"/>
-      <c r="J237" s="64"/>
-      <c r="K237" s="64"/>
-      <c r="L237" s="64"/>
-      <c r="M237" s="64"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="67"/>
+      <c r="G237" s="67"/>
+      <c r="H237" s="67"/>
+      <c r="I237" s="67"/>
+      <c r="J237" s="67"/>
+      <c r="K237" s="67"/>
+      <c r="L237" s="67"/>
+      <c r="M237" s="67"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -11350,36 +12428,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="64" t="s">
+      <c r="B240" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="64"/>
-      <c r="K240" s="64"/>
-      <c r="L240" s="64"/>
-      <c r="M240" s="64"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="67"/>
+      <c r="E240" s="67"/>
+      <c r="F240" s="67"/>
+      <c r="G240" s="67"/>
+      <c r="H240" s="67"/>
+      <c r="I240" s="67"/>
+      <c r="J240" s="67"/>
+      <c r="K240" s="67"/>
+      <c r="L240" s="67"/>
+      <c r="M240" s="67"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="64" t="s">
+      <c r="B241" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="64"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="64"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="64"/>
-      <c r="H241" s="64"/>
-      <c r="I241" s="64"/>
-      <c r="J241" s="64"/>
-      <c r="K241" s="64"/>
-      <c r="L241" s="64"/>
-      <c r="M241" s="64"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="67"/>
+      <c r="E241" s="67"/>
+      <c r="F241" s="67"/>
+      <c r="G241" s="67"/>
+      <c r="H241" s="67"/>
+      <c r="I241" s="67"/>
+      <c r="J241" s="67"/>
+      <c r="K241" s="67"/>
+      <c r="L241" s="67"/>
+      <c r="M241" s="67"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -11410,20 +12488,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="64" t="s">
+      <c r="B243" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
-      <c r="H243" s="64"/>
-      <c r="I243" s="64"/>
-      <c r="J243" s="64"/>
-      <c r="K243" s="64"/>
-      <c r="L243" s="64"/>
-      <c r="M243" s="64"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="67"/>
+      <c r="E243" s="67"/>
+      <c r="F243" s="67"/>
+      <c r="G243" s="67"/>
+      <c r="H243" s="67"/>
+      <c r="I243" s="67"/>
+      <c r="J243" s="67"/>
+      <c r="K243" s="67"/>
+      <c r="L243" s="67"/>
+      <c r="M243" s="67"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -11454,20 +12532,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="64" t="s">
+      <c r="B245" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
-      <c r="H245" s="64"/>
-      <c r="I245" s="64"/>
-      <c r="J245" s="64"/>
-      <c r="K245" s="64"/>
-      <c r="L245" s="64"/>
-      <c r="M245" s="64"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="67"/>
+      <c r="E245" s="67"/>
+      <c r="F245" s="67"/>
+      <c r="G245" s="67"/>
+      <c r="H245" s="67"/>
+      <c r="I245" s="67"/>
+      <c r="J245" s="67"/>
+      <c r="K245" s="67"/>
+      <c r="L245" s="67"/>
+      <c r="M245" s="67"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -11498,20 +12576,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="64" t="s">
+      <c r="B247" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="64"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="64"/>
-      <c r="F247" s="64"/>
-      <c r="G247" s="64"/>
-      <c r="H247" s="64"/>
-      <c r="I247" s="64"/>
-      <c r="J247" s="64"/>
-      <c r="K247" s="64"/>
-      <c r="L247" s="64"/>
-      <c r="M247" s="64"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="67"/>
+      <c r="F247" s="67"/>
+      <c r="G247" s="67"/>
+      <c r="H247" s="67"/>
+      <c r="I247" s="67"/>
+      <c r="J247" s="67"/>
+      <c r="K247" s="67"/>
+      <c r="L247" s="67"/>
+      <c r="M247" s="67"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -11627,20 +12705,20 @@
       <c r="M251" s="18"/>
     </row>
     <row r="253" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B253" s="65" t="s">
+      <c r="B253" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="C253" s="65"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="65"/>
-      <c r="F253" s="65"/>
-      <c r="G253" s="65"/>
-      <c r="H253" s="65"/>
-      <c r="I253" s="65"/>
-      <c r="J253" s="65"/>
-      <c r="K253" s="65"/>
-      <c r="L253" s="65"/>
-      <c r="M253" s="65"/>
+      <c r="C253" s="68"/>
+      <c r="D253" s="68"/>
+      <c r="E253" s="68"/>
+      <c r="F253" s="68"/>
+      <c r="G253" s="68"/>
+      <c r="H253" s="68"/>
+      <c r="I253" s="68"/>
+      <c r="J253" s="68"/>
+      <c r="K253" s="68"/>
+      <c r="L253" s="68"/>
+      <c r="M253" s="68"/>
     </row>
     <row r="254" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
@@ -11679,36 +12757,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="64" t="s">
+      <c r="B255" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="64"/>
-      <c r="I255" s="64"/>
-      <c r="J255" s="64"/>
-      <c r="K255" s="64"/>
-      <c r="L255" s="64"/>
-      <c r="M255" s="64"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="67"/>
+      <c r="F255" s="67"/>
+      <c r="G255" s="67"/>
+      <c r="H255" s="67"/>
+      <c r="I255" s="67"/>
+      <c r="J255" s="67"/>
+      <c r="K255" s="67"/>
+      <c r="L255" s="67"/>
+      <c r="M255" s="67"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="64" t="s">
+      <c r="B256" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="64"/>
-      <c r="D256" s="64"/>
-      <c r="E256" s="64"/>
-      <c r="F256" s="64"/>
-      <c r="G256" s="64"/>
-      <c r="H256" s="64"/>
-      <c r="I256" s="64"/>
-      <c r="J256" s="64"/>
-      <c r="K256" s="64"/>
-      <c r="L256" s="64"/>
-      <c r="M256" s="64"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="67"/>
+      <c r="F256" s="67"/>
+      <c r="G256" s="67"/>
+      <c r="H256" s="67"/>
+      <c r="I256" s="67"/>
+      <c r="J256" s="67"/>
+      <c r="K256" s="67"/>
+      <c r="L256" s="67"/>
+      <c r="M256" s="67"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -11767,20 +12845,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="64" t="s">
+      <c r="B259" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="64"/>
-      <c r="D259" s="64"/>
-      <c r="E259" s="64"/>
-      <c r="F259" s="64"/>
-      <c r="G259" s="64"/>
-      <c r="H259" s="64"/>
-      <c r="I259" s="64"/>
-      <c r="J259" s="64"/>
-      <c r="K259" s="64"/>
-      <c r="L259" s="64"/>
-      <c r="M259" s="64"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="67"/>
+      <c r="F259" s="67"/>
+      <c r="G259" s="67"/>
+      <c r="H259" s="67"/>
+      <c r="I259" s="67"/>
+      <c r="J259" s="67"/>
+      <c r="K259" s="67"/>
+      <c r="L259" s="67"/>
+      <c r="M259" s="67"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -11841,20 +12919,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="64" t="s">
+      <c r="B262" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="64"/>
-      <c r="D262" s="64"/>
-      <c r="E262" s="64"/>
-      <c r="F262" s="64"/>
-      <c r="G262" s="64"/>
-      <c r="H262" s="64"/>
-      <c r="I262" s="64"/>
-      <c r="J262" s="64"/>
-      <c r="K262" s="64"/>
-      <c r="L262" s="64"/>
-      <c r="M262" s="64"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="67"/>
+      <c r="E262" s="67"/>
+      <c r="F262" s="67"/>
+      <c r="G262" s="67"/>
+      <c r="H262" s="67"/>
+      <c r="I262" s="67"/>
+      <c r="J262" s="67"/>
+      <c r="K262" s="67"/>
+      <c r="L262" s="67"/>
+      <c r="M262" s="67"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -11885,20 +12963,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="64" t="s">
+      <c r="B264" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="64"/>
-      <c r="D264" s="64"/>
-      <c r="E264" s="64"/>
-      <c r="F264" s="64"/>
-      <c r="G264" s="64"/>
-      <c r="H264" s="64"/>
-      <c r="I264" s="64"/>
-      <c r="J264" s="64"/>
-      <c r="K264" s="64"/>
-      <c r="L264" s="64"/>
-      <c r="M264" s="64"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="67"/>
+      <c r="F264" s="67"/>
+      <c r="G264" s="67"/>
+      <c r="H264" s="67"/>
+      <c r="I264" s="67"/>
+      <c r="J264" s="67"/>
+      <c r="K264" s="67"/>
+      <c r="L264" s="67"/>
+      <c r="M264" s="67"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -11957,20 +13035,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="64" t="s">
+      <c r="B267" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="64"/>
-      <c r="D267" s="64"/>
-      <c r="E267" s="64"/>
-      <c r="F267" s="64"/>
-      <c r="G267" s="64"/>
-      <c r="H267" s="64"/>
-      <c r="I267" s="64"/>
-      <c r="J267" s="64"/>
-      <c r="K267" s="64"/>
-      <c r="L267" s="64"/>
-      <c r="M267" s="64"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="67"/>
+      <c r="E267" s="67"/>
+      <c r="F267" s="67"/>
+      <c r="G267" s="67"/>
+      <c r="H267" s="67"/>
+      <c r="I267" s="67"/>
+      <c r="J267" s="67"/>
+      <c r="K267" s="67"/>
+      <c r="L267" s="67"/>
+      <c r="M267" s="67"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -12001,20 +13079,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="64" t="s">
+      <c r="B269" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="64"/>
-      <c r="D269" s="64"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="64"/>
-      <c r="G269" s="64"/>
-      <c r="H269" s="64"/>
-      <c r="I269" s="64"/>
-      <c r="J269" s="64"/>
-      <c r="K269" s="64"/>
-      <c r="L269" s="64"/>
-      <c r="M269" s="64"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="67"/>
+      <c r="E269" s="67"/>
+      <c r="F269" s="67"/>
+      <c r="G269" s="67"/>
+      <c r="H269" s="67"/>
+      <c r="I269" s="67"/>
+      <c r="J269" s="67"/>
+      <c r="K269" s="67"/>
+      <c r="L269" s="67"/>
+      <c r="M269" s="67"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -12097,20 +13175,20 @@
       <c r="M272" s="35"/>
     </row>
     <row r="274" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B274" s="65" t="s">
+      <c r="B274" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C274" s="65"/>
-      <c r="D274" s="65"/>
-      <c r="E274" s="65"/>
-      <c r="F274" s="65"/>
-      <c r="G274" s="65"/>
-      <c r="H274" s="65"/>
-      <c r="I274" s="65"/>
-      <c r="J274" s="65"/>
-      <c r="K274" s="65"/>
-      <c r="L274" s="65"/>
-      <c r="M274" s="65"/>
+      <c r="C274" s="68"/>
+      <c r="D274" s="68"/>
+      <c r="E274" s="68"/>
+      <c r="F274" s="68"/>
+      <c r="G274" s="68"/>
+      <c r="H274" s="68"/>
+      <c r="I274" s="68"/>
+      <c r="J274" s="68"/>
+      <c r="K274" s="68"/>
+      <c r="L274" s="68"/>
+      <c r="M274" s="68"/>
     </row>
     <row r="275" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
@@ -12149,20 +13227,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="64" t="s">
+      <c r="B276" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="64"/>
-      <c r="D276" s="64"/>
-      <c r="E276" s="64"/>
-      <c r="F276" s="64"/>
-      <c r="G276" s="64"/>
-      <c r="H276" s="64"/>
-      <c r="I276" s="64"/>
-      <c r="J276" s="64"/>
-      <c r="K276" s="64"/>
-      <c r="L276" s="64"/>
-      <c r="M276" s="64"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="67"/>
+      <c r="E276" s="67"/>
+      <c r="F276" s="67"/>
+      <c r="G276" s="67"/>
+      <c r="H276" s="67"/>
+      <c r="I276" s="67"/>
+      <c r="J276" s="67"/>
+      <c r="K276" s="67"/>
+      <c r="L276" s="67"/>
+      <c r="M276" s="67"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -12193,20 +13271,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="64" t="s">
+      <c r="B278" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="64"/>
-      <c r="D278" s="64"/>
-      <c r="E278" s="64"/>
-      <c r="F278" s="64"/>
-      <c r="G278" s="64"/>
-      <c r="H278" s="64"/>
-      <c r="I278" s="64"/>
-      <c r="J278" s="64"/>
-      <c r="K278" s="64"/>
-      <c r="L278" s="64"/>
-      <c r="M278" s="64"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="67"/>
+      <c r="F278" s="67"/>
+      <c r="G278" s="67"/>
+      <c r="H278" s="67"/>
+      <c r="I278" s="67"/>
+      <c r="J278" s="67"/>
+      <c r="K278" s="67"/>
+      <c r="L278" s="67"/>
+      <c r="M278" s="67"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -12265,20 +13343,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="64" t="s">
+      <c r="B281" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="64"/>
-      <c r="D281" s="64"/>
-      <c r="E281" s="64"/>
-      <c r="F281" s="64"/>
-      <c r="G281" s="64"/>
-      <c r="H281" s="64"/>
-      <c r="I281" s="64"/>
-      <c r="J281" s="64"/>
-      <c r="K281" s="64"/>
-      <c r="L281" s="64"/>
-      <c r="M281" s="64"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="67"/>
+      <c r="F281" s="67"/>
+      <c r="G281" s="67"/>
+      <c r="H281" s="67"/>
+      <c r="I281" s="67"/>
+      <c r="J281" s="67"/>
+      <c r="K281" s="67"/>
+      <c r="L281" s="67"/>
+      <c r="M281" s="67"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -12338,20 +13416,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="64" t="s">
+      <c r="B284" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="64"/>
-      <c r="D284" s="64"/>
-      <c r="E284" s="64"/>
-      <c r="F284" s="64"/>
-      <c r="G284" s="64"/>
-      <c r="H284" s="64"/>
-      <c r="I284" s="64"/>
-      <c r="J284" s="64"/>
-      <c r="K284" s="64"/>
-      <c r="L284" s="64"/>
-      <c r="M284" s="64"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="67"/>
+      <c r="F284" s="67"/>
+      <c r="G284" s="67"/>
+      <c r="H284" s="67"/>
+      <c r="I284" s="67"/>
+      <c r="J284" s="67"/>
+      <c r="K284" s="67"/>
+      <c r="L284" s="67"/>
+      <c r="M284" s="67"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -12410,20 +13488,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="64" t="s">
+      <c r="B287" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="64"/>
-      <c r="D287" s="64"/>
-      <c r="E287" s="64"/>
-      <c r="F287" s="64"/>
-      <c r="G287" s="64"/>
-      <c r="H287" s="64"/>
-      <c r="I287" s="64"/>
-      <c r="J287" s="64"/>
-      <c r="K287" s="64"/>
-      <c r="L287" s="64"/>
-      <c r="M287" s="64"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="67"/>
+      <c r="G287" s="67"/>
+      <c r="H287" s="67"/>
+      <c r="I287" s="67"/>
+      <c r="J287" s="67"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="67"/>
+      <c r="M287" s="67"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -12539,20 +13617,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="64" t="s">
+      <c r="B292" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="64"/>
-      <c r="D292" s="64"/>
-      <c r="E292" s="64"/>
-      <c r="F292" s="64"/>
-      <c r="G292" s="64"/>
-      <c r="H292" s="64"/>
-      <c r="I292" s="64"/>
-      <c r="J292" s="64"/>
-      <c r="K292" s="64"/>
-      <c r="L292" s="64"/>
-      <c r="M292" s="64"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="67"/>
+      <c r="E292" s="67"/>
+      <c r="F292" s="67"/>
+      <c r="G292" s="67"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="67"/>
+      <c r="J292" s="67"/>
+      <c r="K292" s="67"/>
+      <c r="L292" s="67"/>
+      <c r="M292" s="67"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -12583,20 +13661,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="64" t="s">
+      <c r="B294" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="64"/>
-      <c r="D294" s="64"/>
-      <c r="E294" s="64"/>
-      <c r="F294" s="64"/>
-      <c r="G294" s="64"/>
-      <c r="H294" s="64"/>
-      <c r="I294" s="64"/>
-      <c r="J294" s="64"/>
-      <c r="K294" s="64"/>
-      <c r="L294" s="64"/>
-      <c r="M294" s="64"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="67"/>
+      <c r="H294" s="67"/>
+      <c r="I294" s="67"/>
+      <c r="J294" s="67"/>
+      <c r="K294" s="67"/>
+      <c r="L294" s="67"/>
+      <c r="M294" s="67"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -12679,20 +13757,20 @@
       <c r="M297" s="35"/>
     </row>
     <row r="299" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B299" s="65" t="s">
+      <c r="B299" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="C299" s="65"/>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="65"/>
-      <c r="L299" s="65"/>
-      <c r="M299" s="65"/>
+      <c r="C299" s="68"/>
+      <c r="D299" s="68"/>
+      <c r="E299" s="68"/>
+      <c r="F299" s="68"/>
+      <c r="G299" s="68"/>
+      <c r="H299" s="68"/>
+      <c r="I299" s="68"/>
+      <c r="J299" s="68"/>
+      <c r="K299" s="68"/>
+      <c r="L299" s="68"/>
+      <c r="M299" s="68"/>
     </row>
     <row r="300" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B300" s="3" t="s">
@@ -12731,68 +13809,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="64" t="s">
+      <c r="B301" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="64"/>
-      <c r="D301" s="64"/>
-      <c r="E301" s="64"/>
-      <c r="F301" s="64"/>
-      <c r="G301" s="64"/>
-      <c r="H301" s="64"/>
-      <c r="I301" s="64"/>
-      <c r="J301" s="64"/>
-      <c r="K301" s="64"/>
-      <c r="L301" s="64"/>
-      <c r="M301" s="64"/>
+      <c r="C301" s="67"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="67"/>
+      <c r="F301" s="67"/>
+      <c r="G301" s="67"/>
+      <c r="H301" s="67"/>
+      <c r="I301" s="67"/>
+      <c r="J301" s="67"/>
+      <c r="K301" s="67"/>
+      <c r="L301" s="67"/>
+      <c r="M301" s="67"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="64" t="s">
+      <c r="B302" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="64"/>
-      <c r="D302" s="64"/>
-      <c r="E302" s="64"/>
-      <c r="F302" s="64"/>
-      <c r="G302" s="64"/>
-      <c r="H302" s="64"/>
-      <c r="I302" s="64"/>
-      <c r="J302" s="64"/>
-      <c r="K302" s="64"/>
-      <c r="L302" s="64"/>
-      <c r="M302" s="64"/>
+      <c r="C302" s="67"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="67"/>
+      <c r="L302" s="67"/>
+      <c r="M302" s="67"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="64" t="s">
+      <c r="B303" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="64"/>
-      <c r="D303" s="64"/>
-      <c r="E303" s="64"/>
-      <c r="F303" s="64"/>
-      <c r="G303" s="64"/>
-      <c r="H303" s="64"/>
-      <c r="I303" s="64"/>
-      <c r="J303" s="64"/>
-      <c r="K303" s="64"/>
-      <c r="L303" s="64"/>
-      <c r="M303" s="64"/>
+      <c r="C303" s="67"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="67"/>
+      <c r="F303" s="67"/>
+      <c r="G303" s="67"/>
+      <c r="H303" s="67"/>
+      <c r="I303" s="67"/>
+      <c r="J303" s="67"/>
+      <c r="K303" s="67"/>
+      <c r="L303" s="67"/>
+      <c r="M303" s="67"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="64" t="s">
+      <c r="B304" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="64"/>
-      <c r="D304" s="64"/>
-      <c r="E304" s="64"/>
-      <c r="F304" s="64"/>
-      <c r="G304" s="64"/>
-      <c r="H304" s="64"/>
-      <c r="I304" s="64"/>
-      <c r="J304" s="64"/>
-      <c r="K304" s="64"/>
-      <c r="L304" s="64"/>
-      <c r="M304" s="64"/>
+      <c r="C304" s="67"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="67"/>
+      <c r="F304" s="67"/>
+      <c r="G304" s="67"/>
+      <c r="H304" s="67"/>
+      <c r="I304" s="67"/>
+      <c r="J304" s="67"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="67"/>
+      <c r="M304" s="67"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -12809,20 +13887,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="64" t="s">
+      <c r="B306" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="64"/>
-      <c r="D306" s="64"/>
-      <c r="E306" s="64"/>
-      <c r="F306" s="64"/>
-      <c r="G306" s="64"/>
-      <c r="H306" s="64"/>
-      <c r="I306" s="64"/>
-      <c r="J306" s="64"/>
-      <c r="K306" s="64"/>
-      <c r="L306" s="64"/>
-      <c r="M306" s="64"/>
+      <c r="C306" s="67"/>
+      <c r="D306" s="67"/>
+      <c r="E306" s="67"/>
+      <c r="F306" s="67"/>
+      <c r="G306" s="67"/>
+      <c r="H306" s="67"/>
+      <c r="I306" s="67"/>
+      <c r="J306" s="67"/>
+      <c r="K306" s="67"/>
+      <c r="L306" s="67"/>
+      <c r="M306" s="67"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -12853,20 +13931,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="64" t="s">
+      <c r="B309" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="64"/>
-      <c r="D309" s="64"/>
-      <c r="E309" s="64"/>
-      <c r="F309" s="64"/>
-      <c r="G309" s="64"/>
-      <c r="H309" s="64"/>
-      <c r="I309" s="64"/>
-      <c r="J309" s="64"/>
-      <c r="K309" s="64"/>
-      <c r="L309" s="64"/>
-      <c r="M309" s="64"/>
+      <c r="C309" s="67"/>
+      <c r="D309" s="67"/>
+      <c r="E309" s="67"/>
+      <c r="F309" s="67"/>
+      <c r="G309" s="67"/>
+      <c r="H309" s="67"/>
+      <c r="I309" s="67"/>
+      <c r="J309" s="67"/>
+      <c r="K309" s="67"/>
+      <c r="L309" s="67"/>
+      <c r="M309" s="67"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -12883,20 +13961,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="64" t="s">
+      <c r="B311" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="64"/>
-      <c r="D311" s="64"/>
-      <c r="E311" s="64"/>
-      <c r="F311" s="64"/>
-      <c r="G311" s="64"/>
-      <c r="H311" s="64"/>
-      <c r="I311" s="64"/>
-      <c r="J311" s="64"/>
-      <c r="K311" s="64"/>
-      <c r="L311" s="64"/>
-      <c r="M311" s="64"/>
+      <c r="C311" s="67"/>
+      <c r="D311" s="67"/>
+      <c r="E311" s="67"/>
+      <c r="F311" s="67"/>
+      <c r="G311" s="67"/>
+      <c r="H311" s="67"/>
+      <c r="I311" s="67"/>
+      <c r="J311" s="67"/>
+      <c r="K311" s="67"/>
+      <c r="L311" s="67"/>
+      <c r="M311" s="67"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -12982,20 +14060,20 @@
       <c r="M314" s="18"/>
     </row>
     <row r="316" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B316" s="65" t="s">
+      <c r="B316" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="66"/>
-      <c r="D316" s="66"/>
-      <c r="E316" s="66"/>
-      <c r="F316" s="66"/>
-      <c r="G316" s="66"/>
-      <c r="H316" s="66"/>
-      <c r="I316" s="66"/>
-      <c r="J316" s="66"/>
-      <c r="K316" s="66"/>
-      <c r="L316" s="66"/>
-      <c r="M316" s="67"/>
+      <c r="C316" s="69"/>
+      <c r="D316" s="69"/>
+      <c r="E316" s="69"/>
+      <c r="F316" s="69"/>
+      <c r="G316" s="69"/>
+      <c r="H316" s="69"/>
+      <c r="I316" s="69"/>
+      <c r="J316" s="69"/>
+      <c r="K316" s="69"/>
+      <c r="L316" s="69"/>
+      <c r="M316" s="70"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -13034,52 +14112,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="61" t="s">
+      <c r="B318" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="62"/>
-      <c r="D318" s="62"/>
-      <c r="E318" s="62"/>
-      <c r="F318" s="62"/>
-      <c r="G318" s="62"/>
-      <c r="H318" s="62"/>
-      <c r="I318" s="62"/>
-      <c r="J318" s="62"/>
-      <c r="K318" s="62"/>
-      <c r="L318" s="62"/>
-      <c r="M318" s="63"/>
+      <c r="C318" s="65"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="65"/>
+      <c r="F318" s="65"/>
+      <c r="G318" s="65"/>
+      <c r="H318" s="65"/>
+      <c r="I318" s="65"/>
+      <c r="J318" s="65"/>
+      <c r="K318" s="65"/>
+      <c r="L318" s="65"/>
+      <c r="M318" s="66"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="61" t="s">
+      <c r="B319" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="62"/>
-      <c r="D319" s="62"/>
-      <c r="E319" s="62"/>
-      <c r="F319" s="62"/>
-      <c r="G319" s="62"/>
-      <c r="H319" s="62"/>
-      <c r="I319" s="62"/>
-      <c r="J319" s="62"/>
-      <c r="K319" s="62"/>
-      <c r="L319" s="62"/>
-      <c r="M319" s="63"/>
+      <c r="C319" s="65"/>
+      <c r="D319" s="65"/>
+      <c r="E319" s="65"/>
+      <c r="F319" s="65"/>
+      <c r="G319" s="65"/>
+      <c r="H319" s="65"/>
+      <c r="I319" s="65"/>
+      <c r="J319" s="65"/>
+      <c r="K319" s="65"/>
+      <c r="L319" s="65"/>
+      <c r="M319" s="66"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="64" t="s">
+      <c r="B320" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="64"/>
-      <c r="D320" s="64"/>
-      <c r="E320" s="64"/>
-      <c r="F320" s="64"/>
-      <c r="G320" s="64"/>
-      <c r="H320" s="64"/>
-      <c r="I320" s="64"/>
-      <c r="J320" s="64"/>
-      <c r="K320" s="64"/>
-      <c r="L320" s="64"/>
-      <c r="M320" s="64"/>
+      <c r="C320" s="67"/>
+      <c r="D320" s="67"/>
+      <c r="E320" s="67"/>
+      <c r="F320" s="67"/>
+      <c r="G320" s="67"/>
+      <c r="H320" s="67"/>
+      <c r="I320" s="67"/>
+      <c r="J320" s="67"/>
+      <c r="K320" s="67"/>
+      <c r="L320" s="67"/>
+      <c r="M320" s="67"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -13096,20 +14174,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="61" t="s">
+      <c r="B322" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="62"/>
-      <c r="D322" s="62"/>
-      <c r="E322" s="62"/>
-      <c r="F322" s="62"/>
-      <c r="G322" s="62"/>
-      <c r="H322" s="62"/>
-      <c r="I322" s="62"/>
-      <c r="J322" s="62"/>
-      <c r="K322" s="62"/>
-      <c r="L322" s="62"/>
-      <c r="M322" s="63"/>
+      <c r="C322" s="65"/>
+      <c r="D322" s="65"/>
+      <c r="E322" s="65"/>
+      <c r="F322" s="65"/>
+      <c r="G322" s="65"/>
+      <c r="H322" s="65"/>
+      <c r="I322" s="65"/>
+      <c r="J322" s="65"/>
+      <c r="K322" s="65"/>
+      <c r="L322" s="65"/>
+      <c r="M322" s="66"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -13126,20 +14204,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="61" t="s">
+      <c r="B324" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="62"/>
-      <c r="D324" s="62"/>
-      <c r="E324" s="62"/>
-      <c r="F324" s="62"/>
-      <c r="G324" s="62"/>
-      <c r="H324" s="62"/>
-      <c r="I324" s="62"/>
-      <c r="J324" s="62"/>
-      <c r="K324" s="62"/>
-      <c r="L324" s="62"/>
-      <c r="M324" s="63"/>
+      <c r="C324" s="65"/>
+      <c r="D324" s="65"/>
+      <c r="E324" s="65"/>
+      <c r="F324" s="65"/>
+      <c r="G324" s="65"/>
+      <c r="H324" s="65"/>
+      <c r="I324" s="65"/>
+      <c r="J324" s="65"/>
+      <c r="K324" s="65"/>
+      <c r="L324" s="65"/>
+      <c r="M324" s="66"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -13170,20 +14248,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="61" t="s">
+      <c r="B327" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="62"/>
-      <c r="D327" s="62"/>
-      <c r="E327" s="62"/>
-      <c r="F327" s="62"/>
-      <c r="G327" s="62"/>
-      <c r="H327" s="62"/>
-      <c r="I327" s="62"/>
-      <c r="J327" s="62"/>
-      <c r="K327" s="62"/>
-      <c r="L327" s="62"/>
-      <c r="M327" s="63"/>
+      <c r="C327" s="65"/>
+      <c r="D327" s="65"/>
+      <c r="E327" s="65"/>
+      <c r="F327" s="65"/>
+      <c r="G327" s="65"/>
+      <c r="H327" s="65"/>
+      <c r="I327" s="65"/>
+      <c r="J327" s="65"/>
+      <c r="K327" s="65"/>
+      <c r="L327" s="65"/>
+      <c r="M327" s="66"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -13200,20 +14278,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="61" t="s">
+      <c r="B329" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="62"/>
-      <c r="D329" s="62"/>
-      <c r="E329" s="62"/>
-      <c r="F329" s="62"/>
-      <c r="G329" s="62"/>
-      <c r="H329" s="62"/>
-      <c r="I329" s="62"/>
-      <c r="J329" s="62"/>
-      <c r="K329" s="62"/>
-      <c r="L329" s="62"/>
-      <c r="M329" s="63"/>
+      <c r="C329" s="65"/>
+      <c r="D329" s="65"/>
+      <c r="E329" s="65"/>
+      <c r="F329" s="65"/>
+      <c r="G329" s="65"/>
+      <c r="H329" s="65"/>
+      <c r="I329" s="65"/>
+      <c r="J329" s="65"/>
+      <c r="K329" s="65"/>
+      <c r="L329" s="65"/>
+      <c r="M329" s="66"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -13519,20 +14597,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -14254,7 +15332,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14275,20 +15353,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -15245,8 +16323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15267,20 +16345,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -16111,6 +17189,790 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="57">
+        <v>41947</v>
+      </c>
+      <c r="F3" s="57">
+        <f>E3</f>
+        <v>41947</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57">
+        <v>41947</v>
+      </c>
+      <c r="I3" s="57">
+        <f>H3</f>
+        <v>41947</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="61">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="57">
+        <v>41947</v>
+      </c>
+      <c r="F4" s="57">
+        <v>41947</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57">
+        <v>41947</v>
+      </c>
+      <c r="I4" s="57">
+        <v>41947</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="61">
+        <f>G4/J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="57">
+        <v>41947</v>
+      </c>
+      <c r="F5" s="57">
+        <v>41947</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="57">
+        <v>41946</v>
+      </c>
+      <c r="I5" s="57">
+        <v>41946</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="K5" s="61">
+        <f>G5/J5</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57">
+        <v>41948</v>
+      </c>
+      <c r="F6" s="57">
+        <v>41948</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57">
+        <v>41948</v>
+      </c>
+      <c r="I6" s="57">
+        <v>41948</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="61">
+        <f>G6/J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="57">
+        <v>41948</v>
+      </c>
+      <c r="F7" s="57">
+        <v>41948</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
+        <v>41949</v>
+      </c>
+      <c r="I7" s="57">
+        <v>41949</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="61">
+        <f>G7/J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <f>I8-H8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="57">
+        <v>41949</v>
+      </c>
+      <c r="F8" s="57">
+        <v>41955</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="57">
+        <v>41949</v>
+      </c>
+      <c r="I8" s="54">
+        <v>41952</v>
+      </c>
+      <c r="J8" s="18">
+        <v>6</v>
+      </c>
+      <c r="K8" s="61">
+        <f>G8/J8</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="57">
+        <v>41955</v>
+      </c>
+      <c r="F9" s="57">
+        <v>41955</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="57">
+        <v>41957</v>
+      </c>
+      <c r="I9" s="57">
+        <v>41957</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="61">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <f>F10-E10</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="57">
+        <v>41948</v>
+      </c>
+      <c r="F10" s="57">
+        <v>41956</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="57">
+        <v>41948</v>
+      </c>
+      <c r="I10" s="57">
+        <v>41956</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="K10" s="61">
+        <f>G10/J10</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="57">
+        <v>41956</v>
+      </c>
+      <c r="F11" s="57">
+        <v>41956</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="57">
+        <v>41957</v>
+      </c>
+      <c r="I11" s="57">
+        <v>41957</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3.25</v>
+      </c>
+      <c r="K11" s="61">
+        <f>J11/G11</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57">
+        <v>41957</v>
+      </c>
+      <c r="F12" s="57">
+        <v>41958</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="57">
+        <v>41958</v>
+      </c>
+      <c r="I12" s="57">
+        <v>41958</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="K12" s="61">
+        <f>G12/J12</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="57">
+        <v>41955</v>
+      </c>
+      <c r="F13" s="57">
+        <v>41955</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="57">
+        <v>41955</v>
+      </c>
+      <c r="I13" s="57">
+        <v>41955</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="61">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="57">
+        <v>41958</v>
+      </c>
+      <c r="F14" s="57">
+        <v>41958</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="57">
+        <v>41958</v>
+      </c>
+      <c r="I14" s="57">
+        <v>41958</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="61">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="57">
+        <v>41959</v>
+      </c>
+      <c r="F15" s="57">
+        <v>41959</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="57">
+        <v>41958</v>
+      </c>
+      <c r="I15" s="57">
+        <v>41958</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="61">
+        <f>G15/J15</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7">
+        <f>F16-E16+1</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="57">
+        <v>41944</v>
+      </c>
+      <c r="F16" s="57">
+        <v>41946</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7</v>
+      </c>
+      <c r="H16" s="57">
+        <v>41944</v>
+      </c>
+      <c r="I16" s="57">
+        <v>41946</v>
+      </c>
+      <c r="J16" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="K16" s="61">
+        <f>G16/J16</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="62">
+        <v>41946</v>
+      </c>
+      <c r="F17" s="62">
+        <v>41946</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="62">
+        <v>41946</v>
+      </c>
+      <c r="I17" s="62">
+        <v>41946</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="63">
+        <f>J17/G17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,13 @@
     <sheet name="Iteration 2" sheetId="5" r:id="rId3"/>
     <sheet name="Iteration 3" sheetId="6" r:id="rId4"/>
     <sheet name="Iteration 4" sheetId="9" r:id="rId5"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId6"/>
+    <sheet name="Iteration 5" sheetId="11" r:id="rId6"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="217">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -667,6 +667,30 @@
   </si>
   <si>
     <t>Client Meeting 5</t>
+  </si>
+  <si>
+    <t>Review requirements and reschedule</t>
+  </si>
+  <si>
+    <t>Update ER diagram and database</t>
+  </si>
+  <si>
+    <t>State transition (Lecturer)</t>
+  </si>
+  <si>
+    <t>Medical administration</t>
+  </si>
+  <si>
+    <t>Historial charts for vital signs</t>
+  </si>
+  <si>
+    <t>Ensure that the changed state does not affect the case activated</t>
+  </si>
+  <si>
+    <t>Ensure that the investigation and medication tab changes accordingly when state is changed</t>
+  </si>
+  <si>
+    <t>Generation of test scenarios for functionalities in Iteration 5</t>
   </si>
 </sst>
 </file>
@@ -938,7 +962,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1123,6 +1147,21 @@
     <xf numFmtId="9" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1134,21 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1164,6 +1188,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1478,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="942031296"/>
-        <c:axId val="942032384"/>
+        <c:axId val="1092316928"/>
+        <c:axId val="1092318560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="942031296"/>
+        <c:axId val="1092316928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942032384"/>
+        <c:crossAx val="1092318560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1533,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942032384"/>
+        <c:axId val="1092318560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1585,7 +1615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942031296"/>
+        <c:crossAx val="1092316928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1996,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="942031840"/>
-        <c:axId val="942021504"/>
+        <c:axId val="1092326720"/>
+        <c:axId val="1092328896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="942031840"/>
+        <c:axId val="1092326720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942021504"/>
+        <c:crossAx val="1092328896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942021504"/>
+        <c:axId val="1092328896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2103,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942031840"/>
+        <c:crossAx val="1092326720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2418,7 +2448,7 @@
             <c:numRef>
               <c:f>'[1]Iteration 3'!$K$3:$K$22</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2496,11 +2526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="942022592"/>
-        <c:axId val="942028032"/>
+        <c:axId val="1092327808"/>
+        <c:axId val="1092328352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="942022592"/>
+        <c:axId val="1092327808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942028032"/>
+        <c:crossAx val="1092328352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="942028032"/>
+        <c:axId val="1092328352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2572,7 +2602,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2603,7 +2633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="942022592"/>
+        <c:crossAx val="1092327808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2968,11 +2998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="877597776"/>
-        <c:axId val="877598864"/>
+        <c:axId val="1092319648"/>
+        <c:axId val="1092330528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="877597776"/>
+        <c:axId val="1092319648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877598864"/>
+        <c:crossAx val="1092330528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3023,7 +3053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="877598864"/>
+        <c:axId val="1092330528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3075,7 +3105,444 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877597776"/>
+        <c:crossAx val="1092319648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 5'!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Review requirements and reschedule</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update ER diagram and database</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>State transition (Lecturer)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medical administration</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Historial charts for vital signs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ensure that the changed state does not affect the case activated</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ensure that the investigation and medication tab changes accordingly when state is changed</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation of test scenarios for functionalities in Iteration 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 5'!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1092321824"/>
+        <c:axId val="1092322912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1092321824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092322912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1092322912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092321824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3278,6 +3745,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5329,6 +5836,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5475,23 +6485,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Detailed Schedule"/>
       <sheetName val="Iteration 1"/>
-      <sheetName val="Sheet1"/>
       <sheetName val="Iteration 2"/>
       <sheetName val="Iteration 3"/>
       <sheetName val="Guidelines for Task Metrics"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="3">
         <row r="3">
           <cell r="B3" t="str">
             <v>Review Requirements</v>
@@ -5653,7 +6699,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5949,28 +6996,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -6435,26 +7482,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -7055,11 +8102,11 @@
       <c r="K31" s="68"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="71" t="s">
+      <c r="O31" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -7182,20 +8229,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="71"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -7257,20 +8304,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="71"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -7453,11 +8500,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="71" t="s">
+      <c r="O41" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -7553,20 +8600,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="66"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -7687,20 +8734,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="66"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="71"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -7743,20 +8790,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="66"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="71"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -7955,25 +9002,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="70"/>
-      <c r="O57" s="71" t="s">
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="66"/>
+      <c r="O57" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -8021,20 +9068,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="66"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="71"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -8088,20 +9135,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -8194,20 +9241,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="66"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="71"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -8363,20 +9410,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="66"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="70"/>
+      <c r="M70" s="71"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -8407,20 +9454,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="66"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="71"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -8480,20 +9527,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="66"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="71"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -8524,20 +9571,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="66"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="71"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -8723,11 +9770,11 @@
       <c r="K85" s="68"/>
       <c r="L85" s="68"/>
       <c r="M85" s="68"/>
-      <c r="O85" s="71" t="s">
+      <c r="O85" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
+      <c r="P85" s="67"/>
+      <c r="Q85" s="67"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -8773,20 +9820,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72"/>
+      <c r="L87" s="72"/>
+      <c r="M87" s="72"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -8840,20 +9887,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="67" t="s">
+      <c r="B89" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="67"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -8945,20 +9992,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="72"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -9060,20 +10107,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="72"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -9104,20 +10151,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="72"/>
+      <c r="L98" s="72"/>
+      <c r="M98" s="72"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -9233,20 +10280,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="67" t="s">
+      <c r="B103" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="67"/>
-      <c r="M103" s="67"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
+      <c r="K103" s="72"/>
+      <c r="L103" s="72"/>
+      <c r="M103" s="72"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -9277,20 +10324,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="67" t="s">
+      <c r="B105" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="67"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="72"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -9466,11 +10513,11 @@
       <c r="K113" s="68"/>
       <c r="L113" s="68"/>
       <c r="M113" s="68"/>
-      <c r="O113" s="71" t="s">
+      <c r="O113" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="71"/>
-      <c r="Q113" s="71"/>
+      <c r="P113" s="67"/>
+      <c r="Q113" s="67"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -9516,20 +10563,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="67"/>
-      <c r="L115" s="67"/>
-      <c r="M115" s="67"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="F115" s="72"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
+      <c r="L115" s="72"/>
+      <c r="M115" s="72"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -9583,20 +10630,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-      <c r="L117" s="67"/>
-      <c r="M117" s="67"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="F117" s="72"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="72"/>
+      <c r="M117" s="72"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -9688,20 +10735,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="67" t="s">
+      <c r="B120" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="67"/>
-      <c r="L120" s="67"/>
-      <c r="M120" s="67"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="72"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -9801,20 +10848,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="67" t="s">
+      <c r="B124" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="67"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="67"/>
-      <c r="K124" s="67"/>
-      <c r="L124" s="67"/>
-      <c r="M124" s="67"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="72"/>
+      <c r="E124" s="72"/>
+      <c r="F124" s="72"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="72"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -9845,20 +10892,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="67" t="s">
+      <c r="B126" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
-      <c r="K126" s="67"/>
-      <c r="L126" s="67"/>
-      <c r="M126" s="67"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
+      <c r="L126" s="72"/>
+      <c r="M126" s="72"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -9918,20 +10965,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="67" t="s">
+      <c r="B129" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
-      <c r="L129" s="67"/>
-      <c r="M129" s="67"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="72"/>
+      <c r="E129" s="72"/>
+      <c r="F129" s="72"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="72"/>
+      <c r="M129" s="72"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -9962,20 +11009,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="67" t="s">
+      <c r="B131" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
-      <c r="L131" s="67"/>
-      <c r="M131" s="67"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="72"/>
+      <c r="F131" s="72"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
+      <c r="L131" s="72"/>
+      <c r="M131" s="72"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -10189,20 +11236,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="67" t="s">
+      <c r="B141" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="67"/>
-      <c r="L141" s="67"/>
-      <c r="M141" s="67"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="72"/>
+      <c r="F141" s="72"/>
+      <c r="G141" s="72"/>
+      <c r="H141" s="72"/>
+      <c r="I141" s="72"/>
+      <c r="J141" s="72"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="72"/>
+      <c r="M141" s="72"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -10234,20 +11281,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="67" t="s">
+      <c r="B143" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
-      <c r="I143" s="67"/>
-      <c r="J143" s="67"/>
-      <c r="K143" s="67"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="67"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="72"/>
+      <c r="K143" s="72"/>
+      <c r="L143" s="72"/>
+      <c r="M143" s="72"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -10306,20 +11353,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="67" t="s">
+      <c r="B146" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
-      <c r="I146" s="67"/>
-      <c r="J146" s="67"/>
-      <c r="K146" s="67"/>
-      <c r="L146" s="67"/>
-      <c r="M146" s="67"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="72"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -10466,20 +11513,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="67" t="s">
+      <c r="B152" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="67"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="67"/>
-      <c r="H152" s="67"/>
-      <c r="I152" s="67"/>
-      <c r="J152" s="67"/>
-      <c r="K152" s="67"/>
-      <c r="L152" s="67"/>
-      <c r="M152" s="67"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="72"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="72"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="72"/>
+      <c r="J152" s="72"/>
+      <c r="K152" s="72"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="72"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -10510,20 +11557,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="67" t="s">
+      <c r="B154" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="67"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67"/>
-      <c r="H154" s="67"/>
-      <c r="I154" s="67"/>
-      <c r="J154" s="67"/>
-      <c r="K154" s="67"/>
-      <c r="L154" s="67"/>
-      <c r="M154" s="67"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="72"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
+      <c r="I154" s="72"/>
+      <c r="J154" s="72"/>
+      <c r="K154" s="72"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="72"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -10583,20 +11630,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="67" t="s">
+      <c r="B157" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="67"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="67"/>
-      <c r="I157" s="67"/>
-      <c r="J157" s="67"/>
-      <c r="K157" s="67"/>
-      <c r="L157" s="67"/>
-      <c r="M157" s="67"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
+      <c r="K157" s="72"/>
+      <c r="L157" s="72"/>
+      <c r="M157" s="72"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -10627,20 +11674,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="67" t="s">
+      <c r="B159" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="67"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="67"/>
-      <c r="H159" s="67"/>
-      <c r="I159" s="67"/>
-      <c r="J159" s="67"/>
-      <c r="K159" s="67"/>
-      <c r="L159" s="67"/>
-      <c r="M159" s="67"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="72"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="72"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -10771,20 +11818,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="67" t="s">
+      <c r="B167" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="67"/>
-      <c r="D167" s="67"/>
-      <c r="E167" s="67"/>
-      <c r="F167" s="67"/>
-      <c r="G167" s="67"/>
-      <c r="H167" s="67"/>
-      <c r="I167" s="67"/>
-      <c r="J167" s="67"/>
-      <c r="K167" s="67"/>
-      <c r="L167" s="67"/>
-      <c r="M167" s="67"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="72"/>
+      <c r="E167" s="72"/>
+      <c r="F167" s="72"/>
+      <c r="G167" s="72"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="72"/>
+      <c r="K167" s="72"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="72"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -10816,20 +11863,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="67" t="s">
+      <c r="B169" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="67"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="67"/>
-      <c r="I169" s="67"/>
-      <c r="J169" s="67"/>
-      <c r="K169" s="67"/>
-      <c r="L169" s="67"/>
-      <c r="M169" s="67"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+      <c r="K169" s="72"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -10888,20 +11935,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="67" t="s">
+      <c r="B172" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="67"/>
-      <c r="D172" s="67"/>
-      <c r="E172" s="67"/>
-      <c r="F172" s="67"/>
-      <c r="G172" s="67"/>
-      <c r="H172" s="67"/>
-      <c r="I172" s="67"/>
-      <c r="J172" s="67"/>
-      <c r="K172" s="67"/>
-      <c r="L172" s="67"/>
-      <c r="M172" s="67"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="72"/>
+      <c r="L172" s="72"/>
+      <c r="M172" s="72"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -10961,20 +12008,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="67" t="s">
+      <c r="B175" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="67"/>
-      <c r="D175" s="67"/>
-      <c r="E175" s="67"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="67"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="67"/>
-      <c r="J175" s="67"/>
-      <c r="K175" s="67"/>
-      <c r="L175" s="67"/>
-      <c r="M175" s="67"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="72"/>
+      <c r="E175" s="72"/>
+      <c r="F175" s="72"/>
+      <c r="G175" s="72"/>
+      <c r="H175" s="72"/>
+      <c r="I175" s="72"/>
+      <c r="J175" s="72"/>
+      <c r="K175" s="72"/>
+      <c r="L175" s="72"/>
+      <c r="M175" s="72"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -11005,20 +12052,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="67" t="s">
+      <c r="B177" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="67"/>
-      <c r="H177" s="67"/>
-      <c r="I177" s="67"/>
-      <c r="J177" s="67"/>
-      <c r="K177" s="67"/>
-      <c r="L177" s="67"/>
-      <c r="M177" s="67"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="72"/>
+      <c r="G177" s="72"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="72"/>
+      <c r="K177" s="72"/>
+      <c r="L177" s="72"/>
+      <c r="M177" s="72"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -11078,20 +12125,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="67" t="s">
+      <c r="B180" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="67"/>
-      <c r="D180" s="67"/>
-      <c r="E180" s="67"/>
-      <c r="F180" s="67"/>
-      <c r="G180" s="67"/>
-      <c r="H180" s="67"/>
-      <c r="I180" s="67"/>
-      <c r="J180" s="67"/>
-      <c r="K180" s="67"/>
-      <c r="L180" s="67"/>
-      <c r="M180" s="67"/>
+      <c r="C180" s="72"/>
+      <c r="D180" s="72"/>
+      <c r="E180" s="72"/>
+      <c r="F180" s="72"/>
+      <c r="G180" s="72"/>
+      <c r="H180" s="72"/>
+      <c r="I180" s="72"/>
+      <c r="J180" s="72"/>
+      <c r="K180" s="72"/>
+      <c r="L180" s="72"/>
+      <c r="M180" s="72"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -11122,20 +12169,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="67" t="s">
+      <c r="B182" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="67"/>
-      <c r="D182" s="67"/>
-      <c r="E182" s="67"/>
-      <c r="F182" s="67"/>
-      <c r="G182" s="67"/>
-      <c r="H182" s="67"/>
-      <c r="I182" s="67"/>
-      <c r="J182" s="67"/>
-      <c r="K182" s="67"/>
-      <c r="L182" s="67"/>
-      <c r="M182" s="67"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
+      <c r="G182" s="72"/>
+      <c r="H182" s="72"/>
+      <c r="I182" s="72"/>
+      <c r="J182" s="72"/>
+      <c r="K182" s="72"/>
+      <c r="L182" s="72"/>
+      <c r="M182" s="72"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -11266,20 +12313,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="67" t="s">
+      <c r="B189" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="67"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="67"/>
-      <c r="F189" s="67"/>
-      <c r="G189" s="67"/>
-      <c r="H189" s="67"/>
-      <c r="I189" s="67"/>
-      <c r="J189" s="67"/>
-      <c r="K189" s="67"/>
-      <c r="L189" s="67"/>
-      <c r="M189" s="67"/>
+      <c r="C189" s="72"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
+      <c r="I189" s="72"/>
+      <c r="J189" s="72"/>
+      <c r="K189" s="72"/>
+      <c r="L189" s="72"/>
+      <c r="M189" s="72"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -11311,20 +12358,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="67" t="s">
+      <c r="B191" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="67"/>
-      <c r="D191" s="67"/>
-      <c r="E191" s="67"/>
-      <c r="F191" s="67"/>
-      <c r="G191" s="67"/>
-      <c r="H191" s="67"/>
-      <c r="I191" s="67"/>
-      <c r="J191" s="67"/>
-      <c r="K191" s="67"/>
-      <c r="L191" s="67"/>
-      <c r="M191" s="67"/>
+      <c r="C191" s="72"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72"/>
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
+      <c r="I191" s="72"/>
+      <c r="J191" s="72"/>
+      <c r="K191" s="72"/>
+      <c r="L191" s="72"/>
+      <c r="M191" s="72"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -11383,20 +12430,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="67" t="s">
+      <c r="B194" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="67"/>
-      <c r="D194" s="67"/>
-      <c r="E194" s="67"/>
-      <c r="F194" s="67"/>
-      <c r="G194" s="67"/>
-      <c r="H194" s="67"/>
-      <c r="I194" s="67"/>
-      <c r="J194" s="67"/>
-      <c r="K194" s="67"/>
-      <c r="L194" s="67"/>
-      <c r="M194" s="67"/>
+      <c r="C194" s="72"/>
+      <c r="D194" s="72"/>
+      <c r="E194" s="72"/>
+      <c r="F194" s="72"/>
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72"/>
+      <c r="K194" s="72"/>
+      <c r="L194" s="72"/>
+      <c r="M194" s="72"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -11455,20 +12502,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="67" t="s">
+      <c r="B197" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="67"/>
-      <c r="D197" s="67"/>
-      <c r="E197" s="67"/>
-      <c r="F197" s="67"/>
-      <c r="G197" s="67"/>
-      <c r="H197" s="67"/>
-      <c r="I197" s="67"/>
-      <c r="J197" s="67"/>
-      <c r="K197" s="67"/>
-      <c r="L197" s="67"/>
-      <c r="M197" s="67"/>
+      <c r="C197" s="72"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="72"/>
+      <c r="G197" s="72"/>
+      <c r="H197" s="72"/>
+      <c r="I197" s="72"/>
+      <c r="J197" s="72"/>
+      <c r="K197" s="72"/>
+      <c r="L197" s="72"/>
+      <c r="M197" s="72"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -11499,20 +12546,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="67" t="s">
+      <c r="B199" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="67"/>
-      <c r="D199" s="67"/>
-      <c r="E199" s="67"/>
-      <c r="F199" s="67"/>
-      <c r="G199" s="67"/>
-      <c r="H199" s="67"/>
-      <c r="I199" s="67"/>
-      <c r="J199" s="67"/>
-      <c r="K199" s="67"/>
-      <c r="L199" s="67"/>
-      <c r="M199" s="67"/>
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="72"/>
+      <c r="K199" s="72"/>
+      <c r="L199" s="72"/>
+      <c r="M199" s="72"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -11627,20 +12674,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="67" t="s">
+      <c r="B204" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="67"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="67"/>
-      <c r="F204" s="67"/>
-      <c r="G204" s="67"/>
-      <c r="H204" s="67"/>
-      <c r="I204" s="67"/>
-      <c r="J204" s="67"/>
-      <c r="K204" s="67"/>
-      <c r="L204" s="67"/>
-      <c r="M204" s="67"/>
+      <c r="C204" s="72"/>
+      <c r="D204" s="72"/>
+      <c r="E204" s="72"/>
+      <c r="F204" s="72"/>
+      <c r="G204" s="72"/>
+      <c r="H204" s="72"/>
+      <c r="I204" s="72"/>
+      <c r="J204" s="72"/>
+      <c r="K204" s="72"/>
+      <c r="L204" s="72"/>
+      <c r="M204" s="72"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -11671,20 +12718,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="67" t="s">
+      <c r="B206" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="67"/>
-      <c r="D206" s="67"/>
-      <c r="E206" s="67"/>
-      <c r="F206" s="67"/>
-      <c r="G206" s="67"/>
-      <c r="H206" s="67"/>
-      <c r="I206" s="67"/>
-      <c r="J206" s="67"/>
-      <c r="K206" s="67"/>
-      <c r="L206" s="67"/>
-      <c r="M206" s="67"/>
+      <c r="C206" s="72"/>
+      <c r="D206" s="72"/>
+      <c r="E206" s="72"/>
+      <c r="F206" s="72"/>
+      <c r="G206" s="72"/>
+      <c r="H206" s="72"/>
+      <c r="I206" s="72"/>
+      <c r="J206" s="72"/>
+      <c r="K206" s="72"/>
+      <c r="L206" s="72"/>
+      <c r="M206" s="72"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -11843,20 +12890,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="67" t="s">
+      <c r="B214" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="67"/>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="67"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="67"/>
-      <c r="J214" s="67"/>
-      <c r="K214" s="67"/>
-      <c r="L214" s="67"/>
-      <c r="M214" s="67"/>
+      <c r="C214" s="72"/>
+      <c r="D214" s="72"/>
+      <c r="E214" s="72"/>
+      <c r="F214" s="72"/>
+      <c r="G214" s="72"/>
+      <c r="H214" s="72"/>
+      <c r="I214" s="72"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="72"/>
+      <c r="L214" s="72"/>
+      <c r="M214" s="72"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -11888,20 +12935,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="67" t="s">
+      <c r="B216" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="67"/>
-      <c r="D216" s="67"/>
-      <c r="E216" s="67"/>
-      <c r="F216" s="67"/>
-      <c r="G216" s="67"/>
-      <c r="H216" s="67"/>
-      <c r="I216" s="67"/>
-      <c r="J216" s="67"/>
-      <c r="K216" s="67"/>
-      <c r="L216" s="67"/>
-      <c r="M216" s="67"/>
+      <c r="C216" s="72"/>
+      <c r="D216" s="72"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="72"/>
+      <c r="G216" s="72"/>
+      <c r="H216" s="72"/>
+      <c r="I216" s="72"/>
+      <c r="J216" s="72"/>
+      <c r="K216" s="72"/>
+      <c r="L216" s="72"/>
+      <c r="M216" s="72"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -11960,20 +13007,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="67" t="s">
+      <c r="B219" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="67"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="67"/>
-      <c r="F219" s="67"/>
-      <c r="G219" s="67"/>
-      <c r="H219" s="67"/>
-      <c r="I219" s="67"/>
-      <c r="J219" s="67"/>
-      <c r="K219" s="67"/>
-      <c r="L219" s="67"/>
-      <c r="M219" s="67"/>
+      <c r="C219" s="72"/>
+      <c r="D219" s="72"/>
+      <c r="E219" s="72"/>
+      <c r="F219" s="72"/>
+      <c r="G219" s="72"/>
+      <c r="H219" s="72"/>
+      <c r="I219" s="72"/>
+      <c r="J219" s="72"/>
+      <c r="K219" s="72"/>
+      <c r="L219" s="72"/>
+      <c r="M219" s="72"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -12035,20 +13082,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="67" t="s">
+      <c r="B222" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="67"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="67"/>
-      <c r="F222" s="67"/>
-      <c r="G222" s="67"/>
-      <c r="H222" s="67"/>
-      <c r="I222" s="67"/>
-      <c r="J222" s="67"/>
-      <c r="K222" s="67"/>
-      <c r="L222" s="67"/>
-      <c r="M222" s="67"/>
+      <c r="C222" s="72"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="72"/>
+      <c r="K222" s="72"/>
+      <c r="L222" s="72"/>
+      <c r="M222" s="72"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -12079,20 +13126,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="67" t="s">
+      <c r="B224" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="67"/>
-      <c r="D224" s="67"/>
-      <c r="E224" s="67"/>
-      <c r="F224" s="67"/>
-      <c r="G224" s="67"/>
-      <c r="H224" s="67"/>
-      <c r="I224" s="67"/>
-      <c r="J224" s="67"/>
-      <c r="K224" s="67"/>
-      <c r="L224" s="67"/>
-      <c r="M224" s="67"/>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
+      <c r="K224" s="72"/>
+      <c r="L224" s="72"/>
+      <c r="M224" s="72"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -12152,20 +13199,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="67" t="s">
+      <c r="B227" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="67"/>
-      <c r="D227" s="67"/>
-      <c r="E227" s="67"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="67"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="67"/>
-      <c r="J227" s="67"/>
-      <c r="K227" s="67"/>
-      <c r="L227" s="67"/>
-      <c r="M227" s="67"/>
+      <c r="C227" s="72"/>
+      <c r="D227" s="72"/>
+      <c r="E227" s="72"/>
+      <c r="F227" s="72"/>
+      <c r="G227" s="72"/>
+      <c r="H227" s="72"/>
+      <c r="I227" s="72"/>
+      <c r="J227" s="72"/>
+      <c r="K227" s="72"/>
+      <c r="L227" s="72"/>
+      <c r="M227" s="72"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -12196,20 +13243,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="67" t="s">
+      <c r="B229" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="67"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="67"/>
-      <c r="L229" s="67"/>
-      <c r="M229" s="67"/>
+      <c r="C229" s="72"/>
+      <c r="D229" s="72"/>
+      <c r="E229" s="72"/>
+      <c r="F229" s="72"/>
+      <c r="G229" s="72"/>
+      <c r="H229" s="72"/>
+      <c r="I229" s="72"/>
+      <c r="J229" s="72"/>
+      <c r="K229" s="72"/>
+      <c r="L229" s="72"/>
+      <c r="M229" s="72"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -12340,36 +13387,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="67" t="s">
+      <c r="B236" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="67"/>
-      <c r="D236" s="67"/>
-      <c r="E236" s="67"/>
-      <c r="F236" s="67"/>
-      <c r="G236" s="67"/>
-      <c r="H236" s="67"/>
-      <c r="I236" s="67"/>
-      <c r="J236" s="67"/>
-      <c r="K236" s="67"/>
-      <c r="L236" s="67"/>
-      <c r="M236" s="67"/>
+      <c r="C236" s="72"/>
+      <c r="D236" s="72"/>
+      <c r="E236" s="72"/>
+      <c r="F236" s="72"/>
+      <c r="G236" s="72"/>
+      <c r="H236" s="72"/>
+      <c r="I236" s="72"/>
+      <c r="J236" s="72"/>
+      <c r="K236" s="72"/>
+      <c r="L236" s="72"/>
+      <c r="M236" s="72"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="67" t="s">
+      <c r="B237" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="67"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="67"/>
-      <c r="F237" s="67"/>
-      <c r="G237" s="67"/>
-      <c r="H237" s="67"/>
-      <c r="I237" s="67"/>
-      <c r="J237" s="67"/>
-      <c r="K237" s="67"/>
-      <c r="L237" s="67"/>
-      <c r="M237" s="67"/>
+      <c r="C237" s="72"/>
+      <c r="D237" s="72"/>
+      <c r="E237" s="72"/>
+      <c r="F237" s="72"/>
+      <c r="G237" s="72"/>
+      <c r="H237" s="72"/>
+      <c r="I237" s="72"/>
+      <c r="J237" s="72"/>
+      <c r="K237" s="72"/>
+      <c r="L237" s="72"/>
+      <c r="M237" s="72"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -12428,36 +13475,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="67" t="s">
+      <c r="B240" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="67"/>
-      <c r="D240" s="67"/>
-      <c r="E240" s="67"/>
-      <c r="F240" s="67"/>
-      <c r="G240" s="67"/>
-      <c r="H240" s="67"/>
-      <c r="I240" s="67"/>
-      <c r="J240" s="67"/>
-      <c r="K240" s="67"/>
-      <c r="L240" s="67"/>
-      <c r="M240" s="67"/>
+      <c r="C240" s="72"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="72"/>
+      <c r="F240" s="72"/>
+      <c r="G240" s="72"/>
+      <c r="H240" s="72"/>
+      <c r="I240" s="72"/>
+      <c r="J240" s="72"/>
+      <c r="K240" s="72"/>
+      <c r="L240" s="72"/>
+      <c r="M240" s="72"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="67" t="s">
+      <c r="B241" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="67"/>
-      <c r="D241" s="67"/>
-      <c r="E241" s="67"/>
-      <c r="F241" s="67"/>
-      <c r="G241" s="67"/>
-      <c r="H241" s="67"/>
-      <c r="I241" s="67"/>
-      <c r="J241" s="67"/>
-      <c r="K241" s="67"/>
-      <c r="L241" s="67"/>
-      <c r="M241" s="67"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="72"/>
+      <c r="F241" s="72"/>
+      <c r="G241" s="72"/>
+      <c r="H241" s="72"/>
+      <c r="I241" s="72"/>
+      <c r="J241" s="72"/>
+      <c r="K241" s="72"/>
+      <c r="L241" s="72"/>
+      <c r="M241" s="72"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -12488,20 +13535,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="67" t="s">
+      <c r="B243" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="67"/>
-      <c r="D243" s="67"/>
-      <c r="E243" s="67"/>
-      <c r="F243" s="67"/>
-      <c r="G243" s="67"/>
-      <c r="H243" s="67"/>
-      <c r="I243" s="67"/>
-      <c r="J243" s="67"/>
-      <c r="K243" s="67"/>
-      <c r="L243" s="67"/>
-      <c r="M243" s="67"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="72"/>
+      <c r="F243" s="72"/>
+      <c r="G243" s="72"/>
+      <c r="H243" s="72"/>
+      <c r="I243" s="72"/>
+      <c r="J243" s="72"/>
+      <c r="K243" s="72"/>
+      <c r="L243" s="72"/>
+      <c r="M243" s="72"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -12532,20 +13579,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="67" t="s">
+      <c r="B245" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="67"/>
-      <c r="D245" s="67"/>
-      <c r="E245" s="67"/>
-      <c r="F245" s="67"/>
-      <c r="G245" s="67"/>
-      <c r="H245" s="67"/>
-      <c r="I245" s="67"/>
-      <c r="J245" s="67"/>
-      <c r="K245" s="67"/>
-      <c r="L245" s="67"/>
-      <c r="M245" s="67"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="72"/>
+      <c r="E245" s="72"/>
+      <c r="F245" s="72"/>
+      <c r="G245" s="72"/>
+      <c r="H245" s="72"/>
+      <c r="I245" s="72"/>
+      <c r="J245" s="72"/>
+      <c r="K245" s="72"/>
+      <c r="L245" s="72"/>
+      <c r="M245" s="72"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -12576,20 +13623,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="67" t="s">
+      <c r="B247" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="67"/>
-      <c r="D247" s="67"/>
-      <c r="E247" s="67"/>
-      <c r="F247" s="67"/>
-      <c r="G247" s="67"/>
-      <c r="H247" s="67"/>
-      <c r="I247" s="67"/>
-      <c r="J247" s="67"/>
-      <c r="K247" s="67"/>
-      <c r="L247" s="67"/>
-      <c r="M247" s="67"/>
+      <c r="C247" s="72"/>
+      <c r="D247" s="72"/>
+      <c r="E247" s="72"/>
+      <c r="F247" s="72"/>
+      <c r="G247" s="72"/>
+      <c r="H247" s="72"/>
+      <c r="I247" s="72"/>
+      <c r="J247" s="72"/>
+      <c r="K247" s="72"/>
+      <c r="L247" s="72"/>
+      <c r="M247" s="72"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -12757,36 +13804,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="67" t="s">
+      <c r="B255" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="67"/>
-      <c r="D255" s="67"/>
-      <c r="E255" s="67"/>
-      <c r="F255" s="67"/>
-      <c r="G255" s="67"/>
-      <c r="H255" s="67"/>
-      <c r="I255" s="67"/>
-      <c r="J255" s="67"/>
-      <c r="K255" s="67"/>
-      <c r="L255" s="67"/>
-      <c r="M255" s="67"/>
+      <c r="C255" s="72"/>
+      <c r="D255" s="72"/>
+      <c r="E255" s="72"/>
+      <c r="F255" s="72"/>
+      <c r="G255" s="72"/>
+      <c r="H255" s="72"/>
+      <c r="I255" s="72"/>
+      <c r="J255" s="72"/>
+      <c r="K255" s="72"/>
+      <c r="L255" s="72"/>
+      <c r="M255" s="72"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="67" t="s">
+      <c r="B256" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="67"/>
-      <c r="D256" s="67"/>
-      <c r="E256" s="67"/>
-      <c r="F256" s="67"/>
-      <c r="G256" s="67"/>
-      <c r="H256" s="67"/>
-      <c r="I256" s="67"/>
-      <c r="J256" s="67"/>
-      <c r="K256" s="67"/>
-      <c r="L256" s="67"/>
-      <c r="M256" s="67"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="72"/>
+      <c r="F256" s="72"/>
+      <c r="G256" s="72"/>
+      <c r="H256" s="72"/>
+      <c r="I256" s="72"/>
+      <c r="J256" s="72"/>
+      <c r="K256" s="72"/>
+      <c r="L256" s="72"/>
+      <c r="M256" s="72"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -12845,20 +13892,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="67" t="s">
+      <c r="B259" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="67"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="67"/>
-      <c r="F259" s="67"/>
-      <c r="G259" s="67"/>
-      <c r="H259" s="67"/>
-      <c r="I259" s="67"/>
-      <c r="J259" s="67"/>
-      <c r="K259" s="67"/>
-      <c r="L259" s="67"/>
-      <c r="M259" s="67"/>
+      <c r="C259" s="72"/>
+      <c r="D259" s="72"/>
+      <c r="E259" s="72"/>
+      <c r="F259" s="72"/>
+      <c r="G259" s="72"/>
+      <c r="H259" s="72"/>
+      <c r="I259" s="72"/>
+      <c r="J259" s="72"/>
+      <c r="K259" s="72"/>
+      <c r="L259" s="72"/>
+      <c r="M259" s="72"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -12919,20 +13966,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="67" t="s">
+      <c r="B262" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="67"/>
-      <c r="D262" s="67"/>
-      <c r="E262" s="67"/>
-      <c r="F262" s="67"/>
-      <c r="G262" s="67"/>
-      <c r="H262" s="67"/>
-      <c r="I262" s="67"/>
-      <c r="J262" s="67"/>
-      <c r="K262" s="67"/>
-      <c r="L262" s="67"/>
-      <c r="M262" s="67"/>
+      <c r="C262" s="72"/>
+      <c r="D262" s="72"/>
+      <c r="E262" s="72"/>
+      <c r="F262" s="72"/>
+      <c r="G262" s="72"/>
+      <c r="H262" s="72"/>
+      <c r="I262" s="72"/>
+      <c r="J262" s="72"/>
+      <c r="K262" s="72"/>
+      <c r="L262" s="72"/>
+      <c r="M262" s="72"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -12963,20 +14010,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="67" t="s">
+      <c r="B264" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="67"/>
-      <c r="D264" s="67"/>
-      <c r="E264" s="67"/>
-      <c r="F264" s="67"/>
-      <c r="G264" s="67"/>
-      <c r="H264" s="67"/>
-      <c r="I264" s="67"/>
-      <c r="J264" s="67"/>
-      <c r="K264" s="67"/>
-      <c r="L264" s="67"/>
-      <c r="M264" s="67"/>
+      <c r="C264" s="72"/>
+      <c r="D264" s="72"/>
+      <c r="E264" s="72"/>
+      <c r="F264" s="72"/>
+      <c r="G264" s="72"/>
+      <c r="H264" s="72"/>
+      <c r="I264" s="72"/>
+      <c r="J264" s="72"/>
+      <c r="K264" s="72"/>
+      <c r="L264" s="72"/>
+      <c r="M264" s="72"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -13035,20 +14082,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="67" t="s">
+      <c r="B267" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="67"/>
-      <c r="D267" s="67"/>
-      <c r="E267" s="67"/>
-      <c r="F267" s="67"/>
-      <c r="G267" s="67"/>
-      <c r="H267" s="67"/>
-      <c r="I267" s="67"/>
-      <c r="J267" s="67"/>
-      <c r="K267" s="67"/>
-      <c r="L267" s="67"/>
-      <c r="M267" s="67"/>
+      <c r="C267" s="72"/>
+      <c r="D267" s="72"/>
+      <c r="E267" s="72"/>
+      <c r="F267" s="72"/>
+      <c r="G267" s="72"/>
+      <c r="H267" s="72"/>
+      <c r="I267" s="72"/>
+      <c r="J267" s="72"/>
+      <c r="K267" s="72"/>
+      <c r="L267" s="72"/>
+      <c r="M267" s="72"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -13079,20 +14126,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="67" t="s">
+      <c r="B269" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="67"/>
-      <c r="D269" s="67"/>
-      <c r="E269" s="67"/>
-      <c r="F269" s="67"/>
-      <c r="G269" s="67"/>
-      <c r="H269" s="67"/>
-      <c r="I269" s="67"/>
-      <c r="J269" s="67"/>
-      <c r="K269" s="67"/>
-      <c r="L269" s="67"/>
-      <c r="M269" s="67"/>
+      <c r="C269" s="72"/>
+      <c r="D269" s="72"/>
+      <c r="E269" s="72"/>
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="72"/>
+      <c r="M269" s="72"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -13227,20 +14274,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="67" t="s">
+      <c r="B276" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="67"/>
-      <c r="D276" s="67"/>
-      <c r="E276" s="67"/>
-      <c r="F276" s="67"/>
-      <c r="G276" s="67"/>
-      <c r="H276" s="67"/>
-      <c r="I276" s="67"/>
-      <c r="J276" s="67"/>
-      <c r="K276" s="67"/>
-      <c r="L276" s="67"/>
-      <c r="M276" s="67"/>
+      <c r="C276" s="72"/>
+      <c r="D276" s="72"/>
+      <c r="E276" s="72"/>
+      <c r="F276" s="72"/>
+      <c r="G276" s="72"/>
+      <c r="H276" s="72"/>
+      <c r="I276" s="72"/>
+      <c r="J276" s="72"/>
+      <c r="K276" s="72"/>
+      <c r="L276" s="72"/>
+      <c r="M276" s="72"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -13271,20 +14318,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="67" t="s">
+      <c r="B278" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="67"/>
-      <c r="D278" s="67"/>
-      <c r="E278" s="67"/>
-      <c r="F278" s="67"/>
-      <c r="G278" s="67"/>
-      <c r="H278" s="67"/>
-      <c r="I278" s="67"/>
-      <c r="J278" s="67"/>
-      <c r="K278" s="67"/>
-      <c r="L278" s="67"/>
-      <c r="M278" s="67"/>
+      <c r="C278" s="72"/>
+      <c r="D278" s="72"/>
+      <c r="E278" s="72"/>
+      <c r="F278" s="72"/>
+      <c r="G278" s="72"/>
+      <c r="H278" s="72"/>
+      <c r="I278" s="72"/>
+      <c r="J278" s="72"/>
+      <c r="K278" s="72"/>
+      <c r="L278" s="72"/>
+      <c r="M278" s="72"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -13343,20 +14390,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="67" t="s">
+      <c r="B281" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="67"/>
-      <c r="D281" s="67"/>
-      <c r="E281" s="67"/>
-      <c r="F281" s="67"/>
-      <c r="G281" s="67"/>
-      <c r="H281" s="67"/>
-      <c r="I281" s="67"/>
-      <c r="J281" s="67"/>
-      <c r="K281" s="67"/>
-      <c r="L281" s="67"/>
-      <c r="M281" s="67"/>
+      <c r="C281" s="72"/>
+      <c r="D281" s="72"/>
+      <c r="E281" s="72"/>
+      <c r="F281" s="72"/>
+      <c r="G281" s="72"/>
+      <c r="H281" s="72"/>
+      <c r="I281" s="72"/>
+      <c r="J281" s="72"/>
+      <c r="K281" s="72"/>
+      <c r="L281" s="72"/>
+      <c r="M281" s="72"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -13416,20 +14463,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="67" t="s">
+      <c r="B284" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="67"/>
-      <c r="D284" s="67"/>
-      <c r="E284" s="67"/>
-      <c r="F284" s="67"/>
-      <c r="G284" s="67"/>
-      <c r="H284" s="67"/>
-      <c r="I284" s="67"/>
-      <c r="J284" s="67"/>
-      <c r="K284" s="67"/>
-      <c r="L284" s="67"/>
-      <c r="M284" s="67"/>
+      <c r="C284" s="72"/>
+      <c r="D284" s="72"/>
+      <c r="E284" s="72"/>
+      <c r="F284" s="72"/>
+      <c r="G284" s="72"/>
+      <c r="H284" s="72"/>
+      <c r="I284" s="72"/>
+      <c r="J284" s="72"/>
+      <c r="K284" s="72"/>
+      <c r="L284" s="72"/>
+      <c r="M284" s="72"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -13488,20 +14535,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="67" t="s">
+      <c r="B287" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="67"/>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
-      <c r="F287" s="67"/>
-      <c r="G287" s="67"/>
-      <c r="H287" s="67"/>
-      <c r="I287" s="67"/>
-      <c r="J287" s="67"/>
-      <c r="K287" s="67"/>
-      <c r="L287" s="67"/>
-      <c r="M287" s="67"/>
+      <c r="C287" s="72"/>
+      <c r="D287" s="72"/>
+      <c r="E287" s="72"/>
+      <c r="F287" s="72"/>
+      <c r="G287" s="72"/>
+      <c r="H287" s="72"/>
+      <c r="I287" s="72"/>
+      <c r="J287" s="72"/>
+      <c r="K287" s="72"/>
+      <c r="L287" s="72"/>
+      <c r="M287" s="72"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -13617,20 +14664,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="67" t="s">
+      <c r="B292" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="67"/>
-      <c r="D292" s="67"/>
-      <c r="E292" s="67"/>
-      <c r="F292" s="67"/>
-      <c r="G292" s="67"/>
-      <c r="H292" s="67"/>
-      <c r="I292" s="67"/>
-      <c r="J292" s="67"/>
-      <c r="K292" s="67"/>
-      <c r="L292" s="67"/>
-      <c r="M292" s="67"/>
+      <c r="C292" s="72"/>
+      <c r="D292" s="72"/>
+      <c r="E292" s="72"/>
+      <c r="F292" s="72"/>
+      <c r="G292" s="72"/>
+      <c r="H292" s="72"/>
+      <c r="I292" s="72"/>
+      <c r="J292" s="72"/>
+      <c r="K292" s="72"/>
+      <c r="L292" s="72"/>
+      <c r="M292" s="72"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -13661,20 +14708,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="67" t="s">
+      <c r="B294" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="67"/>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
-      <c r="G294" s="67"/>
-      <c r="H294" s="67"/>
-      <c r="I294" s="67"/>
-      <c r="J294" s="67"/>
-      <c r="K294" s="67"/>
-      <c r="L294" s="67"/>
-      <c r="M294" s="67"/>
+      <c r="C294" s="72"/>
+      <c r="D294" s="72"/>
+      <c r="E294" s="72"/>
+      <c r="F294" s="72"/>
+      <c r="G294" s="72"/>
+      <c r="H294" s="72"/>
+      <c r="I294" s="72"/>
+      <c r="J294" s="72"/>
+      <c r="K294" s="72"/>
+      <c r="L294" s="72"/>
+      <c r="M294" s="72"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -13809,68 +14856,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="67" t="s">
+      <c r="B301" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="67"/>
-      <c r="D301" s="67"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="67"/>
-      <c r="G301" s="67"/>
-      <c r="H301" s="67"/>
-      <c r="I301" s="67"/>
-      <c r="J301" s="67"/>
-      <c r="K301" s="67"/>
-      <c r="L301" s="67"/>
-      <c r="M301" s="67"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
+      <c r="K301" s="72"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="67" t="s">
+      <c r="B302" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="67"/>
-      <c r="D302" s="67"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="67"/>
-      <c r="L302" s="67"/>
-      <c r="M302" s="67"/>
+      <c r="C302" s="72"/>
+      <c r="D302" s="72"/>
+      <c r="E302" s="72"/>
+      <c r="F302" s="72"/>
+      <c r="G302" s="72"/>
+      <c r="H302" s="72"/>
+      <c r="I302" s="72"/>
+      <c r="J302" s="72"/>
+      <c r="K302" s="72"/>
+      <c r="L302" s="72"/>
+      <c r="M302" s="72"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="67" t="s">
+      <c r="B303" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="67"/>
-      <c r="D303" s="67"/>
-      <c r="E303" s="67"/>
-      <c r="F303" s="67"/>
-      <c r="G303" s="67"/>
-      <c r="H303" s="67"/>
-      <c r="I303" s="67"/>
-      <c r="J303" s="67"/>
-      <c r="K303" s="67"/>
-      <c r="L303" s="67"/>
-      <c r="M303" s="67"/>
+      <c r="C303" s="72"/>
+      <c r="D303" s="72"/>
+      <c r="E303" s="72"/>
+      <c r="F303" s="72"/>
+      <c r="G303" s="72"/>
+      <c r="H303" s="72"/>
+      <c r="I303" s="72"/>
+      <c r="J303" s="72"/>
+      <c r="K303" s="72"/>
+      <c r="L303" s="72"/>
+      <c r="M303" s="72"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="67" t="s">
+      <c r="B304" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="67"/>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
-      <c r="G304" s="67"/>
-      <c r="H304" s="67"/>
-      <c r="I304" s="67"/>
-      <c r="J304" s="67"/>
-      <c r="K304" s="67"/>
-      <c r="L304" s="67"/>
-      <c r="M304" s="67"/>
+      <c r="C304" s="72"/>
+      <c r="D304" s="72"/>
+      <c r="E304" s="72"/>
+      <c r="F304" s="72"/>
+      <c r="G304" s="72"/>
+      <c r="H304" s="72"/>
+      <c r="I304" s="72"/>
+      <c r="J304" s="72"/>
+      <c r="K304" s="72"/>
+      <c r="L304" s="72"/>
+      <c r="M304" s="72"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -13887,20 +14934,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="67" t="s">
+      <c r="B306" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="67"/>
-      <c r="D306" s="67"/>
-      <c r="E306" s="67"/>
-      <c r="F306" s="67"/>
-      <c r="G306" s="67"/>
-      <c r="H306" s="67"/>
-      <c r="I306" s="67"/>
-      <c r="J306" s="67"/>
-      <c r="K306" s="67"/>
-      <c r="L306" s="67"/>
-      <c r="M306" s="67"/>
+      <c r="C306" s="72"/>
+      <c r="D306" s="72"/>
+      <c r="E306" s="72"/>
+      <c r="F306" s="72"/>
+      <c r="G306" s="72"/>
+      <c r="H306" s="72"/>
+      <c r="I306" s="72"/>
+      <c r="J306" s="72"/>
+      <c r="K306" s="72"/>
+      <c r="L306" s="72"/>
+      <c r="M306" s="72"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -13931,20 +14978,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="67" t="s">
+      <c r="B309" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="67"/>
-      <c r="D309" s="67"/>
-      <c r="E309" s="67"/>
-      <c r="F309" s="67"/>
-      <c r="G309" s="67"/>
-      <c r="H309" s="67"/>
-      <c r="I309" s="67"/>
-      <c r="J309" s="67"/>
-      <c r="K309" s="67"/>
-      <c r="L309" s="67"/>
-      <c r="M309" s="67"/>
+      <c r="C309" s="72"/>
+      <c r="D309" s="72"/>
+      <c r="E309" s="72"/>
+      <c r="F309" s="72"/>
+      <c r="G309" s="72"/>
+      <c r="H309" s="72"/>
+      <c r="I309" s="72"/>
+      <c r="J309" s="72"/>
+      <c r="K309" s="72"/>
+      <c r="L309" s="72"/>
+      <c r="M309" s="72"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -13961,20 +15008,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="67" t="s">
+      <c r="B311" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="67"/>
-      <c r="D311" s="67"/>
-      <c r="E311" s="67"/>
-      <c r="F311" s="67"/>
-      <c r="G311" s="67"/>
-      <c r="H311" s="67"/>
-      <c r="I311" s="67"/>
-      <c r="J311" s="67"/>
-      <c r="K311" s="67"/>
-      <c r="L311" s="67"/>
-      <c r="M311" s="67"/>
+      <c r="C311" s="72"/>
+      <c r="D311" s="72"/>
+      <c r="E311" s="72"/>
+      <c r="F311" s="72"/>
+      <c r="G311" s="72"/>
+      <c r="H311" s="72"/>
+      <c r="I311" s="72"/>
+      <c r="J311" s="72"/>
+      <c r="K311" s="72"/>
+      <c r="L311" s="72"/>
+      <c r="M311" s="72"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -14063,17 +15110,17 @@
       <c r="B316" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="69"/>
-      <c r="D316" s="69"/>
-      <c r="E316" s="69"/>
-      <c r="F316" s="69"/>
-      <c r="G316" s="69"/>
-      <c r="H316" s="69"/>
-      <c r="I316" s="69"/>
-      <c r="J316" s="69"/>
-      <c r="K316" s="69"/>
-      <c r="L316" s="69"/>
-      <c r="M316" s="70"/>
+      <c r="C316" s="65"/>
+      <c r="D316" s="65"/>
+      <c r="E316" s="65"/>
+      <c r="F316" s="65"/>
+      <c r="G316" s="65"/>
+      <c r="H316" s="65"/>
+      <c r="I316" s="65"/>
+      <c r="J316" s="65"/>
+      <c r="K316" s="65"/>
+      <c r="L316" s="65"/>
+      <c r="M316" s="66"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -14112,52 +15159,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="64" t="s">
+      <c r="B318" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="65"/>
-      <c r="D318" s="65"/>
-      <c r="E318" s="65"/>
-      <c r="F318" s="65"/>
-      <c r="G318" s="65"/>
-      <c r="H318" s="65"/>
-      <c r="I318" s="65"/>
-      <c r="J318" s="65"/>
-      <c r="K318" s="65"/>
-      <c r="L318" s="65"/>
-      <c r="M318" s="66"/>
+      <c r="C318" s="70"/>
+      <c r="D318" s="70"/>
+      <c r="E318" s="70"/>
+      <c r="F318" s="70"/>
+      <c r="G318" s="70"/>
+      <c r="H318" s="70"/>
+      <c r="I318" s="70"/>
+      <c r="J318" s="70"/>
+      <c r="K318" s="70"/>
+      <c r="L318" s="70"/>
+      <c r="M318" s="71"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="64" t="s">
+      <c r="B319" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="65"/>
-      <c r="D319" s="65"/>
-      <c r="E319" s="65"/>
-      <c r="F319" s="65"/>
-      <c r="G319" s="65"/>
-      <c r="H319" s="65"/>
-      <c r="I319" s="65"/>
-      <c r="J319" s="65"/>
-      <c r="K319" s="65"/>
-      <c r="L319" s="65"/>
-      <c r="M319" s="66"/>
+      <c r="C319" s="70"/>
+      <c r="D319" s="70"/>
+      <c r="E319" s="70"/>
+      <c r="F319" s="70"/>
+      <c r="G319" s="70"/>
+      <c r="H319" s="70"/>
+      <c r="I319" s="70"/>
+      <c r="J319" s="70"/>
+      <c r="K319" s="70"/>
+      <c r="L319" s="70"/>
+      <c r="M319" s="71"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="67" t="s">
+      <c r="B320" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="67"/>
-      <c r="D320" s="67"/>
-      <c r="E320" s="67"/>
-      <c r="F320" s="67"/>
-      <c r="G320" s="67"/>
-      <c r="H320" s="67"/>
-      <c r="I320" s="67"/>
-      <c r="J320" s="67"/>
-      <c r="K320" s="67"/>
-      <c r="L320" s="67"/>
-      <c r="M320" s="67"/>
+      <c r="C320" s="72"/>
+      <c r="D320" s="72"/>
+      <c r="E320" s="72"/>
+      <c r="F320" s="72"/>
+      <c r="G320" s="72"/>
+      <c r="H320" s="72"/>
+      <c r="I320" s="72"/>
+      <c r="J320" s="72"/>
+      <c r="K320" s="72"/>
+      <c r="L320" s="72"/>
+      <c r="M320" s="72"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -14174,20 +15221,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="64" t="s">
+      <c r="B322" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="65"/>
-      <c r="D322" s="65"/>
-      <c r="E322" s="65"/>
-      <c r="F322" s="65"/>
-      <c r="G322" s="65"/>
-      <c r="H322" s="65"/>
-      <c r="I322" s="65"/>
-      <c r="J322" s="65"/>
-      <c r="K322" s="65"/>
-      <c r="L322" s="65"/>
-      <c r="M322" s="66"/>
+      <c r="C322" s="70"/>
+      <c r="D322" s="70"/>
+      <c r="E322" s="70"/>
+      <c r="F322" s="70"/>
+      <c r="G322" s="70"/>
+      <c r="H322" s="70"/>
+      <c r="I322" s="70"/>
+      <c r="J322" s="70"/>
+      <c r="K322" s="70"/>
+      <c r="L322" s="70"/>
+      <c r="M322" s="71"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -14204,20 +15251,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="64" t="s">
+      <c r="B324" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="65"/>
-      <c r="D324" s="65"/>
-      <c r="E324" s="65"/>
-      <c r="F324" s="65"/>
-      <c r="G324" s="65"/>
-      <c r="H324" s="65"/>
-      <c r="I324" s="65"/>
-      <c r="J324" s="65"/>
-      <c r="K324" s="65"/>
-      <c r="L324" s="65"/>
-      <c r="M324" s="66"/>
+      <c r="C324" s="70"/>
+      <c r="D324" s="70"/>
+      <c r="E324" s="70"/>
+      <c r="F324" s="70"/>
+      <c r="G324" s="70"/>
+      <c r="H324" s="70"/>
+      <c r="I324" s="70"/>
+      <c r="J324" s="70"/>
+      <c r="K324" s="70"/>
+      <c r="L324" s="70"/>
+      <c r="M324" s="71"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -14248,20 +15295,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="64" t="s">
+      <c r="B327" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="65"/>
-      <c r="D327" s="65"/>
-      <c r="E327" s="65"/>
-      <c r="F327" s="65"/>
-      <c r="G327" s="65"/>
-      <c r="H327" s="65"/>
-      <c r="I327" s="65"/>
-      <c r="J327" s="65"/>
-      <c r="K327" s="65"/>
-      <c r="L327" s="65"/>
-      <c r="M327" s="66"/>
+      <c r="C327" s="70"/>
+      <c r="D327" s="70"/>
+      <c r="E327" s="70"/>
+      <c r="F327" s="70"/>
+      <c r="G327" s="70"/>
+      <c r="H327" s="70"/>
+      <c r="I327" s="70"/>
+      <c r="J327" s="70"/>
+      <c r="K327" s="70"/>
+      <c r="L327" s="70"/>
+      <c r="M327" s="71"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -14278,20 +15325,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="64" t="s">
+      <c r="B329" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="65"/>
-      <c r="D329" s="65"/>
-      <c r="E329" s="65"/>
-      <c r="F329" s="65"/>
-      <c r="G329" s="65"/>
-      <c r="H329" s="65"/>
-      <c r="I329" s="65"/>
-      <c r="J329" s="65"/>
-      <c r="K329" s="65"/>
-      <c r="L329" s="65"/>
-      <c r="M329" s="66"/>
+      <c r="C329" s="70"/>
+      <c r="D329" s="70"/>
+      <c r="E329" s="70"/>
+      <c r="F329" s="70"/>
+      <c r="G329" s="70"/>
+      <c r="H329" s="70"/>
+      <c r="I329" s="70"/>
+      <c r="J329" s="70"/>
+      <c r="K329" s="70"/>
+      <c r="L329" s="70"/>
+      <c r="M329" s="71"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -14456,6 +15503,99 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -14475,99 +15615,6 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15353,20 +16400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -16345,20 +17392,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -17192,7 +18239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
@@ -17974,6 +19021,563 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>41988</v>
+      </c>
+      <c r="F3" s="9">
+        <v>41988</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>41988</v>
+      </c>
+      <c r="I3" s="9">
+        <v>41988</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="78">
+        <f>J3/G3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>41988</v>
+      </c>
+      <c r="F4" s="9">
+        <v>41989</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>41988</v>
+      </c>
+      <c r="I4" s="26">
+        <v>41991</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="K4" s="20">
+        <f>J4/G4</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <f>F5-E5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>41989</v>
+      </c>
+      <c r="F5" s="9">
+        <v>41991</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>41991</v>
+      </c>
+      <c r="I5" s="9">
+        <v>41994</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="61">
+        <f>J5/G5</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D7" si="0">F6-E6+1</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>41989</v>
+      </c>
+      <c r="F6" s="9">
+        <v>41993</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>41991</v>
+      </c>
+      <c r="I6" s="79">
+        <v>41994</v>
+      </c>
+      <c r="J6" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="41">
+        <f>J6/G6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>41992</v>
+      </c>
+      <c r="F7" s="9">
+        <v>41994</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
+        <v>41992</v>
+      </c>
+      <c r="I7" s="26">
+        <v>41995</v>
+      </c>
+      <c r="J7" s="19">
+        <v>11</v>
+      </c>
+      <c r="K7" s="20">
+        <f>J7/G7</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>41994</v>
+      </c>
+      <c r="F8" s="9">
+        <v>41995</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>41994</v>
+      </c>
+      <c r="I8" s="9">
+        <v>41995</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="K8" s="78">
+        <f t="shared" ref="K8:K9" si="1">J8/G8</f>
+        <v>1.25</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>41994</v>
+      </c>
+      <c r="F9" s="9">
+        <v>41995</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>41994</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41995</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>41996</v>
+      </c>
+      <c r="F10" s="9">
+        <v>41996</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>41995</v>
+      </c>
+      <c r="I10" s="9">
+        <v>41995</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
+        <f>F11-E11</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="9">
+        <v>41989</v>
+      </c>
+      <c r="F11" s="9">
+        <v>41996</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>41989</v>
+      </c>
+      <c r="I11" s="9">
+        <v>41996</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2</v>
+      </c>
+      <c r="K11" s="20">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>41999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>42000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>41998</v>
+      </c>
+      <c r="I12" s="9">
+        <v>41999</v>
+      </c>
+      <c r="J12" s="19">
+        <v>4</v>
+      </c>
+      <c r="K12" s="20">
+        <f>J12/G12</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42000</v>
+      </c>
+      <c r="F13" s="9">
+        <v>42001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>42000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>42000</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="20">
+        <f>G13/J13</f>
+        <v>2</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42001</v>
+      </c>
+      <c r="F14" s="9">
+        <v>42001</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>42001</v>
+      </c>
+      <c r="I14" s="9">
+        <v>42001</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Metrics\Task Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1147,20 +1147,11 @@
     <xf numFmtId="9" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1173,6 +1164,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1188,12 +1194,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1508,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092316928"/>
-        <c:axId val="1092318560"/>
+        <c:axId val="-863158800"/>
+        <c:axId val="-863157168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092316928"/>
+        <c:axId val="-863158800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092318560"/>
+        <c:crossAx val="-863157168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1563,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092318560"/>
+        <c:axId val="-863157168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1615,7 +1615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092316928"/>
+        <c:crossAx val="-863158800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2026,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092326720"/>
-        <c:axId val="1092328896"/>
+        <c:axId val="-1098983024"/>
+        <c:axId val="-820911840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092326720"/>
+        <c:axId val="-1098983024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092328896"/>
+        <c:crossAx val="-820911840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092328896"/>
+        <c:axId val="-820911840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2133,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092326720"/>
+        <c:crossAx val="-1098983024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2526,11 +2526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092327808"/>
-        <c:axId val="1092328352"/>
+        <c:axId val="-820909664"/>
+        <c:axId val="-820916192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092327808"/>
+        <c:axId val="-820909664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092328352"/>
+        <c:crossAx val="-820916192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092328352"/>
+        <c:axId val="-820916192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2633,7 +2633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092327808"/>
+        <c:crossAx val="-820909664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2756,7 +2756,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2859,7 +2858,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2998,11 +2996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092319648"/>
-        <c:axId val="1092330528"/>
+        <c:axId val="-820905312"/>
+        <c:axId val="-820916736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092319648"/>
+        <c:axId val="-820905312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092330528"/>
+        <c:crossAx val="-820916736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3053,7 +3051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092330528"/>
+        <c:axId val="-820916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3105,7 +3103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092319648"/>
+        <c:crossAx val="-820905312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3120,7 +3118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3353,9 +3350,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 5'!$B$3:$B$11</c:f>
+              <c:f>'Iteration 5'!$B$3:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Review requirements and reschedule</c:v>
                 </c:pt>
@@ -3383,32 +3380,41 @@
                 <c:pt idx="8">
                   <c:v>Generation of test scenarios for functionalities in Iteration 5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 5'!$K$3:$K$11</c:f>
+              <c:f>'Iteration 5'!$K$3:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -3417,6 +3423,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3435,11 +3450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092321824"/>
-        <c:axId val="1092322912"/>
+        <c:axId val="-820914560"/>
+        <c:axId val="-820915648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092321824"/>
+        <c:axId val="-820914560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3482,7 +3497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092322912"/>
+        <c:crossAx val="-820915648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3490,7 +3505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092322912"/>
+        <c:axId val="-820915648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3542,7 +3557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092321824"/>
+        <c:crossAx val="-820914560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6996,28 +7011,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -7482,26 +7497,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -8088,25 +8103,25 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -8154,20 +8169,20 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="O33" s="7" t="s">
         <v>18</v>
       </c>
@@ -8229,20 +8244,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="71"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="68"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -8304,20 +8319,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="71"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="68"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -8500,11 +8515,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="67" t="s">
+      <c r="O41" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -8600,20 +8615,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="71"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="68"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -8734,20 +8749,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="71"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -8790,20 +8805,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="71"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -9002,25 +9017,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="66"/>
-      <c r="O57" s="67" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="72"/>
+      <c r="O57" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -9068,20 +9083,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="71"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="68"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -9135,20 +9150,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -9241,20 +9256,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="71"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="68"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -9410,20 +9425,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="69" t="s">
+      <c r="B70" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="L70" s="70"/>
-      <c r="M70" s="71"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="68"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -9454,20 +9469,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="69" t="s">
+      <c r="B72" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="71"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="68"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -9527,20 +9542,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="71"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="68"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -9571,20 +9586,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="69" t="s">
+      <c r="B77" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="71"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -9756,25 +9771,25 @@
       <c r="M83" s="7"/>
     </row>
     <row r="85" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="68"/>
-      <c r="O85" s="67" t="s">
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="O85" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -9820,20 +9835,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="72"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -9887,20 +9902,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="72" t="s">
+      <c r="B89" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="72"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -9992,20 +10007,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="72" t="s">
+      <c r="B92" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="72"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -10107,20 +10122,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-      <c r="L96" s="72"/>
-      <c r="M96" s="72"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -10151,20 +10166,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="72" t="s">
+      <c r="B98" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -10280,20 +10295,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="72" t="s">
+      <c r="B103" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="72"/>
-      <c r="K103" s="72"/>
-      <c r="L103" s="72"/>
-      <c r="M103" s="72"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -10324,20 +10339,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="72" t="s">
+      <c r="B105" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="72"/>
-      <c r="K105" s="72"/>
-      <c r="L105" s="72"/>
-      <c r="M105" s="72"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -10499,25 +10514,25 @@
       <c r="M111" s="35"/>
     </row>
     <row r="113" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="68" t="s">
+      <c r="B113" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
-      <c r="L113" s="68"/>
-      <c r="M113" s="68"/>
-      <c r="O113" s="67" t="s">
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+      <c r="O113" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
+      <c r="P113" s="73"/>
+      <c r="Q113" s="73"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -10563,20 +10578,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="72" t="s">
+      <c r="B115" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="72"/>
-      <c r="J115" s="72"/>
-      <c r="K115" s="72"/>
-      <c r="L115" s="72"/>
-      <c r="M115" s="72"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -10630,20 +10645,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="72" t="s">
+      <c r="B117" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="72"/>
-      <c r="J117" s="72"/>
-      <c r="K117" s="72"/>
-      <c r="L117" s="72"/>
-      <c r="M117" s="72"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="69"/>
+      <c r="M117" s="69"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -10735,20 +10750,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="72" t="s">
+      <c r="B120" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="72"/>
-      <c r="L120" s="72"/>
-      <c r="M120" s="72"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="69"/>
+      <c r="M120" s="69"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -10848,20 +10863,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="72" t="s">
+      <c r="B124" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
-      <c r="I124" s="72"/>
-      <c r="J124" s="72"/>
-      <c r="K124" s="72"/>
-      <c r="L124" s="72"/>
-      <c r="M124" s="72"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -10892,20 +10907,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="72"/>
-      <c r="D126" s="72"/>
-      <c r="E126" s="72"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
-      <c r="I126" s="72"/>
-      <c r="J126" s="72"/>
-      <c r="K126" s="72"/>
-      <c r="L126" s="72"/>
-      <c r="M126" s="72"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
+      <c r="M126" s="69"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -10965,20 +10980,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="72" t="s">
+      <c r="B129" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="72"/>
-      <c r="D129" s="72"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
-      <c r="I129" s="72"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="72"/>
-      <c r="L129" s="72"/>
-      <c r="M129" s="72"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="69"/>
+      <c r="M129" s="69"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -11009,20 +11024,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="72" t="s">
+      <c r="B131" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="72"/>
-      <c r="K131" s="72"/>
-      <c r="L131" s="72"/>
-      <c r="M131" s="72"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="69"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="69"/>
+      <c r="M131" s="69"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -11184,20 +11199,20 @@
       <c r="M137" s="35"/>
     </row>
     <row r="139" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="68" t="s">
+      <c r="B139" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="68"/>
-      <c r="H139" s="68"/>
-      <c r="I139" s="68"/>
-      <c r="J139" s="68"/>
-      <c r="K139" s="68"/>
-      <c r="L139" s="68"/>
-      <c r="M139" s="68"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
+      <c r="H139" s="70"/>
+      <c r="I139" s="70"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="70"/>
+      <c r="L139" s="70"/>
+      <c r="M139" s="70"/>
     </row>
     <row r="140" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
@@ -11236,20 +11251,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="72" t="s">
+      <c r="B141" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
-      <c r="I141" s="72"/>
-      <c r="J141" s="72"/>
-      <c r="K141" s="72"/>
-      <c r="L141" s="72"/>
-      <c r="M141" s="72"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -11281,20 +11296,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="72" t="s">
+      <c r="B143" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="72"/>
-      <c r="K143" s="72"/>
-      <c r="L143" s="72"/>
-      <c r="M143" s="72"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
+      <c r="J143" s="69"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="69"/>
+      <c r="M143" s="69"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -11353,20 +11368,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="72" t="s">
+      <c r="B146" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="72"/>
-      <c r="M146" s="72"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="69"/>
+      <c r="M146" s="69"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -11513,20 +11528,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="72" t="s">
+      <c r="B152" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="72"/>
-      <c r="H152" s="72"/>
-      <c r="I152" s="72"/>
-      <c r="J152" s="72"/>
-      <c r="K152" s="72"/>
-      <c r="L152" s="72"/>
-      <c r="M152" s="72"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -11557,20 +11572,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="72" t="s">
+      <c r="B154" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
-      <c r="G154" s="72"/>
-      <c r="H154" s="72"/>
-      <c r="I154" s="72"/>
-      <c r="J154" s="72"/>
-      <c r="K154" s="72"/>
-      <c r="L154" s="72"/>
-      <c r="M154" s="72"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -11630,20 +11645,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="72" t="s">
+      <c r="B157" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="72"/>
-      <c r="G157" s="72"/>
-      <c r="H157" s="72"/>
-      <c r="I157" s="72"/>
-      <c r="J157" s="72"/>
-      <c r="K157" s="72"/>
-      <c r="L157" s="72"/>
-      <c r="M157" s="72"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="69"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -11674,20 +11689,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="72" t="s">
+      <c r="B159" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="72"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="72"/>
-      <c r="L159" s="72"/>
-      <c r="M159" s="72"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="69"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="69"/>
+      <c r="M159" s="69"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -11766,20 +11781,20 @@
       <c r="M162" s="18"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="68" t="s">
+      <c r="B165" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="68"/>
-      <c r="I165" s="68"/>
-      <c r="J165" s="68"/>
-      <c r="K165" s="68"/>
-      <c r="L165" s="68"/>
-      <c r="M165" s="68"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="70"/>
+      <c r="H165" s="70"/>
+      <c r="I165" s="70"/>
+      <c r="J165" s="70"/>
+      <c r="K165" s="70"/>
+      <c r="L165" s="70"/>
+      <c r="M165" s="70"/>
     </row>
     <row r="166" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
@@ -11818,20 +11833,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="72" t="s">
+      <c r="B167" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="72"/>
-      <c r="D167" s="72"/>
-      <c r="E167" s="72"/>
-      <c r="F167" s="72"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="72"/>
-      <c r="I167" s="72"/>
-      <c r="J167" s="72"/>
-      <c r="K167" s="72"/>
-      <c r="L167" s="72"/>
-      <c r="M167" s="72"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="69"/>
+      <c r="M167" s="69"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -11863,20 +11878,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="72" t="s">
+      <c r="B169" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
-      <c r="K169" s="72"/>
-      <c r="L169" s="72"/>
-      <c r="M169" s="72"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
+      <c r="M169" s="69"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -11935,20 +11950,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="72" t="s">
+      <c r="B172" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="72"/>
-      <c r="L172" s="72"/>
-      <c r="M172" s="72"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
+      <c r="M172" s="69"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -12008,20 +12023,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="72" t="s">
+      <c r="B175" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
-      <c r="E175" s="72"/>
-      <c r="F175" s="72"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="72"/>
-      <c r="I175" s="72"/>
-      <c r="J175" s="72"/>
-      <c r="K175" s="72"/>
-      <c r="L175" s="72"/>
-      <c r="M175" s="72"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="69"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -12052,20 +12067,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="72" t="s">
+      <c r="B177" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
-      <c r="E177" s="72"/>
-      <c r="F177" s="72"/>
-      <c r="G177" s="72"/>
-      <c r="H177" s="72"/>
-      <c r="I177" s="72"/>
-      <c r="J177" s="72"/>
-      <c r="K177" s="72"/>
-      <c r="L177" s="72"/>
-      <c r="M177" s="72"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="69"/>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="69"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -12125,20 +12140,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="72" t="s">
+      <c r="B180" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="72"/>
-      <c r="D180" s="72"/>
-      <c r="E180" s="72"/>
-      <c r="F180" s="72"/>
-      <c r="G180" s="72"/>
-      <c r="H180" s="72"/>
-      <c r="I180" s="72"/>
-      <c r="J180" s="72"/>
-      <c r="K180" s="72"/>
-      <c r="L180" s="72"/>
-      <c r="M180" s="72"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="69"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="69"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="69"/>
+      <c r="L180" s="69"/>
+      <c r="M180" s="69"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -12169,20 +12184,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="72" t="s">
+      <c r="B182" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="72"/>
-      <c r="D182" s="72"/>
-      <c r="E182" s="72"/>
-      <c r="F182" s="72"/>
-      <c r="G182" s="72"/>
-      <c r="H182" s="72"/>
-      <c r="I182" s="72"/>
-      <c r="J182" s="72"/>
-      <c r="K182" s="72"/>
-      <c r="L182" s="72"/>
-      <c r="M182" s="72"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
+      <c r="E182" s="69"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
+      <c r="J182" s="69"/>
+      <c r="K182" s="69"/>
+      <c r="L182" s="69"/>
+      <c r="M182" s="69"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -12261,20 +12276,20 @@
       <c r="M185" s="18"/>
     </row>
     <row r="187" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B187" s="68" t="s">
+      <c r="B187" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C187" s="68"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="68"/>
-      <c r="F187" s="68"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="68"/>
-      <c r="I187" s="68"/>
-      <c r="J187" s="68"/>
-      <c r="K187" s="68"/>
-      <c r="L187" s="68"/>
-      <c r="M187" s="68"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+      <c r="F187" s="70"/>
+      <c r="G187" s="70"/>
+      <c r="H187" s="70"/>
+      <c r="I187" s="70"/>
+      <c r="J187" s="70"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
     </row>
     <row r="188" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
@@ -12313,20 +12328,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="72" t="s">
+      <c r="B189" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="72"/>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
-      <c r="I189" s="72"/>
-      <c r="J189" s="72"/>
-      <c r="K189" s="72"/>
-      <c r="L189" s="72"/>
-      <c r="M189" s="72"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69"/>
+      <c r="J189" s="69"/>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="69"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -12358,20 +12373,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="72" t="s">
+      <c r="B191" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="72"/>
-      <c r="D191" s="72"/>
-      <c r="E191" s="72"/>
-      <c r="F191" s="72"/>
-      <c r="G191" s="72"/>
-      <c r="H191" s="72"/>
-      <c r="I191" s="72"/>
-      <c r="J191" s="72"/>
-      <c r="K191" s="72"/>
-      <c r="L191" s="72"/>
-      <c r="M191" s="72"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="69"/>
+      <c r="F191" s="69"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="69"/>
+      <c r="J191" s="69"/>
+      <c r="K191" s="69"/>
+      <c r="L191" s="69"/>
+      <c r="M191" s="69"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -12430,20 +12445,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="72" t="s">
+      <c r="B194" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
-      <c r="E194" s="72"/>
-      <c r="F194" s="72"/>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
-      <c r="I194" s="72"/>
-      <c r="J194" s="72"/>
-      <c r="K194" s="72"/>
-      <c r="L194" s="72"/>
-      <c r="M194" s="72"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
+      <c r="J194" s="69"/>
+      <c r="K194" s="69"/>
+      <c r="L194" s="69"/>
+      <c r="M194" s="69"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -12502,20 +12517,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="72" t="s">
+      <c r="B197" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="72"/>
-      <c r="D197" s="72"/>
-      <c r="E197" s="72"/>
-      <c r="F197" s="72"/>
-      <c r="G197" s="72"/>
-      <c r="H197" s="72"/>
-      <c r="I197" s="72"/>
-      <c r="J197" s="72"/>
-      <c r="K197" s="72"/>
-      <c r="L197" s="72"/>
-      <c r="M197" s="72"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="69"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
+      <c r="J197" s="69"/>
+      <c r="K197" s="69"/>
+      <c r="L197" s="69"/>
+      <c r="M197" s="69"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -12546,20 +12561,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="72" t="s">
+      <c r="B199" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="72"/>
-      <c r="D199" s="72"/>
-      <c r="E199" s="72"/>
-      <c r="F199" s="72"/>
-      <c r="G199" s="72"/>
-      <c r="H199" s="72"/>
-      <c r="I199" s="72"/>
-      <c r="J199" s="72"/>
-      <c r="K199" s="72"/>
-      <c r="L199" s="72"/>
-      <c r="M199" s="72"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="69"/>
+      <c r="E199" s="69"/>
+      <c r="F199" s="69"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="69"/>
+      <c r="I199" s="69"/>
+      <c r="J199" s="69"/>
+      <c r="K199" s="69"/>
+      <c r="L199" s="69"/>
+      <c r="M199" s="69"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -12674,20 +12689,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="72" t="s">
+      <c r="B204" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="72"/>
-      <c r="D204" s="72"/>
-      <c r="E204" s="72"/>
-      <c r="F204" s="72"/>
-      <c r="G204" s="72"/>
-      <c r="H204" s="72"/>
-      <c r="I204" s="72"/>
-      <c r="J204" s="72"/>
-      <c r="K204" s="72"/>
-      <c r="L204" s="72"/>
-      <c r="M204" s="72"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="69"/>
+      <c r="F204" s="69"/>
+      <c r="G204" s="69"/>
+      <c r="H204" s="69"/>
+      <c r="I204" s="69"/>
+      <c r="J204" s="69"/>
+      <c r="K204" s="69"/>
+      <c r="L204" s="69"/>
+      <c r="M204" s="69"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -12718,20 +12733,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="72" t="s">
+      <c r="B206" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="72"/>
-      <c r="D206" s="72"/>
-      <c r="E206" s="72"/>
-      <c r="F206" s="72"/>
-      <c r="G206" s="72"/>
-      <c r="H206" s="72"/>
-      <c r="I206" s="72"/>
-      <c r="J206" s="72"/>
-      <c r="K206" s="72"/>
-      <c r="L206" s="72"/>
-      <c r="M206" s="72"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
+      <c r="G206" s="69"/>
+      <c r="H206" s="69"/>
+      <c r="I206" s="69"/>
+      <c r="J206" s="69"/>
+      <c r="K206" s="69"/>
+      <c r="L206" s="69"/>
+      <c r="M206" s="69"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -12838,20 +12853,20 @@
       <c r="M210" s="18"/>
     </row>
     <row r="212" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B212" s="68" t="s">
+      <c r="B212" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="68"/>
-      <c r="F212" s="68"/>
-      <c r="G212" s="68"/>
-      <c r="H212" s="68"/>
-      <c r="I212" s="68"/>
-      <c r="J212" s="68"/>
-      <c r="K212" s="68"/>
-      <c r="L212" s="68"/>
-      <c r="M212" s="68"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70"/>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="70"/>
+      <c r="M212" s="70"/>
     </row>
     <row r="213" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -12890,20 +12905,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="72" t="s">
+      <c r="B214" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="72"/>
-      <c r="D214" s="72"/>
-      <c r="E214" s="72"/>
-      <c r="F214" s="72"/>
-      <c r="G214" s="72"/>
-      <c r="H214" s="72"/>
-      <c r="I214" s="72"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="72"/>
-      <c r="L214" s="72"/>
-      <c r="M214" s="72"/>
+      <c r="C214" s="69"/>
+      <c r="D214" s="69"/>
+      <c r="E214" s="69"/>
+      <c r="F214" s="69"/>
+      <c r="G214" s="69"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="69"/>
+      <c r="J214" s="69"/>
+      <c r="K214" s="69"/>
+      <c r="L214" s="69"/>
+      <c r="M214" s="69"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -12935,20 +12950,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="72" t="s">
+      <c r="B216" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="72"/>
-      <c r="D216" s="72"/>
-      <c r="E216" s="72"/>
-      <c r="F216" s="72"/>
-      <c r="G216" s="72"/>
-      <c r="H216" s="72"/>
-      <c r="I216" s="72"/>
-      <c r="J216" s="72"/>
-      <c r="K216" s="72"/>
-      <c r="L216" s="72"/>
-      <c r="M216" s="72"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="69"/>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="69"/>
+      <c r="J216" s="69"/>
+      <c r="K216" s="69"/>
+      <c r="L216" s="69"/>
+      <c r="M216" s="69"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -13007,20 +13022,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="72" t="s">
+      <c r="B219" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="72"/>
-      <c r="D219" s="72"/>
-      <c r="E219" s="72"/>
-      <c r="F219" s="72"/>
-      <c r="G219" s="72"/>
-      <c r="H219" s="72"/>
-      <c r="I219" s="72"/>
-      <c r="J219" s="72"/>
-      <c r="K219" s="72"/>
-      <c r="L219" s="72"/>
-      <c r="M219" s="72"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="69"/>
+      <c r="E219" s="69"/>
+      <c r="F219" s="69"/>
+      <c r="G219" s="69"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="69"/>
+      <c r="J219" s="69"/>
+      <c r="K219" s="69"/>
+      <c r="L219" s="69"/>
+      <c r="M219" s="69"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -13082,20 +13097,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="72" t="s">
+      <c r="B222" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="72"/>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
-      <c r="J222" s="72"/>
-      <c r="K222" s="72"/>
-      <c r="L222" s="72"/>
-      <c r="M222" s="72"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="69"/>
+      <c r="E222" s="69"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="69"/>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
+      <c r="J222" s="69"/>
+      <c r="K222" s="69"/>
+      <c r="L222" s="69"/>
+      <c r="M222" s="69"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -13126,20 +13141,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="72" t="s">
+      <c r="B224" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72"/>
-      <c r="I224" s="72"/>
-      <c r="J224" s="72"/>
-      <c r="K224" s="72"/>
-      <c r="L224" s="72"/>
-      <c r="M224" s="72"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="69"/>
+      <c r="F224" s="69"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
+      <c r="J224" s="69"/>
+      <c r="K224" s="69"/>
+      <c r="L224" s="69"/>
+      <c r="M224" s="69"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -13199,20 +13214,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="72" t="s">
+      <c r="B227" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="72"/>
-      <c r="D227" s="72"/>
-      <c r="E227" s="72"/>
-      <c r="F227" s="72"/>
-      <c r="G227" s="72"/>
-      <c r="H227" s="72"/>
-      <c r="I227" s="72"/>
-      <c r="J227" s="72"/>
-      <c r="K227" s="72"/>
-      <c r="L227" s="72"/>
-      <c r="M227" s="72"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
+      <c r="F227" s="69"/>
+      <c r="G227" s="69"/>
+      <c r="H227" s="69"/>
+      <c r="I227" s="69"/>
+      <c r="J227" s="69"/>
+      <c r="K227" s="69"/>
+      <c r="L227" s="69"/>
+      <c r="M227" s="69"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -13243,20 +13258,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="72" t="s">
+      <c r="B229" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="72"/>
-      <c r="D229" s="72"/>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
-      <c r="G229" s="72"/>
-      <c r="H229" s="72"/>
-      <c r="I229" s="72"/>
-      <c r="J229" s="72"/>
-      <c r="K229" s="72"/>
-      <c r="L229" s="72"/>
-      <c r="M229" s="72"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="69"/>
+      <c r="F229" s="69"/>
+      <c r="G229" s="69"/>
+      <c r="H229" s="69"/>
+      <c r="I229" s="69"/>
+      <c r="J229" s="69"/>
+      <c r="K229" s="69"/>
+      <c r="L229" s="69"/>
+      <c r="M229" s="69"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -13335,20 +13350,20 @@
       <c r="M232" s="18"/>
     </row>
     <row r="234" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B234" s="68" t="s">
+      <c r="B234" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C234" s="68"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="68"/>
-      <c r="F234" s="68"/>
-      <c r="G234" s="68"/>
-      <c r="H234" s="68"/>
-      <c r="I234" s="68"/>
-      <c r="J234" s="68"/>
-      <c r="K234" s="68"/>
-      <c r="L234" s="68"/>
-      <c r="M234" s="68"/>
+      <c r="C234" s="70"/>
+      <c r="D234" s="70"/>
+      <c r="E234" s="70"/>
+      <c r="F234" s="70"/>
+      <c r="G234" s="70"/>
+      <c r="H234" s="70"/>
+      <c r="I234" s="70"/>
+      <c r="J234" s="70"/>
+      <c r="K234" s="70"/>
+      <c r="L234" s="70"/>
+      <c r="M234" s="70"/>
     </row>
     <row r="235" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -13387,36 +13402,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="72" t="s">
+      <c r="B236" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="72"/>
-      <c r="D236" s="72"/>
-      <c r="E236" s="72"/>
-      <c r="F236" s="72"/>
-      <c r="G236" s="72"/>
-      <c r="H236" s="72"/>
-      <c r="I236" s="72"/>
-      <c r="J236" s="72"/>
-      <c r="K236" s="72"/>
-      <c r="L236" s="72"/>
-      <c r="M236" s="72"/>
+      <c r="C236" s="69"/>
+      <c r="D236" s="69"/>
+      <c r="E236" s="69"/>
+      <c r="F236" s="69"/>
+      <c r="G236" s="69"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="69"/>
+      <c r="J236" s="69"/>
+      <c r="K236" s="69"/>
+      <c r="L236" s="69"/>
+      <c r="M236" s="69"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="72" t="s">
+      <c r="B237" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
-      <c r="K237" s="72"/>
-      <c r="L237" s="72"/>
-      <c r="M237" s="72"/>
+      <c r="C237" s="69"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="69"/>
+      <c r="F237" s="69"/>
+      <c r="G237" s="69"/>
+      <c r="H237" s="69"/>
+      <c r="I237" s="69"/>
+      <c r="J237" s="69"/>
+      <c r="K237" s="69"/>
+      <c r="L237" s="69"/>
+      <c r="M237" s="69"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -13475,36 +13490,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="72" t="s">
+      <c r="B240" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="72"/>
-      <c r="D240" s="72"/>
-      <c r="E240" s="72"/>
-      <c r="F240" s="72"/>
-      <c r="G240" s="72"/>
-      <c r="H240" s="72"/>
-      <c r="I240" s="72"/>
-      <c r="J240" s="72"/>
-      <c r="K240" s="72"/>
-      <c r="L240" s="72"/>
-      <c r="M240" s="72"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
+      <c r="J240" s="69"/>
+      <c r="K240" s="69"/>
+      <c r="L240" s="69"/>
+      <c r="M240" s="69"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="72" t="s">
+      <c r="B241" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="72"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="72"/>
-      <c r="F241" s="72"/>
-      <c r="G241" s="72"/>
-      <c r="H241" s="72"/>
-      <c r="I241" s="72"/>
-      <c r="J241" s="72"/>
-      <c r="K241" s="72"/>
-      <c r="L241" s="72"/>
-      <c r="M241" s="72"/>
+      <c r="C241" s="69"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="69"/>
+      <c r="F241" s="69"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
+      <c r="I241" s="69"/>
+      <c r="J241" s="69"/>
+      <c r="K241" s="69"/>
+      <c r="L241" s="69"/>
+      <c r="M241" s="69"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -13535,20 +13550,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="72" t="s">
+      <c r="B243" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="72"/>
-      <c r="F243" s="72"/>
-      <c r="G243" s="72"/>
-      <c r="H243" s="72"/>
-      <c r="I243" s="72"/>
-      <c r="J243" s="72"/>
-      <c r="K243" s="72"/>
-      <c r="L243" s="72"/>
-      <c r="M243" s="72"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="69"/>
+      <c r="H243" s="69"/>
+      <c r="I243" s="69"/>
+      <c r="J243" s="69"/>
+      <c r="K243" s="69"/>
+      <c r="L243" s="69"/>
+      <c r="M243" s="69"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -13579,20 +13594,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="72" t="s">
+      <c r="B245" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="72"/>
-      <c r="D245" s="72"/>
-      <c r="E245" s="72"/>
-      <c r="F245" s="72"/>
-      <c r="G245" s="72"/>
-      <c r="H245" s="72"/>
-      <c r="I245" s="72"/>
-      <c r="J245" s="72"/>
-      <c r="K245" s="72"/>
-      <c r="L245" s="72"/>
-      <c r="M245" s="72"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
+      <c r="J245" s="69"/>
+      <c r="K245" s="69"/>
+      <c r="L245" s="69"/>
+      <c r="M245" s="69"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -13623,20 +13638,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="72" t="s">
+      <c r="B247" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="72"/>
-      <c r="D247" s="72"/>
-      <c r="E247" s="72"/>
-      <c r="F247" s="72"/>
-      <c r="G247" s="72"/>
-      <c r="H247" s="72"/>
-      <c r="I247" s="72"/>
-      <c r="J247" s="72"/>
-      <c r="K247" s="72"/>
-      <c r="L247" s="72"/>
-      <c r="M247" s="72"/>
+      <c r="C247" s="69"/>
+      <c r="D247" s="69"/>
+      <c r="E247" s="69"/>
+      <c r="F247" s="69"/>
+      <c r="G247" s="69"/>
+      <c r="H247" s="69"/>
+      <c r="I247" s="69"/>
+      <c r="J247" s="69"/>
+      <c r="K247" s="69"/>
+      <c r="L247" s="69"/>
+      <c r="M247" s="69"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -13752,20 +13767,20 @@
       <c r="M251" s="18"/>
     </row>
     <row r="253" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B253" s="68" t="s">
+      <c r="B253" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C253" s="68"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="68"/>
-      <c r="F253" s="68"/>
-      <c r="G253" s="68"/>
-      <c r="H253" s="68"/>
-      <c r="I253" s="68"/>
-      <c r="J253" s="68"/>
-      <c r="K253" s="68"/>
-      <c r="L253" s="68"/>
-      <c r="M253" s="68"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="70"/>
+      <c r="E253" s="70"/>
+      <c r="F253" s="70"/>
+      <c r="G253" s="70"/>
+      <c r="H253" s="70"/>
+      <c r="I253" s="70"/>
+      <c r="J253" s="70"/>
+      <c r="K253" s="70"/>
+      <c r="L253" s="70"/>
+      <c r="M253" s="70"/>
     </row>
     <row r="254" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
@@ -13804,36 +13819,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="72" t="s">
+      <c r="B255" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="72"/>
-      <c r="D255" s="72"/>
-      <c r="E255" s="72"/>
-      <c r="F255" s="72"/>
-      <c r="G255" s="72"/>
-      <c r="H255" s="72"/>
-      <c r="I255" s="72"/>
-      <c r="J255" s="72"/>
-      <c r="K255" s="72"/>
-      <c r="L255" s="72"/>
-      <c r="M255" s="72"/>
+      <c r="C255" s="69"/>
+      <c r="D255" s="69"/>
+      <c r="E255" s="69"/>
+      <c r="F255" s="69"/>
+      <c r="G255" s="69"/>
+      <c r="H255" s="69"/>
+      <c r="I255" s="69"/>
+      <c r="J255" s="69"/>
+      <c r="K255" s="69"/>
+      <c r="L255" s="69"/>
+      <c r="M255" s="69"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="72" t="s">
+      <c r="B256" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="72"/>
-      <c r="D256" s="72"/>
-      <c r="E256" s="72"/>
-      <c r="F256" s="72"/>
-      <c r="G256" s="72"/>
-      <c r="H256" s="72"/>
-      <c r="I256" s="72"/>
-      <c r="J256" s="72"/>
-      <c r="K256" s="72"/>
-      <c r="L256" s="72"/>
-      <c r="M256" s="72"/>
+      <c r="C256" s="69"/>
+      <c r="D256" s="69"/>
+      <c r="E256" s="69"/>
+      <c r="F256" s="69"/>
+      <c r="G256" s="69"/>
+      <c r="H256" s="69"/>
+      <c r="I256" s="69"/>
+      <c r="J256" s="69"/>
+      <c r="K256" s="69"/>
+      <c r="L256" s="69"/>
+      <c r="M256" s="69"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -13892,20 +13907,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="72" t="s">
+      <c r="B259" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="72"/>
-      <c r="D259" s="72"/>
-      <c r="E259" s="72"/>
-      <c r="F259" s="72"/>
-      <c r="G259" s="72"/>
-      <c r="H259" s="72"/>
-      <c r="I259" s="72"/>
-      <c r="J259" s="72"/>
-      <c r="K259" s="72"/>
-      <c r="L259" s="72"/>
-      <c r="M259" s="72"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="69"/>
+      <c r="F259" s="69"/>
+      <c r="G259" s="69"/>
+      <c r="H259" s="69"/>
+      <c r="I259" s="69"/>
+      <c r="J259" s="69"/>
+      <c r="K259" s="69"/>
+      <c r="L259" s="69"/>
+      <c r="M259" s="69"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -13966,20 +13981,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="72" t="s">
+      <c r="B262" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="72"/>
-      <c r="D262" s="72"/>
-      <c r="E262" s="72"/>
-      <c r="F262" s="72"/>
-      <c r="G262" s="72"/>
-      <c r="H262" s="72"/>
-      <c r="I262" s="72"/>
-      <c r="J262" s="72"/>
-      <c r="K262" s="72"/>
-      <c r="L262" s="72"/>
-      <c r="M262" s="72"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="69"/>
+      <c r="G262" s="69"/>
+      <c r="H262" s="69"/>
+      <c r="I262" s="69"/>
+      <c r="J262" s="69"/>
+      <c r="K262" s="69"/>
+      <c r="L262" s="69"/>
+      <c r="M262" s="69"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -14010,20 +14025,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="72" t="s">
+      <c r="B264" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="72"/>
-      <c r="D264" s="72"/>
-      <c r="E264" s="72"/>
-      <c r="F264" s="72"/>
-      <c r="G264" s="72"/>
-      <c r="H264" s="72"/>
-      <c r="I264" s="72"/>
-      <c r="J264" s="72"/>
-      <c r="K264" s="72"/>
-      <c r="L264" s="72"/>
-      <c r="M264" s="72"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="69"/>
+      <c r="F264" s="69"/>
+      <c r="G264" s="69"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="69"/>
+      <c r="J264" s="69"/>
+      <c r="K264" s="69"/>
+      <c r="L264" s="69"/>
+      <c r="M264" s="69"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -14082,20 +14097,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="72" t="s">
+      <c r="B267" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="72"/>
-      <c r="D267" s="72"/>
-      <c r="E267" s="72"/>
-      <c r="F267" s="72"/>
-      <c r="G267" s="72"/>
-      <c r="H267" s="72"/>
-      <c r="I267" s="72"/>
-      <c r="J267" s="72"/>
-      <c r="K267" s="72"/>
-      <c r="L267" s="72"/>
-      <c r="M267" s="72"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="69"/>
+      <c r="E267" s="69"/>
+      <c r="F267" s="69"/>
+      <c r="G267" s="69"/>
+      <c r="H267" s="69"/>
+      <c r="I267" s="69"/>
+      <c r="J267" s="69"/>
+      <c r="K267" s="69"/>
+      <c r="L267" s="69"/>
+      <c r="M267" s="69"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -14126,20 +14141,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="72" t="s">
+      <c r="B269" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="72"/>
-      <c r="D269" s="72"/>
-      <c r="E269" s="72"/>
-      <c r="F269" s="72"/>
-      <c r="G269" s="72"/>
-      <c r="H269" s="72"/>
-      <c r="I269" s="72"/>
-      <c r="J269" s="72"/>
-      <c r="K269" s="72"/>
-      <c r="L269" s="72"/>
-      <c r="M269" s="72"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="69"/>
+      <c r="E269" s="69"/>
+      <c r="F269" s="69"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
+      <c r="I269" s="69"/>
+      <c r="J269" s="69"/>
+      <c r="K269" s="69"/>
+      <c r="L269" s="69"/>
+      <c r="M269" s="69"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -14222,20 +14237,20 @@
       <c r="M272" s="35"/>
     </row>
     <row r="274" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B274" s="68" t="s">
+      <c r="B274" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C274" s="68"/>
-      <c r="D274" s="68"/>
-      <c r="E274" s="68"/>
-      <c r="F274" s="68"/>
-      <c r="G274" s="68"/>
-      <c r="H274" s="68"/>
-      <c r="I274" s="68"/>
-      <c r="J274" s="68"/>
-      <c r="K274" s="68"/>
-      <c r="L274" s="68"/>
-      <c r="M274" s="68"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="70"/>
+      <c r="G274" s="70"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="70"/>
+      <c r="J274" s="70"/>
+      <c r="K274" s="70"/>
+      <c r="L274" s="70"/>
+      <c r="M274" s="70"/>
     </row>
     <row r="275" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
@@ -14274,20 +14289,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="72" t="s">
+      <c r="B276" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="72"/>
-      <c r="D276" s="72"/>
-      <c r="E276" s="72"/>
-      <c r="F276" s="72"/>
-      <c r="G276" s="72"/>
-      <c r="H276" s="72"/>
-      <c r="I276" s="72"/>
-      <c r="J276" s="72"/>
-      <c r="K276" s="72"/>
-      <c r="L276" s="72"/>
-      <c r="M276" s="72"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="69"/>
+      <c r="F276" s="69"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
+      <c r="I276" s="69"/>
+      <c r="J276" s="69"/>
+      <c r="K276" s="69"/>
+      <c r="L276" s="69"/>
+      <c r="M276" s="69"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -14318,20 +14333,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="72" t="s">
+      <c r="B278" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="72"/>
-      <c r="D278" s="72"/>
-      <c r="E278" s="72"/>
-      <c r="F278" s="72"/>
-      <c r="G278" s="72"/>
-      <c r="H278" s="72"/>
-      <c r="I278" s="72"/>
-      <c r="J278" s="72"/>
-      <c r="K278" s="72"/>
-      <c r="L278" s="72"/>
-      <c r="M278" s="72"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="69"/>
+      <c r="G278" s="69"/>
+      <c r="H278" s="69"/>
+      <c r="I278" s="69"/>
+      <c r="J278" s="69"/>
+      <c r="K278" s="69"/>
+      <c r="L278" s="69"/>
+      <c r="M278" s="69"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -14390,20 +14405,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="72" t="s">
+      <c r="B281" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="72"/>
-      <c r="D281" s="72"/>
-      <c r="E281" s="72"/>
-      <c r="F281" s="72"/>
-      <c r="G281" s="72"/>
-      <c r="H281" s="72"/>
-      <c r="I281" s="72"/>
-      <c r="J281" s="72"/>
-      <c r="K281" s="72"/>
-      <c r="L281" s="72"/>
-      <c r="M281" s="72"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -14463,20 +14478,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="72" t="s">
+      <c r="B284" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="72"/>
-      <c r="D284" s="72"/>
-      <c r="E284" s="72"/>
-      <c r="F284" s="72"/>
-      <c r="G284" s="72"/>
-      <c r="H284" s="72"/>
-      <c r="I284" s="72"/>
-      <c r="J284" s="72"/>
-      <c r="K284" s="72"/>
-      <c r="L284" s="72"/>
-      <c r="M284" s="72"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="69"/>
+      <c r="F284" s="69"/>
+      <c r="G284" s="69"/>
+      <c r="H284" s="69"/>
+      <c r="I284" s="69"/>
+      <c r="J284" s="69"/>
+      <c r="K284" s="69"/>
+      <c r="L284" s="69"/>
+      <c r="M284" s="69"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -14535,20 +14550,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="72" t="s">
+      <c r="B287" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="72"/>
-      <c r="D287" s="72"/>
-      <c r="E287" s="72"/>
-      <c r="F287" s="72"/>
-      <c r="G287" s="72"/>
-      <c r="H287" s="72"/>
-      <c r="I287" s="72"/>
-      <c r="J287" s="72"/>
-      <c r="K287" s="72"/>
-      <c r="L287" s="72"/>
-      <c r="M287" s="72"/>
+      <c r="C287" s="69"/>
+      <c r="D287" s="69"/>
+      <c r="E287" s="69"/>
+      <c r="F287" s="69"/>
+      <c r="G287" s="69"/>
+      <c r="H287" s="69"/>
+      <c r="I287" s="69"/>
+      <c r="J287" s="69"/>
+      <c r="K287" s="69"/>
+      <c r="L287" s="69"/>
+      <c r="M287" s="69"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -14664,20 +14679,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="72" t="s">
+      <c r="B292" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="72"/>
-      <c r="D292" s="72"/>
-      <c r="E292" s="72"/>
-      <c r="F292" s="72"/>
-      <c r="G292" s="72"/>
-      <c r="H292" s="72"/>
-      <c r="I292" s="72"/>
-      <c r="J292" s="72"/>
-      <c r="K292" s="72"/>
-      <c r="L292" s="72"/>
-      <c r="M292" s="72"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="69"/>
+      <c r="F292" s="69"/>
+      <c r="G292" s="69"/>
+      <c r="H292" s="69"/>
+      <c r="I292" s="69"/>
+      <c r="J292" s="69"/>
+      <c r="K292" s="69"/>
+      <c r="L292" s="69"/>
+      <c r="M292" s="69"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -14708,20 +14723,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="72" t="s">
+      <c r="B294" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="72"/>
-      <c r="D294" s="72"/>
-      <c r="E294" s="72"/>
-      <c r="F294" s="72"/>
-      <c r="G294" s="72"/>
-      <c r="H294" s="72"/>
-      <c r="I294" s="72"/>
-      <c r="J294" s="72"/>
-      <c r="K294" s="72"/>
-      <c r="L294" s="72"/>
-      <c r="M294" s="72"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="69"/>
+      <c r="F294" s="69"/>
+      <c r="G294" s="69"/>
+      <c r="H294" s="69"/>
+      <c r="I294" s="69"/>
+      <c r="J294" s="69"/>
+      <c r="K294" s="69"/>
+      <c r="L294" s="69"/>
+      <c r="M294" s="69"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -14804,20 +14819,20 @@
       <c r="M297" s="35"/>
     </row>
     <row r="299" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B299" s="68" t="s">
+      <c r="B299" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="C299" s="68"/>
-      <c r="D299" s="68"/>
-      <c r="E299" s="68"/>
-      <c r="F299" s="68"/>
-      <c r="G299" s="68"/>
-      <c r="H299" s="68"/>
-      <c r="I299" s="68"/>
-      <c r="J299" s="68"/>
-      <c r="K299" s="68"/>
-      <c r="L299" s="68"/>
-      <c r="M299" s="68"/>
+      <c r="C299" s="70"/>
+      <c r="D299" s="70"/>
+      <c r="E299" s="70"/>
+      <c r="F299" s="70"/>
+      <c r="G299" s="70"/>
+      <c r="H299" s="70"/>
+      <c r="I299" s="70"/>
+      <c r="J299" s="70"/>
+      <c r="K299" s="70"/>
+      <c r="L299" s="70"/>
+      <c r="M299" s="70"/>
     </row>
     <row r="300" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B300" s="3" t="s">
@@ -14856,68 +14871,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="72" t="s">
+      <c r="B301" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="72"/>
-      <c r="D301" s="72"/>
-      <c r="E301" s="72"/>
-      <c r="F301" s="72"/>
-      <c r="G301" s="72"/>
-      <c r="H301" s="72"/>
-      <c r="I301" s="72"/>
-      <c r="J301" s="72"/>
-      <c r="K301" s="72"/>
-      <c r="L301" s="72"/>
-      <c r="M301" s="72"/>
+      <c r="C301" s="69"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="69"/>
+      <c r="F301" s="69"/>
+      <c r="G301" s="69"/>
+      <c r="H301" s="69"/>
+      <c r="I301" s="69"/>
+      <c r="J301" s="69"/>
+      <c r="K301" s="69"/>
+      <c r="L301" s="69"/>
+      <c r="M301" s="69"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="72" t="s">
+      <c r="B302" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="72"/>
-      <c r="D302" s="72"/>
-      <c r="E302" s="72"/>
-      <c r="F302" s="72"/>
-      <c r="G302" s="72"/>
-      <c r="H302" s="72"/>
-      <c r="I302" s="72"/>
-      <c r="J302" s="72"/>
-      <c r="K302" s="72"/>
-      <c r="L302" s="72"/>
-      <c r="M302" s="72"/>
+      <c r="C302" s="69"/>
+      <c r="D302" s="69"/>
+      <c r="E302" s="69"/>
+      <c r="F302" s="69"/>
+      <c r="G302" s="69"/>
+      <c r="H302" s="69"/>
+      <c r="I302" s="69"/>
+      <c r="J302" s="69"/>
+      <c r="K302" s="69"/>
+      <c r="L302" s="69"/>
+      <c r="M302" s="69"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="72" t="s">
+      <c r="B303" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="72"/>
-      <c r="D303" s="72"/>
-      <c r="E303" s="72"/>
-      <c r="F303" s="72"/>
-      <c r="G303" s="72"/>
-      <c r="H303" s="72"/>
-      <c r="I303" s="72"/>
-      <c r="J303" s="72"/>
-      <c r="K303" s="72"/>
-      <c r="L303" s="72"/>
-      <c r="M303" s="72"/>
+      <c r="C303" s="69"/>
+      <c r="D303" s="69"/>
+      <c r="E303" s="69"/>
+      <c r="F303" s="69"/>
+      <c r="G303" s="69"/>
+      <c r="H303" s="69"/>
+      <c r="I303" s="69"/>
+      <c r="J303" s="69"/>
+      <c r="K303" s="69"/>
+      <c r="L303" s="69"/>
+      <c r="M303" s="69"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="72" t="s">
+      <c r="B304" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="72"/>
-      <c r="D304" s="72"/>
-      <c r="E304" s="72"/>
-      <c r="F304" s="72"/>
-      <c r="G304" s="72"/>
-      <c r="H304" s="72"/>
-      <c r="I304" s="72"/>
-      <c r="J304" s="72"/>
-      <c r="K304" s="72"/>
-      <c r="L304" s="72"/>
-      <c r="M304" s="72"/>
+      <c r="C304" s="69"/>
+      <c r="D304" s="69"/>
+      <c r="E304" s="69"/>
+      <c r="F304" s="69"/>
+      <c r="G304" s="69"/>
+      <c r="H304" s="69"/>
+      <c r="I304" s="69"/>
+      <c r="J304" s="69"/>
+      <c r="K304" s="69"/>
+      <c r="L304" s="69"/>
+      <c r="M304" s="69"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -14934,20 +14949,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="72" t="s">
+      <c r="B306" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="72"/>
-      <c r="D306" s="72"/>
-      <c r="E306" s="72"/>
-      <c r="F306" s="72"/>
-      <c r="G306" s="72"/>
-      <c r="H306" s="72"/>
-      <c r="I306" s="72"/>
-      <c r="J306" s="72"/>
-      <c r="K306" s="72"/>
-      <c r="L306" s="72"/>
-      <c r="M306" s="72"/>
+      <c r="C306" s="69"/>
+      <c r="D306" s="69"/>
+      <c r="E306" s="69"/>
+      <c r="F306" s="69"/>
+      <c r="G306" s="69"/>
+      <c r="H306" s="69"/>
+      <c r="I306" s="69"/>
+      <c r="J306" s="69"/>
+      <c r="K306" s="69"/>
+      <c r="L306" s="69"/>
+      <c r="M306" s="69"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -14978,20 +14993,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="72" t="s">
+      <c r="B309" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="72"/>
-      <c r="D309" s="72"/>
-      <c r="E309" s="72"/>
-      <c r="F309" s="72"/>
-      <c r="G309" s="72"/>
-      <c r="H309" s="72"/>
-      <c r="I309" s="72"/>
-      <c r="J309" s="72"/>
-      <c r="K309" s="72"/>
-      <c r="L309" s="72"/>
-      <c r="M309" s="72"/>
+      <c r="C309" s="69"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="69"/>
+      <c r="F309" s="69"/>
+      <c r="G309" s="69"/>
+      <c r="H309" s="69"/>
+      <c r="I309" s="69"/>
+      <c r="J309" s="69"/>
+      <c r="K309" s="69"/>
+      <c r="L309" s="69"/>
+      <c r="M309" s="69"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -15008,20 +15023,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="72" t="s">
+      <c r="B311" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="72"/>
-      <c r="D311" s="72"/>
-      <c r="E311" s="72"/>
-      <c r="F311" s="72"/>
-      <c r="G311" s="72"/>
-      <c r="H311" s="72"/>
-      <c r="I311" s="72"/>
-      <c r="J311" s="72"/>
-      <c r="K311" s="72"/>
-      <c r="L311" s="72"/>
-      <c r="M311" s="72"/>
+      <c r="C311" s="69"/>
+      <c r="D311" s="69"/>
+      <c r="E311" s="69"/>
+      <c r="F311" s="69"/>
+      <c r="G311" s="69"/>
+      <c r="H311" s="69"/>
+      <c r="I311" s="69"/>
+      <c r="J311" s="69"/>
+      <c r="K311" s="69"/>
+      <c r="L311" s="69"/>
+      <c r="M311" s="69"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -15107,20 +15122,20 @@
       <c r="M314" s="18"/>
     </row>
     <row r="316" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B316" s="68" t="s">
+      <c r="B316" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="65"/>
-      <c r="D316" s="65"/>
-      <c r="E316" s="65"/>
-      <c r="F316" s="65"/>
-      <c r="G316" s="65"/>
-      <c r="H316" s="65"/>
-      <c r="I316" s="65"/>
-      <c r="J316" s="65"/>
-      <c r="K316" s="65"/>
-      <c r="L316" s="65"/>
-      <c r="M316" s="66"/>
+      <c r="C316" s="71"/>
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
+      <c r="F316" s="71"/>
+      <c r="G316" s="71"/>
+      <c r="H316" s="71"/>
+      <c r="I316" s="71"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="71"/>
+      <c r="L316" s="71"/>
+      <c r="M316" s="72"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -15159,52 +15174,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="69" t="s">
+      <c r="B318" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="70"/>
-      <c r="D318" s="70"/>
-      <c r="E318" s="70"/>
-      <c r="F318" s="70"/>
-      <c r="G318" s="70"/>
-      <c r="H318" s="70"/>
-      <c r="I318" s="70"/>
-      <c r="J318" s="70"/>
-      <c r="K318" s="70"/>
-      <c r="L318" s="70"/>
-      <c r="M318" s="71"/>
+      <c r="C318" s="67"/>
+      <c r="D318" s="67"/>
+      <c r="E318" s="67"/>
+      <c r="F318" s="67"/>
+      <c r="G318" s="67"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="67"/>
+      <c r="J318" s="67"/>
+      <c r="K318" s="67"/>
+      <c r="L318" s="67"/>
+      <c r="M318" s="68"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="69" t="s">
+      <c r="B319" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="70"/>
-      <c r="D319" s="70"/>
-      <c r="E319" s="70"/>
-      <c r="F319" s="70"/>
-      <c r="G319" s="70"/>
-      <c r="H319" s="70"/>
-      <c r="I319" s="70"/>
-      <c r="J319" s="70"/>
-      <c r="K319" s="70"/>
-      <c r="L319" s="70"/>
-      <c r="M319" s="71"/>
+      <c r="C319" s="67"/>
+      <c r="D319" s="67"/>
+      <c r="E319" s="67"/>
+      <c r="F319" s="67"/>
+      <c r="G319" s="67"/>
+      <c r="H319" s="67"/>
+      <c r="I319" s="67"/>
+      <c r="J319" s="67"/>
+      <c r="K319" s="67"/>
+      <c r="L319" s="67"/>
+      <c r="M319" s="68"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="72" t="s">
+      <c r="B320" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="72"/>
-      <c r="D320" s="72"/>
-      <c r="E320" s="72"/>
-      <c r="F320" s="72"/>
-      <c r="G320" s="72"/>
-      <c r="H320" s="72"/>
-      <c r="I320" s="72"/>
-      <c r="J320" s="72"/>
-      <c r="K320" s="72"/>
-      <c r="L320" s="72"/>
-      <c r="M320" s="72"/>
+      <c r="C320" s="69"/>
+      <c r="D320" s="69"/>
+      <c r="E320" s="69"/>
+      <c r="F320" s="69"/>
+      <c r="G320" s="69"/>
+      <c r="H320" s="69"/>
+      <c r="I320" s="69"/>
+      <c r="J320" s="69"/>
+      <c r="K320" s="69"/>
+      <c r="L320" s="69"/>
+      <c r="M320" s="69"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -15221,20 +15236,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="69" t="s">
+      <c r="B322" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="70"/>
-      <c r="D322" s="70"/>
-      <c r="E322" s="70"/>
-      <c r="F322" s="70"/>
-      <c r="G322" s="70"/>
-      <c r="H322" s="70"/>
-      <c r="I322" s="70"/>
-      <c r="J322" s="70"/>
-      <c r="K322" s="70"/>
-      <c r="L322" s="70"/>
-      <c r="M322" s="71"/>
+      <c r="C322" s="67"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="67"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="67"/>
+      <c r="H322" s="67"/>
+      <c r="I322" s="67"/>
+      <c r="J322" s="67"/>
+      <c r="K322" s="67"/>
+      <c r="L322" s="67"/>
+      <c r="M322" s="68"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -15251,20 +15266,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="69" t="s">
+      <c r="B324" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="70"/>
-      <c r="D324" s="70"/>
-      <c r="E324" s="70"/>
-      <c r="F324" s="70"/>
-      <c r="G324" s="70"/>
-      <c r="H324" s="70"/>
-      <c r="I324" s="70"/>
-      <c r="J324" s="70"/>
-      <c r="K324" s="70"/>
-      <c r="L324" s="70"/>
-      <c r="M324" s="71"/>
+      <c r="C324" s="67"/>
+      <c r="D324" s="67"/>
+      <c r="E324" s="67"/>
+      <c r="F324" s="67"/>
+      <c r="G324" s="67"/>
+      <c r="H324" s="67"/>
+      <c r="I324" s="67"/>
+      <c r="J324" s="67"/>
+      <c r="K324" s="67"/>
+      <c r="L324" s="67"/>
+      <c r="M324" s="68"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -15295,20 +15310,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="69" t="s">
+      <c r="B327" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="70"/>
-      <c r="D327" s="70"/>
-      <c r="E327" s="70"/>
-      <c r="F327" s="70"/>
-      <c r="G327" s="70"/>
-      <c r="H327" s="70"/>
-      <c r="I327" s="70"/>
-      <c r="J327" s="70"/>
-      <c r="K327" s="70"/>
-      <c r="L327" s="70"/>
-      <c r="M327" s="71"/>
+      <c r="C327" s="67"/>
+      <c r="D327" s="67"/>
+      <c r="E327" s="67"/>
+      <c r="F327" s="67"/>
+      <c r="G327" s="67"/>
+      <c r="H327" s="67"/>
+      <c r="I327" s="67"/>
+      <c r="J327" s="67"/>
+      <c r="K327" s="67"/>
+      <c r="L327" s="67"/>
+      <c r="M327" s="68"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -15325,20 +15340,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="69" t="s">
+      <c r="B329" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="70"/>
-      <c r="D329" s="70"/>
-      <c r="E329" s="70"/>
-      <c r="F329" s="70"/>
-      <c r="G329" s="70"/>
-      <c r="H329" s="70"/>
-      <c r="I329" s="70"/>
-      <c r="J329" s="70"/>
-      <c r="K329" s="70"/>
-      <c r="L329" s="70"/>
-      <c r="M329" s="71"/>
+      <c r="C329" s="67"/>
+      <c r="D329" s="67"/>
+      <c r="E329" s="67"/>
+      <c r="F329" s="67"/>
+      <c r="G329" s="67"/>
+      <c r="H329" s="67"/>
+      <c r="I329" s="67"/>
+      <c r="J329" s="67"/>
+      <c r="K329" s="67"/>
+      <c r="L329" s="67"/>
+      <c r="M329" s="68"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -15503,99 +15518,6 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -15615,6 +15537,99 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15644,20 +15659,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -16400,20 +16415,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -17392,20 +17407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18261,20 +18276,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -19024,7 +19039,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19045,20 +19060,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -19129,7 +19144,7 @@
       <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="64">
         <f>J3/G3</f>
         <v>1</v>
       </c>
@@ -19166,11 +19181,11 @@
         <v>41991</v>
       </c>
       <c r="J4" s="19">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K4" s="20">
         <f>J4/G4</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>16</v>
@@ -19206,11 +19221,11 @@
         <v>41994</v>
       </c>
       <c r="J5" s="18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K5" s="61">
         <f>J5/G5</f>
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>16</v>
@@ -19242,15 +19257,15 @@
       <c r="H6" s="9">
         <v>41991</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="65">
         <v>41994</v>
       </c>
-      <c r="J6" s="40">
-        <v>2.5</v>
+      <c r="J6" s="18">
+        <v>2.75</v>
       </c>
       <c r="K6" s="41">
         <f>J6/G6</f>
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>16</v>
@@ -19325,11 +19340,11 @@
         <v>41995</v>
       </c>
       <c r="J8" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="K8" s="78">
+        <v>1</v>
+      </c>
+      <c r="K8" s="64">
         <f t="shared" ref="K8:K9" si="1">J8/G8</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>16</v>
@@ -19366,7 +19381,7 @@
       <c r="J9" s="19">
         <v>1</v>
       </c>
-      <c r="K9" s="78">
+      <c r="K9" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -19400,10 +19415,10 @@
         <v>41995</v>
       </c>
       <c r="I10" s="9">
-        <v>41995</v>
+        <v>42002</v>
       </c>
       <c r="J10" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="20">
         <v>1</v>
@@ -19516,14 +19531,14 @@
         <v>42000</v>
       </c>
       <c r="I13" s="9">
-        <v>42000</v>
+        <v>42002</v>
       </c>
       <c r="J13" s="19">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="K13" s="20">
         <f>G13/J13</f>
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>16</v>
@@ -19552,10 +19567,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="9">
-        <v>42001</v>
+        <v>42002</v>
       </c>
       <c r="I14" s="9">
-        <v>42001</v>
+        <v>42002</v>
       </c>
       <c r="J14" s="19">
         <v>1</v>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Metrics\Task Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Iteration 3" sheetId="6" r:id="rId4"/>
     <sheet name="Iteration 4" sheetId="9" r:id="rId5"/>
     <sheet name="Iteration 5" sheetId="11" r:id="rId6"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId7"/>
+    <sheet name="Iteration 6" sheetId="14" r:id="rId7"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="227">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -691,6 +692,36 @@
   </si>
   <si>
     <t>Generation of test scenarios for functionalities in Iteration 5</t>
+  </si>
+  <si>
+    <t>Review requirements</t>
+  </si>
+  <si>
+    <t>Update sequence diagram</t>
+  </si>
+  <si>
+    <t>Changes made based on previous client meeting - charts and medication history</t>
+  </si>
+  <si>
+    <t>Case Setup - Create case and state</t>
+  </si>
+  <si>
+    <t>Patient Management - Documents tab, display consent form based on state</t>
+  </si>
+  <si>
+    <t>View student's submission</t>
+  </si>
+  <si>
+    <t>Investigation - Update reports according to state</t>
+  </si>
+  <si>
+    <t>Ensure that chosen ward shows correct patient's information, reports, documents with the state</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting 2</t>
+  </si>
+  <si>
+    <t>Client Meeting 7</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1184,21 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1164,21 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1508,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-863158800"/>
-        <c:axId val="-863157168"/>
+        <c:axId val="1440440672"/>
+        <c:axId val="1440435232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-863158800"/>
+        <c:axId val="1440440672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863157168"/>
+        <c:crossAx val="1440435232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1563,7 +1594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863157168"/>
+        <c:axId val="1440435232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1615,7 +1646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863158800"/>
+        <c:crossAx val="1440440672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2026,11 +2057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1098983024"/>
-        <c:axId val="-820911840"/>
+        <c:axId val="1440446112"/>
+        <c:axId val="1440438496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1098983024"/>
+        <c:axId val="1440446112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820911840"/>
+        <c:crossAx val="1440438496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820911840"/>
+        <c:axId val="1440438496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2133,7 +2164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1098983024"/>
+        <c:crossAx val="1440446112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2526,11 +2557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-820909664"/>
-        <c:axId val="-820916192"/>
+        <c:axId val="1612792320"/>
+        <c:axId val="1612795040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-820909664"/>
+        <c:axId val="1612792320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820916192"/>
+        <c:crossAx val="1612795040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820916192"/>
+        <c:axId val="1612795040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2633,7 +2664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820909664"/>
+        <c:crossAx val="1612792320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2996,11 +3027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-820905312"/>
-        <c:axId val="-820916736"/>
+        <c:axId val="1828003840"/>
+        <c:axId val="1828004928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-820905312"/>
+        <c:axId val="1828003840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820916736"/>
+        <c:crossAx val="1828004928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3051,7 +3082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820916736"/>
+        <c:axId val="1828004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3103,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820905312"/>
+        <c:crossAx val="1828003840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3450,11 +3481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-820914560"/>
-        <c:axId val="-820915648"/>
+        <c:axId val="1828009824"/>
+        <c:axId val="1828004384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-820914560"/>
+        <c:axId val="1828009824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820915648"/>
+        <c:crossAx val="1828004384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +3536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-820915648"/>
+        <c:axId val="1828004384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3557,7 +3588,498 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-820914560"/>
+        <c:crossAx val="1828009824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 6'!$B$3:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Review requirements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update sequence diagram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Changes made based on previous client meeting - charts and medication history</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case Setup - Create case and state</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ward Management - view ward's information, visualisation of ward</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Patient Management - Documents tab, display consent form based on state</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>View student's submission</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Investigation - Update reports according to state</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ensure that chosen ward shows correct patient's information, reports, documents with the state</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation of test cases for functionalities in Iteration 6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Supervisor Meeting 2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Client Meeting 7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 6'!$K$3:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99995239682010761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1828015808"/>
+        <c:axId val="1828009280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1828015808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828009280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1828009280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1828015808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3800,6 +4322,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6354,6 +6916,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6501,6 +7566,43 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7011,28 +8113,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -7497,26 +8599,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="73" t="s">
+      <c r="O14" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -8117,11 +9219,11 @@
       <c r="K31" s="70"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="73" t="s">
+      <c r="O31" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -8244,20 +9346,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="68"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -8319,20 +9421,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="68"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -8515,11 +9617,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="73" t="s">
+      <c r="O41" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -8615,20 +9717,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="68"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="73"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -8749,20 +9851,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="68"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="73"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -8805,20 +9907,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="68"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="73"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -9017,25 +10119,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="72"/>
-      <c r="O57" s="73" t="s">
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="68"/>
+      <c r="O57" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -9083,20 +10185,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="68"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="73"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -9150,20 +10252,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -9256,20 +10358,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="68"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
+      <c r="L64" s="72"/>
+      <c r="M64" s="73"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -9425,20 +10527,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="68"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="73"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -9469,20 +10571,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="68"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="73"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -9542,20 +10644,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="68"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="73"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -9586,20 +10688,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="68"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="73"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -9785,11 +10887,11 @@
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="70"/>
-      <c r="O85" s="73" t="s">
+      <c r="O85" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
+      <c r="P85" s="69"/>
+      <c r="Q85" s="69"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -9835,20 +10937,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="69" t="s">
+      <c r="B87" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -9902,20 +11004,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -10007,20 +11109,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="69" t="s">
+      <c r="B92" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -10122,20 +11224,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -10166,20 +11268,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="69" t="s">
+      <c r="B98" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -10295,20 +11397,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="69"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="74"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="74"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -10339,20 +11441,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="74"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -10528,11 +11630,11 @@
       <c r="K113" s="70"/>
       <c r="L113" s="70"/>
       <c r="M113" s="70"/>
-      <c r="O113" s="73" t="s">
+      <c r="O113" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="73"/>
-      <c r="Q113" s="73"/>
+      <c r="P113" s="69"/>
+      <c r="Q113" s="69"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -10578,20 +11680,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="69"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -10645,20 +11747,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="69" t="s">
+      <c r="B117" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="69"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -10750,20 +11852,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="69" t="s">
+      <c r="B120" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="69"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="69"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="69"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -10863,20 +11965,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="69" t="s">
+      <c r="B124" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="69"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="69"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="74"/>
+      <c r="M124" s="74"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -10907,20 +12009,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="69" t="s">
+      <c r="B126" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="69"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="74"/>
+      <c r="I126" s="74"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="74"/>
+      <c r="M126" s="74"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -10980,20 +12082,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="69" t="s">
+      <c r="B129" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="69"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="74"/>
+      <c r="M129" s="74"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -11024,20 +12126,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="69" t="s">
+      <c r="B131" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="74"/>
+      <c r="L131" s="74"/>
+      <c r="M131" s="74"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -11251,20 +12353,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="69" t="s">
+      <c r="B141" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="69"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="69"/>
-      <c r="J141" s="69"/>
-      <c r="K141" s="69"/>
-      <c r="L141" s="69"/>
-      <c r="M141" s="69"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="74"/>
+      <c r="G141" s="74"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="74"/>
+      <c r="J141" s="74"/>
+      <c r="K141" s="74"/>
+      <c r="L141" s="74"/>
+      <c r="M141" s="74"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -11296,20 +12398,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="69" t="s">
+      <c r="B143" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="69"/>
-      <c r="J143" s="69"/>
-      <c r="K143" s="69"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="69"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="74"/>
+      <c r="H143" s="74"/>
+      <c r="I143" s="74"/>
+      <c r="J143" s="74"/>
+      <c r="K143" s="74"/>
+      <c r="L143" s="74"/>
+      <c r="M143" s="74"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -11368,20 +12470,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="69"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="69"/>
-      <c r="J146" s="69"/>
-      <c r="K146" s="69"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="69"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="74"/>
+      <c r="L146" s="74"/>
+      <c r="M146" s="74"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -11528,20 +12630,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="69" t="s">
+      <c r="B152" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="69"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="69"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="69"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="74"/>
+      <c r="L152" s="74"/>
+      <c r="M152" s="74"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -11572,20 +12674,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="69" t="s">
+      <c r="B154" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="69"/>
-      <c r="I154" s="69"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="69"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="69"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="74"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="74"/>
+      <c r="K154" s="74"/>
+      <c r="L154" s="74"/>
+      <c r="M154" s="74"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -11645,20 +12747,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="69" t="s">
+      <c r="B157" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="69"/>
-      <c r="J157" s="69"/>
-      <c r="K157" s="69"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="69"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="74"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="74"/>
+      <c r="L157" s="74"/>
+      <c r="M157" s="74"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -11689,20 +12791,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="69" t="s">
+      <c r="B159" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="69"/>
-      <c r="J159" s="69"/>
-      <c r="K159" s="69"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="69"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="74"/>
+      <c r="L159" s="74"/>
+      <c r="M159" s="74"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -11833,20 +12935,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="69" t="s">
+      <c r="B167" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="69"/>
-      <c r="J167" s="69"/>
-      <c r="K167" s="69"/>
-      <c r="L167" s="69"/>
-      <c r="M167" s="69"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="74"/>
+      <c r="L167" s="74"/>
+      <c r="M167" s="74"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -11878,20 +12980,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="69" t="s">
+      <c r="B169" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="69"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="69"/>
-      <c r="J169" s="69"/>
-      <c r="K169" s="69"/>
-      <c r="L169" s="69"/>
-      <c r="M169" s="69"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="74"/>
+      <c r="L169" s="74"/>
+      <c r="M169" s="74"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -11950,20 +13052,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="69" t="s">
+      <c r="B172" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="69"/>
-      <c r="D172" s="69"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="69"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="69"/>
-      <c r="J172" s="69"/>
-      <c r="K172" s="69"/>
-      <c r="L172" s="69"/>
-      <c r="M172" s="69"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="74"/>
+      <c r="K172" s="74"/>
+      <c r="L172" s="74"/>
+      <c r="M172" s="74"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -12023,20 +13125,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="69" t="s">
+      <c r="B175" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="69"/>
-      <c r="L175" s="69"/>
-      <c r="M175" s="69"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -12067,20 +13169,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="69" t="s">
+      <c r="B177" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="69"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="69"/>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
-      <c r="J177" s="69"/>
-      <c r="K177" s="69"/>
-      <c r="L177" s="69"/>
-      <c r="M177" s="69"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="74"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="74"/>
+      <c r="I177" s="74"/>
+      <c r="J177" s="74"/>
+      <c r="K177" s="74"/>
+      <c r="L177" s="74"/>
+      <c r="M177" s="74"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -12140,20 +13242,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="69" t="s">
+      <c r="B180" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="69"/>
-      <c r="I180" s="69"/>
-      <c r="J180" s="69"/>
-      <c r="K180" s="69"/>
-      <c r="L180" s="69"/>
-      <c r="M180" s="69"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="74"/>
+      <c r="L180" s="74"/>
+      <c r="M180" s="74"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -12184,20 +13286,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="69" t="s">
+      <c r="B182" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="69"/>
-      <c r="D182" s="69"/>
-      <c r="E182" s="69"/>
-      <c r="F182" s="69"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="69"/>
-      <c r="J182" s="69"/>
-      <c r="K182" s="69"/>
-      <c r="L182" s="69"/>
-      <c r="M182" s="69"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="74"/>
+      <c r="I182" s="74"/>
+      <c r="J182" s="74"/>
+      <c r="K182" s="74"/>
+      <c r="L182" s="74"/>
+      <c r="M182" s="74"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -12328,20 +13430,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="69" t="s">
+      <c r="B189" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="69"/>
-      <c r="D189" s="69"/>
-      <c r="E189" s="69"/>
-      <c r="F189" s="69"/>
-      <c r="G189" s="69"/>
-      <c r="H189" s="69"/>
-      <c r="I189" s="69"/>
-      <c r="J189" s="69"/>
-      <c r="K189" s="69"/>
-      <c r="L189" s="69"/>
-      <c r="M189" s="69"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="74"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74"/>
+      <c r="H189" s="74"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="74"/>
+      <c r="K189" s="74"/>
+      <c r="L189" s="74"/>
+      <c r="M189" s="74"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -12373,20 +13475,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="69" t="s">
+      <c r="B191" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="69"/>
-      <c r="D191" s="69"/>
-      <c r="E191" s="69"/>
-      <c r="F191" s="69"/>
-      <c r="G191" s="69"/>
-      <c r="H191" s="69"/>
-      <c r="I191" s="69"/>
-      <c r="J191" s="69"/>
-      <c r="K191" s="69"/>
-      <c r="L191" s="69"/>
-      <c r="M191" s="69"/>
+      <c r="C191" s="74"/>
+      <c r="D191" s="74"/>
+      <c r="E191" s="74"/>
+      <c r="F191" s="74"/>
+      <c r="G191" s="74"/>
+      <c r="H191" s="74"/>
+      <c r="I191" s="74"/>
+      <c r="J191" s="74"/>
+      <c r="K191" s="74"/>
+      <c r="L191" s="74"/>
+      <c r="M191" s="74"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -12445,20 +13547,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="69" t="s">
+      <c r="B194" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69"/>
-      <c r="E194" s="69"/>
-      <c r="F194" s="69"/>
-      <c r="G194" s="69"/>
-      <c r="H194" s="69"/>
-      <c r="I194" s="69"/>
-      <c r="J194" s="69"/>
-      <c r="K194" s="69"/>
-      <c r="L194" s="69"/>
-      <c r="M194" s="69"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+      <c r="G194" s="74"/>
+      <c r="H194" s="74"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="74"/>
+      <c r="K194" s="74"/>
+      <c r="L194" s="74"/>
+      <c r="M194" s="74"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -12517,20 +13619,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="69" t="s">
+      <c r="B197" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="69"/>
-      <c r="D197" s="69"/>
-      <c r="E197" s="69"/>
-      <c r="F197" s="69"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="69"/>
-      <c r="I197" s="69"/>
-      <c r="J197" s="69"/>
-      <c r="K197" s="69"/>
-      <c r="L197" s="69"/>
-      <c r="M197" s="69"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="74"/>
+      <c r="G197" s="74"/>
+      <c r="H197" s="74"/>
+      <c r="I197" s="74"/>
+      <c r="J197" s="74"/>
+      <c r="K197" s="74"/>
+      <c r="L197" s="74"/>
+      <c r="M197" s="74"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -12561,20 +13663,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="69" t="s">
+      <c r="B199" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
-      <c r="F199" s="69"/>
-      <c r="G199" s="69"/>
-      <c r="H199" s="69"/>
-      <c r="I199" s="69"/>
-      <c r="J199" s="69"/>
-      <c r="K199" s="69"/>
-      <c r="L199" s="69"/>
-      <c r="M199" s="69"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74"/>
+      <c r="F199" s="74"/>
+      <c r="G199" s="74"/>
+      <c r="H199" s="74"/>
+      <c r="I199" s="74"/>
+      <c r="J199" s="74"/>
+      <c r="K199" s="74"/>
+      <c r="L199" s="74"/>
+      <c r="M199" s="74"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -12689,20 +13791,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="69" t="s">
+      <c r="B204" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="69"/>
-      <c r="D204" s="69"/>
-      <c r="E204" s="69"/>
-      <c r="F204" s="69"/>
-      <c r="G204" s="69"/>
-      <c r="H204" s="69"/>
-      <c r="I204" s="69"/>
-      <c r="J204" s="69"/>
-      <c r="K204" s="69"/>
-      <c r="L204" s="69"/>
-      <c r="M204" s="69"/>
+      <c r="C204" s="74"/>
+      <c r="D204" s="74"/>
+      <c r="E204" s="74"/>
+      <c r="F204" s="74"/>
+      <c r="G204" s="74"/>
+      <c r="H204" s="74"/>
+      <c r="I204" s="74"/>
+      <c r="J204" s="74"/>
+      <c r="K204" s="74"/>
+      <c r="L204" s="74"/>
+      <c r="M204" s="74"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -12733,20 +13835,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="69" t="s">
+      <c r="B206" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="69"/>
-      <c r="D206" s="69"/>
-      <c r="E206" s="69"/>
-      <c r="F206" s="69"/>
-      <c r="G206" s="69"/>
-      <c r="H206" s="69"/>
-      <c r="I206" s="69"/>
-      <c r="J206" s="69"/>
-      <c r="K206" s="69"/>
-      <c r="L206" s="69"/>
-      <c r="M206" s="69"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="74"/>
+      <c r="G206" s="74"/>
+      <c r="H206" s="74"/>
+      <c r="I206" s="74"/>
+      <c r="J206" s="74"/>
+      <c r="K206" s="74"/>
+      <c r="L206" s="74"/>
+      <c r="M206" s="74"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -12905,20 +14007,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="69" t="s">
+      <c r="B214" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="69"/>
-      <c r="D214" s="69"/>
-      <c r="E214" s="69"/>
-      <c r="F214" s="69"/>
-      <c r="G214" s="69"/>
-      <c r="H214" s="69"/>
-      <c r="I214" s="69"/>
-      <c r="J214" s="69"/>
-      <c r="K214" s="69"/>
-      <c r="L214" s="69"/>
-      <c r="M214" s="69"/>
+      <c r="C214" s="74"/>
+      <c r="D214" s="74"/>
+      <c r="E214" s="74"/>
+      <c r="F214" s="74"/>
+      <c r="G214" s="74"/>
+      <c r="H214" s="74"/>
+      <c r="I214" s="74"/>
+      <c r="J214" s="74"/>
+      <c r="K214" s="74"/>
+      <c r="L214" s="74"/>
+      <c r="M214" s="74"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -12950,20 +14052,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="69" t="s">
+      <c r="B216" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="69"/>
-      <c r="D216" s="69"/>
-      <c r="E216" s="69"/>
-      <c r="F216" s="69"/>
-      <c r="G216" s="69"/>
-      <c r="H216" s="69"/>
-      <c r="I216" s="69"/>
-      <c r="J216" s="69"/>
-      <c r="K216" s="69"/>
-      <c r="L216" s="69"/>
-      <c r="M216" s="69"/>
+      <c r="C216" s="74"/>
+      <c r="D216" s="74"/>
+      <c r="E216" s="74"/>
+      <c r="F216" s="74"/>
+      <c r="G216" s="74"/>
+      <c r="H216" s="74"/>
+      <c r="I216" s="74"/>
+      <c r="J216" s="74"/>
+      <c r="K216" s="74"/>
+      <c r="L216" s="74"/>
+      <c r="M216" s="74"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -13022,20 +14124,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="69" t="s">
+      <c r="B219" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="69"/>
-      <c r="D219" s="69"/>
-      <c r="E219" s="69"/>
-      <c r="F219" s="69"/>
-      <c r="G219" s="69"/>
-      <c r="H219" s="69"/>
-      <c r="I219" s="69"/>
-      <c r="J219" s="69"/>
-      <c r="K219" s="69"/>
-      <c r="L219" s="69"/>
-      <c r="M219" s="69"/>
+      <c r="C219" s="74"/>
+      <c r="D219" s="74"/>
+      <c r="E219" s="74"/>
+      <c r="F219" s="74"/>
+      <c r="G219" s="74"/>
+      <c r="H219" s="74"/>
+      <c r="I219" s="74"/>
+      <c r="J219" s="74"/>
+      <c r="K219" s="74"/>
+      <c r="L219" s="74"/>
+      <c r="M219" s="74"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -13097,20 +14199,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="69" t="s">
+      <c r="B222" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="69"/>
-      <c r="D222" s="69"/>
-      <c r="E222" s="69"/>
-      <c r="F222" s="69"/>
-      <c r="G222" s="69"/>
-      <c r="H222" s="69"/>
-      <c r="I222" s="69"/>
-      <c r="J222" s="69"/>
-      <c r="K222" s="69"/>
-      <c r="L222" s="69"/>
-      <c r="M222" s="69"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
+      <c r="F222" s="74"/>
+      <c r="G222" s="74"/>
+      <c r="H222" s="74"/>
+      <c r="I222" s="74"/>
+      <c r="J222" s="74"/>
+      <c r="K222" s="74"/>
+      <c r="L222" s="74"/>
+      <c r="M222" s="74"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -13141,20 +14243,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="69" t="s">
+      <c r="B224" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="69"/>
-      <c r="D224" s="69"/>
-      <c r="E224" s="69"/>
-      <c r="F224" s="69"/>
-      <c r="G224" s="69"/>
-      <c r="H224" s="69"/>
-      <c r="I224" s="69"/>
-      <c r="J224" s="69"/>
-      <c r="K224" s="69"/>
-      <c r="L224" s="69"/>
-      <c r="M224" s="69"/>
+      <c r="C224" s="74"/>
+      <c r="D224" s="74"/>
+      <c r="E224" s="74"/>
+      <c r="F224" s="74"/>
+      <c r="G224" s="74"/>
+      <c r="H224" s="74"/>
+      <c r="I224" s="74"/>
+      <c r="J224" s="74"/>
+      <c r="K224" s="74"/>
+      <c r="L224" s="74"/>
+      <c r="M224" s="74"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -13214,20 +14316,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="69" t="s">
+      <c r="B227" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
-      <c r="F227" s="69"/>
-      <c r="G227" s="69"/>
-      <c r="H227" s="69"/>
-      <c r="I227" s="69"/>
-      <c r="J227" s="69"/>
-      <c r="K227" s="69"/>
-      <c r="L227" s="69"/>
-      <c r="M227" s="69"/>
+      <c r="C227" s="74"/>
+      <c r="D227" s="74"/>
+      <c r="E227" s="74"/>
+      <c r="F227" s="74"/>
+      <c r="G227" s="74"/>
+      <c r="H227" s="74"/>
+      <c r="I227" s="74"/>
+      <c r="J227" s="74"/>
+      <c r="K227" s="74"/>
+      <c r="L227" s="74"/>
+      <c r="M227" s="74"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -13258,20 +14360,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="69" t="s">
+      <c r="B229" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="69"/>
-      <c r="D229" s="69"/>
-      <c r="E229" s="69"/>
-      <c r="F229" s="69"/>
-      <c r="G229" s="69"/>
-      <c r="H229" s="69"/>
-      <c r="I229" s="69"/>
-      <c r="J229" s="69"/>
-      <c r="K229" s="69"/>
-      <c r="L229" s="69"/>
-      <c r="M229" s="69"/>
+      <c r="C229" s="74"/>
+      <c r="D229" s="74"/>
+      <c r="E229" s="74"/>
+      <c r="F229" s="74"/>
+      <c r="G229" s="74"/>
+      <c r="H229" s="74"/>
+      <c r="I229" s="74"/>
+      <c r="J229" s="74"/>
+      <c r="K229" s="74"/>
+      <c r="L229" s="74"/>
+      <c r="M229" s="74"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -13402,36 +14504,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="69" t="s">
+      <c r="B236" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="69"/>
-      <c r="D236" s="69"/>
-      <c r="E236" s="69"/>
-      <c r="F236" s="69"/>
-      <c r="G236" s="69"/>
-      <c r="H236" s="69"/>
-      <c r="I236" s="69"/>
-      <c r="J236" s="69"/>
-      <c r="K236" s="69"/>
-      <c r="L236" s="69"/>
-      <c r="M236" s="69"/>
+      <c r="C236" s="74"/>
+      <c r="D236" s="74"/>
+      <c r="E236" s="74"/>
+      <c r="F236" s="74"/>
+      <c r="G236" s="74"/>
+      <c r="H236" s="74"/>
+      <c r="I236" s="74"/>
+      <c r="J236" s="74"/>
+      <c r="K236" s="74"/>
+      <c r="L236" s="74"/>
+      <c r="M236" s="74"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="69" t="s">
+      <c r="B237" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="69"/>
-      <c r="D237" s="69"/>
-      <c r="E237" s="69"/>
-      <c r="F237" s="69"/>
-      <c r="G237" s="69"/>
-      <c r="H237" s="69"/>
-      <c r="I237" s="69"/>
-      <c r="J237" s="69"/>
-      <c r="K237" s="69"/>
-      <c r="L237" s="69"/>
-      <c r="M237" s="69"/>
+      <c r="C237" s="74"/>
+      <c r="D237" s="74"/>
+      <c r="E237" s="74"/>
+      <c r="F237" s="74"/>
+      <c r="G237" s="74"/>
+      <c r="H237" s="74"/>
+      <c r="I237" s="74"/>
+      <c r="J237" s="74"/>
+      <c r="K237" s="74"/>
+      <c r="L237" s="74"/>
+      <c r="M237" s="74"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -13490,36 +14592,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="69" t="s">
+      <c r="B240" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="69"/>
-      <c r="D240" s="69"/>
-      <c r="E240" s="69"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69"/>
-      <c r="H240" s="69"/>
-      <c r="I240" s="69"/>
-      <c r="J240" s="69"/>
-      <c r="K240" s="69"/>
-      <c r="L240" s="69"/>
-      <c r="M240" s="69"/>
+      <c r="C240" s="74"/>
+      <c r="D240" s="74"/>
+      <c r="E240" s="74"/>
+      <c r="F240" s="74"/>
+      <c r="G240" s="74"/>
+      <c r="H240" s="74"/>
+      <c r="I240" s="74"/>
+      <c r="J240" s="74"/>
+      <c r="K240" s="74"/>
+      <c r="L240" s="74"/>
+      <c r="M240" s="74"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="69" t="s">
+      <c r="B241" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="69"/>
-      <c r="D241" s="69"/>
-      <c r="E241" s="69"/>
-      <c r="F241" s="69"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="69"/>
-      <c r="I241" s="69"/>
-      <c r="J241" s="69"/>
-      <c r="K241" s="69"/>
-      <c r="L241" s="69"/>
-      <c r="M241" s="69"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="74"/>
+      <c r="E241" s="74"/>
+      <c r="F241" s="74"/>
+      <c r="G241" s="74"/>
+      <c r="H241" s="74"/>
+      <c r="I241" s="74"/>
+      <c r="J241" s="74"/>
+      <c r="K241" s="74"/>
+      <c r="L241" s="74"/>
+      <c r="M241" s="74"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -13550,20 +14652,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="69" t="s">
+      <c r="B243" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="69"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
-      <c r="G243" s="69"/>
-      <c r="H243" s="69"/>
-      <c r="I243" s="69"/>
-      <c r="J243" s="69"/>
-      <c r="K243" s="69"/>
-      <c r="L243" s="69"/>
-      <c r="M243" s="69"/>
+      <c r="C243" s="74"/>
+      <c r="D243" s="74"/>
+      <c r="E243" s="74"/>
+      <c r="F243" s="74"/>
+      <c r="G243" s="74"/>
+      <c r="H243" s="74"/>
+      <c r="I243" s="74"/>
+      <c r="J243" s="74"/>
+      <c r="K243" s="74"/>
+      <c r="L243" s="74"/>
+      <c r="M243" s="74"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -13594,20 +14696,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="69" t="s">
+      <c r="B245" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="69"/>
-      <c r="D245" s="69"/>
-      <c r="E245" s="69"/>
-      <c r="F245" s="69"/>
-      <c r="G245" s="69"/>
-      <c r="H245" s="69"/>
-      <c r="I245" s="69"/>
-      <c r="J245" s="69"/>
-      <c r="K245" s="69"/>
-      <c r="L245" s="69"/>
-      <c r="M245" s="69"/>
+      <c r="C245" s="74"/>
+      <c r="D245" s="74"/>
+      <c r="E245" s="74"/>
+      <c r="F245" s="74"/>
+      <c r="G245" s="74"/>
+      <c r="H245" s="74"/>
+      <c r="I245" s="74"/>
+      <c r="J245" s="74"/>
+      <c r="K245" s="74"/>
+      <c r="L245" s="74"/>
+      <c r="M245" s="74"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -13638,20 +14740,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="69" t="s">
+      <c r="B247" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="69"/>
-      <c r="D247" s="69"/>
-      <c r="E247" s="69"/>
-      <c r="F247" s="69"/>
-      <c r="G247" s="69"/>
-      <c r="H247" s="69"/>
-      <c r="I247" s="69"/>
-      <c r="J247" s="69"/>
-      <c r="K247" s="69"/>
-      <c r="L247" s="69"/>
-      <c r="M247" s="69"/>
+      <c r="C247" s="74"/>
+      <c r="D247" s="74"/>
+      <c r="E247" s="74"/>
+      <c r="F247" s="74"/>
+      <c r="G247" s="74"/>
+      <c r="H247" s="74"/>
+      <c r="I247" s="74"/>
+      <c r="J247" s="74"/>
+      <c r="K247" s="74"/>
+      <c r="L247" s="74"/>
+      <c r="M247" s="74"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -13819,36 +14921,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="69" t="s">
+      <c r="B255" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="69"/>
-      <c r="D255" s="69"/>
-      <c r="E255" s="69"/>
-      <c r="F255" s="69"/>
-      <c r="G255" s="69"/>
-      <c r="H255" s="69"/>
-      <c r="I255" s="69"/>
-      <c r="J255" s="69"/>
-      <c r="K255" s="69"/>
-      <c r="L255" s="69"/>
-      <c r="M255" s="69"/>
+      <c r="C255" s="74"/>
+      <c r="D255" s="74"/>
+      <c r="E255" s="74"/>
+      <c r="F255" s="74"/>
+      <c r="G255" s="74"/>
+      <c r="H255" s="74"/>
+      <c r="I255" s="74"/>
+      <c r="J255" s="74"/>
+      <c r="K255" s="74"/>
+      <c r="L255" s="74"/>
+      <c r="M255" s="74"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="69" t="s">
+      <c r="B256" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="69"/>
-      <c r="D256" s="69"/>
-      <c r="E256" s="69"/>
-      <c r="F256" s="69"/>
-      <c r="G256" s="69"/>
-      <c r="H256" s="69"/>
-      <c r="I256" s="69"/>
-      <c r="J256" s="69"/>
-      <c r="K256" s="69"/>
-      <c r="L256" s="69"/>
-      <c r="M256" s="69"/>
+      <c r="C256" s="74"/>
+      <c r="D256" s="74"/>
+      <c r="E256" s="74"/>
+      <c r="F256" s="74"/>
+      <c r="G256" s="74"/>
+      <c r="H256" s="74"/>
+      <c r="I256" s="74"/>
+      <c r="J256" s="74"/>
+      <c r="K256" s="74"/>
+      <c r="L256" s="74"/>
+      <c r="M256" s="74"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -13907,20 +15009,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="69" t="s">
+      <c r="B259" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="69"/>
-      <c r="D259" s="69"/>
-      <c r="E259" s="69"/>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69"/>
-      <c r="H259" s="69"/>
-      <c r="I259" s="69"/>
-      <c r="J259" s="69"/>
-      <c r="K259" s="69"/>
-      <c r="L259" s="69"/>
-      <c r="M259" s="69"/>
+      <c r="C259" s="74"/>
+      <c r="D259" s="74"/>
+      <c r="E259" s="74"/>
+      <c r="F259" s="74"/>
+      <c r="G259" s="74"/>
+      <c r="H259" s="74"/>
+      <c r="I259" s="74"/>
+      <c r="J259" s="74"/>
+      <c r="K259" s="74"/>
+      <c r="L259" s="74"/>
+      <c r="M259" s="74"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -13981,20 +15083,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="69" t="s">
+      <c r="B262" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="69"/>
-      <c r="D262" s="69"/>
-      <c r="E262" s="69"/>
-      <c r="F262" s="69"/>
-      <c r="G262" s="69"/>
-      <c r="H262" s="69"/>
-      <c r="I262" s="69"/>
-      <c r="J262" s="69"/>
-      <c r="K262" s="69"/>
-      <c r="L262" s="69"/>
-      <c r="M262" s="69"/>
+      <c r="C262" s="74"/>
+      <c r="D262" s="74"/>
+      <c r="E262" s="74"/>
+      <c r="F262" s="74"/>
+      <c r="G262" s="74"/>
+      <c r="H262" s="74"/>
+      <c r="I262" s="74"/>
+      <c r="J262" s="74"/>
+      <c r="K262" s="74"/>
+      <c r="L262" s="74"/>
+      <c r="M262" s="74"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -14025,20 +15127,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="69" t="s">
+      <c r="B264" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="69"/>
-      <c r="D264" s="69"/>
-      <c r="E264" s="69"/>
-      <c r="F264" s="69"/>
-      <c r="G264" s="69"/>
-      <c r="H264" s="69"/>
-      <c r="I264" s="69"/>
-      <c r="J264" s="69"/>
-      <c r="K264" s="69"/>
-      <c r="L264" s="69"/>
-      <c r="M264" s="69"/>
+      <c r="C264" s="74"/>
+      <c r="D264" s="74"/>
+      <c r="E264" s="74"/>
+      <c r="F264" s="74"/>
+      <c r="G264" s="74"/>
+      <c r="H264" s="74"/>
+      <c r="I264" s="74"/>
+      <c r="J264" s="74"/>
+      <c r="K264" s="74"/>
+      <c r="L264" s="74"/>
+      <c r="M264" s="74"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -14097,20 +15199,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="69" t="s">
+      <c r="B267" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="69"/>
-      <c r="D267" s="69"/>
-      <c r="E267" s="69"/>
-      <c r="F267" s="69"/>
-      <c r="G267" s="69"/>
-      <c r="H267" s="69"/>
-      <c r="I267" s="69"/>
-      <c r="J267" s="69"/>
-      <c r="K267" s="69"/>
-      <c r="L267" s="69"/>
-      <c r="M267" s="69"/>
+      <c r="C267" s="74"/>
+      <c r="D267" s="74"/>
+      <c r="E267" s="74"/>
+      <c r="F267" s="74"/>
+      <c r="G267" s="74"/>
+      <c r="H267" s="74"/>
+      <c r="I267" s="74"/>
+      <c r="J267" s="74"/>
+      <c r="K267" s="74"/>
+      <c r="L267" s="74"/>
+      <c r="M267" s="74"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -14141,20 +15243,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="69" t="s">
+      <c r="B269" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="69"/>
-      <c r="D269" s="69"/>
-      <c r="E269" s="69"/>
-      <c r="F269" s="69"/>
-      <c r="G269" s="69"/>
-      <c r="H269" s="69"/>
-      <c r="I269" s="69"/>
-      <c r="J269" s="69"/>
-      <c r="K269" s="69"/>
-      <c r="L269" s="69"/>
-      <c r="M269" s="69"/>
+      <c r="C269" s="74"/>
+      <c r="D269" s="74"/>
+      <c r="E269" s="74"/>
+      <c r="F269" s="74"/>
+      <c r="G269" s="74"/>
+      <c r="H269" s="74"/>
+      <c r="I269" s="74"/>
+      <c r="J269" s="74"/>
+      <c r="K269" s="74"/>
+      <c r="L269" s="74"/>
+      <c r="M269" s="74"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -14289,20 +15391,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="69" t="s">
+      <c r="B276" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="69"/>
-      <c r="F276" s="69"/>
-      <c r="G276" s="69"/>
-      <c r="H276" s="69"/>
-      <c r="I276" s="69"/>
-      <c r="J276" s="69"/>
-      <c r="K276" s="69"/>
-      <c r="L276" s="69"/>
-      <c r="M276" s="69"/>
+      <c r="C276" s="74"/>
+      <c r="D276" s="74"/>
+      <c r="E276" s="74"/>
+      <c r="F276" s="74"/>
+      <c r="G276" s="74"/>
+      <c r="H276" s="74"/>
+      <c r="I276" s="74"/>
+      <c r="J276" s="74"/>
+      <c r="K276" s="74"/>
+      <c r="L276" s="74"/>
+      <c r="M276" s="74"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -14333,20 +15435,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="69" t="s">
+      <c r="B278" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="69"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="69"/>
-      <c r="F278" s="69"/>
-      <c r="G278" s="69"/>
-      <c r="H278" s="69"/>
-      <c r="I278" s="69"/>
-      <c r="J278" s="69"/>
-      <c r="K278" s="69"/>
-      <c r="L278" s="69"/>
-      <c r="M278" s="69"/>
+      <c r="C278" s="74"/>
+      <c r="D278" s="74"/>
+      <c r="E278" s="74"/>
+      <c r="F278" s="74"/>
+      <c r="G278" s="74"/>
+      <c r="H278" s="74"/>
+      <c r="I278" s="74"/>
+      <c r="J278" s="74"/>
+      <c r="K278" s="74"/>
+      <c r="L278" s="74"/>
+      <c r="M278" s="74"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -14405,20 +15507,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="69" t="s">
+      <c r="B281" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
-      <c r="J281" s="69"/>
-      <c r="K281" s="69"/>
-      <c r="L281" s="69"/>
-      <c r="M281" s="69"/>
+      <c r="C281" s="74"/>
+      <c r="D281" s="74"/>
+      <c r="E281" s="74"/>
+      <c r="F281" s="74"/>
+      <c r="G281" s="74"/>
+      <c r="H281" s="74"/>
+      <c r="I281" s="74"/>
+      <c r="J281" s="74"/>
+      <c r="K281" s="74"/>
+      <c r="L281" s="74"/>
+      <c r="M281" s="74"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -14478,20 +15580,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="69"/>
-      <c r="F284" s="69"/>
-      <c r="G284" s="69"/>
-      <c r="H284" s="69"/>
-      <c r="I284" s="69"/>
-      <c r="J284" s="69"/>
-      <c r="K284" s="69"/>
-      <c r="L284" s="69"/>
-      <c r="M284" s="69"/>
+      <c r="C284" s="74"/>
+      <c r="D284" s="74"/>
+      <c r="E284" s="74"/>
+      <c r="F284" s="74"/>
+      <c r="G284" s="74"/>
+      <c r="H284" s="74"/>
+      <c r="I284" s="74"/>
+      <c r="J284" s="74"/>
+      <c r="K284" s="74"/>
+      <c r="L284" s="74"/>
+      <c r="M284" s="74"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -14550,20 +15652,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="69" t="s">
+      <c r="B287" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="69"/>
-      <c r="D287" s="69"/>
-      <c r="E287" s="69"/>
-      <c r="F287" s="69"/>
-      <c r="G287" s="69"/>
-      <c r="H287" s="69"/>
-      <c r="I287" s="69"/>
-      <c r="J287" s="69"/>
-      <c r="K287" s="69"/>
-      <c r="L287" s="69"/>
-      <c r="M287" s="69"/>
+      <c r="C287" s="74"/>
+      <c r="D287" s="74"/>
+      <c r="E287" s="74"/>
+      <c r="F287" s="74"/>
+      <c r="G287" s="74"/>
+      <c r="H287" s="74"/>
+      <c r="I287" s="74"/>
+      <c r="J287" s="74"/>
+      <c r="K287" s="74"/>
+      <c r="L287" s="74"/>
+      <c r="M287" s="74"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -14679,20 +15781,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="69" t="s">
+      <c r="B292" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="69"/>
-      <c r="D292" s="69"/>
-      <c r="E292" s="69"/>
-      <c r="F292" s="69"/>
-      <c r="G292" s="69"/>
-      <c r="H292" s="69"/>
-      <c r="I292" s="69"/>
-      <c r="J292" s="69"/>
-      <c r="K292" s="69"/>
-      <c r="L292" s="69"/>
-      <c r="M292" s="69"/>
+      <c r="C292" s="74"/>
+      <c r="D292" s="74"/>
+      <c r="E292" s="74"/>
+      <c r="F292" s="74"/>
+      <c r="G292" s="74"/>
+      <c r="H292" s="74"/>
+      <c r="I292" s="74"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="74"/>
+      <c r="L292" s="74"/>
+      <c r="M292" s="74"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -14723,20 +15825,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="69" t="s">
+      <c r="B294" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="69"/>
-      <c r="D294" s="69"/>
-      <c r="E294" s="69"/>
-      <c r="F294" s="69"/>
-      <c r="G294" s="69"/>
-      <c r="H294" s="69"/>
-      <c r="I294" s="69"/>
-      <c r="J294" s="69"/>
-      <c r="K294" s="69"/>
-      <c r="L294" s="69"/>
-      <c r="M294" s="69"/>
+      <c r="C294" s="74"/>
+      <c r="D294" s="74"/>
+      <c r="E294" s="74"/>
+      <c r="F294" s="74"/>
+      <c r="G294" s="74"/>
+      <c r="H294" s="74"/>
+      <c r="I294" s="74"/>
+      <c r="J294" s="74"/>
+      <c r="K294" s="74"/>
+      <c r="L294" s="74"/>
+      <c r="M294" s="74"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -14871,68 +15973,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="69" t="s">
+      <c r="B301" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="69"/>
-      <c r="D301" s="69"/>
-      <c r="E301" s="69"/>
-      <c r="F301" s="69"/>
-      <c r="G301" s="69"/>
-      <c r="H301" s="69"/>
-      <c r="I301" s="69"/>
-      <c r="J301" s="69"/>
-      <c r="K301" s="69"/>
-      <c r="L301" s="69"/>
-      <c r="M301" s="69"/>
+      <c r="C301" s="74"/>
+      <c r="D301" s="74"/>
+      <c r="E301" s="74"/>
+      <c r="F301" s="74"/>
+      <c r="G301" s="74"/>
+      <c r="H301" s="74"/>
+      <c r="I301" s="74"/>
+      <c r="J301" s="74"/>
+      <c r="K301" s="74"/>
+      <c r="L301" s="74"/>
+      <c r="M301" s="74"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="69"/>
-      <c r="D302" s="69"/>
-      <c r="E302" s="69"/>
-      <c r="F302" s="69"/>
-      <c r="G302" s="69"/>
-      <c r="H302" s="69"/>
-      <c r="I302" s="69"/>
-      <c r="J302" s="69"/>
-      <c r="K302" s="69"/>
-      <c r="L302" s="69"/>
-      <c r="M302" s="69"/>
+      <c r="C302" s="74"/>
+      <c r="D302" s="74"/>
+      <c r="E302" s="74"/>
+      <c r="F302" s="74"/>
+      <c r="G302" s="74"/>
+      <c r="H302" s="74"/>
+      <c r="I302" s="74"/>
+      <c r="J302" s="74"/>
+      <c r="K302" s="74"/>
+      <c r="L302" s="74"/>
+      <c r="M302" s="74"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="69" t="s">
+      <c r="B303" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="69"/>
-      <c r="F303" s="69"/>
-      <c r="G303" s="69"/>
-      <c r="H303" s="69"/>
-      <c r="I303" s="69"/>
-      <c r="J303" s="69"/>
-      <c r="K303" s="69"/>
-      <c r="L303" s="69"/>
-      <c r="M303" s="69"/>
+      <c r="C303" s="74"/>
+      <c r="D303" s="74"/>
+      <c r="E303" s="74"/>
+      <c r="F303" s="74"/>
+      <c r="G303" s="74"/>
+      <c r="H303" s="74"/>
+      <c r="I303" s="74"/>
+      <c r="J303" s="74"/>
+      <c r="K303" s="74"/>
+      <c r="L303" s="74"/>
+      <c r="M303" s="74"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="69" t="s">
+      <c r="B304" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="69"/>
-      <c r="D304" s="69"/>
-      <c r="E304" s="69"/>
-      <c r="F304" s="69"/>
-      <c r="G304" s="69"/>
-      <c r="H304" s="69"/>
-      <c r="I304" s="69"/>
-      <c r="J304" s="69"/>
-      <c r="K304" s="69"/>
-      <c r="L304" s="69"/>
-      <c r="M304" s="69"/>
+      <c r="C304" s="74"/>
+      <c r="D304" s="74"/>
+      <c r="E304" s="74"/>
+      <c r="F304" s="74"/>
+      <c r="G304" s="74"/>
+      <c r="H304" s="74"/>
+      <c r="I304" s="74"/>
+      <c r="J304" s="74"/>
+      <c r="K304" s="74"/>
+      <c r="L304" s="74"/>
+      <c r="M304" s="74"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -14949,20 +16051,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="69" t="s">
+      <c r="B306" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="69"/>
-      <c r="D306" s="69"/>
-      <c r="E306" s="69"/>
-      <c r="F306" s="69"/>
-      <c r="G306" s="69"/>
-      <c r="H306" s="69"/>
-      <c r="I306" s="69"/>
-      <c r="J306" s="69"/>
-      <c r="K306" s="69"/>
-      <c r="L306" s="69"/>
-      <c r="M306" s="69"/>
+      <c r="C306" s="74"/>
+      <c r="D306" s="74"/>
+      <c r="E306" s="74"/>
+      <c r="F306" s="74"/>
+      <c r="G306" s="74"/>
+      <c r="H306" s="74"/>
+      <c r="I306" s="74"/>
+      <c r="J306" s="74"/>
+      <c r="K306" s="74"/>
+      <c r="L306" s="74"/>
+      <c r="M306" s="74"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -14993,20 +16095,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="69" t="s">
+      <c r="B309" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="69"/>
-      <c r="D309" s="69"/>
-      <c r="E309" s="69"/>
-      <c r="F309" s="69"/>
-      <c r="G309" s="69"/>
-      <c r="H309" s="69"/>
-      <c r="I309" s="69"/>
-      <c r="J309" s="69"/>
-      <c r="K309" s="69"/>
-      <c r="L309" s="69"/>
-      <c r="M309" s="69"/>
+      <c r="C309" s="74"/>
+      <c r="D309" s="74"/>
+      <c r="E309" s="74"/>
+      <c r="F309" s="74"/>
+      <c r="G309" s="74"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="74"/>
+      <c r="J309" s="74"/>
+      <c r="K309" s="74"/>
+      <c r="L309" s="74"/>
+      <c r="M309" s="74"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -15023,20 +16125,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="69" t="s">
+      <c r="B311" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="69"/>
-      <c r="D311" s="69"/>
-      <c r="E311" s="69"/>
-      <c r="F311" s="69"/>
-      <c r="G311" s="69"/>
-      <c r="H311" s="69"/>
-      <c r="I311" s="69"/>
-      <c r="J311" s="69"/>
-      <c r="K311" s="69"/>
-      <c r="L311" s="69"/>
-      <c r="M311" s="69"/>
+      <c r="C311" s="74"/>
+      <c r="D311" s="74"/>
+      <c r="E311" s="74"/>
+      <c r="F311" s="74"/>
+      <c r="G311" s="74"/>
+      <c r="H311" s="74"/>
+      <c r="I311" s="74"/>
+      <c r="J311" s="74"/>
+      <c r="K311" s="74"/>
+      <c r="L311" s="74"/>
+      <c r="M311" s="74"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -15125,17 +16227,17 @@
       <c r="B316" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="71"/>
-      <c r="D316" s="71"/>
-      <c r="E316" s="71"/>
-      <c r="F316" s="71"/>
-      <c r="G316" s="71"/>
-      <c r="H316" s="71"/>
-      <c r="I316" s="71"/>
-      <c r="J316" s="71"/>
-      <c r="K316" s="71"/>
-      <c r="L316" s="71"/>
-      <c r="M316" s="72"/>
+      <c r="C316" s="67"/>
+      <c r="D316" s="67"/>
+      <c r="E316" s="67"/>
+      <c r="F316" s="67"/>
+      <c r="G316" s="67"/>
+      <c r="H316" s="67"/>
+      <c r="I316" s="67"/>
+      <c r="J316" s="67"/>
+      <c r="K316" s="67"/>
+      <c r="L316" s="67"/>
+      <c r="M316" s="68"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -15174,52 +16276,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="66" t="s">
+      <c r="B318" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="67"/>
-      <c r="D318" s="67"/>
-      <c r="E318" s="67"/>
-      <c r="F318" s="67"/>
-      <c r="G318" s="67"/>
-      <c r="H318" s="67"/>
-      <c r="I318" s="67"/>
-      <c r="J318" s="67"/>
-      <c r="K318" s="67"/>
-      <c r="L318" s="67"/>
-      <c r="M318" s="68"/>
+      <c r="C318" s="72"/>
+      <c r="D318" s="72"/>
+      <c r="E318" s="72"/>
+      <c r="F318" s="72"/>
+      <c r="G318" s="72"/>
+      <c r="H318" s="72"/>
+      <c r="I318" s="72"/>
+      <c r="J318" s="72"/>
+      <c r="K318" s="72"/>
+      <c r="L318" s="72"/>
+      <c r="M318" s="73"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="66" t="s">
+      <c r="B319" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="67"/>
-      <c r="D319" s="67"/>
-      <c r="E319" s="67"/>
-      <c r="F319" s="67"/>
-      <c r="G319" s="67"/>
-      <c r="H319" s="67"/>
-      <c r="I319" s="67"/>
-      <c r="J319" s="67"/>
-      <c r="K319" s="67"/>
-      <c r="L319" s="67"/>
-      <c r="M319" s="68"/>
+      <c r="C319" s="72"/>
+      <c r="D319" s="72"/>
+      <c r="E319" s="72"/>
+      <c r="F319" s="72"/>
+      <c r="G319" s="72"/>
+      <c r="H319" s="72"/>
+      <c r="I319" s="72"/>
+      <c r="J319" s="72"/>
+      <c r="K319" s="72"/>
+      <c r="L319" s="72"/>
+      <c r="M319" s="73"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="69" t="s">
+      <c r="B320" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="69"/>
-      <c r="D320" s="69"/>
-      <c r="E320" s="69"/>
-      <c r="F320" s="69"/>
-      <c r="G320" s="69"/>
-      <c r="H320" s="69"/>
-      <c r="I320" s="69"/>
-      <c r="J320" s="69"/>
-      <c r="K320" s="69"/>
-      <c r="L320" s="69"/>
-      <c r="M320" s="69"/>
+      <c r="C320" s="74"/>
+      <c r="D320" s="74"/>
+      <c r="E320" s="74"/>
+      <c r="F320" s="74"/>
+      <c r="G320" s="74"/>
+      <c r="H320" s="74"/>
+      <c r="I320" s="74"/>
+      <c r="J320" s="74"/>
+      <c r="K320" s="74"/>
+      <c r="L320" s="74"/>
+      <c r="M320" s="74"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -15236,20 +16338,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="66" t="s">
+      <c r="B322" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="67"/>
-      <c r="D322" s="67"/>
-      <c r="E322" s="67"/>
-      <c r="F322" s="67"/>
-      <c r="G322" s="67"/>
-      <c r="H322" s="67"/>
-      <c r="I322" s="67"/>
-      <c r="J322" s="67"/>
-      <c r="K322" s="67"/>
-      <c r="L322" s="67"/>
-      <c r="M322" s="68"/>
+      <c r="C322" s="72"/>
+      <c r="D322" s="72"/>
+      <c r="E322" s="72"/>
+      <c r="F322" s="72"/>
+      <c r="G322" s="72"/>
+      <c r="H322" s="72"/>
+      <c r="I322" s="72"/>
+      <c r="J322" s="72"/>
+      <c r="K322" s="72"/>
+      <c r="L322" s="72"/>
+      <c r="M322" s="73"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -15266,20 +16368,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="66" t="s">
+      <c r="B324" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="67"/>
-      <c r="D324" s="67"/>
-      <c r="E324" s="67"/>
-      <c r="F324" s="67"/>
-      <c r="G324" s="67"/>
-      <c r="H324" s="67"/>
-      <c r="I324" s="67"/>
-      <c r="J324" s="67"/>
-      <c r="K324" s="67"/>
-      <c r="L324" s="67"/>
-      <c r="M324" s="68"/>
+      <c r="C324" s="72"/>
+      <c r="D324" s="72"/>
+      <c r="E324" s="72"/>
+      <c r="F324" s="72"/>
+      <c r="G324" s="72"/>
+      <c r="H324" s="72"/>
+      <c r="I324" s="72"/>
+      <c r="J324" s="72"/>
+      <c r="K324" s="72"/>
+      <c r="L324" s="72"/>
+      <c r="M324" s="73"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -15310,20 +16412,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="66" t="s">
+      <c r="B327" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="67"/>
-      <c r="D327" s="67"/>
-      <c r="E327" s="67"/>
-      <c r="F327" s="67"/>
-      <c r="G327" s="67"/>
-      <c r="H327" s="67"/>
-      <c r="I327" s="67"/>
-      <c r="J327" s="67"/>
-      <c r="K327" s="67"/>
-      <c r="L327" s="67"/>
-      <c r="M327" s="68"/>
+      <c r="C327" s="72"/>
+      <c r="D327" s="72"/>
+      <c r="E327" s="72"/>
+      <c r="F327" s="72"/>
+      <c r="G327" s="72"/>
+      <c r="H327" s="72"/>
+      <c r="I327" s="72"/>
+      <c r="J327" s="72"/>
+      <c r="K327" s="72"/>
+      <c r="L327" s="72"/>
+      <c r="M327" s="73"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -15340,20 +16442,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="66" t="s">
+      <c r="B329" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="67"/>
-      <c r="D329" s="67"/>
-      <c r="E329" s="67"/>
-      <c r="F329" s="67"/>
-      <c r="G329" s="67"/>
-      <c r="H329" s="67"/>
-      <c r="I329" s="67"/>
-      <c r="J329" s="67"/>
-      <c r="K329" s="67"/>
-      <c r="L329" s="67"/>
-      <c r="M329" s="68"/>
+      <c r="C329" s="72"/>
+      <c r="D329" s="72"/>
+      <c r="E329" s="72"/>
+      <c r="F329" s="72"/>
+      <c r="G329" s="72"/>
+      <c r="H329" s="72"/>
+      <c r="I329" s="72"/>
+      <c r="J329" s="72"/>
+      <c r="K329" s="72"/>
+      <c r="L329" s="72"/>
+      <c r="M329" s="73"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -15518,6 +16620,99 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -15537,99 +16732,6 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16415,20 +17517,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -17407,20 +18509,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -19038,7 +20140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -19593,6 +20695,790 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42002</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3</f>
+        <v>42002</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>42002</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3</f>
+        <v>42002</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42002</v>
+      </c>
+      <c r="F4" s="9">
+        <v>42002</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>42002</v>
+      </c>
+      <c r="I4" s="9">
+        <v>42002</v>
+      </c>
+      <c r="J4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="20">
+        <f>G4/J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>42002</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>42002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>42002</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <f>G5/J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="44">
+        <v>42002</v>
+      </c>
+      <c r="F6" s="44">
+        <v>42006</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="44">
+        <v>42002</v>
+      </c>
+      <c r="I6" s="44">
+        <v>42006</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="20">
+        <f>G6/J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F7" s="9">
+        <v>42011</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="44">
+        <v>42003</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42011</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5.25</v>
+      </c>
+      <c r="K7" s="20">
+        <f>J7/G7</f>
+        <v>1.05</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F8" s="9">
+        <v>42009</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>42004</v>
+      </c>
+      <c r="I8" s="26">
+        <v>42008</v>
+      </c>
+      <c r="J8" s="19">
+        <v>3</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" ref="K8" si="0">G8/J8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8">
+        <f>F9-E9</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F9" s="9">
+        <v>42009</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="44">
+        <v>42003</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42009</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" ref="K9" si="1">J9/G9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42009</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42004</v>
+      </c>
+      <c r="I10" s="26">
+        <v>42005</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" ref="K10" si="2">G10/J10</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F11" s="9">
+        <v>42009</v>
+      </c>
+      <c r="G11" s="19">
+        <v>3</v>
+      </c>
+      <c r="H11" s="44">
+        <v>42003</v>
+      </c>
+      <c r="I11" s="26">
+        <v>42009</v>
+      </c>
+      <c r="J11" s="19">
+        <v>4</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" ref="K11" si="3">J11/G11</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42010</v>
+      </c>
+      <c r="F12" s="9">
+        <v>42011</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42011</v>
+      </c>
+      <c r="I12" s="9">
+        <v>42011</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="20">
+        <f>J12/G12</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
+        <v>42011</v>
+      </c>
+      <c r="F13" s="9">
+        <v>42011</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>42011</v>
+      </c>
+      <c r="I13" s="9">
+        <v>42011</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <f>100%</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8">
+        <f>F14-E14</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42004</v>
+      </c>
+      <c r="F14" s="9">
+        <v>42010</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>42005</v>
+      </c>
+      <c r="I14" s="26">
+        <v>42010</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="K14" s="20">
+        <f>G14/J14</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42010</v>
+      </c>
+      <c r="F15" s="9">
+        <v>42011</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>42012</v>
+      </c>
+      <c r="I15" s="26">
+        <v>42013</v>
+      </c>
+      <c r="J15" s="19">
+        <v>5</v>
+      </c>
+      <c r="K15" s="20">
+        <f>G15/J15</f>
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42012</v>
+      </c>
+      <c r="F16" s="9">
+        <v>42014</v>
+      </c>
+      <c r="G16" s="8">
+        <v>6</v>
+      </c>
+      <c r="H16" s="9">
+        <v>42013</v>
+      </c>
+      <c r="I16" s="26">
+        <v>42015</v>
+      </c>
+      <c r="J16" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="20">
+        <f>E16/F16</f>
+        <v>0.99995239682010761</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="44">
+        <v>42010</v>
+      </c>
+      <c r="F17" s="44">
+        <v>42010</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44">
+        <v>42010</v>
+      </c>
+      <c r="I17" s="44">
+        <v>42010</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="20">
+        <f>J17/G17</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="39">
+        <v>42012</v>
+      </c>
+      <c r="F18" s="39">
+        <v>42012</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="39">
+        <v>42012</v>
+      </c>
+      <c r="I18" s="39">
+        <v>42012</v>
+      </c>
+      <c r="J18" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="K18" s="20">
+        <f>G18/J18</f>
+        <v>1.2</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42015</v>
+      </c>
+      <c r="F19" s="9">
+        <v>42015</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>42015</v>
+      </c>
+      <c r="I19" s="9">
+        <v>42015</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20">
+        <f>G19/J19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42015</v>
+      </c>
+      <c r="F20" s="9">
+        <v>42015</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>42014</v>
+      </c>
+      <c r="I20" s="9">
+        <v>42014</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="20">
+        <f>G20/J20</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\hsemr\Documents\Project Management\Metrics\Task Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="Iteration 3" sheetId="6" r:id="rId4"/>
     <sheet name="Iteration 4" sheetId="9" r:id="rId5"/>
     <sheet name="Iteration 5" sheetId="11" r:id="rId6"/>
-    <sheet name="Iteration 6" sheetId="14" r:id="rId7"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId8"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="217">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -692,36 +691,6 @@
   </si>
   <si>
     <t>Generation of test scenarios for functionalities in Iteration 5</t>
-  </si>
-  <si>
-    <t>Review requirements</t>
-  </si>
-  <si>
-    <t>Update sequence diagram</t>
-  </si>
-  <si>
-    <t>Changes made based on previous client meeting - charts and medication history</t>
-  </si>
-  <si>
-    <t>Case Setup - Create case and state</t>
-  </si>
-  <si>
-    <t>Patient Management - Documents tab, display consent form based on state</t>
-  </si>
-  <si>
-    <t>View student's submission</t>
-  </si>
-  <si>
-    <t>Investigation - Update reports according to state</t>
-  </si>
-  <si>
-    <t>Ensure that chosen ward shows correct patient's information, reports, documents with the state</t>
-  </si>
-  <si>
-    <t>Supervisor Meeting 2</t>
-  </si>
-  <si>
-    <t>Client Meeting 7</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1153,19 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,20 +1177,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1539,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1440440672"/>
-        <c:axId val="1440435232"/>
+        <c:axId val="-863158800"/>
+        <c:axId val="-863157168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1440440672"/>
+        <c:axId val="-863158800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440435232"/>
+        <c:crossAx val="-863157168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440435232"/>
+        <c:axId val="-863157168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1646,7 +1615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440440672"/>
+        <c:crossAx val="-863158800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2057,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1440446112"/>
-        <c:axId val="1440438496"/>
+        <c:axId val="-1098983024"/>
+        <c:axId val="-820911840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1440446112"/>
+        <c:axId val="-1098983024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440438496"/>
+        <c:crossAx val="-820911840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440438496"/>
+        <c:axId val="-820911840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2164,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440446112"/>
+        <c:crossAx val="-1098983024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2557,11 +2526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1612792320"/>
-        <c:axId val="1612795040"/>
+        <c:axId val="-820909664"/>
+        <c:axId val="-820916192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1612792320"/>
+        <c:axId val="-820909664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612795040"/>
+        <c:crossAx val="-820916192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2612,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612795040"/>
+        <c:axId val="-820916192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2664,7 +2633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612792320"/>
+        <c:crossAx val="-820909664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3027,11 +2996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828003840"/>
-        <c:axId val="1828004928"/>
+        <c:axId val="-820905312"/>
+        <c:axId val="-820916736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828003840"/>
+        <c:axId val="-820905312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828004928"/>
+        <c:crossAx val="-820916736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,7 +3051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828004928"/>
+        <c:axId val="-820916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3134,7 +3103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828003840"/>
+        <c:crossAx val="-820905312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3481,11 +3450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828009824"/>
-        <c:axId val="1828004384"/>
+        <c:axId val="-820914560"/>
+        <c:axId val="-820915648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828009824"/>
+        <c:axId val="-820914560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,7 +3497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828004384"/>
+        <c:crossAx val="-820915648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3536,7 +3505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828004384"/>
+        <c:axId val="-820915648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3588,498 +3557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828009824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG" sz="3600">
-                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Iteration 6</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Iteration 6'!$B$3:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>Review requirements</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Update UI Mockup</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Update sequence diagram</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Changes made based on previous client meeting - charts and medication history</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Case Setup - Create case and state</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ward Management - view ward's information, visualisation of ward</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Patient Management - Documents tab, display consent form based on state</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>View student's submission</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Investigation - Update reports according to state</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ensure that chosen ward shows correct patient's information, reports, documents with the state</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Deployment</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Generation of test cases for functionalities in Iteration 6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Debugging of failed test cases</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Supervisor Meeting 2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Client Meeting 7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Gather metrics and update metrics</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Update wiki with progress </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Iteration 6'!$K$3:$K$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99995239682010761</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1828015808"/>
-        <c:axId val="1828009280"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1828015808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1828009280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1828009280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1828015808"/>
+        <c:crossAx val="-820914560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4322,46 +3800,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6916,509 +6354,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7566,43 +6501,6 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>614742</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>96405</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8113,28 +7011,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -8599,26 +7497,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -9219,11 +8117,11 @@
       <c r="K31" s="70"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -9346,20 +8244,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="73"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="68"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -9421,20 +8319,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="73"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="68"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -9617,11 +8515,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="69" t="s">
+      <c r="O41" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -9717,20 +8615,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="73"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="68"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -9851,20 +8749,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="73"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -9907,20 +8805,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="73"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -10119,25 +9017,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="68"/>
-      <c r="O57" s="69" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="72"/>
+      <c r="O57" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="69"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -10185,20 +9083,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="73"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="68"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -10252,20 +9150,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -10358,20 +9256,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="73"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="68"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -10527,20 +9425,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="73"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="68"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -10571,20 +9469,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="73"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="68"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -10644,20 +9542,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="73"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="68"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -10688,20 +9586,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="73"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -10887,11 +9785,11 @@
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="70"/>
-      <c r="O85" s="69" t="s">
+      <c r="O85" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="69"/>
-      <c r="Q85" s="69"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -10937,20 +9835,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -11004,20 +9902,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -11109,20 +10007,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="74" t="s">
+      <c r="B92" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -11224,20 +10122,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -11268,20 +10166,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="74" t="s">
+      <c r="B98" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -11397,20 +10295,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -11441,20 +10339,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="74" t="s">
+      <c r="B105" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -11630,11 +10528,11 @@
       <c r="K113" s="70"/>
       <c r="L113" s="70"/>
       <c r="M113" s="70"/>
-      <c r="O113" s="69" t="s">
+      <c r="O113" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="69"/>
-      <c r="Q113" s="69"/>
+      <c r="P113" s="73"/>
+      <c r="Q113" s="73"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -11680,20 +10578,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="74"/>
-      <c r="K115" s="74"/>
-      <c r="L115" s="74"/>
-      <c r="M115" s="74"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -11747,20 +10645,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="74"/>
-      <c r="K117" s="74"/>
-      <c r="L117" s="74"/>
-      <c r="M117" s="74"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="69"/>
+      <c r="M117" s="69"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -11852,20 +10750,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="69"/>
+      <c r="M120" s="69"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -11965,20 +10863,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="74" t="s">
+      <c r="B124" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -12009,20 +10907,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="74"/>
-      <c r="I126" s="74"/>
-      <c r="J126" s="74"/>
-      <c r="K126" s="74"/>
-      <c r="L126" s="74"/>
-      <c r="M126" s="74"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
+      <c r="M126" s="69"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -12082,20 +10980,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="74"/>
-      <c r="I129" s="74"/>
-      <c r="J129" s="74"/>
-      <c r="K129" s="74"/>
-      <c r="L129" s="74"/>
-      <c r="M129" s="74"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="69"/>
+      <c r="M129" s="69"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -12126,20 +11024,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="74"/>
-      <c r="K131" s="74"/>
-      <c r="L131" s="74"/>
-      <c r="M131" s="74"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="69"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="69"/>
+      <c r="M131" s="69"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -12353,20 +11251,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="74"/>
-      <c r="K141" s="74"/>
-      <c r="L141" s="74"/>
-      <c r="M141" s="74"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -12398,20 +11296,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="74"/>
-      <c r="K143" s="74"/>
-      <c r="L143" s="74"/>
-      <c r="M143" s="74"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
+      <c r="J143" s="69"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="69"/>
+      <c r="M143" s="69"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -12470,20 +11368,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="74"/>
-      <c r="K146" s="74"/>
-      <c r="L146" s="74"/>
-      <c r="M146" s="74"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="69"/>
+      <c r="M146" s="69"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -12630,20 +11528,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="74" t="s">
+      <c r="B152" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
-      <c r="J152" s="74"/>
-      <c r="K152" s="74"/>
-      <c r="L152" s="74"/>
-      <c r="M152" s="74"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -12674,20 +11572,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="74" t="s">
+      <c r="B154" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="74"/>
-      <c r="K154" s="74"/>
-      <c r="L154" s="74"/>
-      <c r="M154" s="74"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -12747,20 +11645,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="74" t="s">
+      <c r="B157" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="74"/>
-      <c r="K157" s="74"/>
-      <c r="L157" s="74"/>
-      <c r="M157" s="74"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="69"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -12791,20 +11689,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="74" t="s">
+      <c r="B159" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="74"/>
-      <c r="K159" s="74"/>
-      <c r="L159" s="74"/>
-      <c r="M159" s="74"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="69"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="69"/>
+      <c r="M159" s="69"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -12935,20 +11833,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="74"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="69"/>
+      <c r="M167" s="69"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -12980,20 +11878,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
+      <c r="M169" s="69"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -13052,20 +11950,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="74" t="s">
+      <c r="B172" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="74"/>
-      <c r="K172" s="74"/>
-      <c r="L172" s="74"/>
-      <c r="M172" s="74"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
+      <c r="M172" s="69"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -13125,20 +12023,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="74"/>
-      <c r="L175" s="74"/>
-      <c r="M175" s="74"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="69"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -13169,20 +12067,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="74"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
-      <c r="J177" s="74"/>
-      <c r="K177" s="74"/>
-      <c r="L177" s="74"/>
-      <c r="M177" s="74"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="69"/>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="69"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -13242,20 +12140,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="74" t="s">
+      <c r="B180" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="74"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
-      <c r="I180" s="74"/>
-      <c r="J180" s="74"/>
-      <c r="K180" s="74"/>
-      <c r="L180" s="74"/>
-      <c r="M180" s="74"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="69"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="69"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="69"/>
+      <c r="L180" s="69"/>
+      <c r="M180" s="69"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -13286,20 +12184,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="74" t="s">
+      <c r="B182" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="74"/>
-      <c r="E182" s="74"/>
-      <c r="F182" s="74"/>
-      <c r="G182" s="74"/>
-      <c r="H182" s="74"/>
-      <c r="I182" s="74"/>
-      <c r="J182" s="74"/>
-      <c r="K182" s="74"/>
-      <c r="L182" s="74"/>
-      <c r="M182" s="74"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
+      <c r="E182" s="69"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
+      <c r="J182" s="69"/>
+      <c r="K182" s="69"/>
+      <c r="L182" s="69"/>
+      <c r="M182" s="69"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -13430,20 +12328,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="74" t="s">
+      <c r="B189" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="74"/>
-      <c r="D189" s="74"/>
-      <c r="E189" s="74"/>
-      <c r="F189" s="74"/>
-      <c r="G189" s="74"/>
-      <c r="H189" s="74"/>
-      <c r="I189" s="74"/>
-      <c r="J189" s="74"/>
-      <c r="K189" s="74"/>
-      <c r="L189" s="74"/>
-      <c r="M189" s="74"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69"/>
+      <c r="J189" s="69"/>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="69"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -13475,20 +12373,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="74" t="s">
+      <c r="B191" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="74"/>
-      <c r="D191" s="74"/>
-      <c r="E191" s="74"/>
-      <c r="F191" s="74"/>
-      <c r="G191" s="74"/>
-      <c r="H191" s="74"/>
-      <c r="I191" s="74"/>
-      <c r="J191" s="74"/>
-      <c r="K191" s="74"/>
-      <c r="L191" s="74"/>
-      <c r="M191" s="74"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="69"/>
+      <c r="F191" s="69"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="69"/>
+      <c r="J191" s="69"/>
+      <c r="K191" s="69"/>
+      <c r="L191" s="69"/>
+      <c r="M191" s="69"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -13547,20 +12445,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="74" t="s">
+      <c r="B194" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="74"/>
-      <c r="D194" s="74"/>
-      <c r="E194" s="74"/>
-      <c r="F194" s="74"/>
-      <c r="G194" s="74"/>
-      <c r="H194" s="74"/>
-      <c r="I194" s="74"/>
-      <c r="J194" s="74"/>
-      <c r="K194" s="74"/>
-      <c r="L194" s="74"/>
-      <c r="M194" s="74"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
+      <c r="J194" s="69"/>
+      <c r="K194" s="69"/>
+      <c r="L194" s="69"/>
+      <c r="M194" s="69"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -13619,20 +12517,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="74" t="s">
+      <c r="B197" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="74"/>
-      <c r="D197" s="74"/>
-      <c r="E197" s="74"/>
-      <c r="F197" s="74"/>
-      <c r="G197" s="74"/>
-      <c r="H197" s="74"/>
-      <c r="I197" s="74"/>
-      <c r="J197" s="74"/>
-      <c r="K197" s="74"/>
-      <c r="L197" s="74"/>
-      <c r="M197" s="74"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="69"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
+      <c r="J197" s="69"/>
+      <c r="K197" s="69"/>
+      <c r="L197" s="69"/>
+      <c r="M197" s="69"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -13663,20 +12561,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="74" t="s">
+      <c r="B199" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="74"/>
-      <c r="D199" s="74"/>
-      <c r="E199" s="74"/>
-      <c r="F199" s="74"/>
-      <c r="G199" s="74"/>
-      <c r="H199" s="74"/>
-      <c r="I199" s="74"/>
-      <c r="J199" s="74"/>
-      <c r="K199" s="74"/>
-      <c r="L199" s="74"/>
-      <c r="M199" s="74"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="69"/>
+      <c r="E199" s="69"/>
+      <c r="F199" s="69"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="69"/>
+      <c r="I199" s="69"/>
+      <c r="J199" s="69"/>
+      <c r="K199" s="69"/>
+      <c r="L199" s="69"/>
+      <c r="M199" s="69"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -13791,20 +12689,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="74" t="s">
+      <c r="B204" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="74"/>
-      <c r="D204" s="74"/>
-      <c r="E204" s="74"/>
-      <c r="F204" s="74"/>
-      <c r="G204" s="74"/>
-      <c r="H204" s="74"/>
-      <c r="I204" s="74"/>
-      <c r="J204" s="74"/>
-      <c r="K204" s="74"/>
-      <c r="L204" s="74"/>
-      <c r="M204" s="74"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="69"/>
+      <c r="F204" s="69"/>
+      <c r="G204" s="69"/>
+      <c r="H204" s="69"/>
+      <c r="I204" s="69"/>
+      <c r="J204" s="69"/>
+      <c r="K204" s="69"/>
+      <c r="L204" s="69"/>
+      <c r="M204" s="69"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -13835,20 +12733,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="74" t="s">
+      <c r="B206" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="74"/>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="74"/>
-      <c r="G206" s="74"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
-      <c r="K206" s="74"/>
-      <c r="L206" s="74"/>
-      <c r="M206" s="74"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
+      <c r="G206" s="69"/>
+      <c r="H206" s="69"/>
+      <c r="I206" s="69"/>
+      <c r="J206" s="69"/>
+      <c r="K206" s="69"/>
+      <c r="L206" s="69"/>
+      <c r="M206" s="69"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -14007,20 +12905,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="74" t="s">
+      <c r="B214" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="74"/>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
-      <c r="F214" s="74"/>
-      <c r="G214" s="74"/>
-      <c r="H214" s="74"/>
-      <c r="I214" s="74"/>
-      <c r="J214" s="74"/>
-      <c r="K214" s="74"/>
-      <c r="L214" s="74"/>
-      <c r="M214" s="74"/>
+      <c r="C214" s="69"/>
+      <c r="D214" s="69"/>
+      <c r="E214" s="69"/>
+      <c r="F214" s="69"/>
+      <c r="G214" s="69"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="69"/>
+      <c r="J214" s="69"/>
+      <c r="K214" s="69"/>
+      <c r="L214" s="69"/>
+      <c r="M214" s="69"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -14052,20 +12950,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="74" t="s">
+      <c r="B216" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="74"/>
-      <c r="D216" s="74"/>
-      <c r="E216" s="74"/>
-      <c r="F216" s="74"/>
-      <c r="G216" s="74"/>
-      <c r="H216" s="74"/>
-      <c r="I216" s="74"/>
-      <c r="J216" s="74"/>
-      <c r="K216" s="74"/>
-      <c r="L216" s="74"/>
-      <c r="M216" s="74"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="69"/>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="69"/>
+      <c r="J216" s="69"/>
+      <c r="K216" s="69"/>
+      <c r="L216" s="69"/>
+      <c r="M216" s="69"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -14124,20 +13022,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="74" t="s">
+      <c r="B219" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="74"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="74"/>
-      <c r="F219" s="74"/>
-      <c r="G219" s="74"/>
-      <c r="H219" s="74"/>
-      <c r="I219" s="74"/>
-      <c r="J219" s="74"/>
-      <c r="K219" s="74"/>
-      <c r="L219" s="74"/>
-      <c r="M219" s="74"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="69"/>
+      <c r="E219" s="69"/>
+      <c r="F219" s="69"/>
+      <c r="G219" s="69"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="69"/>
+      <c r="J219" s="69"/>
+      <c r="K219" s="69"/>
+      <c r="L219" s="69"/>
+      <c r="M219" s="69"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -14199,20 +13097,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="74" t="s">
+      <c r="B222" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="74"/>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74"/>
-      <c r="F222" s="74"/>
-      <c r="G222" s="74"/>
-      <c r="H222" s="74"/>
-      <c r="I222" s="74"/>
-      <c r="J222" s="74"/>
-      <c r="K222" s="74"/>
-      <c r="L222" s="74"/>
-      <c r="M222" s="74"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="69"/>
+      <c r="E222" s="69"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="69"/>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
+      <c r="J222" s="69"/>
+      <c r="K222" s="69"/>
+      <c r="L222" s="69"/>
+      <c r="M222" s="69"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -14243,20 +13141,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="74"/>
-      <c r="D224" s="74"/>
-      <c r="E224" s="74"/>
-      <c r="F224" s="74"/>
-      <c r="G224" s="74"/>
-      <c r="H224" s="74"/>
-      <c r="I224" s="74"/>
-      <c r="J224" s="74"/>
-      <c r="K224" s="74"/>
-      <c r="L224" s="74"/>
-      <c r="M224" s="74"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="69"/>
+      <c r="F224" s="69"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
+      <c r="J224" s="69"/>
+      <c r="K224" s="69"/>
+      <c r="L224" s="69"/>
+      <c r="M224" s="69"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -14316,20 +13214,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="74"/>
-      <c r="D227" s="74"/>
-      <c r="E227" s="74"/>
-      <c r="F227" s="74"/>
-      <c r="G227" s="74"/>
-      <c r="H227" s="74"/>
-      <c r="I227" s="74"/>
-      <c r="J227" s="74"/>
-      <c r="K227" s="74"/>
-      <c r="L227" s="74"/>
-      <c r="M227" s="74"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
+      <c r="F227" s="69"/>
+      <c r="G227" s="69"/>
+      <c r="H227" s="69"/>
+      <c r="I227" s="69"/>
+      <c r="J227" s="69"/>
+      <c r="K227" s="69"/>
+      <c r="L227" s="69"/>
+      <c r="M227" s="69"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -14360,20 +13258,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="74" t="s">
+      <c r="B229" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="74"/>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74"/>
-      <c r="F229" s="74"/>
-      <c r="G229" s="74"/>
-      <c r="H229" s="74"/>
-      <c r="I229" s="74"/>
-      <c r="J229" s="74"/>
-      <c r="K229" s="74"/>
-      <c r="L229" s="74"/>
-      <c r="M229" s="74"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="69"/>
+      <c r="F229" s="69"/>
+      <c r="G229" s="69"/>
+      <c r="H229" s="69"/>
+      <c r="I229" s="69"/>
+      <c r="J229" s="69"/>
+      <c r="K229" s="69"/>
+      <c r="L229" s="69"/>
+      <c r="M229" s="69"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -14504,36 +13402,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="74" t="s">
+      <c r="B236" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="74"/>
-      <c r="D236" s="74"/>
-      <c r="E236" s="74"/>
-      <c r="F236" s="74"/>
-      <c r="G236" s="74"/>
-      <c r="H236" s="74"/>
-      <c r="I236" s="74"/>
-      <c r="J236" s="74"/>
-      <c r="K236" s="74"/>
-      <c r="L236" s="74"/>
-      <c r="M236" s="74"/>
+      <c r="C236" s="69"/>
+      <c r="D236" s="69"/>
+      <c r="E236" s="69"/>
+      <c r="F236" s="69"/>
+      <c r="G236" s="69"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="69"/>
+      <c r="J236" s="69"/>
+      <c r="K236" s="69"/>
+      <c r="L236" s="69"/>
+      <c r="M236" s="69"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="74" t="s">
+      <c r="B237" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="74"/>
-      <c r="D237" s="74"/>
-      <c r="E237" s="74"/>
-      <c r="F237" s="74"/>
-      <c r="G237" s="74"/>
-      <c r="H237" s="74"/>
-      <c r="I237" s="74"/>
-      <c r="J237" s="74"/>
-      <c r="K237" s="74"/>
-      <c r="L237" s="74"/>
-      <c r="M237" s="74"/>
+      <c r="C237" s="69"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="69"/>
+      <c r="F237" s="69"/>
+      <c r="G237" s="69"/>
+      <c r="H237" s="69"/>
+      <c r="I237" s="69"/>
+      <c r="J237" s="69"/>
+      <c r="K237" s="69"/>
+      <c r="L237" s="69"/>
+      <c r="M237" s="69"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -14592,36 +13490,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="74" t="s">
+      <c r="B240" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="74"/>
-      <c r="D240" s="74"/>
-      <c r="E240" s="74"/>
-      <c r="F240" s="74"/>
-      <c r="G240" s="74"/>
-      <c r="H240" s="74"/>
-      <c r="I240" s="74"/>
-      <c r="J240" s="74"/>
-      <c r="K240" s="74"/>
-      <c r="L240" s="74"/>
-      <c r="M240" s="74"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
+      <c r="J240" s="69"/>
+      <c r="K240" s="69"/>
+      <c r="L240" s="69"/>
+      <c r="M240" s="69"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="74" t="s">
+      <c r="B241" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="74"/>
-      <c r="D241" s="74"/>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
-      <c r="G241" s="74"/>
-      <c r="H241" s="74"/>
-      <c r="I241" s="74"/>
-      <c r="J241" s="74"/>
-      <c r="K241" s="74"/>
-      <c r="L241" s="74"/>
-      <c r="M241" s="74"/>
+      <c r="C241" s="69"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="69"/>
+      <c r="F241" s="69"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
+      <c r="I241" s="69"/>
+      <c r="J241" s="69"/>
+      <c r="K241" s="69"/>
+      <c r="L241" s="69"/>
+      <c r="M241" s="69"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -14652,20 +13550,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="74" t="s">
+      <c r="B243" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="74"/>
-      <c r="D243" s="74"/>
-      <c r="E243" s="74"/>
-      <c r="F243" s="74"/>
-      <c r="G243" s="74"/>
-      <c r="H243" s="74"/>
-      <c r="I243" s="74"/>
-      <c r="J243" s="74"/>
-      <c r="K243" s="74"/>
-      <c r="L243" s="74"/>
-      <c r="M243" s="74"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="69"/>
+      <c r="H243" s="69"/>
+      <c r="I243" s="69"/>
+      <c r="J243" s="69"/>
+      <c r="K243" s="69"/>
+      <c r="L243" s="69"/>
+      <c r="M243" s="69"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -14696,20 +13594,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="74" t="s">
+      <c r="B245" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="74"/>
-      <c r="D245" s="74"/>
-      <c r="E245" s="74"/>
-      <c r="F245" s="74"/>
-      <c r="G245" s="74"/>
-      <c r="H245" s="74"/>
-      <c r="I245" s="74"/>
-      <c r="J245" s="74"/>
-      <c r="K245" s="74"/>
-      <c r="L245" s="74"/>
-      <c r="M245" s="74"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
+      <c r="J245" s="69"/>
+      <c r="K245" s="69"/>
+      <c r="L245" s="69"/>
+      <c r="M245" s="69"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -14740,20 +13638,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="74" t="s">
+      <c r="B247" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="74"/>
-      <c r="D247" s="74"/>
-      <c r="E247" s="74"/>
-      <c r="F247" s="74"/>
-      <c r="G247" s="74"/>
-      <c r="H247" s="74"/>
-      <c r="I247" s="74"/>
-      <c r="J247" s="74"/>
-      <c r="K247" s="74"/>
-      <c r="L247" s="74"/>
-      <c r="M247" s="74"/>
+      <c r="C247" s="69"/>
+      <c r="D247" s="69"/>
+      <c r="E247" s="69"/>
+      <c r="F247" s="69"/>
+      <c r="G247" s="69"/>
+      <c r="H247" s="69"/>
+      <c r="I247" s="69"/>
+      <c r="J247" s="69"/>
+      <c r="K247" s="69"/>
+      <c r="L247" s="69"/>
+      <c r="M247" s="69"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -14921,36 +13819,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="74" t="s">
+      <c r="B255" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="74"/>
-      <c r="D255" s="74"/>
-      <c r="E255" s="74"/>
-      <c r="F255" s="74"/>
-      <c r="G255" s="74"/>
-      <c r="H255" s="74"/>
-      <c r="I255" s="74"/>
-      <c r="J255" s="74"/>
-      <c r="K255" s="74"/>
-      <c r="L255" s="74"/>
-      <c r="M255" s="74"/>
+      <c r="C255" s="69"/>
+      <c r="D255" s="69"/>
+      <c r="E255" s="69"/>
+      <c r="F255" s="69"/>
+      <c r="G255" s="69"/>
+      <c r="H255" s="69"/>
+      <c r="I255" s="69"/>
+      <c r="J255" s="69"/>
+      <c r="K255" s="69"/>
+      <c r="L255" s="69"/>
+      <c r="M255" s="69"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="74" t="s">
+      <c r="B256" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="74"/>
-      <c r="D256" s="74"/>
-      <c r="E256" s="74"/>
-      <c r="F256" s="74"/>
-      <c r="G256" s="74"/>
-      <c r="H256" s="74"/>
-      <c r="I256" s="74"/>
-      <c r="J256" s="74"/>
-      <c r="K256" s="74"/>
-      <c r="L256" s="74"/>
-      <c r="M256" s="74"/>
+      <c r="C256" s="69"/>
+      <c r="D256" s="69"/>
+      <c r="E256" s="69"/>
+      <c r="F256" s="69"/>
+      <c r="G256" s="69"/>
+      <c r="H256" s="69"/>
+      <c r="I256" s="69"/>
+      <c r="J256" s="69"/>
+      <c r="K256" s="69"/>
+      <c r="L256" s="69"/>
+      <c r="M256" s="69"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -15009,20 +13907,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="74" t="s">
+      <c r="B259" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="74"/>
-      <c r="D259" s="74"/>
-      <c r="E259" s="74"/>
-      <c r="F259" s="74"/>
-      <c r="G259" s="74"/>
-      <c r="H259" s="74"/>
-      <c r="I259" s="74"/>
-      <c r="J259" s="74"/>
-      <c r="K259" s="74"/>
-      <c r="L259" s="74"/>
-      <c r="M259" s="74"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="69"/>
+      <c r="F259" s="69"/>
+      <c r="G259" s="69"/>
+      <c r="H259" s="69"/>
+      <c r="I259" s="69"/>
+      <c r="J259" s="69"/>
+      <c r="K259" s="69"/>
+      <c r="L259" s="69"/>
+      <c r="M259" s="69"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -15083,20 +13981,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="74" t="s">
+      <c r="B262" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="74"/>
-      <c r="D262" s="74"/>
-      <c r="E262" s="74"/>
-      <c r="F262" s="74"/>
-      <c r="G262" s="74"/>
-      <c r="H262" s="74"/>
-      <c r="I262" s="74"/>
-      <c r="J262" s="74"/>
-      <c r="K262" s="74"/>
-      <c r="L262" s="74"/>
-      <c r="M262" s="74"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="69"/>
+      <c r="G262" s="69"/>
+      <c r="H262" s="69"/>
+      <c r="I262" s="69"/>
+      <c r="J262" s="69"/>
+      <c r="K262" s="69"/>
+      <c r="L262" s="69"/>
+      <c r="M262" s="69"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -15127,20 +14025,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="74" t="s">
+      <c r="B264" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="74"/>
-      <c r="D264" s="74"/>
-      <c r="E264" s="74"/>
-      <c r="F264" s="74"/>
-      <c r="G264" s="74"/>
-      <c r="H264" s="74"/>
-      <c r="I264" s="74"/>
-      <c r="J264" s="74"/>
-      <c r="K264" s="74"/>
-      <c r="L264" s="74"/>
-      <c r="M264" s="74"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="69"/>
+      <c r="F264" s="69"/>
+      <c r="G264" s="69"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="69"/>
+      <c r="J264" s="69"/>
+      <c r="K264" s="69"/>
+      <c r="L264" s="69"/>
+      <c r="M264" s="69"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -15199,20 +14097,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="74" t="s">
+      <c r="B267" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="74"/>
-      <c r="D267" s="74"/>
-      <c r="E267" s="74"/>
-      <c r="F267" s="74"/>
-      <c r="G267" s="74"/>
-      <c r="H267" s="74"/>
-      <c r="I267" s="74"/>
-      <c r="J267" s="74"/>
-      <c r="K267" s="74"/>
-      <c r="L267" s="74"/>
-      <c r="M267" s="74"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="69"/>
+      <c r="E267" s="69"/>
+      <c r="F267" s="69"/>
+      <c r="G267" s="69"/>
+      <c r="H267" s="69"/>
+      <c r="I267" s="69"/>
+      <c r="J267" s="69"/>
+      <c r="K267" s="69"/>
+      <c r="L267" s="69"/>
+      <c r="M267" s="69"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -15243,20 +14141,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="74" t="s">
+      <c r="B269" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="74"/>
-      <c r="D269" s="74"/>
-      <c r="E269" s="74"/>
-      <c r="F269" s="74"/>
-      <c r="G269" s="74"/>
-      <c r="H269" s="74"/>
-      <c r="I269" s="74"/>
-      <c r="J269" s="74"/>
-      <c r="K269" s="74"/>
-      <c r="L269" s="74"/>
-      <c r="M269" s="74"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="69"/>
+      <c r="E269" s="69"/>
+      <c r="F269" s="69"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
+      <c r="I269" s="69"/>
+      <c r="J269" s="69"/>
+      <c r="K269" s="69"/>
+      <c r="L269" s="69"/>
+      <c r="M269" s="69"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -15391,20 +14289,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="74" t="s">
+      <c r="B276" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="74"/>
-      <c r="D276" s="74"/>
-      <c r="E276" s="74"/>
-      <c r="F276" s="74"/>
-      <c r="G276" s="74"/>
-      <c r="H276" s="74"/>
-      <c r="I276" s="74"/>
-      <c r="J276" s="74"/>
-      <c r="K276" s="74"/>
-      <c r="L276" s="74"/>
-      <c r="M276" s="74"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="69"/>
+      <c r="F276" s="69"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
+      <c r="I276" s="69"/>
+      <c r="J276" s="69"/>
+      <c r="K276" s="69"/>
+      <c r="L276" s="69"/>
+      <c r="M276" s="69"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -15435,20 +14333,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="74" t="s">
+      <c r="B278" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="74"/>
-      <c r="D278" s="74"/>
-      <c r="E278" s="74"/>
-      <c r="F278" s="74"/>
-      <c r="G278" s="74"/>
-      <c r="H278" s="74"/>
-      <c r="I278" s="74"/>
-      <c r="J278" s="74"/>
-      <c r="K278" s="74"/>
-      <c r="L278" s="74"/>
-      <c r="M278" s="74"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="69"/>
+      <c r="G278" s="69"/>
+      <c r="H278" s="69"/>
+      <c r="I278" s="69"/>
+      <c r="J278" s="69"/>
+      <c r="K278" s="69"/>
+      <c r="L278" s="69"/>
+      <c r="M278" s="69"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -15507,20 +14405,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="74" t="s">
+      <c r="B281" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="74"/>
-      <c r="D281" s="74"/>
-      <c r="E281" s="74"/>
-      <c r="F281" s="74"/>
-      <c r="G281" s="74"/>
-      <c r="H281" s="74"/>
-      <c r="I281" s="74"/>
-      <c r="J281" s="74"/>
-      <c r="K281" s="74"/>
-      <c r="L281" s="74"/>
-      <c r="M281" s="74"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -15580,20 +14478,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="74" t="s">
+      <c r="B284" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="74"/>
-      <c r="D284" s="74"/>
-      <c r="E284" s="74"/>
-      <c r="F284" s="74"/>
-      <c r="G284" s="74"/>
-      <c r="H284" s="74"/>
-      <c r="I284" s="74"/>
-      <c r="J284" s="74"/>
-      <c r="K284" s="74"/>
-      <c r="L284" s="74"/>
-      <c r="M284" s="74"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="69"/>
+      <c r="F284" s="69"/>
+      <c r="G284" s="69"/>
+      <c r="H284" s="69"/>
+      <c r="I284" s="69"/>
+      <c r="J284" s="69"/>
+      <c r="K284" s="69"/>
+      <c r="L284" s="69"/>
+      <c r="M284" s="69"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -15652,20 +14550,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="74" t="s">
+      <c r="B287" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="74"/>
-      <c r="D287" s="74"/>
-      <c r="E287" s="74"/>
-      <c r="F287" s="74"/>
-      <c r="G287" s="74"/>
-      <c r="H287" s="74"/>
-      <c r="I287" s="74"/>
-      <c r="J287" s="74"/>
-      <c r="K287" s="74"/>
-      <c r="L287" s="74"/>
-      <c r="M287" s="74"/>
+      <c r="C287" s="69"/>
+      <c r="D287" s="69"/>
+      <c r="E287" s="69"/>
+      <c r="F287" s="69"/>
+      <c r="G287" s="69"/>
+      <c r="H287" s="69"/>
+      <c r="I287" s="69"/>
+      <c r="J287" s="69"/>
+      <c r="K287" s="69"/>
+      <c r="L287" s="69"/>
+      <c r="M287" s="69"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -15781,20 +14679,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="74" t="s">
+      <c r="B292" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="74"/>
-      <c r="D292" s="74"/>
-      <c r="E292" s="74"/>
-      <c r="F292" s="74"/>
-      <c r="G292" s="74"/>
-      <c r="H292" s="74"/>
-      <c r="I292" s="74"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="74"/>
-      <c r="L292" s="74"/>
-      <c r="M292" s="74"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="69"/>
+      <c r="F292" s="69"/>
+      <c r="G292" s="69"/>
+      <c r="H292" s="69"/>
+      <c r="I292" s="69"/>
+      <c r="J292" s="69"/>
+      <c r="K292" s="69"/>
+      <c r="L292" s="69"/>
+      <c r="M292" s="69"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -15825,20 +14723,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="74" t="s">
+      <c r="B294" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="74"/>
-      <c r="D294" s="74"/>
-      <c r="E294" s="74"/>
-      <c r="F294" s="74"/>
-      <c r="G294" s="74"/>
-      <c r="H294" s="74"/>
-      <c r="I294" s="74"/>
-      <c r="J294" s="74"/>
-      <c r="K294" s="74"/>
-      <c r="L294" s="74"/>
-      <c r="M294" s="74"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="69"/>
+      <c r="F294" s="69"/>
+      <c r="G294" s="69"/>
+      <c r="H294" s="69"/>
+      <c r="I294" s="69"/>
+      <c r="J294" s="69"/>
+      <c r="K294" s="69"/>
+      <c r="L294" s="69"/>
+      <c r="M294" s="69"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -15973,68 +14871,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="74" t="s">
+      <c r="B301" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="74"/>
-      <c r="D301" s="74"/>
-      <c r="E301" s="74"/>
-      <c r="F301" s="74"/>
-      <c r="G301" s="74"/>
-      <c r="H301" s="74"/>
-      <c r="I301" s="74"/>
-      <c r="J301" s="74"/>
-      <c r="K301" s="74"/>
-      <c r="L301" s="74"/>
-      <c r="M301" s="74"/>
+      <c r="C301" s="69"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="69"/>
+      <c r="F301" s="69"/>
+      <c r="G301" s="69"/>
+      <c r="H301" s="69"/>
+      <c r="I301" s="69"/>
+      <c r="J301" s="69"/>
+      <c r="K301" s="69"/>
+      <c r="L301" s="69"/>
+      <c r="M301" s="69"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="74" t="s">
+      <c r="B302" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="74"/>
-      <c r="D302" s="74"/>
-      <c r="E302" s="74"/>
-      <c r="F302" s="74"/>
-      <c r="G302" s="74"/>
-      <c r="H302" s="74"/>
-      <c r="I302" s="74"/>
-      <c r="J302" s="74"/>
-      <c r="K302" s="74"/>
-      <c r="L302" s="74"/>
-      <c r="M302" s="74"/>
+      <c r="C302" s="69"/>
+      <c r="D302" s="69"/>
+      <c r="E302" s="69"/>
+      <c r="F302" s="69"/>
+      <c r="G302" s="69"/>
+      <c r="H302" s="69"/>
+      <c r="I302" s="69"/>
+      <c r="J302" s="69"/>
+      <c r="K302" s="69"/>
+      <c r="L302" s="69"/>
+      <c r="M302" s="69"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="74" t="s">
+      <c r="B303" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="74"/>
-      <c r="D303" s="74"/>
-      <c r="E303" s="74"/>
-      <c r="F303" s="74"/>
-      <c r="G303" s="74"/>
-      <c r="H303" s="74"/>
-      <c r="I303" s="74"/>
-      <c r="J303" s="74"/>
-      <c r="K303" s="74"/>
-      <c r="L303" s="74"/>
-      <c r="M303" s="74"/>
+      <c r="C303" s="69"/>
+      <c r="D303" s="69"/>
+      <c r="E303" s="69"/>
+      <c r="F303" s="69"/>
+      <c r="G303" s="69"/>
+      <c r="H303" s="69"/>
+      <c r="I303" s="69"/>
+      <c r="J303" s="69"/>
+      <c r="K303" s="69"/>
+      <c r="L303" s="69"/>
+      <c r="M303" s="69"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="74" t="s">
+      <c r="B304" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="74"/>
-      <c r="D304" s="74"/>
-      <c r="E304" s="74"/>
-      <c r="F304" s="74"/>
-      <c r="G304" s="74"/>
-      <c r="H304" s="74"/>
-      <c r="I304" s="74"/>
-      <c r="J304" s="74"/>
-      <c r="K304" s="74"/>
-      <c r="L304" s="74"/>
-      <c r="M304" s="74"/>
+      <c r="C304" s="69"/>
+      <c r="D304" s="69"/>
+      <c r="E304" s="69"/>
+      <c r="F304" s="69"/>
+      <c r="G304" s="69"/>
+      <c r="H304" s="69"/>
+      <c r="I304" s="69"/>
+      <c r="J304" s="69"/>
+      <c r="K304" s="69"/>
+      <c r="L304" s="69"/>
+      <c r="M304" s="69"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -16051,20 +14949,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="74" t="s">
+      <c r="B306" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="74"/>
-      <c r="D306" s="74"/>
-      <c r="E306" s="74"/>
-      <c r="F306" s="74"/>
-      <c r="G306" s="74"/>
-      <c r="H306" s="74"/>
-      <c r="I306" s="74"/>
-      <c r="J306" s="74"/>
-      <c r="K306" s="74"/>
-      <c r="L306" s="74"/>
-      <c r="M306" s="74"/>
+      <c r="C306" s="69"/>
+      <c r="D306" s="69"/>
+      <c r="E306" s="69"/>
+      <c r="F306" s="69"/>
+      <c r="G306" s="69"/>
+      <c r="H306" s="69"/>
+      <c r="I306" s="69"/>
+      <c r="J306" s="69"/>
+      <c r="K306" s="69"/>
+      <c r="L306" s="69"/>
+      <c r="M306" s="69"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -16095,20 +14993,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="74" t="s">
+      <c r="B309" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="74"/>
-      <c r="D309" s="74"/>
-      <c r="E309" s="74"/>
-      <c r="F309" s="74"/>
-      <c r="G309" s="74"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="74"/>
-      <c r="J309" s="74"/>
-      <c r="K309" s="74"/>
-      <c r="L309" s="74"/>
-      <c r="M309" s="74"/>
+      <c r="C309" s="69"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="69"/>
+      <c r="F309" s="69"/>
+      <c r="G309" s="69"/>
+      <c r="H309" s="69"/>
+      <c r="I309" s="69"/>
+      <c r="J309" s="69"/>
+      <c r="K309" s="69"/>
+      <c r="L309" s="69"/>
+      <c r="M309" s="69"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -16125,20 +15023,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="74" t="s">
+      <c r="B311" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="74"/>
-      <c r="D311" s="74"/>
-      <c r="E311" s="74"/>
-      <c r="F311" s="74"/>
-      <c r="G311" s="74"/>
-      <c r="H311" s="74"/>
-      <c r="I311" s="74"/>
-      <c r="J311" s="74"/>
-      <c r="K311" s="74"/>
-      <c r="L311" s="74"/>
-      <c r="M311" s="74"/>
+      <c r="C311" s="69"/>
+      <c r="D311" s="69"/>
+      <c r="E311" s="69"/>
+      <c r="F311" s="69"/>
+      <c r="G311" s="69"/>
+      <c r="H311" s="69"/>
+      <c r="I311" s="69"/>
+      <c r="J311" s="69"/>
+      <c r="K311" s="69"/>
+      <c r="L311" s="69"/>
+      <c r="M311" s="69"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -16227,17 +15125,17 @@
       <c r="B316" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="67"/>
-      <c r="D316" s="67"/>
-      <c r="E316" s="67"/>
-      <c r="F316" s="67"/>
-      <c r="G316" s="67"/>
-      <c r="H316" s="67"/>
-      <c r="I316" s="67"/>
-      <c r="J316" s="67"/>
-      <c r="K316" s="67"/>
-      <c r="L316" s="67"/>
-      <c r="M316" s="68"/>
+      <c r="C316" s="71"/>
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
+      <c r="F316" s="71"/>
+      <c r="G316" s="71"/>
+      <c r="H316" s="71"/>
+      <c r="I316" s="71"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="71"/>
+      <c r="L316" s="71"/>
+      <c r="M316" s="72"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -16276,52 +15174,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="71" t="s">
+      <c r="B318" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="72"/>
-      <c r="D318" s="72"/>
-      <c r="E318" s="72"/>
-      <c r="F318" s="72"/>
-      <c r="G318" s="72"/>
-      <c r="H318" s="72"/>
-      <c r="I318" s="72"/>
-      <c r="J318" s="72"/>
-      <c r="K318" s="72"/>
-      <c r="L318" s="72"/>
-      <c r="M318" s="73"/>
+      <c r="C318" s="67"/>
+      <c r="D318" s="67"/>
+      <c r="E318" s="67"/>
+      <c r="F318" s="67"/>
+      <c r="G318" s="67"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="67"/>
+      <c r="J318" s="67"/>
+      <c r="K318" s="67"/>
+      <c r="L318" s="67"/>
+      <c r="M318" s="68"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="71" t="s">
+      <c r="B319" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="72"/>
-      <c r="D319" s="72"/>
-      <c r="E319" s="72"/>
-      <c r="F319" s="72"/>
-      <c r="G319" s="72"/>
-      <c r="H319" s="72"/>
-      <c r="I319" s="72"/>
-      <c r="J319" s="72"/>
-      <c r="K319" s="72"/>
-      <c r="L319" s="72"/>
-      <c r="M319" s="73"/>
+      <c r="C319" s="67"/>
+      <c r="D319" s="67"/>
+      <c r="E319" s="67"/>
+      <c r="F319" s="67"/>
+      <c r="G319" s="67"/>
+      <c r="H319" s="67"/>
+      <c r="I319" s="67"/>
+      <c r="J319" s="67"/>
+      <c r="K319" s="67"/>
+      <c r="L319" s="67"/>
+      <c r="M319" s="68"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="74" t="s">
+      <c r="B320" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="74"/>
-      <c r="D320" s="74"/>
-      <c r="E320" s="74"/>
-      <c r="F320" s="74"/>
-      <c r="G320" s="74"/>
-      <c r="H320" s="74"/>
-      <c r="I320" s="74"/>
-      <c r="J320" s="74"/>
-      <c r="K320" s="74"/>
-      <c r="L320" s="74"/>
-      <c r="M320" s="74"/>
+      <c r="C320" s="69"/>
+      <c r="D320" s="69"/>
+      <c r="E320" s="69"/>
+      <c r="F320" s="69"/>
+      <c r="G320" s="69"/>
+      <c r="H320" s="69"/>
+      <c r="I320" s="69"/>
+      <c r="J320" s="69"/>
+      <c r="K320" s="69"/>
+      <c r="L320" s="69"/>
+      <c r="M320" s="69"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -16338,20 +15236,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="71" t="s">
+      <c r="B322" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="72"/>
-      <c r="D322" s="72"/>
-      <c r="E322" s="72"/>
-      <c r="F322" s="72"/>
-      <c r="G322" s="72"/>
-      <c r="H322" s="72"/>
-      <c r="I322" s="72"/>
-      <c r="J322" s="72"/>
-      <c r="K322" s="72"/>
-      <c r="L322" s="72"/>
-      <c r="M322" s="73"/>
+      <c r="C322" s="67"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="67"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="67"/>
+      <c r="H322" s="67"/>
+      <c r="I322" s="67"/>
+      <c r="J322" s="67"/>
+      <c r="K322" s="67"/>
+      <c r="L322" s="67"/>
+      <c r="M322" s="68"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -16368,20 +15266,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="71" t="s">
+      <c r="B324" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="72"/>
-      <c r="D324" s="72"/>
-      <c r="E324" s="72"/>
-      <c r="F324" s="72"/>
-      <c r="G324" s="72"/>
-      <c r="H324" s="72"/>
-      <c r="I324" s="72"/>
-      <c r="J324" s="72"/>
-      <c r="K324" s="72"/>
-      <c r="L324" s="72"/>
-      <c r="M324" s="73"/>
+      <c r="C324" s="67"/>
+      <c r="D324" s="67"/>
+      <c r="E324" s="67"/>
+      <c r="F324" s="67"/>
+      <c r="G324" s="67"/>
+      <c r="H324" s="67"/>
+      <c r="I324" s="67"/>
+      <c r="J324" s="67"/>
+      <c r="K324" s="67"/>
+      <c r="L324" s="67"/>
+      <c r="M324" s="68"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -16412,20 +15310,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="71" t="s">
+      <c r="B327" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="72"/>
-      <c r="D327" s="72"/>
-      <c r="E327" s="72"/>
-      <c r="F327" s="72"/>
-      <c r="G327" s="72"/>
-      <c r="H327" s="72"/>
-      <c r="I327" s="72"/>
-      <c r="J327" s="72"/>
-      <c r="K327" s="72"/>
-      <c r="L327" s="72"/>
-      <c r="M327" s="73"/>
+      <c r="C327" s="67"/>
+      <c r="D327" s="67"/>
+      <c r="E327" s="67"/>
+      <c r="F327" s="67"/>
+      <c r="G327" s="67"/>
+      <c r="H327" s="67"/>
+      <c r="I327" s="67"/>
+      <c r="J327" s="67"/>
+      <c r="K327" s="67"/>
+      <c r="L327" s="67"/>
+      <c r="M327" s="68"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -16442,20 +15340,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="71" t="s">
+      <c r="B329" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="72"/>
-      <c r="D329" s="72"/>
-      <c r="E329" s="72"/>
-      <c r="F329" s="72"/>
-      <c r="G329" s="72"/>
-      <c r="H329" s="72"/>
-      <c r="I329" s="72"/>
-      <c r="J329" s="72"/>
-      <c r="K329" s="72"/>
-      <c r="L329" s="72"/>
-      <c r="M329" s="73"/>
+      <c r="C329" s="67"/>
+      <c r="D329" s="67"/>
+      <c r="E329" s="67"/>
+      <c r="F329" s="67"/>
+      <c r="G329" s="67"/>
+      <c r="H329" s="67"/>
+      <c r="I329" s="67"/>
+      <c r="J329" s="67"/>
+      <c r="K329" s="67"/>
+      <c r="L329" s="67"/>
+      <c r="M329" s="68"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -16620,99 +15518,6 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -16732,6 +15537,99 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17517,20 +16415,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18509,20 +17407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -20140,7 +19038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -20695,790 +19593,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>42002</v>
-      </c>
-      <c r="F3" s="9">
-        <f>E3</f>
-        <v>42002</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>42002</v>
-      </c>
-      <c r="I3" s="9">
-        <f>H3</f>
-        <v>42002</v>
-      </c>
-      <c r="J3" s="19">
-        <v>1</v>
-      </c>
-      <c r="K3" s="20">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>42002</v>
-      </c>
-      <c r="F4" s="9">
-        <v>42002</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>42002</v>
-      </c>
-      <c r="I4" s="9">
-        <v>42002</v>
-      </c>
-      <c r="J4" s="19">
-        <v>2</v>
-      </c>
-      <c r="K4" s="20">
-        <f>G4/J4</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>42002</v>
-      </c>
-      <c r="F5" s="9">
-        <v>42002</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>42002</v>
-      </c>
-      <c r="I5" s="9">
-        <v>42002</v>
-      </c>
-      <c r="J5" s="19">
-        <v>2</v>
-      </c>
-      <c r="K5" s="20">
-        <f>G5/J5</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4</v>
-      </c>
-      <c r="E6" s="44">
-        <v>42002</v>
-      </c>
-      <c r="F6" s="44">
-        <v>42006</v>
-      </c>
-      <c r="G6" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="H6" s="44">
-        <v>42002</v>
-      </c>
-      <c r="I6" s="44">
-        <v>42006</v>
-      </c>
-      <c r="J6" s="12">
-        <v>3.5</v>
-      </c>
-      <c r="K6" s="20">
-        <f>G6/J6</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F7" s="9">
-        <v>42011</v>
-      </c>
-      <c r="G7" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" s="44">
-        <v>42003</v>
-      </c>
-      <c r="I7" s="9">
-        <v>42011</v>
-      </c>
-      <c r="J7" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="K7" s="20">
-        <f>J7/G7</f>
-        <v>1.05</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F8" s="9">
-        <v>42009</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>42004</v>
-      </c>
-      <c r="I8" s="26">
-        <v>42008</v>
-      </c>
-      <c r="J8" s="19">
-        <v>3</v>
-      </c>
-      <c r="K8" s="20">
-        <f t="shared" ref="K8" si="0">G8/J8</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="8">
-        <f>F9-E9</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F9" s="9">
-        <v>42009</v>
-      </c>
-      <c r="G9" s="8">
-        <v>3</v>
-      </c>
-      <c r="H9" s="44">
-        <v>42003</v>
-      </c>
-      <c r="I9" s="9">
-        <v>42009</v>
-      </c>
-      <c r="J9" s="19">
-        <v>3</v>
-      </c>
-      <c r="K9" s="20">
-        <f t="shared" ref="K9" si="1">J9/G9</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F10" s="9">
-        <v>42009</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>42004</v>
-      </c>
-      <c r="I10" s="26">
-        <v>42005</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" ref="K10" si="2">G10/J10</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F11" s="9">
-        <v>42009</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3</v>
-      </c>
-      <c r="H11" s="44">
-        <v>42003</v>
-      </c>
-      <c r="I11" s="26">
-        <v>42009</v>
-      </c>
-      <c r="J11" s="19">
-        <v>4</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" ref="K11" si="3">J11/G11</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>42010</v>
-      </c>
-      <c r="F12" s="9">
-        <v>42011</v>
-      </c>
-      <c r="G12" s="8">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>42011</v>
-      </c>
-      <c r="I12" s="9">
-        <v>42011</v>
-      </c>
-      <c r="J12" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="K12" s="20">
-        <f>J12/G12</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
-        <v>42011</v>
-      </c>
-      <c r="F13" s="9">
-        <v>42011</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>42011</v>
-      </c>
-      <c r="I13" s="9">
-        <v>42011</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8">
-        <f>F14-E14</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="9">
-        <v>42004</v>
-      </c>
-      <c r="F14" s="9">
-        <v>42010</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3</v>
-      </c>
-      <c r="H14" s="9">
-        <v>42005</v>
-      </c>
-      <c r="I14" s="26">
-        <v>42010</v>
-      </c>
-      <c r="J14" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="K14" s="20">
-        <f>G14/J14</f>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9">
-        <v>42010</v>
-      </c>
-      <c r="F15" s="9">
-        <v>42011</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="H15" s="9">
-        <v>42012</v>
-      </c>
-      <c r="I15" s="26">
-        <v>42013</v>
-      </c>
-      <c r="J15" s="19">
-        <v>5</v>
-      </c>
-      <c r="K15" s="20">
-        <f>G15/J15</f>
-        <v>0.9</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>13</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>42012</v>
-      </c>
-      <c r="F16" s="9">
-        <v>42014</v>
-      </c>
-      <c r="G16" s="8">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9">
-        <v>42013</v>
-      </c>
-      <c r="I16" s="26">
-        <v>42015</v>
-      </c>
-      <c r="J16" s="19">
-        <f>0.5+0</f>
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="20">
-        <f>E16/F16</f>
-        <v>0.99995239682010761</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="44">
-        <v>42010</v>
-      </c>
-      <c r="F17" s="44">
-        <v>42010</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="44">
-        <v>42010</v>
-      </c>
-      <c r="I17" s="44">
-        <v>42010</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="20">
-        <f>J17/G17</f>
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>15</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="39">
-        <v>42012</v>
-      </c>
-      <c r="F18" s="39">
-        <v>42012</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="39">
-        <v>42012</v>
-      </c>
-      <c r="I18" s="39">
-        <v>42012</v>
-      </c>
-      <c r="J18" s="40">
-        <v>1.25</v>
-      </c>
-      <c r="K18" s="20">
-        <f>G18/J18</f>
-        <v>1.2</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>42015</v>
-      </c>
-      <c r="F19" s="9">
-        <v>42015</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>42015</v>
-      </c>
-      <c r="I19" s="9">
-        <v>42015</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="20">
-        <f>G19/J19</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
-        <v>42015</v>
-      </c>
-      <c r="F20" s="9">
-        <v>42015</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>42014</v>
-      </c>
-      <c r="I20" s="9">
-        <v>42014</v>
-      </c>
-      <c r="J20" s="19">
-        <v>1</v>
-      </c>
-      <c r="K20" s="20">
-        <f>G20/J20</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Iteration 4" sheetId="9" r:id="rId5"/>
     <sheet name="Iteration 5" sheetId="11" r:id="rId6"/>
     <sheet name="Iteration 6" sheetId="14" r:id="rId7"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId8"/>
+    <sheet name="Iteration 7" sheetId="15" r:id="rId8"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="242">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -722,6 +723,51 @@
   </si>
   <si>
     <t>Client Meeting 7</t>
+  </si>
+  <si>
+    <t>Iteration 5 (15 December 2014 - 29 December 2014)</t>
+  </si>
+  <si>
+    <t>Iteration 6  (29 December 2014 - 11 January 2015)</t>
+  </si>
+  <si>
+    <t>Internal Meeting 15 - Review Requirements</t>
+  </si>
+  <si>
+    <t>Update use case,  ER diagram, sequence diagram</t>
+  </si>
+  <si>
+    <t>Changes made based on previous client meeting - documents, investigation tab,</t>
+  </si>
+  <si>
+    <t>Case setup - upload reports, documents, etc</t>
+  </si>
+  <si>
+    <t>Shi Qi, Grace</t>
+  </si>
+  <si>
+    <t>Case Management - reset all for admin</t>
+  </si>
+  <si>
+    <t>Case Management - reset case for lecturer</t>
+  </si>
+  <si>
+    <t>Deployment in NP's machine</t>
+  </si>
+  <si>
+    <t>Regression Testing of functionalities in previous iterations + current iteration for  deployment</t>
+  </si>
+  <si>
+    <t>Create User Test document, identify users for User Testing 2</t>
+  </si>
+  <si>
+    <t>Internal Meeting 16 - Review User Test 2 Results</t>
+  </si>
+  <si>
+    <t>Client Meeting 8</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting 3</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1039,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1184,7 +1230,19 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,20 +1254,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1225,6 +1271,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1539,11 +1591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1440440672"/>
-        <c:axId val="1440435232"/>
+        <c:axId val="-1277981920"/>
+        <c:axId val="-1277976480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1440440672"/>
+        <c:axId val="-1277981920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440435232"/>
+        <c:crossAx val="-1277976480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1594,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440435232"/>
+        <c:axId val="-1277976480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1646,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440440672"/>
+        <c:crossAx val="-1277981920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2057,11 +2109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1440446112"/>
-        <c:axId val="1440438496"/>
+        <c:axId val="-1277975392"/>
+        <c:axId val="-1277981376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1440446112"/>
+        <c:axId val="-1277975392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440438496"/>
+        <c:crossAx val="-1277981376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +2164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1440438496"/>
+        <c:axId val="-1277981376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2164,7 +2216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440446112"/>
+        <c:crossAx val="-1277975392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2557,11 +2609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1612792320"/>
-        <c:axId val="1612795040"/>
+        <c:axId val="-1277972128"/>
+        <c:axId val="-1277971584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1612792320"/>
+        <c:axId val="-1277972128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612795040"/>
+        <c:crossAx val="-1277971584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2612,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612795040"/>
+        <c:axId val="-1277971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2664,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612792320"/>
+        <c:crossAx val="-1277972128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3027,11 +3079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828003840"/>
-        <c:axId val="1828004928"/>
+        <c:axId val="-1647750192"/>
+        <c:axId val="-1647757808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828003840"/>
+        <c:axId val="-1647750192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3074,7 +3126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828004928"/>
+        <c:crossAx val="-1647757808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3082,7 +3134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828004928"/>
+        <c:axId val="-1647757808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3134,7 +3186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828003840"/>
+        <c:crossAx val="-1647750192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3481,11 +3533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828009824"/>
-        <c:axId val="1828004384"/>
+        <c:axId val="-1647749648"/>
+        <c:axId val="-1647748016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828009824"/>
+        <c:axId val="-1647749648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,7 +3580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828004384"/>
+        <c:crossAx val="-1647748016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3536,7 +3588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828004384"/>
+        <c:axId val="-1647748016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3588,7 +3640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828009824"/>
+        <c:crossAx val="-1647749648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3972,11 +4024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1828015808"/>
-        <c:axId val="1828009280"/>
+        <c:axId val="-1102598912"/>
+        <c:axId val="-1102591840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1828015808"/>
+        <c:axId val="-1102598912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828009280"/>
+        <c:crossAx val="-1102591840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828009280"/>
+        <c:axId val="-1102591840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4079,7 +4131,492 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828015808"/>
+        <c:crossAx val="-1102598912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 7'!$B$3:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Internal Meeting 15 - Review Requirements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update use case,  ER diagram, sequence diagram</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Changes made based on previous client meeting - documents, investigation tab,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case setup - upload reports, documents, etc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case Management - reset all for admin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Case Management - reset case for lecturer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Beautify UI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Deployment in NP's machine</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration for  deployment</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Create User Test document, identify users for User Testing 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Conduct User Test</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Internal Meeting 16 - Review User Test 2 Results</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Client Meeting 8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Supervisor Meeting 3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 7'!$K$3:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86956521739130443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1102591296"/>
+        <c:axId val="-1102594016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1102591296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1102594016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1102594016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1102591296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4362,6 +4899,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7419,6 +7996,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7603,6 +8683,43 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8113,28 +9230,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -8599,26 +9716,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -9219,11 +10336,11 @@
       <c r="K31" s="70"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -9346,20 +10463,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="73"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="68"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -9421,20 +10538,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="73"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="68"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -9617,11 +10734,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="69" t="s">
+      <c r="O41" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -9717,20 +10834,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="73"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="68"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -9851,20 +10968,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="73"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -9907,20 +11024,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="73"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -10119,25 +11236,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="68"/>
-      <c r="O57" s="69" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="72"/>
+      <c r="O57" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="69"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -10185,20 +11302,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="73"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="68"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -10252,20 +11369,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -10358,20 +11475,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="73"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="68"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -10527,20 +11644,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="73"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="68"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -10571,20 +11688,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="72"/>
-      <c r="M72" s="73"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="68"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -10644,20 +11761,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72"/>
-      <c r="L75" s="72"/>
-      <c r="M75" s="73"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="68"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -10688,20 +11805,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="71" t="s">
+      <c r="B77" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
-      <c r="J77" s="72"/>
-      <c r="K77" s="72"/>
-      <c r="L77" s="72"/>
-      <c r="M77" s="73"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -10887,11 +12004,11 @@
       <c r="K85" s="70"/>
       <c r="L85" s="70"/>
       <c r="M85" s="70"/>
-      <c r="O85" s="69" t="s">
+      <c r="O85" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="69"/>
-      <c r="Q85" s="69"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -10937,20 +12054,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
+      <c r="M87" s="69"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -11004,20 +12121,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -11109,20 +12226,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="74" t="s">
+      <c r="B92" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74"/>
-      <c r="G92" s="74"/>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -11224,20 +12341,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -11268,20 +12385,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="74" t="s">
+      <c r="B98" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
-      <c r="G98" s="74"/>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="69"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -11397,20 +12514,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
+      <c r="M103" s="69"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -11441,20 +12558,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="74" t="s">
+      <c r="B105" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -11630,11 +12747,11 @@
       <c r="K113" s="70"/>
       <c r="L113" s="70"/>
       <c r="M113" s="70"/>
-      <c r="O113" s="69" t="s">
+      <c r="O113" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="69"/>
-      <c r="Q113" s="69"/>
+      <c r="P113" s="73"/>
+      <c r="Q113" s="73"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -11680,20 +12797,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="74"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="74"/>
-      <c r="K115" s="74"/>
-      <c r="L115" s="74"/>
-      <c r="M115" s="74"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -11747,20 +12864,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="74"/>
-      <c r="K117" s="74"/>
-      <c r="L117" s="74"/>
-      <c r="M117" s="74"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="69"/>
+      <c r="M117" s="69"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -11852,20 +12969,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="74" t="s">
+      <c r="B120" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="69"/>
+      <c r="M120" s="69"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -11965,20 +13082,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="74" t="s">
+      <c r="B124" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="74"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="74"/>
-      <c r="J124" s="74"/>
-      <c r="K124" s="74"/>
-      <c r="L124" s="74"/>
-      <c r="M124" s="74"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -12009,20 +13126,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="74"/>
-      <c r="H126" s="74"/>
-      <c r="I126" s="74"/>
-      <c r="J126" s="74"/>
-      <c r="K126" s="74"/>
-      <c r="L126" s="74"/>
-      <c r="M126" s="74"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
+      <c r="M126" s="69"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -12082,20 +13199,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="74"/>
-      <c r="H129" s="74"/>
-      <c r="I129" s="74"/>
-      <c r="J129" s="74"/>
-      <c r="K129" s="74"/>
-      <c r="L129" s="74"/>
-      <c r="M129" s="74"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="69"/>
+      <c r="M129" s="69"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -12126,20 +13243,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="74"/>
-      <c r="K131" s="74"/>
-      <c r="L131" s="74"/>
-      <c r="M131" s="74"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="69"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="69"/>
+      <c r="M131" s="69"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -12353,20 +13470,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="74"/>
-      <c r="K141" s="74"/>
-      <c r="L141" s="74"/>
-      <c r="M141" s="74"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -12398,20 +13515,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="74"/>
-      <c r="K143" s="74"/>
-      <c r="L143" s="74"/>
-      <c r="M143" s="74"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="69"/>
+      <c r="J143" s="69"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="69"/>
+      <c r="M143" s="69"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -12470,20 +13587,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="74"/>
-      <c r="K146" s="74"/>
-      <c r="L146" s="74"/>
-      <c r="M146" s="74"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="69"/>
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="69"/>
+      <c r="M146" s="69"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -12630,20 +13747,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="74" t="s">
+      <c r="B152" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
-      <c r="J152" s="74"/>
-      <c r="K152" s="74"/>
-      <c r="L152" s="74"/>
-      <c r="M152" s="74"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="69"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="69"/>
+      <c r="I152" s="69"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -12674,20 +13791,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="74" t="s">
+      <c r="B154" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="74"/>
-      <c r="K154" s="74"/>
-      <c r="L154" s="74"/>
-      <c r="M154" s="74"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="69"/>
+      <c r="I154" s="69"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -12747,20 +13864,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="74" t="s">
+      <c r="B157" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="74"/>
-      <c r="K157" s="74"/>
-      <c r="L157" s="74"/>
-      <c r="M157" s="74"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="69"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -12791,20 +13908,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="74" t="s">
+      <c r="B159" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="74"/>
-      <c r="K159" s="74"/>
-      <c r="L159" s="74"/>
-      <c r="M159" s="74"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="69"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="69"/>
+      <c r="M159" s="69"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -12935,20 +14052,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="74"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="69"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="69"/>
+      <c r="M167" s="69"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -12980,20 +14097,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="69"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="69"/>
+      <c r="I169" s="69"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
+      <c r="M169" s="69"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -13052,20 +14169,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="74" t="s">
+      <c r="B172" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="74"/>
-      <c r="K172" s="74"/>
-      <c r="L172" s="74"/>
-      <c r="M172" s="74"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
+      <c r="M172" s="69"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -13125,20 +14242,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="74"/>
-      <c r="L175" s="74"/>
-      <c r="M175" s="74"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="69"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="69"/>
+      <c r="I175" s="69"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="69"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -13169,20 +14286,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="74"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
-      <c r="J177" s="74"/>
-      <c r="K177" s="74"/>
-      <c r="L177" s="74"/>
-      <c r="M177" s="74"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="69"/>
+      <c r="F177" s="69"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="69"/>
+      <c r="I177" s="69"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="69"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -13242,20 +14359,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="74" t="s">
+      <c r="B180" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="74"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
-      <c r="I180" s="74"/>
-      <c r="J180" s="74"/>
-      <c r="K180" s="74"/>
-      <c r="L180" s="74"/>
-      <c r="M180" s="74"/>
+      <c r="C180" s="69"/>
+      <c r="D180" s="69"/>
+      <c r="E180" s="69"/>
+      <c r="F180" s="69"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="69"/>
+      <c r="I180" s="69"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="69"/>
+      <c r="L180" s="69"/>
+      <c r="M180" s="69"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -13286,20 +14403,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="74" t="s">
+      <c r="B182" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="74"/>
-      <c r="D182" s="74"/>
-      <c r="E182" s="74"/>
-      <c r="F182" s="74"/>
-      <c r="G182" s="74"/>
-      <c r="H182" s="74"/>
-      <c r="I182" s="74"/>
-      <c r="J182" s="74"/>
-      <c r="K182" s="74"/>
-      <c r="L182" s="74"/>
-      <c r="M182" s="74"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
+      <c r="E182" s="69"/>
+      <c r="F182" s="69"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="69"/>
+      <c r="I182" s="69"/>
+      <c r="J182" s="69"/>
+      <c r="K182" s="69"/>
+      <c r="L182" s="69"/>
+      <c r="M182" s="69"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -13430,20 +14547,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="74" t="s">
+      <c r="B189" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="74"/>
-      <c r="D189" s="74"/>
-      <c r="E189" s="74"/>
-      <c r="F189" s="74"/>
-      <c r="G189" s="74"/>
-      <c r="H189" s="74"/>
-      <c r="I189" s="74"/>
-      <c r="J189" s="74"/>
-      <c r="K189" s="74"/>
-      <c r="L189" s="74"/>
-      <c r="M189" s="74"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="69"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="69"/>
+      <c r="I189" s="69"/>
+      <c r="J189" s="69"/>
+      <c r="K189" s="69"/>
+      <c r="L189" s="69"/>
+      <c r="M189" s="69"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -13475,20 +14592,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="74" t="s">
+      <c r="B191" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="74"/>
-      <c r="D191" s="74"/>
-      <c r="E191" s="74"/>
-      <c r="F191" s="74"/>
-      <c r="G191" s="74"/>
-      <c r="H191" s="74"/>
-      <c r="I191" s="74"/>
-      <c r="J191" s="74"/>
-      <c r="K191" s="74"/>
-      <c r="L191" s="74"/>
-      <c r="M191" s="74"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="69"/>
+      <c r="F191" s="69"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="69"/>
+      <c r="I191" s="69"/>
+      <c r="J191" s="69"/>
+      <c r="K191" s="69"/>
+      <c r="L191" s="69"/>
+      <c r="M191" s="69"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -13547,20 +14664,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="74" t="s">
+      <c r="B194" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="74"/>
-      <c r="D194" s="74"/>
-      <c r="E194" s="74"/>
-      <c r="F194" s="74"/>
-      <c r="G194" s="74"/>
-      <c r="H194" s="74"/>
-      <c r="I194" s="74"/>
-      <c r="J194" s="74"/>
-      <c r="K194" s="74"/>
-      <c r="L194" s="74"/>
-      <c r="M194" s="74"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="69"/>
+      <c r="F194" s="69"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="69"/>
+      <c r="I194" s="69"/>
+      <c r="J194" s="69"/>
+      <c r="K194" s="69"/>
+      <c r="L194" s="69"/>
+      <c r="M194" s="69"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -13619,20 +14736,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="74" t="s">
+      <c r="B197" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="74"/>
-      <c r="D197" s="74"/>
-      <c r="E197" s="74"/>
-      <c r="F197" s="74"/>
-      <c r="G197" s="74"/>
-      <c r="H197" s="74"/>
-      <c r="I197" s="74"/>
-      <c r="J197" s="74"/>
-      <c r="K197" s="74"/>
-      <c r="L197" s="74"/>
-      <c r="M197" s="74"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="69"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="69"/>
+      <c r="I197" s="69"/>
+      <c r="J197" s="69"/>
+      <c r="K197" s="69"/>
+      <c r="L197" s="69"/>
+      <c r="M197" s="69"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -13663,20 +14780,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="74" t="s">
+      <c r="B199" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="74"/>
-      <c r="D199" s="74"/>
-      <c r="E199" s="74"/>
-      <c r="F199" s="74"/>
-      <c r="G199" s="74"/>
-      <c r="H199" s="74"/>
-      <c r="I199" s="74"/>
-      <c r="J199" s="74"/>
-      <c r="K199" s="74"/>
-      <c r="L199" s="74"/>
-      <c r="M199" s="74"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="69"/>
+      <c r="E199" s="69"/>
+      <c r="F199" s="69"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="69"/>
+      <c r="I199" s="69"/>
+      <c r="J199" s="69"/>
+      <c r="K199" s="69"/>
+      <c r="L199" s="69"/>
+      <c r="M199" s="69"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -13791,20 +14908,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="74" t="s">
+      <c r="B204" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="74"/>
-      <c r="D204" s="74"/>
-      <c r="E204" s="74"/>
-      <c r="F204" s="74"/>
-      <c r="G204" s="74"/>
-      <c r="H204" s="74"/>
-      <c r="I204" s="74"/>
-      <c r="J204" s="74"/>
-      <c r="K204" s="74"/>
-      <c r="L204" s="74"/>
-      <c r="M204" s="74"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="69"/>
+      <c r="F204" s="69"/>
+      <c r="G204" s="69"/>
+      <c r="H204" s="69"/>
+      <c r="I204" s="69"/>
+      <c r="J204" s="69"/>
+      <c r="K204" s="69"/>
+      <c r="L204" s="69"/>
+      <c r="M204" s="69"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -13835,20 +14952,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="74" t="s">
+      <c r="B206" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="74"/>
-      <c r="D206" s="74"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="74"/>
-      <c r="G206" s="74"/>
-      <c r="H206" s="74"/>
-      <c r="I206" s="74"/>
-      <c r="J206" s="74"/>
-      <c r="K206" s="74"/>
-      <c r="L206" s="74"/>
-      <c r="M206" s="74"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="69"/>
+      <c r="F206" s="69"/>
+      <c r="G206" s="69"/>
+      <c r="H206" s="69"/>
+      <c r="I206" s="69"/>
+      <c r="J206" s="69"/>
+      <c r="K206" s="69"/>
+      <c r="L206" s="69"/>
+      <c r="M206" s="69"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -14007,20 +15124,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="74" t="s">
+      <c r="B214" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="74"/>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
-      <c r="F214" s="74"/>
-      <c r="G214" s="74"/>
-      <c r="H214" s="74"/>
-      <c r="I214" s="74"/>
-      <c r="J214" s="74"/>
-      <c r="K214" s="74"/>
-      <c r="L214" s="74"/>
-      <c r="M214" s="74"/>
+      <c r="C214" s="69"/>
+      <c r="D214" s="69"/>
+      <c r="E214" s="69"/>
+      <c r="F214" s="69"/>
+      <c r="G214" s="69"/>
+      <c r="H214" s="69"/>
+      <c r="I214" s="69"/>
+      <c r="J214" s="69"/>
+      <c r="K214" s="69"/>
+      <c r="L214" s="69"/>
+      <c r="M214" s="69"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -14052,20 +15169,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="74" t="s">
+      <c r="B216" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="74"/>
-      <c r="D216" s="74"/>
-      <c r="E216" s="74"/>
-      <c r="F216" s="74"/>
-      <c r="G216" s="74"/>
-      <c r="H216" s="74"/>
-      <c r="I216" s="74"/>
-      <c r="J216" s="74"/>
-      <c r="K216" s="74"/>
-      <c r="L216" s="74"/>
-      <c r="M216" s="74"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="69"/>
+      <c r="E216" s="69"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="69"/>
+      <c r="H216" s="69"/>
+      <c r="I216" s="69"/>
+      <c r="J216" s="69"/>
+      <c r="K216" s="69"/>
+      <c r="L216" s="69"/>
+      <c r="M216" s="69"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -14124,20 +15241,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="74" t="s">
+      <c r="B219" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="74"/>
-      <c r="D219" s="74"/>
-      <c r="E219" s="74"/>
-      <c r="F219" s="74"/>
-      <c r="G219" s="74"/>
-      <c r="H219" s="74"/>
-      <c r="I219" s="74"/>
-      <c r="J219" s="74"/>
-      <c r="K219" s="74"/>
-      <c r="L219" s="74"/>
-      <c r="M219" s="74"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="69"/>
+      <c r="E219" s="69"/>
+      <c r="F219" s="69"/>
+      <c r="G219" s="69"/>
+      <c r="H219" s="69"/>
+      <c r="I219" s="69"/>
+      <c r="J219" s="69"/>
+      <c r="K219" s="69"/>
+      <c r="L219" s="69"/>
+      <c r="M219" s="69"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -14199,20 +15316,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="74" t="s">
+      <c r="B222" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="74"/>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74"/>
-      <c r="F222" s="74"/>
-      <c r="G222" s="74"/>
-      <c r="H222" s="74"/>
-      <c r="I222" s="74"/>
-      <c r="J222" s="74"/>
-      <c r="K222" s="74"/>
-      <c r="L222" s="74"/>
-      <c r="M222" s="74"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="69"/>
+      <c r="E222" s="69"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="69"/>
+      <c r="H222" s="69"/>
+      <c r="I222" s="69"/>
+      <c r="J222" s="69"/>
+      <c r="K222" s="69"/>
+      <c r="L222" s="69"/>
+      <c r="M222" s="69"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -14243,20 +15360,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="74"/>
-      <c r="D224" s="74"/>
-      <c r="E224" s="74"/>
-      <c r="F224" s="74"/>
-      <c r="G224" s="74"/>
-      <c r="H224" s="74"/>
-      <c r="I224" s="74"/>
-      <c r="J224" s="74"/>
-      <c r="K224" s="74"/>
-      <c r="L224" s="74"/>
-      <c r="M224" s="74"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="69"/>
+      <c r="F224" s="69"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
+      <c r="J224" s="69"/>
+      <c r="K224" s="69"/>
+      <c r="L224" s="69"/>
+      <c r="M224" s="69"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -14316,20 +15433,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="74"/>
-      <c r="D227" s="74"/>
-      <c r="E227" s="74"/>
-      <c r="F227" s="74"/>
-      <c r="G227" s="74"/>
-      <c r="H227" s="74"/>
-      <c r="I227" s="74"/>
-      <c r="J227" s="74"/>
-      <c r="K227" s="74"/>
-      <c r="L227" s="74"/>
-      <c r="M227" s="74"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
+      <c r="F227" s="69"/>
+      <c r="G227" s="69"/>
+      <c r="H227" s="69"/>
+      <c r="I227" s="69"/>
+      <c r="J227" s="69"/>
+      <c r="K227" s="69"/>
+      <c r="L227" s="69"/>
+      <c r="M227" s="69"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -14360,20 +15477,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="74" t="s">
+      <c r="B229" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="74"/>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74"/>
-      <c r="F229" s="74"/>
-      <c r="G229" s="74"/>
-      <c r="H229" s="74"/>
-      <c r="I229" s="74"/>
-      <c r="J229" s="74"/>
-      <c r="K229" s="74"/>
-      <c r="L229" s="74"/>
-      <c r="M229" s="74"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="69"/>
+      <c r="F229" s="69"/>
+      <c r="G229" s="69"/>
+      <c r="H229" s="69"/>
+      <c r="I229" s="69"/>
+      <c r="J229" s="69"/>
+      <c r="K229" s="69"/>
+      <c r="L229" s="69"/>
+      <c r="M229" s="69"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -14504,36 +15621,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="74" t="s">
+      <c r="B236" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="74"/>
-      <c r="D236" s="74"/>
-      <c r="E236" s="74"/>
-      <c r="F236" s="74"/>
-      <c r="G236" s="74"/>
-      <c r="H236" s="74"/>
-      <c r="I236" s="74"/>
-      <c r="J236" s="74"/>
-      <c r="K236" s="74"/>
-      <c r="L236" s="74"/>
-      <c r="M236" s="74"/>
+      <c r="C236" s="69"/>
+      <c r="D236" s="69"/>
+      <c r="E236" s="69"/>
+      <c r="F236" s="69"/>
+      <c r="G236" s="69"/>
+      <c r="H236" s="69"/>
+      <c r="I236" s="69"/>
+      <c r="J236" s="69"/>
+      <c r="K236" s="69"/>
+      <c r="L236" s="69"/>
+      <c r="M236" s="69"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="74" t="s">
+      <c r="B237" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="74"/>
-      <c r="D237" s="74"/>
-      <c r="E237" s="74"/>
-      <c r="F237" s="74"/>
-      <c r="G237" s="74"/>
-      <c r="H237" s="74"/>
-      <c r="I237" s="74"/>
-      <c r="J237" s="74"/>
-      <c r="K237" s="74"/>
-      <c r="L237" s="74"/>
-      <c r="M237" s="74"/>
+      <c r="C237" s="69"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="69"/>
+      <c r="F237" s="69"/>
+      <c r="G237" s="69"/>
+      <c r="H237" s="69"/>
+      <c r="I237" s="69"/>
+      <c r="J237" s="69"/>
+      <c r="K237" s="69"/>
+      <c r="L237" s="69"/>
+      <c r="M237" s="69"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -14592,36 +15709,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="74" t="s">
+      <c r="B240" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="74"/>
-      <c r="D240" s="74"/>
-      <c r="E240" s="74"/>
-      <c r="F240" s="74"/>
-      <c r="G240" s="74"/>
-      <c r="H240" s="74"/>
-      <c r="I240" s="74"/>
-      <c r="J240" s="74"/>
-      <c r="K240" s="74"/>
-      <c r="L240" s="74"/>
-      <c r="M240" s="74"/>
+      <c r="C240" s="69"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="69"/>
+      <c r="F240" s="69"/>
+      <c r="G240" s="69"/>
+      <c r="H240" s="69"/>
+      <c r="I240" s="69"/>
+      <c r="J240" s="69"/>
+      <c r="K240" s="69"/>
+      <c r="L240" s="69"/>
+      <c r="M240" s="69"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="74" t="s">
+      <c r="B241" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="74"/>
-      <c r="D241" s="74"/>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
-      <c r="G241" s="74"/>
-      <c r="H241" s="74"/>
-      <c r="I241" s="74"/>
-      <c r="J241" s="74"/>
-      <c r="K241" s="74"/>
-      <c r="L241" s="74"/>
-      <c r="M241" s="74"/>
+      <c r="C241" s="69"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="69"/>
+      <c r="F241" s="69"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
+      <c r="I241" s="69"/>
+      <c r="J241" s="69"/>
+      <c r="K241" s="69"/>
+      <c r="L241" s="69"/>
+      <c r="M241" s="69"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -14652,20 +15769,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="74" t="s">
+      <c r="B243" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="74"/>
-      <c r="D243" s="74"/>
-      <c r="E243" s="74"/>
-      <c r="F243" s="74"/>
-      <c r="G243" s="74"/>
-      <c r="H243" s="74"/>
-      <c r="I243" s="74"/>
-      <c r="J243" s="74"/>
-      <c r="K243" s="74"/>
-      <c r="L243" s="74"/>
-      <c r="M243" s="74"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="69"/>
+      <c r="H243" s="69"/>
+      <c r="I243" s="69"/>
+      <c r="J243" s="69"/>
+      <c r="K243" s="69"/>
+      <c r="L243" s="69"/>
+      <c r="M243" s="69"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -14696,20 +15813,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="74" t="s">
+      <c r="B245" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="74"/>
-      <c r="D245" s="74"/>
-      <c r="E245" s="74"/>
-      <c r="F245" s="74"/>
-      <c r="G245" s="74"/>
-      <c r="H245" s="74"/>
-      <c r="I245" s="74"/>
-      <c r="J245" s="74"/>
-      <c r="K245" s="74"/>
-      <c r="L245" s="74"/>
-      <c r="M245" s="74"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
+      <c r="F245" s="69"/>
+      <c r="G245" s="69"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
+      <c r="J245" s="69"/>
+      <c r="K245" s="69"/>
+      <c r="L245" s="69"/>
+      <c r="M245" s="69"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -14740,20 +15857,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="74" t="s">
+      <c r="B247" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="74"/>
-      <c r="D247" s="74"/>
-      <c r="E247" s="74"/>
-      <c r="F247" s="74"/>
-      <c r="G247" s="74"/>
-      <c r="H247" s="74"/>
-      <c r="I247" s="74"/>
-      <c r="J247" s="74"/>
-      <c r="K247" s="74"/>
-      <c r="L247" s="74"/>
-      <c r="M247" s="74"/>
+      <c r="C247" s="69"/>
+      <c r="D247" s="69"/>
+      <c r="E247" s="69"/>
+      <c r="F247" s="69"/>
+      <c r="G247" s="69"/>
+      <c r="H247" s="69"/>
+      <c r="I247" s="69"/>
+      <c r="J247" s="69"/>
+      <c r="K247" s="69"/>
+      <c r="L247" s="69"/>
+      <c r="M247" s="69"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -14921,36 +16038,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="74" t="s">
+      <c r="B255" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="74"/>
-      <c r="D255" s="74"/>
-      <c r="E255" s="74"/>
-      <c r="F255" s="74"/>
-      <c r="G255" s="74"/>
-      <c r="H255" s="74"/>
-      <c r="I255" s="74"/>
-      <c r="J255" s="74"/>
-      <c r="K255" s="74"/>
-      <c r="L255" s="74"/>
-      <c r="M255" s="74"/>
+      <c r="C255" s="69"/>
+      <c r="D255" s="69"/>
+      <c r="E255" s="69"/>
+      <c r="F255" s="69"/>
+      <c r="G255" s="69"/>
+      <c r="H255" s="69"/>
+      <c r="I255" s="69"/>
+      <c r="J255" s="69"/>
+      <c r="K255" s="69"/>
+      <c r="L255" s="69"/>
+      <c r="M255" s="69"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="74" t="s">
+      <c r="B256" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="74"/>
-      <c r="D256" s="74"/>
-      <c r="E256" s="74"/>
-      <c r="F256" s="74"/>
-      <c r="G256" s="74"/>
-      <c r="H256" s="74"/>
-      <c r="I256" s="74"/>
-      <c r="J256" s="74"/>
-      <c r="K256" s="74"/>
-      <c r="L256" s="74"/>
-      <c r="M256" s="74"/>
+      <c r="C256" s="69"/>
+      <c r="D256" s="69"/>
+      <c r="E256" s="69"/>
+      <c r="F256" s="69"/>
+      <c r="G256" s="69"/>
+      <c r="H256" s="69"/>
+      <c r="I256" s="69"/>
+      <c r="J256" s="69"/>
+      <c r="K256" s="69"/>
+      <c r="L256" s="69"/>
+      <c r="M256" s="69"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -15009,20 +16126,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="74" t="s">
+      <c r="B259" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="74"/>
-      <c r="D259" s="74"/>
-      <c r="E259" s="74"/>
-      <c r="F259" s="74"/>
-      <c r="G259" s="74"/>
-      <c r="H259" s="74"/>
-      <c r="I259" s="74"/>
-      <c r="J259" s="74"/>
-      <c r="K259" s="74"/>
-      <c r="L259" s="74"/>
-      <c r="M259" s="74"/>
+      <c r="C259" s="69"/>
+      <c r="D259" s="69"/>
+      <c r="E259" s="69"/>
+      <c r="F259" s="69"/>
+      <c r="G259" s="69"/>
+      <c r="H259" s="69"/>
+      <c r="I259" s="69"/>
+      <c r="J259" s="69"/>
+      <c r="K259" s="69"/>
+      <c r="L259" s="69"/>
+      <c r="M259" s="69"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -15083,20 +16200,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="74" t="s">
+      <c r="B262" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="74"/>
-      <c r="D262" s="74"/>
-      <c r="E262" s="74"/>
-      <c r="F262" s="74"/>
-      <c r="G262" s="74"/>
-      <c r="H262" s="74"/>
-      <c r="I262" s="74"/>
-      <c r="J262" s="74"/>
-      <c r="K262" s="74"/>
-      <c r="L262" s="74"/>
-      <c r="M262" s="74"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="69"/>
+      <c r="G262" s="69"/>
+      <c r="H262" s="69"/>
+      <c r="I262" s="69"/>
+      <c r="J262" s="69"/>
+      <c r="K262" s="69"/>
+      <c r="L262" s="69"/>
+      <c r="M262" s="69"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -15127,20 +16244,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="74" t="s">
+      <c r="B264" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="74"/>
-      <c r="D264" s="74"/>
-      <c r="E264" s="74"/>
-      <c r="F264" s="74"/>
-      <c r="G264" s="74"/>
-      <c r="H264" s="74"/>
-      <c r="I264" s="74"/>
-      <c r="J264" s="74"/>
-      <c r="K264" s="74"/>
-      <c r="L264" s="74"/>
-      <c r="M264" s="74"/>
+      <c r="C264" s="69"/>
+      <c r="D264" s="69"/>
+      <c r="E264" s="69"/>
+      <c r="F264" s="69"/>
+      <c r="G264" s="69"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="69"/>
+      <c r="J264" s="69"/>
+      <c r="K264" s="69"/>
+      <c r="L264" s="69"/>
+      <c r="M264" s="69"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -15199,20 +16316,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="74" t="s">
+      <c r="B267" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="74"/>
-      <c r="D267" s="74"/>
-      <c r="E267" s="74"/>
-      <c r="F267" s="74"/>
-      <c r="G267" s="74"/>
-      <c r="H267" s="74"/>
-      <c r="I267" s="74"/>
-      <c r="J267" s="74"/>
-      <c r="K267" s="74"/>
-      <c r="L267" s="74"/>
-      <c r="M267" s="74"/>
+      <c r="C267" s="69"/>
+      <c r="D267" s="69"/>
+      <c r="E267" s="69"/>
+      <c r="F267" s="69"/>
+      <c r="G267" s="69"/>
+      <c r="H267" s="69"/>
+      <c r="I267" s="69"/>
+      <c r="J267" s="69"/>
+      <c r="K267" s="69"/>
+      <c r="L267" s="69"/>
+      <c r="M267" s="69"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -15243,20 +16360,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="74" t="s">
+      <c r="B269" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="74"/>
-      <c r="D269" s="74"/>
-      <c r="E269" s="74"/>
-      <c r="F269" s="74"/>
-      <c r="G269" s="74"/>
-      <c r="H269" s="74"/>
-      <c r="I269" s="74"/>
-      <c r="J269" s="74"/>
-      <c r="K269" s="74"/>
-      <c r="L269" s="74"/>
-      <c r="M269" s="74"/>
+      <c r="C269" s="69"/>
+      <c r="D269" s="69"/>
+      <c r="E269" s="69"/>
+      <c r="F269" s="69"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
+      <c r="I269" s="69"/>
+      <c r="J269" s="69"/>
+      <c r="K269" s="69"/>
+      <c r="L269" s="69"/>
+      <c r="M269" s="69"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -15391,20 +16508,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="74" t="s">
+      <c r="B276" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="74"/>
-      <c r="D276" s="74"/>
-      <c r="E276" s="74"/>
-      <c r="F276" s="74"/>
-      <c r="G276" s="74"/>
-      <c r="H276" s="74"/>
-      <c r="I276" s="74"/>
-      <c r="J276" s="74"/>
-      <c r="K276" s="74"/>
-      <c r="L276" s="74"/>
-      <c r="M276" s="74"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="69"/>
+      <c r="F276" s="69"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
+      <c r="I276" s="69"/>
+      <c r="J276" s="69"/>
+      <c r="K276" s="69"/>
+      <c r="L276" s="69"/>
+      <c r="M276" s="69"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -15435,20 +16552,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="74" t="s">
+      <c r="B278" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="74"/>
-      <c r="D278" s="74"/>
-      <c r="E278" s="74"/>
-      <c r="F278" s="74"/>
-      <c r="G278" s="74"/>
-      <c r="H278" s="74"/>
-      <c r="I278" s="74"/>
-      <c r="J278" s="74"/>
-      <c r="K278" s="74"/>
-      <c r="L278" s="74"/>
-      <c r="M278" s="74"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="69"/>
+      <c r="F278" s="69"/>
+      <c r="G278" s="69"/>
+      <c r="H278" s="69"/>
+      <c r="I278" s="69"/>
+      <c r="J278" s="69"/>
+      <c r="K278" s="69"/>
+      <c r="L278" s="69"/>
+      <c r="M278" s="69"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -15507,20 +16624,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="74" t="s">
+      <c r="B281" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="74"/>
-      <c r="D281" s="74"/>
-      <c r="E281" s="74"/>
-      <c r="F281" s="74"/>
-      <c r="G281" s="74"/>
-      <c r="H281" s="74"/>
-      <c r="I281" s="74"/>
-      <c r="J281" s="74"/>
-      <c r="K281" s="74"/>
-      <c r="L281" s="74"/>
-      <c r="M281" s="74"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="69"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="69"/>
+      <c r="H281" s="69"/>
+      <c r="I281" s="69"/>
+      <c r="J281" s="69"/>
+      <c r="K281" s="69"/>
+      <c r="L281" s="69"/>
+      <c r="M281" s="69"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -15580,20 +16697,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="74" t="s">
+      <c r="B284" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="74"/>
-      <c r="D284" s="74"/>
-      <c r="E284" s="74"/>
-      <c r="F284" s="74"/>
-      <c r="G284" s="74"/>
-      <c r="H284" s="74"/>
-      <c r="I284" s="74"/>
-      <c r="J284" s="74"/>
-      <c r="K284" s="74"/>
-      <c r="L284" s="74"/>
-      <c r="M284" s="74"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="69"/>
+      <c r="F284" s="69"/>
+      <c r="G284" s="69"/>
+      <c r="H284" s="69"/>
+      <c r="I284" s="69"/>
+      <c r="J284" s="69"/>
+      <c r="K284" s="69"/>
+      <c r="L284" s="69"/>
+      <c r="M284" s="69"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -15652,20 +16769,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="74" t="s">
+      <c r="B287" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="74"/>
-      <c r="D287" s="74"/>
-      <c r="E287" s="74"/>
-      <c r="F287" s="74"/>
-      <c r="G287" s="74"/>
-      <c r="H287" s="74"/>
-      <c r="I287" s="74"/>
-      <c r="J287" s="74"/>
-      <c r="K287" s="74"/>
-      <c r="L287" s="74"/>
-      <c r="M287" s="74"/>
+      <c r="C287" s="69"/>
+      <c r="D287" s="69"/>
+      <c r="E287" s="69"/>
+      <c r="F287" s="69"/>
+      <c r="G287" s="69"/>
+      <c r="H287" s="69"/>
+      <c r="I287" s="69"/>
+      <c r="J287" s="69"/>
+      <c r="K287" s="69"/>
+      <c r="L287" s="69"/>
+      <c r="M287" s="69"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -15781,20 +16898,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="74" t="s">
+      <c r="B292" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="74"/>
-      <c r="D292" s="74"/>
-      <c r="E292" s="74"/>
-      <c r="F292" s="74"/>
-      <c r="G292" s="74"/>
-      <c r="H292" s="74"/>
-      <c r="I292" s="74"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="74"/>
-      <c r="L292" s="74"/>
-      <c r="M292" s="74"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="69"/>
+      <c r="F292" s="69"/>
+      <c r="G292" s="69"/>
+      <c r="H292" s="69"/>
+      <c r="I292" s="69"/>
+      <c r="J292" s="69"/>
+      <c r="K292" s="69"/>
+      <c r="L292" s="69"/>
+      <c r="M292" s="69"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -15825,20 +16942,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="74" t="s">
+      <c r="B294" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="74"/>
-      <c r="D294" s="74"/>
-      <c r="E294" s="74"/>
-      <c r="F294" s="74"/>
-      <c r="G294" s="74"/>
-      <c r="H294" s="74"/>
-      <c r="I294" s="74"/>
-      <c r="J294" s="74"/>
-      <c r="K294" s="74"/>
-      <c r="L294" s="74"/>
-      <c r="M294" s="74"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="69"/>
+      <c r="F294" s="69"/>
+      <c r="G294" s="69"/>
+      <c r="H294" s="69"/>
+      <c r="I294" s="69"/>
+      <c r="J294" s="69"/>
+      <c r="K294" s="69"/>
+      <c r="L294" s="69"/>
+      <c r="M294" s="69"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -15973,68 +17090,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="74" t="s">
+      <c r="B301" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="74"/>
-      <c r="D301" s="74"/>
-      <c r="E301" s="74"/>
-      <c r="F301" s="74"/>
-      <c r="G301" s="74"/>
-      <c r="H301" s="74"/>
-      <c r="I301" s="74"/>
-      <c r="J301" s="74"/>
-      <c r="K301" s="74"/>
-      <c r="L301" s="74"/>
-      <c r="M301" s="74"/>
+      <c r="C301" s="69"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="69"/>
+      <c r="F301" s="69"/>
+      <c r="G301" s="69"/>
+      <c r="H301" s="69"/>
+      <c r="I301" s="69"/>
+      <c r="J301" s="69"/>
+      <c r="K301" s="69"/>
+      <c r="L301" s="69"/>
+      <c r="M301" s="69"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="74" t="s">
+      <c r="B302" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="74"/>
-      <c r="D302" s="74"/>
-      <c r="E302" s="74"/>
-      <c r="F302" s="74"/>
-      <c r="G302" s="74"/>
-      <c r="H302" s="74"/>
-      <c r="I302" s="74"/>
-      <c r="J302" s="74"/>
-      <c r="K302" s="74"/>
-      <c r="L302" s="74"/>
-      <c r="M302" s="74"/>
+      <c r="C302" s="69"/>
+      <c r="D302" s="69"/>
+      <c r="E302" s="69"/>
+      <c r="F302" s="69"/>
+      <c r="G302" s="69"/>
+      <c r="H302" s="69"/>
+      <c r="I302" s="69"/>
+      <c r="J302" s="69"/>
+      <c r="K302" s="69"/>
+      <c r="L302" s="69"/>
+      <c r="M302" s="69"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="74" t="s">
+      <c r="B303" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="74"/>
-      <c r="D303" s="74"/>
-      <c r="E303" s="74"/>
-      <c r="F303" s="74"/>
-      <c r="G303" s="74"/>
-      <c r="H303" s="74"/>
-      <c r="I303" s="74"/>
-      <c r="J303" s="74"/>
-      <c r="K303" s="74"/>
-      <c r="L303" s="74"/>
-      <c r="M303" s="74"/>
+      <c r="C303" s="69"/>
+      <c r="D303" s="69"/>
+      <c r="E303" s="69"/>
+      <c r="F303" s="69"/>
+      <c r="G303" s="69"/>
+      <c r="H303" s="69"/>
+      <c r="I303" s="69"/>
+      <c r="J303" s="69"/>
+      <c r="K303" s="69"/>
+      <c r="L303" s="69"/>
+      <c r="M303" s="69"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="74" t="s">
+      <c r="B304" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="74"/>
-      <c r="D304" s="74"/>
-      <c r="E304" s="74"/>
-      <c r="F304" s="74"/>
-      <c r="G304" s="74"/>
-      <c r="H304" s="74"/>
-      <c r="I304" s="74"/>
-      <c r="J304" s="74"/>
-      <c r="K304" s="74"/>
-      <c r="L304" s="74"/>
-      <c r="M304" s="74"/>
+      <c r="C304" s="69"/>
+      <c r="D304" s="69"/>
+      <c r="E304" s="69"/>
+      <c r="F304" s="69"/>
+      <c r="G304" s="69"/>
+      <c r="H304" s="69"/>
+      <c r="I304" s="69"/>
+      <c r="J304" s="69"/>
+      <c r="K304" s="69"/>
+      <c r="L304" s="69"/>
+      <c r="M304" s="69"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -16051,20 +17168,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="74" t="s">
+      <c r="B306" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="74"/>
-      <c r="D306" s="74"/>
-      <c r="E306" s="74"/>
-      <c r="F306" s="74"/>
-      <c r="G306" s="74"/>
-      <c r="H306" s="74"/>
-      <c r="I306" s="74"/>
-      <c r="J306" s="74"/>
-      <c r="K306" s="74"/>
-      <c r="L306" s="74"/>
-      <c r="M306" s="74"/>
+      <c r="C306" s="69"/>
+      <c r="D306" s="69"/>
+      <c r="E306" s="69"/>
+      <c r="F306" s="69"/>
+      <c r="G306" s="69"/>
+      <c r="H306" s="69"/>
+      <c r="I306" s="69"/>
+      <c r="J306" s="69"/>
+      <c r="K306" s="69"/>
+      <c r="L306" s="69"/>
+      <c r="M306" s="69"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -16095,20 +17212,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="74" t="s">
+      <c r="B309" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="74"/>
-      <c r="D309" s="74"/>
-      <c r="E309" s="74"/>
-      <c r="F309" s="74"/>
-      <c r="G309" s="74"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="74"/>
-      <c r="J309" s="74"/>
-      <c r="K309" s="74"/>
-      <c r="L309" s="74"/>
-      <c r="M309" s="74"/>
+      <c r="C309" s="69"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="69"/>
+      <c r="F309" s="69"/>
+      <c r="G309" s="69"/>
+      <c r="H309" s="69"/>
+      <c r="I309" s="69"/>
+      <c r="J309" s="69"/>
+      <c r="K309" s="69"/>
+      <c r="L309" s="69"/>
+      <c r="M309" s="69"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -16125,20 +17242,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="74" t="s">
+      <c r="B311" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="74"/>
-      <c r="D311" s="74"/>
-      <c r="E311" s="74"/>
-      <c r="F311" s="74"/>
-      <c r="G311" s="74"/>
-      <c r="H311" s="74"/>
-      <c r="I311" s="74"/>
-      <c r="J311" s="74"/>
-      <c r="K311" s="74"/>
-      <c r="L311" s="74"/>
-      <c r="M311" s="74"/>
+      <c r="C311" s="69"/>
+      <c r="D311" s="69"/>
+      <c r="E311" s="69"/>
+      <c r="F311" s="69"/>
+      <c r="G311" s="69"/>
+      <c r="H311" s="69"/>
+      <c r="I311" s="69"/>
+      <c r="J311" s="69"/>
+      <c r="K311" s="69"/>
+      <c r="L311" s="69"/>
+      <c r="M311" s="69"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -16227,17 +17344,17 @@
       <c r="B316" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="67"/>
-      <c r="D316" s="67"/>
-      <c r="E316" s="67"/>
-      <c r="F316" s="67"/>
-      <c r="G316" s="67"/>
-      <c r="H316" s="67"/>
-      <c r="I316" s="67"/>
-      <c r="J316" s="67"/>
-      <c r="K316" s="67"/>
-      <c r="L316" s="67"/>
-      <c r="M316" s="68"/>
+      <c r="C316" s="71"/>
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
+      <c r="F316" s="71"/>
+      <c r="G316" s="71"/>
+      <c r="H316" s="71"/>
+      <c r="I316" s="71"/>
+      <c r="J316" s="71"/>
+      <c r="K316" s="71"/>
+      <c r="L316" s="71"/>
+      <c r="M316" s="72"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -16276,52 +17393,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="71" t="s">
+      <c r="B318" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="72"/>
-      <c r="D318" s="72"/>
-      <c r="E318" s="72"/>
-      <c r="F318" s="72"/>
-      <c r="G318" s="72"/>
-      <c r="H318" s="72"/>
-      <c r="I318" s="72"/>
-      <c r="J318" s="72"/>
-      <c r="K318" s="72"/>
-      <c r="L318" s="72"/>
-      <c r="M318" s="73"/>
+      <c r="C318" s="67"/>
+      <c r="D318" s="67"/>
+      <c r="E318" s="67"/>
+      <c r="F318" s="67"/>
+      <c r="G318" s="67"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="67"/>
+      <c r="J318" s="67"/>
+      <c r="K318" s="67"/>
+      <c r="L318" s="67"/>
+      <c r="M318" s="68"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="71" t="s">
+      <c r="B319" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="72"/>
-      <c r="D319" s="72"/>
-      <c r="E319" s="72"/>
-      <c r="F319" s="72"/>
-      <c r="G319" s="72"/>
-      <c r="H319" s="72"/>
-      <c r="I319" s="72"/>
-      <c r="J319" s="72"/>
-      <c r="K319" s="72"/>
-      <c r="L319" s="72"/>
-      <c r="M319" s="73"/>
+      <c r="C319" s="67"/>
+      <c r="D319" s="67"/>
+      <c r="E319" s="67"/>
+      <c r="F319" s="67"/>
+      <c r="G319" s="67"/>
+      <c r="H319" s="67"/>
+      <c r="I319" s="67"/>
+      <c r="J319" s="67"/>
+      <c r="K319" s="67"/>
+      <c r="L319" s="67"/>
+      <c r="M319" s="68"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="74" t="s">
+      <c r="B320" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="74"/>
-      <c r="D320" s="74"/>
-      <c r="E320" s="74"/>
-      <c r="F320" s="74"/>
-      <c r="G320" s="74"/>
-      <c r="H320" s="74"/>
-      <c r="I320" s="74"/>
-      <c r="J320" s="74"/>
-      <c r="K320" s="74"/>
-      <c r="L320" s="74"/>
-      <c r="M320" s="74"/>
+      <c r="C320" s="69"/>
+      <c r="D320" s="69"/>
+      <c r="E320" s="69"/>
+      <c r="F320" s="69"/>
+      <c r="G320" s="69"/>
+      <c r="H320" s="69"/>
+      <c r="I320" s="69"/>
+      <c r="J320" s="69"/>
+      <c r="K320" s="69"/>
+      <c r="L320" s="69"/>
+      <c r="M320" s="69"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -16338,20 +17455,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="71" t="s">
+      <c r="B322" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="72"/>
-      <c r="D322" s="72"/>
-      <c r="E322" s="72"/>
-      <c r="F322" s="72"/>
-      <c r="G322" s="72"/>
-      <c r="H322" s="72"/>
-      <c r="I322" s="72"/>
-      <c r="J322" s="72"/>
-      <c r="K322" s="72"/>
-      <c r="L322" s="72"/>
-      <c r="M322" s="73"/>
+      <c r="C322" s="67"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="67"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="67"/>
+      <c r="H322" s="67"/>
+      <c r="I322" s="67"/>
+      <c r="J322" s="67"/>
+      <c r="K322" s="67"/>
+      <c r="L322" s="67"/>
+      <c r="M322" s="68"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -16368,20 +17485,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="71" t="s">
+      <c r="B324" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="72"/>
-      <c r="D324" s="72"/>
-      <c r="E324" s="72"/>
-      <c r="F324" s="72"/>
-      <c r="G324" s="72"/>
-      <c r="H324" s="72"/>
-      <c r="I324" s="72"/>
-      <c r="J324" s="72"/>
-      <c r="K324" s="72"/>
-      <c r="L324" s="72"/>
-      <c r="M324" s="73"/>
+      <c r="C324" s="67"/>
+      <c r="D324" s="67"/>
+      <c r="E324" s="67"/>
+      <c r="F324" s="67"/>
+      <c r="G324" s="67"/>
+      <c r="H324" s="67"/>
+      <c r="I324" s="67"/>
+      <c r="J324" s="67"/>
+      <c r="K324" s="67"/>
+      <c r="L324" s="67"/>
+      <c r="M324" s="68"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -16412,20 +17529,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="71" t="s">
+      <c r="B327" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="72"/>
-      <c r="D327" s="72"/>
-      <c r="E327" s="72"/>
-      <c r="F327" s="72"/>
-      <c r="G327" s="72"/>
-      <c r="H327" s="72"/>
-      <c r="I327" s="72"/>
-      <c r="J327" s="72"/>
-      <c r="K327" s="72"/>
-      <c r="L327" s="72"/>
-      <c r="M327" s="73"/>
+      <c r="C327" s="67"/>
+      <c r="D327" s="67"/>
+      <c r="E327" s="67"/>
+      <c r="F327" s="67"/>
+      <c r="G327" s="67"/>
+      <c r="H327" s="67"/>
+      <c r="I327" s="67"/>
+      <c r="J327" s="67"/>
+      <c r="K327" s="67"/>
+      <c r="L327" s="67"/>
+      <c r="M327" s="68"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -16442,20 +17559,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="71" t="s">
+      <c r="B329" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="72"/>
-      <c r="D329" s="72"/>
-      <c r="E329" s="72"/>
-      <c r="F329" s="72"/>
-      <c r="G329" s="72"/>
-      <c r="H329" s="72"/>
-      <c r="I329" s="72"/>
-      <c r="J329" s="72"/>
-      <c r="K329" s="72"/>
-      <c r="L329" s="72"/>
-      <c r="M329" s="73"/>
+      <c r="C329" s="67"/>
+      <c r="D329" s="67"/>
+      <c r="E329" s="67"/>
+      <c r="F329" s="67"/>
+      <c r="G329" s="67"/>
+      <c r="H329" s="67"/>
+      <c r="I329" s="67"/>
+      <c r="J329" s="67"/>
+      <c r="K329" s="67"/>
+      <c r="L329" s="67"/>
+      <c r="M329" s="68"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -16620,99 +17737,6 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -16732,6 +17756,99 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17517,20 +18634,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18509,20 +19626,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -20141,7 +21258,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20163,7 +21280,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -20697,8 +21814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20720,7 +21837,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -21478,6 +22595,768 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42016</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3</f>
+        <v>42016</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>42016</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3</f>
+        <v>42016</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <f>G3/J3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42016</v>
+      </c>
+      <c r="F4" s="9">
+        <v>42016</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>42016</v>
+      </c>
+      <c r="I4" s="9">
+        <v>42016</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="K4" s="20">
+        <f>G4/J4</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42017</v>
+      </c>
+      <c r="F5" s="9">
+        <v>42018</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>42017</v>
+      </c>
+      <c r="I5" s="9">
+        <v>42018</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="K5" s="20">
+        <f>G5/J5</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42017</v>
+      </c>
+      <c r="F6" s="9">
+        <v>42021</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>42017</v>
+      </c>
+      <c r="I6" s="9">
+        <v>42023</v>
+      </c>
+      <c r="J6" s="19">
+        <v>9</v>
+      </c>
+      <c r="K6" s="20">
+        <f>G6/J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42017</v>
+      </c>
+      <c r="F7" s="9">
+        <v>42022</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>42017</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42022</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
+        <f>G7/J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42017</v>
+      </c>
+      <c r="F8" s="9">
+        <v>42021</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>42017</v>
+      </c>
+      <c r="I8" s="9">
+        <v>42022</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8" s="20">
+        <f>G8/J8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42016</v>
+      </c>
+      <c r="F9" s="9">
+        <v>42017</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
+        <v>42024</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42024</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="20">
+        <f>G9/J9</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42019</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42019</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42019</v>
+      </c>
+      <c r="I10" s="26">
+        <v>42019</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4</v>
+      </c>
+      <c r="K10" s="20">
+        <f>G10/J10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44">
+        <v>42018</v>
+      </c>
+      <c r="F11" s="44">
+        <v>42018</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="44">
+        <v>42018</v>
+      </c>
+      <c r="I11" s="44">
+        <v>42018</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
+        <f>G11/J11</f>
+        <v>1.125</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42016</v>
+      </c>
+      <c r="F12" s="9">
+        <v>42018</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42016</v>
+      </c>
+      <c r="I12" s="80">
+        <v>42021</v>
+      </c>
+      <c r="J12" s="33">
+        <v>2</v>
+      </c>
+      <c r="K12" s="10">
+        <f>G12/J12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42025</v>
+      </c>
+      <c r="F13" s="9">
+        <v>42025</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>42025</v>
+      </c>
+      <c r="I13" s="9">
+        <v>42025</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K13" s="10">
+        <f>G13/J13</f>
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <v>42027</v>
+      </c>
+      <c r="F14" s="44">
+        <v>42028</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3</v>
+      </c>
+      <c r="H14" s="44">
+        <v>42027</v>
+      </c>
+      <c r="I14" s="44">
+        <v>42028</v>
+      </c>
+      <c r="J14" s="12">
+        <v>3</v>
+      </c>
+      <c r="K14" s="81">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>42025</v>
+      </c>
+      <c r="F15" s="39">
+        <v>42025</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="39">
+        <v>42025</v>
+      </c>
+      <c r="I15" s="39">
+        <v>42025</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="K15" s="14">
+        <f>G15/J15</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="39">
+        <v>42019</v>
+      </c>
+      <c r="F16" s="39">
+        <v>42019</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39">
+        <v>42019</v>
+      </c>
+      <c r="I16" s="39">
+        <v>42019</v>
+      </c>
+      <c r="J16" s="40">
+        <v>1</v>
+      </c>
+      <c r="K16" s="41">
+        <f>G16/J16</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="39">
+        <v>42023</v>
+      </c>
+      <c r="F17" s="39">
+        <v>42023</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="39">
+        <v>42023</v>
+      </c>
+      <c r="I17" s="39">
+        <v>42023</v>
+      </c>
+      <c r="J17" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="41">
+        <f>G17/J17</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42029</v>
+      </c>
+      <c r="F18" s="9">
+        <v>42029</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>42029</v>
+      </c>
+      <c r="I18" s="9">
+        <v>42029</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="K18" s="20">
+        <f>G18/J18</f>
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42029</v>
+      </c>
+      <c r="F19" s="9">
+        <v>42029</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>42029</v>
+      </c>
+      <c r="I19" s="9">
+        <v>42029</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="20">
+        <f>G19/J19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Schedule" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Iteration 5" sheetId="11" r:id="rId6"/>
     <sheet name="Iteration 6" sheetId="14" r:id="rId7"/>
     <sheet name="Iteration 7" sheetId="15" r:id="rId8"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId9"/>
+    <sheet name="Iteration 8" sheetId="16" r:id="rId9"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="257">
   <si>
     <t>Project Intilization (5 July 2014 - 17 July 2014)</t>
   </si>
@@ -768,6 +769,51 @@
   </si>
   <si>
     <t>Supervisor Meeting 3</t>
+  </si>
+  <si>
+    <t>Edit scenario - state desc, medication, reports, etc</t>
+  </si>
+  <si>
+    <t>Gladys, Jocelyn</t>
+  </si>
+  <si>
+    <t>Responsive web page - viewPatientInfo</t>
+  </si>
+  <si>
+    <t>Changes based on UT - Charts</t>
+  </si>
+  <si>
+    <t>Changes based on UT - Input and Output Chart</t>
+  </si>
+  <si>
+    <t>Changes based on UT -  Medication tab, add verified medication, administer tab</t>
+  </si>
+  <si>
+    <t>Ad hoc tasks - Medication to show previous medications based on activated state</t>
+  </si>
+  <si>
+    <t>29-Feb-2015</t>
+  </si>
+  <si>
+    <t>Ad hoc tasks - Doctor's order to show all doctor's order based on activated state</t>
+  </si>
+  <si>
+    <t>Ad hoc tasks - Medication to discontinue and disabled after it reaches a certain state</t>
+  </si>
+  <si>
+    <t>Generation of test scenarios for functionalities in Iteration 8</t>
+  </si>
+  <si>
+    <t>Internal Meeting 17</t>
+  </si>
+  <si>
+    <t>Client Meeting 10</t>
+  </si>
+  <si>
+    <t>Preparation for midterms - individual slides</t>
+  </si>
+  <si>
+    <t>Observation for Beta Release</t>
   </si>
 </sst>
 </file>
@@ -850,7 +896,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1091,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1230,6 +1282,27 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1241,21 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1272,10 +1330,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1591,11 +1649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1277981920"/>
-        <c:axId val="-1277976480"/>
+        <c:axId val="-164824976"/>
+        <c:axId val="-164832592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277981920"/>
+        <c:axId val="-164824976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277976480"/>
+        <c:crossAx val="-164832592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277976480"/>
+        <c:axId val="-164832592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1698,7 +1756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277981920"/>
+        <c:crossAx val="-164824976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2109,11 +2167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1277975392"/>
-        <c:axId val="-1277981376"/>
+        <c:axId val="-164830416"/>
+        <c:axId val="-164828784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277975392"/>
+        <c:axId val="-164830416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277981376"/>
+        <c:crossAx val="-164828784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2164,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277981376"/>
+        <c:axId val="-164828784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2216,7 +2274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277975392"/>
+        <c:crossAx val="-164830416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2609,11 +2667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1277972128"/>
-        <c:axId val="-1277971584"/>
+        <c:axId val="-365611696"/>
+        <c:axId val="-365621488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277972128"/>
+        <c:axId val="-365611696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277971584"/>
+        <c:crossAx val="-365621488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,7 +2722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277971584"/>
+        <c:axId val="-365621488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2716,7 +2774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277972128"/>
+        <c:crossAx val="-365611696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3079,11 +3137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1647750192"/>
-        <c:axId val="-1647757808"/>
+        <c:axId val="-365616048"/>
+        <c:axId val="-365622576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647750192"/>
+        <c:axId val="-365616048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647757808"/>
+        <c:crossAx val="-365622576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +3192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647757808"/>
+        <c:axId val="-365622576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3186,7 +3244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647750192"/>
+        <c:crossAx val="-365616048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3309,7 +3367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3412,7 +3469,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3533,11 +3589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1647749648"/>
-        <c:axId val="-1647748016"/>
+        <c:axId val="-365618768"/>
+        <c:axId val="-365620400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647749648"/>
+        <c:axId val="-365618768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3580,7 +3636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647748016"/>
+        <c:crossAx val="-365620400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3588,7 +3644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647748016"/>
+        <c:axId val="-365620400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3640,7 +3696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1647749648"/>
+        <c:crossAx val="-365618768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3655,7 +3711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3764,7 +3819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3867,7 +3921,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4024,11 +4077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1102598912"/>
-        <c:axId val="-1102591840"/>
+        <c:axId val="-365617136"/>
+        <c:axId val="-365614960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1102598912"/>
+        <c:axId val="-365617136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,7 +4124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1102591840"/>
+        <c:crossAx val="-365614960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4079,7 +4132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1102591840"/>
+        <c:axId val="-365614960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4131,7 +4184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1102598912"/>
+        <c:crossAx val="-365617136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4146,7 +4199,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4509,11 +4561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1102591296"/>
-        <c:axId val="-1102594016"/>
+        <c:axId val="-574819104"/>
+        <c:axId val="-574817472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1102591296"/>
+        <c:axId val="-574819104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4556,7 +4608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1102594016"/>
+        <c:crossAx val="-574817472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4564,7 +4616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1102594016"/>
+        <c:axId val="-574817472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4616,7 +4668,516 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1102591296"/>
+        <c:crossAx val="-574819104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 8'!$B$3:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Internal Meeting 18- Review Requirements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update sequence diagram</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Edit scenario - state desc, medication, reports, etc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Responsive web page - viewPatientInfo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Changes based on UT - Charts</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Changes based on UT - Input and Output Chart</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Changes based on UT -  Medication tab, add verified medication, administer tab</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ad hoc tasks - Medication to show previous medications based on activated state</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ad hoc tasks - Doctor's order to show all doctor's order based on activated state</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ad hoc tasks - Medication to discontinue and disabled after it reaches a certain state</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation of test scenarios for functionalities in Iteration 8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Internal Meeting 17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Client Meeting 10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Preparation for midterms - individual slides</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Observation for Beta Release</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 8'!$K$3:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-574829984"/>
+        <c:axId val="-574819648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-574829984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-574819648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-574819648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-574829984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4939,6 +5500,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8499,6 +9100,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8720,6 +9824,43 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9230,28 +10371,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -9716,26 +10857,26 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="73" t="s">
+      <c r="O14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -10322,25 +11463,25 @@
       </c>
     </row>
     <row r="31" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
       <c r="L31" s="21"/>
       <c r="M31" s="22"/>
-      <c r="O31" s="73" t="s">
+      <c r="O31" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
     </row>
     <row r="32" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -10388,20 +11529,20 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
       <c r="O33" s="7" t="s">
         <v>18</v>
       </c>
@@ -10463,20 +11604,20 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="68"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
       <c r="O35" s="7" t="s">
         <v>24</v>
       </c>
@@ -10538,20 +11679,20 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="68"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="75"/>
       <c r="O37" s="7" t="s">
         <v>30</v>
       </c>
@@ -10734,11 +11875,11 @@
       <c r="M41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="73" t="s">
+      <c r="O41" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
@@ -10834,20 +11975,20 @@
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="68"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="75"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
@@ -10968,20 +12109,20 @@
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="68"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="75"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
@@ -11024,20 +12165,20 @@
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="68"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="75"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
@@ -11236,25 +12377,25 @@
       </c>
     </row>
     <row r="57" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="72"/>
-      <c r="O57" s="73" t="s">
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="70"/>
+      <c r="O57" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
     </row>
     <row r="58" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
@@ -11302,20 +12443,20 @@
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="68"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="75"/>
       <c r="O59" s="7" t="s">
         <v>18</v>
       </c>
@@ -11369,20 +12510,20 @@
       </c>
     </row>
     <row r="61" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
       <c r="O61" s="7" t="s">
         <v>24</v>
       </c>
@@ -11475,20 +12616,20 @@
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="68"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="75"/>
       <c r="O64" s="12" t="s">
         <v>15</v>
       </c>
@@ -11644,20 +12785,20 @@
       <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="68"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="75"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
@@ -11688,20 +12829,20 @@
       <c r="M71" s="7"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="68"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="75"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
@@ -11761,20 +12902,20 @@
       <c r="M74" s="7"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="68"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="75"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
@@ -11805,20 +12946,20 @@
       <c r="M76" s="7"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="68"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="75"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
@@ -11990,25 +13131,25 @@
       <c r="M83" s="7"/>
     </row>
     <row r="85" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="70"/>
-      <c r="O85" s="73" t="s">
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="O85" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
     </row>
     <row r="86" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
@@ -12054,20 +13195,20 @@
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="69" t="s">
+      <c r="B87" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="76"/>
+      <c r="M87" s="76"/>
       <c r="O87" s="7" t="s">
         <v>18</v>
       </c>
@@ -12121,20 +13262,20 @@
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="76"/>
       <c r="O89" s="7" t="s">
         <v>24</v>
       </c>
@@ -12226,20 +13367,20 @@
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="69" t="s">
+      <c r="B92" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="76"/>
+      <c r="M92" s="76"/>
       <c r="O92" s="12" t="s">
         <v>15</v>
       </c>
@@ -12341,20 +13482,20 @@
       <c r="M95" s="18"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="69"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
+      <c r="K96" s="76"/>
+      <c r="L96" s="76"/>
+      <c r="M96" s="76"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
@@ -12385,20 +13526,20 @@
       <c r="M97" s="18"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="69" t="s">
+      <c r="B98" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-      <c r="L98" s="69"/>
-      <c r="M98" s="69"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
@@ -12514,20 +13655,20 @@
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="69"/>
-      <c r="I103" s="69"/>
-      <c r="J103" s="69"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="69"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="76"/>
+      <c r="M103" s="76"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="27">
@@ -12558,20 +13699,20 @@
       <c r="M104" s="18"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="69" t="s">
+      <c r="B105" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
-      <c r="H105" s="69"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="69"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="76"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
@@ -12733,25 +13874,25 @@
       <c r="M111" s="35"/>
     </row>
     <row r="113" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B113" s="70" t="s">
+      <c r="B113" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="70"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="70"/>
-      <c r="M113" s="70"/>
-      <c r="O113" s="73" t="s">
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
+      <c r="L113" s="72"/>
+      <c r="M113" s="72"/>
+      <c r="O113" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="P113" s="73"/>
-      <c r="Q113" s="73"/>
+      <c r="P113" s="71"/>
+      <c r="Q113" s="71"/>
     </row>
     <row r="114" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -12797,20 +13938,20 @@
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="69" t="s">
+      <c r="B115" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="69"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
       <c r="O115" s="7" t="s">
         <v>18</v>
       </c>
@@ -12864,20 +14005,20 @@
       </c>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="69" t="s">
+      <c r="B117" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="69"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="76"/>
       <c r="O117" s="7" t="s">
         <v>24</v>
       </c>
@@ -12969,20 +14110,20 @@
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="69" t="s">
+      <c r="B120" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
-      <c r="H120" s="69"/>
-      <c r="I120" s="69"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="69"/>
-      <c r="L120" s="69"/>
-      <c r="M120" s="69"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="76"/>
       <c r="O120" s="12" t="s">
         <v>15</v>
       </c>
@@ -13082,20 +14223,20 @@
       <c r="M123" s="18"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="69" t="s">
+      <c r="B124" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="69"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="69"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="76"/>
+      <c r="M124" s="76"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
@@ -13126,20 +14267,20 @@
       <c r="M125" s="18"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="69" t="s">
+      <c r="B126" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="69"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="76"/>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
@@ -13199,20 +14340,20 @@
       <c r="M128" s="18"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="69" t="s">
+      <c r="B129" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="69"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="76"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="27">
@@ -13243,20 +14384,20 @@
       <c r="M130" s="18"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="69" t="s">
+      <c r="B131" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
+      <c r="I131" s="76"/>
+      <c r="J131" s="76"/>
+      <c r="K131" s="76"/>
+      <c r="L131" s="76"/>
+      <c r="M131" s="76"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
@@ -13418,20 +14559,20 @@
       <c r="M137" s="35"/>
     </row>
     <row r="139" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B139" s="70" t="s">
+      <c r="B139" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="70"/>
-      <c r="J139" s="70"/>
-      <c r="K139" s="70"/>
-      <c r="L139" s="70"/>
-      <c r="M139" s="70"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="72"/>
+      <c r="F139" s="72"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
     </row>
     <row r="140" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
@@ -13470,20 +14611,20 @@
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="69" t="s">
+      <c r="B141" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="69"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="69"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="69"/>
-      <c r="J141" s="69"/>
-      <c r="K141" s="69"/>
-      <c r="L141" s="69"/>
-      <c r="M141" s="69"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="76"/>
+      <c r="L141" s="76"/>
+      <c r="M141" s="76"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
@@ -13515,20 +14656,20 @@
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="69" t="s">
+      <c r="B143" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="69"/>
-      <c r="J143" s="69"/>
-      <c r="K143" s="69"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="69"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
+      <c r="I143" s="76"/>
+      <c r="J143" s="76"/>
+      <c r="K143" s="76"/>
+      <c r="L143" s="76"/>
+      <c r="M143" s="76"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
@@ -13587,20 +14728,20 @@
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="69"/>
-      <c r="F146" s="69"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="69"/>
-      <c r="I146" s="69"/>
-      <c r="J146" s="69"/>
-      <c r="K146" s="69"/>
-      <c r="L146" s="69"/>
-      <c r="M146" s="69"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="76"/>
+      <c r="E146" s="76"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="76"/>
+      <c r="H146" s="76"/>
+      <c r="I146" s="76"/>
+      <c r="J146" s="76"/>
+      <c r="K146" s="76"/>
+      <c r="L146" s="76"/>
+      <c r="M146" s="76"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
@@ -13747,20 +14888,20 @@
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="69" t="s">
+      <c r="B152" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="69"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="69"/>
-      <c r="L152" s="69"/>
-      <c r="M152" s="69"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="76"/>
+      <c r="I152" s="76"/>
+      <c r="J152" s="76"/>
+      <c r="K152" s="76"/>
+      <c r="L152" s="76"/>
+      <c r="M152" s="76"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
@@ -13791,20 +14932,20 @@
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="69" t="s">
+      <c r="B154" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="69"/>
-      <c r="I154" s="69"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="69"/>
-      <c r="L154" s="69"/>
-      <c r="M154" s="69"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="76"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="76"/>
+      <c r="K154" s="76"/>
+      <c r="L154" s="76"/>
+      <c r="M154" s="76"/>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
@@ -13864,20 +15005,20 @@
       <c r="M156" s="18"/>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="69" t="s">
+      <c r="B157" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="69"/>
-      <c r="J157" s="69"/>
-      <c r="K157" s="69"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="69"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="76"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="76"/>
+      <c r="I157" s="76"/>
+      <c r="J157" s="76"/>
+      <c r="K157" s="76"/>
+      <c r="L157" s="76"/>
+      <c r="M157" s="76"/>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="27">
@@ -13908,20 +15049,20 @@
       <c r="M158" s="18"/>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="69" t="s">
+      <c r="B159" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="69"/>
-      <c r="J159" s="69"/>
-      <c r="K159" s="69"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="69"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="76"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="76"/>
+      <c r="H159" s="76"/>
+      <c r="I159" s="76"/>
+      <c r="J159" s="76"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="76"/>
+      <c r="M159" s="76"/>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
@@ -14000,20 +15141,20 @@
       <c r="M162" s="18"/>
     </row>
     <row r="165" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="70" t="s">
+      <c r="B165" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="C165" s="70"/>
-      <c r="D165" s="70"/>
-      <c r="E165" s="70"/>
-      <c r="F165" s="70"/>
-      <c r="G165" s="70"/>
-      <c r="H165" s="70"/>
-      <c r="I165" s="70"/>
-      <c r="J165" s="70"/>
-      <c r="K165" s="70"/>
-      <c r="L165" s="70"/>
-      <c r="M165" s="70"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="72"/>
+      <c r="F165" s="72"/>
+      <c r="G165" s="72"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="72"/>
+      <c r="K165" s="72"/>
+      <c r="L165" s="72"/>
+      <c r="M165" s="72"/>
     </row>
     <row r="166" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
@@ -14052,20 +15193,20 @@
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="69" t="s">
+      <c r="B167" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="69"/>
-      <c r="J167" s="69"/>
-      <c r="K167" s="69"/>
-      <c r="L167" s="69"/>
-      <c r="M167" s="69"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="76"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="76"/>
+      <c r="I167" s="76"/>
+      <c r="J167" s="76"/>
+      <c r="K167" s="76"/>
+      <c r="L167" s="76"/>
+      <c r="M167" s="76"/>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
@@ -14097,20 +15238,20 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="69" t="s">
+      <c r="B169" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="69"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="69"/>
-      <c r="J169" s="69"/>
-      <c r="K169" s="69"/>
-      <c r="L169" s="69"/>
-      <c r="M169" s="69"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="76"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="76"/>
+      <c r="I169" s="76"/>
+      <c r="J169" s="76"/>
+      <c r="K169" s="76"/>
+      <c r="L169" s="76"/>
+      <c r="M169" s="76"/>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
@@ -14169,20 +15310,20 @@
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="69" t="s">
+      <c r="B172" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C172" s="69"/>
-      <c r="D172" s="69"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="69"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="69"/>
-      <c r="J172" s="69"/>
-      <c r="K172" s="69"/>
-      <c r="L172" s="69"/>
-      <c r="M172" s="69"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="76"/>
+      <c r="J172" s="76"/>
+      <c r="K172" s="76"/>
+      <c r="L172" s="76"/>
+      <c r="M172" s="76"/>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
@@ -14242,20 +15383,20 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="69" t="s">
+      <c r="B175" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="69"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="69"/>
-      <c r="L175" s="69"/>
-      <c r="M175" s="69"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="76"/>
+      <c r="F175" s="76"/>
+      <c r="G175" s="76"/>
+      <c r="H175" s="76"/>
+      <c r="I175" s="76"/>
+      <c r="J175" s="76"/>
+      <c r="K175" s="76"/>
+      <c r="L175" s="76"/>
+      <c r="M175" s="76"/>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
@@ -14286,20 +15427,20 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="69" t="s">
+      <c r="B177" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="69"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="69"/>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
-      <c r="J177" s="69"/>
-      <c r="K177" s="69"/>
-      <c r="L177" s="69"/>
-      <c r="M177" s="69"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="76"/>
+      <c r="E177" s="76"/>
+      <c r="F177" s="76"/>
+      <c r="G177" s="76"/>
+      <c r="H177" s="76"/>
+      <c r="I177" s="76"/>
+      <c r="J177" s="76"/>
+      <c r="K177" s="76"/>
+      <c r="L177" s="76"/>
+      <c r="M177" s="76"/>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
@@ -14359,20 +15500,20 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="69" t="s">
+      <c r="B180" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
-      <c r="F180" s="69"/>
-      <c r="G180" s="69"/>
-      <c r="H180" s="69"/>
-      <c r="I180" s="69"/>
-      <c r="J180" s="69"/>
-      <c r="K180" s="69"/>
-      <c r="L180" s="69"/>
-      <c r="M180" s="69"/>
+      <c r="C180" s="76"/>
+      <c r="D180" s="76"/>
+      <c r="E180" s="76"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="76"/>
+      <c r="H180" s="76"/>
+      <c r="I180" s="76"/>
+      <c r="J180" s="76"/>
+      <c r="K180" s="76"/>
+      <c r="L180" s="76"/>
+      <c r="M180" s="76"/>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="27">
@@ -14403,20 +15544,20 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="69" t="s">
+      <c r="B182" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="69"/>
-      <c r="D182" s="69"/>
-      <c r="E182" s="69"/>
-      <c r="F182" s="69"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="69"/>
-      <c r="I182" s="69"/>
-      <c r="J182" s="69"/>
-      <c r="K182" s="69"/>
-      <c r="L182" s="69"/>
-      <c r="M182" s="69"/>
+      <c r="C182" s="76"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="76"/>
+      <c r="H182" s="76"/>
+      <c r="I182" s="76"/>
+      <c r="J182" s="76"/>
+      <c r="K182" s="76"/>
+      <c r="L182" s="76"/>
+      <c r="M182" s="76"/>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
@@ -14495,20 +15636,20 @@
       <c r="M185" s="18"/>
     </row>
     <row r="187" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B187" s="70" t="s">
+      <c r="B187" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C187" s="70"/>
-      <c r="D187" s="70"/>
-      <c r="E187" s="70"/>
-      <c r="F187" s="70"/>
-      <c r="G187" s="70"/>
-      <c r="H187" s="70"/>
-      <c r="I187" s="70"/>
-      <c r="J187" s="70"/>
-      <c r="K187" s="70"/>
-      <c r="L187" s="70"/>
-      <c r="M187" s="70"/>
+      <c r="C187" s="72"/>
+      <c r="D187" s="72"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72"/>
+      <c r="G187" s="72"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="72"/>
+      <c r="K187" s="72"/>
+      <c r="L187" s="72"/>
+      <c r="M187" s="72"/>
     </row>
     <row r="188" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B188" s="3" t="s">
@@ -14547,20 +15688,20 @@
       </c>
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="69" t="s">
+      <c r="B189" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="69"/>
-      <c r="D189" s="69"/>
-      <c r="E189" s="69"/>
-      <c r="F189" s="69"/>
-      <c r="G189" s="69"/>
-      <c r="H189" s="69"/>
-      <c r="I189" s="69"/>
-      <c r="J189" s="69"/>
-      <c r="K189" s="69"/>
-      <c r="L189" s="69"/>
-      <c r="M189" s="69"/>
+      <c r="C189" s="76"/>
+      <c r="D189" s="76"/>
+      <c r="E189" s="76"/>
+      <c r="F189" s="76"/>
+      <c r="G189" s="76"/>
+      <c r="H189" s="76"/>
+      <c r="I189" s="76"/>
+      <c r="J189" s="76"/>
+      <c r="K189" s="76"/>
+      <c r="L189" s="76"/>
+      <c r="M189" s="76"/>
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
@@ -14592,20 +15733,20 @@
       <c r="M190" s="18"/>
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="69" t="s">
+      <c r="B191" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C191" s="69"/>
-      <c r="D191" s="69"/>
-      <c r="E191" s="69"/>
-      <c r="F191" s="69"/>
-      <c r="G191" s="69"/>
-      <c r="H191" s="69"/>
-      <c r="I191" s="69"/>
-      <c r="J191" s="69"/>
-      <c r="K191" s="69"/>
-      <c r="L191" s="69"/>
-      <c r="M191" s="69"/>
+      <c r="C191" s="76"/>
+      <c r="D191" s="76"/>
+      <c r="E191" s="76"/>
+      <c r="F191" s="76"/>
+      <c r="G191" s="76"/>
+      <c r="H191" s="76"/>
+      <c r="I191" s="76"/>
+      <c r="J191" s="76"/>
+      <c r="K191" s="76"/>
+      <c r="L191" s="76"/>
+      <c r="M191" s="76"/>
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
@@ -14664,20 +15805,20 @@
       <c r="M193" s="18"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="69" t="s">
+      <c r="B194" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69"/>
-      <c r="E194" s="69"/>
-      <c r="F194" s="69"/>
-      <c r="G194" s="69"/>
-      <c r="H194" s="69"/>
-      <c r="I194" s="69"/>
-      <c r="J194" s="69"/>
-      <c r="K194" s="69"/>
-      <c r="L194" s="69"/>
-      <c r="M194" s="69"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="76"/>
+      <c r="E194" s="76"/>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="76"/>
+      <c r="I194" s="76"/>
+      <c r="J194" s="76"/>
+      <c r="K194" s="76"/>
+      <c r="L194" s="76"/>
+      <c r="M194" s="76"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
@@ -14736,20 +15877,20 @@
       <c r="M196" s="18"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="69" t="s">
+      <c r="B197" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C197" s="69"/>
-      <c r="D197" s="69"/>
-      <c r="E197" s="69"/>
-      <c r="F197" s="69"/>
-      <c r="G197" s="69"/>
-      <c r="H197" s="69"/>
-      <c r="I197" s="69"/>
-      <c r="J197" s="69"/>
-      <c r="K197" s="69"/>
-      <c r="L197" s="69"/>
-      <c r="M197" s="69"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="76"/>
+      <c r="G197" s="76"/>
+      <c r="H197" s="76"/>
+      <c r="I197" s="76"/>
+      <c r="J197" s="76"/>
+      <c r="K197" s="76"/>
+      <c r="L197" s="76"/>
+      <c r="M197" s="76"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
@@ -14780,20 +15921,20 @@
       <c r="M198" s="18"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="69" t="s">
+      <c r="B199" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
-      <c r="F199" s="69"/>
-      <c r="G199" s="69"/>
-      <c r="H199" s="69"/>
-      <c r="I199" s="69"/>
-      <c r="J199" s="69"/>
-      <c r="K199" s="69"/>
-      <c r="L199" s="69"/>
-      <c r="M199" s="69"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76"/>
+      <c r="F199" s="76"/>
+      <c r="G199" s="76"/>
+      <c r="H199" s="76"/>
+      <c r="I199" s="76"/>
+      <c r="J199" s="76"/>
+      <c r="K199" s="76"/>
+      <c r="L199" s="76"/>
+      <c r="M199" s="76"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
@@ -14908,20 +16049,20 @@
       <c r="M203" s="34"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="69" t="s">
+      <c r="B204" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C204" s="69"/>
-      <c r="D204" s="69"/>
-      <c r="E204" s="69"/>
-      <c r="F204" s="69"/>
-      <c r="G204" s="69"/>
-      <c r="H204" s="69"/>
-      <c r="I204" s="69"/>
-      <c r="J204" s="69"/>
-      <c r="K204" s="69"/>
-      <c r="L204" s="69"/>
-      <c r="M204" s="69"/>
+      <c r="C204" s="76"/>
+      <c r="D204" s="76"/>
+      <c r="E204" s="76"/>
+      <c r="F204" s="76"/>
+      <c r="G204" s="76"/>
+      <c r="H204" s="76"/>
+      <c r="I204" s="76"/>
+      <c r="J204" s="76"/>
+      <c r="K204" s="76"/>
+      <c r="L204" s="76"/>
+      <c r="M204" s="76"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="27">
@@ -14952,20 +16093,20 @@
       <c r="M205" s="18"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="69" t="s">
+      <c r="B206" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C206" s="69"/>
-      <c r="D206" s="69"/>
-      <c r="E206" s="69"/>
-      <c r="F206" s="69"/>
-      <c r="G206" s="69"/>
-      <c r="H206" s="69"/>
-      <c r="I206" s="69"/>
-      <c r="J206" s="69"/>
-      <c r="K206" s="69"/>
-      <c r="L206" s="69"/>
-      <c r="M206" s="69"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="76"/>
+      <c r="E206" s="76"/>
+      <c r="F206" s="76"/>
+      <c r="G206" s="76"/>
+      <c r="H206" s="76"/>
+      <c r="I206" s="76"/>
+      <c r="J206" s="76"/>
+      <c r="K206" s="76"/>
+      <c r="L206" s="76"/>
+      <c r="M206" s="76"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
@@ -15072,20 +16213,20 @@
       <c r="M210" s="18"/>
     </row>
     <row r="212" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B212" s="70" t="s">
+      <c r="B212" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C212" s="70"/>
-      <c r="D212" s="70"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="70"/>
-      <c r="G212" s="70"/>
-      <c r="H212" s="70"/>
-      <c r="I212" s="70"/>
-      <c r="J212" s="70"/>
-      <c r="K212" s="70"/>
-      <c r="L212" s="70"/>
-      <c r="M212" s="70"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
     </row>
     <row r="213" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -15124,20 +16265,20 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="69" t="s">
+      <c r="B214" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C214" s="69"/>
-      <c r="D214" s="69"/>
-      <c r="E214" s="69"/>
-      <c r="F214" s="69"/>
-      <c r="G214" s="69"/>
-      <c r="H214" s="69"/>
-      <c r="I214" s="69"/>
-      <c r="J214" s="69"/>
-      <c r="K214" s="69"/>
-      <c r="L214" s="69"/>
-      <c r="M214" s="69"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="76"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="76"/>
+      <c r="J214" s="76"/>
+      <c r="K214" s="76"/>
+      <c r="L214" s="76"/>
+      <c r="M214" s="76"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
@@ -15169,20 +16310,20 @@
       <c r="M215" s="18"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="69" t="s">
+      <c r="B216" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="69"/>
-      <c r="D216" s="69"/>
-      <c r="E216" s="69"/>
-      <c r="F216" s="69"/>
-      <c r="G216" s="69"/>
-      <c r="H216" s="69"/>
-      <c r="I216" s="69"/>
-      <c r="J216" s="69"/>
-      <c r="K216" s="69"/>
-      <c r="L216" s="69"/>
-      <c r="M216" s="69"/>
+      <c r="C216" s="76"/>
+      <c r="D216" s="76"/>
+      <c r="E216" s="76"/>
+      <c r="F216" s="76"/>
+      <c r="G216" s="76"/>
+      <c r="H216" s="76"/>
+      <c r="I216" s="76"/>
+      <c r="J216" s="76"/>
+      <c r="K216" s="76"/>
+      <c r="L216" s="76"/>
+      <c r="M216" s="76"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
@@ -15241,20 +16382,20 @@
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="69" t="s">
+      <c r="B219" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C219" s="69"/>
-      <c r="D219" s="69"/>
-      <c r="E219" s="69"/>
-      <c r="F219" s="69"/>
-      <c r="G219" s="69"/>
-      <c r="H219" s="69"/>
-      <c r="I219" s="69"/>
-      <c r="J219" s="69"/>
-      <c r="K219" s="69"/>
-      <c r="L219" s="69"/>
-      <c r="M219" s="69"/>
+      <c r="C219" s="76"/>
+      <c r="D219" s="76"/>
+      <c r="E219" s="76"/>
+      <c r="F219" s="76"/>
+      <c r="G219" s="76"/>
+      <c r="H219" s="76"/>
+      <c r="I219" s="76"/>
+      <c r="J219" s="76"/>
+      <c r="K219" s="76"/>
+      <c r="L219" s="76"/>
+      <c r="M219" s="76"/>
     </row>
     <row r="220" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
@@ -15316,20 +16457,20 @@
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="69" t="s">
+      <c r="B222" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C222" s="69"/>
-      <c r="D222" s="69"/>
-      <c r="E222" s="69"/>
-      <c r="F222" s="69"/>
-      <c r="G222" s="69"/>
-      <c r="H222" s="69"/>
-      <c r="I222" s="69"/>
-      <c r="J222" s="69"/>
-      <c r="K222" s="69"/>
-      <c r="L222" s="69"/>
-      <c r="M222" s="69"/>
+      <c r="C222" s="76"/>
+      <c r="D222" s="76"/>
+      <c r="E222" s="76"/>
+      <c r="F222" s="76"/>
+      <c r="G222" s="76"/>
+      <c r="H222" s="76"/>
+      <c r="I222" s="76"/>
+      <c r="J222" s="76"/>
+      <c r="K222" s="76"/>
+      <c r="L222" s="76"/>
+      <c r="M222" s="76"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
@@ -15360,20 +16501,20 @@
       <c r="M223" s="18"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="69" t="s">
+      <c r="B224" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="69"/>
-      <c r="D224" s="69"/>
-      <c r="E224" s="69"/>
-      <c r="F224" s="69"/>
-      <c r="G224" s="69"/>
-      <c r="H224" s="69"/>
-      <c r="I224" s="69"/>
-      <c r="J224" s="69"/>
-      <c r="K224" s="69"/>
-      <c r="L224" s="69"/>
-      <c r="M224" s="69"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="76"/>
+      <c r="F224" s="76"/>
+      <c r="G224" s="76"/>
+      <c r="H224" s="76"/>
+      <c r="I224" s="76"/>
+      <c r="J224" s="76"/>
+      <c r="K224" s="76"/>
+      <c r="L224" s="76"/>
+      <c r="M224" s="76"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
@@ -15433,20 +16574,20 @@
       <c r="M226" s="18"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="69" t="s">
+      <c r="B227" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
-      <c r="F227" s="69"/>
-      <c r="G227" s="69"/>
-      <c r="H227" s="69"/>
-      <c r="I227" s="69"/>
-      <c r="J227" s="69"/>
-      <c r="K227" s="69"/>
-      <c r="L227" s="69"/>
-      <c r="M227" s="69"/>
+      <c r="C227" s="76"/>
+      <c r="D227" s="76"/>
+      <c r="E227" s="76"/>
+      <c r="F227" s="76"/>
+      <c r="G227" s="76"/>
+      <c r="H227" s="76"/>
+      <c r="I227" s="76"/>
+      <c r="J227" s="76"/>
+      <c r="K227" s="76"/>
+      <c r="L227" s="76"/>
+      <c r="M227" s="76"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="27">
@@ -15477,20 +16618,20 @@
       <c r="M228" s="18"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="69" t="s">
+      <c r="B229" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C229" s="69"/>
-      <c r="D229" s="69"/>
-      <c r="E229" s="69"/>
-      <c r="F229" s="69"/>
-      <c r="G229" s="69"/>
-      <c r="H229" s="69"/>
-      <c r="I229" s="69"/>
-      <c r="J229" s="69"/>
-      <c r="K229" s="69"/>
-      <c r="L229" s="69"/>
-      <c r="M229" s="69"/>
+      <c r="C229" s="76"/>
+      <c r="D229" s="76"/>
+      <c r="E229" s="76"/>
+      <c r="F229" s="76"/>
+      <c r="G229" s="76"/>
+      <c r="H229" s="76"/>
+      <c r="I229" s="76"/>
+      <c r="J229" s="76"/>
+      <c r="K229" s="76"/>
+      <c r="L229" s="76"/>
+      <c r="M229" s="76"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
@@ -15569,20 +16710,20 @@
       <c r="M232" s="18"/>
     </row>
     <row r="234" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B234" s="70" t="s">
+      <c r="B234" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C234" s="70"/>
-      <c r="D234" s="70"/>
-      <c r="E234" s="70"/>
-      <c r="F234" s="70"/>
-      <c r="G234" s="70"/>
-      <c r="H234" s="70"/>
-      <c r="I234" s="70"/>
-      <c r="J234" s="70"/>
-      <c r="K234" s="70"/>
-      <c r="L234" s="70"/>
-      <c r="M234" s="70"/>
+      <c r="C234" s="72"/>
+      <c r="D234" s="72"/>
+      <c r="E234" s="72"/>
+      <c r="F234" s="72"/>
+      <c r="G234" s="72"/>
+      <c r="H234" s="72"/>
+      <c r="I234" s="72"/>
+      <c r="J234" s="72"/>
+      <c r="K234" s="72"/>
+      <c r="L234" s="72"/>
+      <c r="M234" s="72"/>
     </row>
     <row r="235" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -15621,36 +16762,36 @@
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="69" t="s">
+      <c r="B236" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="69"/>
-      <c r="D236" s="69"/>
-      <c r="E236" s="69"/>
-      <c r="F236" s="69"/>
-      <c r="G236" s="69"/>
-      <c r="H236" s="69"/>
-      <c r="I236" s="69"/>
-      <c r="J236" s="69"/>
-      <c r="K236" s="69"/>
-      <c r="L236" s="69"/>
-      <c r="M236" s="69"/>
+      <c r="C236" s="76"/>
+      <c r="D236" s="76"/>
+      <c r="E236" s="76"/>
+      <c r="F236" s="76"/>
+      <c r="G236" s="76"/>
+      <c r="H236" s="76"/>
+      <c r="I236" s="76"/>
+      <c r="J236" s="76"/>
+      <c r="K236" s="76"/>
+      <c r="L236" s="76"/>
+      <c r="M236" s="76"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="69" t="s">
+      <c r="B237" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C237" s="69"/>
-      <c r="D237" s="69"/>
-      <c r="E237" s="69"/>
-      <c r="F237" s="69"/>
-      <c r="G237" s="69"/>
-      <c r="H237" s="69"/>
-      <c r="I237" s="69"/>
-      <c r="J237" s="69"/>
-      <c r="K237" s="69"/>
-      <c r="L237" s="69"/>
-      <c r="M237" s="69"/>
+      <c r="C237" s="76"/>
+      <c r="D237" s="76"/>
+      <c r="E237" s="76"/>
+      <c r="F237" s="76"/>
+      <c r="G237" s="76"/>
+      <c r="H237" s="76"/>
+      <c r="I237" s="76"/>
+      <c r="J237" s="76"/>
+      <c r="K237" s="76"/>
+      <c r="L237" s="76"/>
+      <c r="M237" s="76"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
@@ -15709,36 +16850,36 @@
       <c r="M239" s="18"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="69" t="s">
+      <c r="B240" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C240" s="69"/>
-      <c r="D240" s="69"/>
-      <c r="E240" s="69"/>
-      <c r="F240" s="69"/>
-      <c r="G240" s="69"/>
-      <c r="H240" s="69"/>
-      <c r="I240" s="69"/>
-      <c r="J240" s="69"/>
-      <c r="K240" s="69"/>
-      <c r="L240" s="69"/>
-      <c r="M240" s="69"/>
+      <c r="C240" s="76"/>
+      <c r="D240" s="76"/>
+      <c r="E240" s="76"/>
+      <c r="F240" s="76"/>
+      <c r="G240" s="76"/>
+      <c r="H240" s="76"/>
+      <c r="I240" s="76"/>
+      <c r="J240" s="76"/>
+      <c r="K240" s="76"/>
+      <c r="L240" s="76"/>
+      <c r="M240" s="76"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="69" t="s">
+      <c r="B241" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C241" s="69"/>
-      <c r="D241" s="69"/>
-      <c r="E241" s="69"/>
-      <c r="F241" s="69"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="69"/>
-      <c r="I241" s="69"/>
-      <c r="J241" s="69"/>
-      <c r="K241" s="69"/>
-      <c r="L241" s="69"/>
-      <c r="M241" s="69"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="76"/>
+      <c r="E241" s="76"/>
+      <c r="F241" s="76"/>
+      <c r="G241" s="76"/>
+      <c r="H241" s="76"/>
+      <c r="I241" s="76"/>
+      <c r="J241" s="76"/>
+      <c r="K241" s="76"/>
+      <c r="L241" s="76"/>
+      <c r="M241" s="76"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
@@ -15769,20 +16910,20 @@
       <c r="M242" s="18"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="69" t="s">
+      <c r="B243" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C243" s="69"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
-      <c r="G243" s="69"/>
-      <c r="H243" s="69"/>
-      <c r="I243" s="69"/>
-      <c r="J243" s="69"/>
-      <c r="K243" s="69"/>
-      <c r="L243" s="69"/>
-      <c r="M243" s="69"/>
+      <c r="C243" s="76"/>
+      <c r="D243" s="76"/>
+      <c r="E243" s="76"/>
+      <c r="F243" s="76"/>
+      <c r="G243" s="76"/>
+      <c r="H243" s="76"/>
+      <c r="I243" s="76"/>
+      <c r="J243" s="76"/>
+      <c r="K243" s="76"/>
+      <c r="L243" s="76"/>
+      <c r="M243" s="76"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
@@ -15813,20 +16954,20 @@
       <c r="M244" s="18"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="69" t="s">
+      <c r="B245" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C245" s="69"/>
-      <c r="D245" s="69"/>
-      <c r="E245" s="69"/>
-      <c r="F245" s="69"/>
-      <c r="G245" s="69"/>
-      <c r="H245" s="69"/>
-      <c r="I245" s="69"/>
-      <c r="J245" s="69"/>
-      <c r="K245" s="69"/>
-      <c r="L245" s="69"/>
-      <c r="M245" s="69"/>
+      <c r="C245" s="76"/>
+      <c r="D245" s="76"/>
+      <c r="E245" s="76"/>
+      <c r="F245" s="76"/>
+      <c r="G245" s="76"/>
+      <c r="H245" s="76"/>
+      <c r="I245" s="76"/>
+      <c r="J245" s="76"/>
+      <c r="K245" s="76"/>
+      <c r="L245" s="76"/>
+      <c r="M245" s="76"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="27">
@@ -15857,20 +16998,20 @@
       <c r="M246" s="18"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="69" t="s">
+      <c r="B247" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C247" s="69"/>
-      <c r="D247" s="69"/>
-      <c r="E247" s="69"/>
-      <c r="F247" s="69"/>
-      <c r="G247" s="69"/>
-      <c r="H247" s="69"/>
-      <c r="I247" s="69"/>
-      <c r="J247" s="69"/>
-      <c r="K247" s="69"/>
-      <c r="L247" s="69"/>
-      <c r="M247" s="69"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="76"/>
+      <c r="E247" s="76"/>
+      <c r="F247" s="76"/>
+      <c r="G247" s="76"/>
+      <c r="H247" s="76"/>
+      <c r="I247" s="76"/>
+      <c r="J247" s="76"/>
+      <c r="K247" s="76"/>
+      <c r="L247" s="76"/>
+      <c r="M247" s="76"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
@@ -15986,20 +17127,20 @@
       <c r="M251" s="18"/>
     </row>
     <row r="253" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B253" s="70" t="s">
+      <c r="B253" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C253" s="70"/>
-      <c r="D253" s="70"/>
-      <c r="E253" s="70"/>
-      <c r="F253" s="70"/>
-      <c r="G253" s="70"/>
-      <c r="H253" s="70"/>
-      <c r="I253" s="70"/>
-      <c r="J253" s="70"/>
-      <c r="K253" s="70"/>
-      <c r="L253" s="70"/>
-      <c r="M253" s="70"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="72"/>
+      <c r="E253" s="72"/>
+      <c r="F253" s="72"/>
+      <c r="G253" s="72"/>
+      <c r="H253" s="72"/>
+      <c r="I253" s="72"/>
+      <c r="J253" s="72"/>
+      <c r="K253" s="72"/>
+      <c r="L253" s="72"/>
+      <c r="M253" s="72"/>
     </row>
     <row r="254" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
@@ -16038,36 +17179,36 @@
       </c>
     </row>
     <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="69" t="s">
+      <c r="B255" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C255" s="69"/>
-      <c r="D255" s="69"/>
-      <c r="E255" s="69"/>
-      <c r="F255" s="69"/>
-      <c r="G255" s="69"/>
-      <c r="H255" s="69"/>
-      <c r="I255" s="69"/>
-      <c r="J255" s="69"/>
-      <c r="K255" s="69"/>
-      <c r="L255" s="69"/>
-      <c r="M255" s="69"/>
+      <c r="C255" s="76"/>
+      <c r="D255" s="76"/>
+      <c r="E255" s="76"/>
+      <c r="F255" s="76"/>
+      <c r="G255" s="76"/>
+      <c r="H255" s="76"/>
+      <c r="I255" s="76"/>
+      <c r="J255" s="76"/>
+      <c r="K255" s="76"/>
+      <c r="L255" s="76"/>
+      <c r="M255" s="76"/>
     </row>
     <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="69" t="s">
+      <c r="B256" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C256" s="69"/>
-      <c r="D256" s="69"/>
-      <c r="E256" s="69"/>
-      <c r="F256" s="69"/>
-      <c r="G256" s="69"/>
-      <c r="H256" s="69"/>
-      <c r="I256" s="69"/>
-      <c r="J256" s="69"/>
-      <c r="K256" s="69"/>
-      <c r="L256" s="69"/>
-      <c r="M256" s="69"/>
+      <c r="C256" s="76"/>
+      <c r="D256" s="76"/>
+      <c r="E256" s="76"/>
+      <c r="F256" s="76"/>
+      <c r="G256" s="76"/>
+      <c r="H256" s="76"/>
+      <c r="I256" s="76"/>
+      <c r="J256" s="76"/>
+      <c r="K256" s="76"/>
+      <c r="L256" s="76"/>
+      <c r="M256" s="76"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
@@ -16126,20 +17267,20 @@
       <c r="M258" s="18"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="69" t="s">
+      <c r="B259" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C259" s="69"/>
-      <c r="D259" s="69"/>
-      <c r="E259" s="69"/>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69"/>
-      <c r="H259" s="69"/>
-      <c r="I259" s="69"/>
-      <c r="J259" s="69"/>
-      <c r="K259" s="69"/>
-      <c r="L259" s="69"/>
-      <c r="M259" s="69"/>
+      <c r="C259" s="76"/>
+      <c r="D259" s="76"/>
+      <c r="E259" s="76"/>
+      <c r="F259" s="76"/>
+      <c r="G259" s="76"/>
+      <c r="H259" s="76"/>
+      <c r="I259" s="76"/>
+      <c r="J259" s="76"/>
+      <c r="K259" s="76"/>
+      <c r="L259" s="76"/>
+      <c r="M259" s="76"/>
     </row>
     <row r="260" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
@@ -16200,20 +17341,20 @@
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="69" t="s">
+      <c r="B262" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C262" s="69"/>
-      <c r="D262" s="69"/>
-      <c r="E262" s="69"/>
-      <c r="F262" s="69"/>
-      <c r="G262" s="69"/>
-      <c r="H262" s="69"/>
-      <c r="I262" s="69"/>
-      <c r="J262" s="69"/>
-      <c r="K262" s="69"/>
-      <c r="L262" s="69"/>
-      <c r="M262" s="69"/>
+      <c r="C262" s="76"/>
+      <c r="D262" s="76"/>
+      <c r="E262" s="76"/>
+      <c r="F262" s="76"/>
+      <c r="G262" s="76"/>
+      <c r="H262" s="76"/>
+      <c r="I262" s="76"/>
+      <c r="J262" s="76"/>
+      <c r="K262" s="76"/>
+      <c r="L262" s="76"/>
+      <c r="M262" s="76"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
@@ -16244,20 +17385,20 @@
       <c r="M263" s="18"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="69" t="s">
+      <c r="B264" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C264" s="69"/>
-      <c r="D264" s="69"/>
-      <c r="E264" s="69"/>
-      <c r="F264" s="69"/>
-      <c r="G264" s="69"/>
-      <c r="H264" s="69"/>
-      <c r="I264" s="69"/>
-      <c r="J264" s="69"/>
-      <c r="K264" s="69"/>
-      <c r="L264" s="69"/>
-      <c r="M264" s="69"/>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
+      <c r="E264" s="76"/>
+      <c r="F264" s="76"/>
+      <c r="G264" s="76"/>
+      <c r="H264" s="76"/>
+      <c r="I264" s="76"/>
+      <c r="J264" s="76"/>
+      <c r="K264" s="76"/>
+      <c r="L264" s="76"/>
+      <c r="M264" s="76"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
@@ -16316,20 +17457,20 @@
       <c r="M266" s="18"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="69" t="s">
+      <c r="B267" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C267" s="69"/>
-      <c r="D267" s="69"/>
-      <c r="E267" s="69"/>
-      <c r="F267" s="69"/>
-      <c r="G267" s="69"/>
-      <c r="H267" s="69"/>
-      <c r="I267" s="69"/>
-      <c r="J267" s="69"/>
-      <c r="K267" s="69"/>
-      <c r="L267" s="69"/>
-      <c r="M267" s="69"/>
+      <c r="C267" s="76"/>
+      <c r="D267" s="76"/>
+      <c r="E267" s="76"/>
+      <c r="F267" s="76"/>
+      <c r="G267" s="76"/>
+      <c r="H267" s="76"/>
+      <c r="I267" s="76"/>
+      <c r="J267" s="76"/>
+      <c r="K267" s="76"/>
+      <c r="L267" s="76"/>
+      <c r="M267" s="76"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B268" s="27">
@@ -16360,20 +17501,20 @@
       <c r="M268" s="18"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="69" t="s">
+      <c r="B269" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C269" s="69"/>
-      <c r="D269" s="69"/>
-      <c r="E269" s="69"/>
-      <c r="F269" s="69"/>
-      <c r="G269" s="69"/>
-      <c r="H269" s="69"/>
-      <c r="I269" s="69"/>
-      <c r="J269" s="69"/>
-      <c r="K269" s="69"/>
-      <c r="L269" s="69"/>
-      <c r="M269" s="69"/>
+      <c r="C269" s="76"/>
+      <c r="D269" s="76"/>
+      <c r="E269" s="76"/>
+      <c r="F269" s="76"/>
+      <c r="G269" s="76"/>
+      <c r="H269" s="76"/>
+      <c r="I269" s="76"/>
+      <c r="J269" s="76"/>
+      <c r="K269" s="76"/>
+      <c r="L269" s="76"/>
+      <c r="M269" s="76"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
@@ -16456,20 +17597,20 @@
       <c r="M272" s="35"/>
     </row>
     <row r="274" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B274" s="70" t="s">
+      <c r="B274" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C274" s="70"/>
-      <c r="D274" s="70"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-      <c r="I274" s="70"/>
-      <c r="J274" s="70"/>
-      <c r="K274" s="70"/>
-      <c r="L274" s="70"/>
-      <c r="M274" s="70"/>
+      <c r="C274" s="72"/>
+      <c r="D274" s="72"/>
+      <c r="E274" s="72"/>
+      <c r="F274" s="72"/>
+      <c r="G274" s="72"/>
+      <c r="H274" s="72"/>
+      <c r="I274" s="72"/>
+      <c r="J274" s="72"/>
+      <c r="K274" s="72"/>
+      <c r="L274" s="72"/>
+      <c r="M274" s="72"/>
     </row>
     <row r="275" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B275" s="3" t="s">
@@ -16508,20 +17649,20 @@
       </c>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="69" t="s">
+      <c r="B276" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="69"/>
-      <c r="F276" s="69"/>
-      <c r="G276" s="69"/>
-      <c r="H276" s="69"/>
-      <c r="I276" s="69"/>
-      <c r="J276" s="69"/>
-      <c r="K276" s="69"/>
-      <c r="L276" s="69"/>
-      <c r="M276" s="69"/>
+      <c r="C276" s="76"/>
+      <c r="D276" s="76"/>
+      <c r="E276" s="76"/>
+      <c r="F276" s="76"/>
+      <c r="G276" s="76"/>
+      <c r="H276" s="76"/>
+      <c r="I276" s="76"/>
+      <c r="J276" s="76"/>
+      <c r="K276" s="76"/>
+      <c r="L276" s="76"/>
+      <c r="M276" s="76"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
@@ -16552,20 +17693,20 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="69" t="s">
+      <c r="B278" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C278" s="69"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="69"/>
-      <c r="F278" s="69"/>
-      <c r="G278" s="69"/>
-      <c r="H278" s="69"/>
-      <c r="I278" s="69"/>
-      <c r="J278" s="69"/>
-      <c r="K278" s="69"/>
-      <c r="L278" s="69"/>
-      <c r="M278" s="69"/>
+      <c r="C278" s="76"/>
+      <c r="D278" s="76"/>
+      <c r="E278" s="76"/>
+      <c r="F278" s="76"/>
+      <c r="G278" s="76"/>
+      <c r="H278" s="76"/>
+      <c r="I278" s="76"/>
+      <c r="J278" s="76"/>
+      <c r="K278" s="76"/>
+      <c r="L278" s="76"/>
+      <c r="M278" s="76"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
@@ -16624,20 +17765,20 @@
       <c r="M280" s="18"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="69" t="s">
+      <c r="B281" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C281" s="69"/>
-      <c r="D281" s="69"/>
-      <c r="E281" s="69"/>
-      <c r="F281" s="69"/>
-      <c r="G281" s="69"/>
-      <c r="H281" s="69"/>
-      <c r="I281" s="69"/>
-      <c r="J281" s="69"/>
-      <c r="K281" s="69"/>
-      <c r="L281" s="69"/>
-      <c r="M281" s="69"/>
+      <c r="C281" s="76"/>
+      <c r="D281" s="76"/>
+      <c r="E281" s="76"/>
+      <c r="F281" s="76"/>
+      <c r="G281" s="76"/>
+      <c r="H281" s="76"/>
+      <c r="I281" s="76"/>
+      <c r="J281" s="76"/>
+      <c r="K281" s="76"/>
+      <c r="L281" s="76"/>
+      <c r="M281" s="76"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
@@ -16697,20 +17838,20 @@
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="69"/>
-      <c r="F284" s="69"/>
-      <c r="G284" s="69"/>
-      <c r="H284" s="69"/>
-      <c r="I284" s="69"/>
-      <c r="J284" s="69"/>
-      <c r="K284" s="69"/>
-      <c r="L284" s="69"/>
-      <c r="M284" s="69"/>
+      <c r="C284" s="76"/>
+      <c r="D284" s="76"/>
+      <c r="E284" s="76"/>
+      <c r="F284" s="76"/>
+      <c r="G284" s="76"/>
+      <c r="H284" s="76"/>
+      <c r="I284" s="76"/>
+      <c r="J284" s="76"/>
+      <c r="K284" s="76"/>
+      <c r="L284" s="76"/>
+      <c r="M284" s="76"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
@@ -16769,20 +17910,20 @@
       <c r="M286" s="18"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="69" t="s">
+      <c r="B287" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C287" s="69"/>
-      <c r="D287" s="69"/>
-      <c r="E287" s="69"/>
-      <c r="F287" s="69"/>
-      <c r="G287" s="69"/>
-      <c r="H287" s="69"/>
-      <c r="I287" s="69"/>
-      <c r="J287" s="69"/>
-      <c r="K287" s="69"/>
-      <c r="L287" s="69"/>
-      <c r="M287" s="69"/>
+      <c r="C287" s="76"/>
+      <c r="D287" s="76"/>
+      <c r="E287" s="76"/>
+      <c r="F287" s="76"/>
+      <c r="G287" s="76"/>
+      <c r="H287" s="76"/>
+      <c r="I287" s="76"/>
+      <c r="J287" s="76"/>
+      <c r="K287" s="76"/>
+      <c r="L287" s="76"/>
+      <c r="M287" s="76"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
@@ -16898,20 +18039,20 @@
       <c r="M291" s="18"/>
     </row>
     <row r="292" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B292" s="69" t="s">
+      <c r="B292" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C292" s="69"/>
-      <c r="D292" s="69"/>
-      <c r="E292" s="69"/>
-      <c r="F292" s="69"/>
-      <c r="G292" s="69"/>
-      <c r="H292" s="69"/>
-      <c r="I292" s="69"/>
-      <c r="J292" s="69"/>
-      <c r="K292" s="69"/>
-      <c r="L292" s="69"/>
-      <c r="M292" s="69"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
+      <c r="E292" s="76"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="76"/>
+      <c r="J292" s="76"/>
+      <c r="K292" s="76"/>
+      <c r="L292" s="76"/>
+      <c r="M292" s="76"/>
     </row>
     <row r="293" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B293" s="27">
@@ -16942,20 +18083,20 @@
       <c r="M293" s="18"/>
     </row>
     <row r="294" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B294" s="69" t="s">
+      <c r="B294" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C294" s="69"/>
-      <c r="D294" s="69"/>
-      <c r="E294" s="69"/>
-      <c r="F294" s="69"/>
-      <c r="G294" s="69"/>
-      <c r="H294" s="69"/>
-      <c r="I294" s="69"/>
-      <c r="J294" s="69"/>
-      <c r="K294" s="69"/>
-      <c r="L294" s="69"/>
-      <c r="M294" s="69"/>
+      <c r="C294" s="76"/>
+      <c r="D294" s="76"/>
+      <c r="E294" s="76"/>
+      <c r="F294" s="76"/>
+      <c r="G294" s="76"/>
+      <c r="H294" s="76"/>
+      <c r="I294" s="76"/>
+      <c r="J294" s="76"/>
+      <c r="K294" s="76"/>
+      <c r="L294" s="76"/>
+      <c r="M294" s="76"/>
     </row>
     <row r="295" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
@@ -17038,20 +18179,20 @@
       <c r="M297" s="35"/>
     </row>
     <row r="299" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B299" s="70" t="s">
+      <c r="B299" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C299" s="70"/>
-      <c r="D299" s="70"/>
-      <c r="E299" s="70"/>
-      <c r="F299" s="70"/>
-      <c r="G299" s="70"/>
-      <c r="H299" s="70"/>
-      <c r="I299" s="70"/>
-      <c r="J299" s="70"/>
-      <c r="K299" s="70"/>
-      <c r="L299" s="70"/>
-      <c r="M299" s="70"/>
+      <c r="C299" s="72"/>
+      <c r="D299" s="72"/>
+      <c r="E299" s="72"/>
+      <c r="F299" s="72"/>
+      <c r="G299" s="72"/>
+      <c r="H299" s="72"/>
+      <c r="I299" s="72"/>
+      <c r="J299" s="72"/>
+      <c r="K299" s="72"/>
+      <c r="L299" s="72"/>
+      <c r="M299" s="72"/>
     </row>
     <row r="300" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B300" s="3" t="s">
@@ -17090,68 +18231,68 @@
       </c>
     </row>
     <row r="301" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B301" s="69" t="s">
+      <c r="B301" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C301" s="69"/>
-      <c r="D301" s="69"/>
-      <c r="E301" s="69"/>
-      <c r="F301" s="69"/>
-      <c r="G301" s="69"/>
-      <c r="H301" s="69"/>
-      <c r="I301" s="69"/>
-      <c r="J301" s="69"/>
-      <c r="K301" s="69"/>
-      <c r="L301" s="69"/>
-      <c r="M301" s="69"/>
+      <c r="C301" s="76"/>
+      <c r="D301" s="76"/>
+      <c r="E301" s="76"/>
+      <c r="F301" s="76"/>
+      <c r="G301" s="76"/>
+      <c r="H301" s="76"/>
+      <c r="I301" s="76"/>
+      <c r="J301" s="76"/>
+      <c r="K301" s="76"/>
+      <c r="L301" s="76"/>
+      <c r="M301" s="76"/>
     </row>
     <row r="302" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C302" s="69"/>
-      <c r="D302" s="69"/>
-      <c r="E302" s="69"/>
-      <c r="F302" s="69"/>
-      <c r="G302" s="69"/>
-      <c r="H302" s="69"/>
-      <c r="I302" s="69"/>
-      <c r="J302" s="69"/>
-      <c r="K302" s="69"/>
-      <c r="L302" s="69"/>
-      <c r="M302" s="69"/>
+      <c r="C302" s="76"/>
+      <c r="D302" s="76"/>
+      <c r="E302" s="76"/>
+      <c r="F302" s="76"/>
+      <c r="G302" s="76"/>
+      <c r="H302" s="76"/>
+      <c r="I302" s="76"/>
+      <c r="J302" s="76"/>
+      <c r="K302" s="76"/>
+      <c r="L302" s="76"/>
+      <c r="M302" s="76"/>
     </row>
     <row r="303" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B303" s="69" t="s">
+      <c r="B303" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="69"/>
-      <c r="F303" s="69"/>
-      <c r="G303" s="69"/>
-      <c r="H303" s="69"/>
-      <c r="I303" s="69"/>
-      <c r="J303" s="69"/>
-      <c r="K303" s="69"/>
-      <c r="L303" s="69"/>
-      <c r="M303" s="69"/>
+      <c r="C303" s="76"/>
+      <c r="D303" s="76"/>
+      <c r="E303" s="76"/>
+      <c r="F303" s="76"/>
+      <c r="G303" s="76"/>
+      <c r="H303" s="76"/>
+      <c r="I303" s="76"/>
+      <c r="J303" s="76"/>
+      <c r="K303" s="76"/>
+      <c r="L303" s="76"/>
+      <c r="M303" s="76"/>
     </row>
     <row r="304" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B304" s="69" t="s">
+      <c r="B304" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C304" s="69"/>
-      <c r="D304" s="69"/>
-      <c r="E304" s="69"/>
-      <c r="F304" s="69"/>
-      <c r="G304" s="69"/>
-      <c r="H304" s="69"/>
-      <c r="I304" s="69"/>
-      <c r="J304" s="69"/>
-      <c r="K304" s="69"/>
-      <c r="L304" s="69"/>
-      <c r="M304" s="69"/>
+      <c r="C304" s="76"/>
+      <c r="D304" s="76"/>
+      <c r="E304" s="76"/>
+      <c r="F304" s="76"/>
+      <c r="G304" s="76"/>
+      <c r="H304" s="76"/>
+      <c r="I304" s="76"/>
+      <c r="J304" s="76"/>
+      <c r="K304" s="76"/>
+      <c r="L304" s="76"/>
+      <c r="M304" s="76"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="12"/>
@@ -17168,20 +18309,20 @@
       <c r="M305" s="18"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B306" s="69" t="s">
+      <c r="B306" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C306" s="69"/>
-      <c r="D306" s="69"/>
-      <c r="E306" s="69"/>
-      <c r="F306" s="69"/>
-      <c r="G306" s="69"/>
-      <c r="H306" s="69"/>
-      <c r="I306" s="69"/>
-      <c r="J306" s="69"/>
-      <c r="K306" s="69"/>
-      <c r="L306" s="69"/>
-      <c r="M306" s="69"/>
+      <c r="C306" s="76"/>
+      <c r="D306" s="76"/>
+      <c r="E306" s="76"/>
+      <c r="F306" s="76"/>
+      <c r="G306" s="76"/>
+      <c r="H306" s="76"/>
+      <c r="I306" s="76"/>
+      <c r="J306" s="76"/>
+      <c r="K306" s="76"/>
+      <c r="L306" s="76"/>
+      <c r="M306" s="76"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
@@ -17212,20 +18353,20 @@
       <c r="M308" s="18"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B309" s="69" t="s">
+      <c r="B309" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="69"/>
-      <c r="D309" s="69"/>
-      <c r="E309" s="69"/>
-      <c r="F309" s="69"/>
-      <c r="G309" s="69"/>
-      <c r="H309" s="69"/>
-      <c r="I309" s="69"/>
-      <c r="J309" s="69"/>
-      <c r="K309" s="69"/>
-      <c r="L309" s="69"/>
-      <c r="M309" s="69"/>
+      <c r="C309" s="76"/>
+      <c r="D309" s="76"/>
+      <c r="E309" s="76"/>
+      <c r="F309" s="76"/>
+      <c r="G309" s="76"/>
+      <c r="H309" s="76"/>
+      <c r="I309" s="76"/>
+      <c r="J309" s="76"/>
+      <c r="K309" s="76"/>
+      <c r="L309" s="76"/>
+      <c r="M309" s="76"/>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B310" s="27"/>
@@ -17242,20 +18383,20 @@
       <c r="M310" s="18"/>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B311" s="69" t="s">
+      <c r="B311" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C311" s="69"/>
-      <c r="D311" s="69"/>
-      <c r="E311" s="69"/>
-      <c r="F311" s="69"/>
-      <c r="G311" s="69"/>
-      <c r="H311" s="69"/>
-      <c r="I311" s="69"/>
-      <c r="J311" s="69"/>
-      <c r="K311" s="69"/>
-      <c r="L311" s="69"/>
-      <c r="M311" s="69"/>
+      <c r="C311" s="76"/>
+      <c r="D311" s="76"/>
+      <c r="E311" s="76"/>
+      <c r="F311" s="76"/>
+      <c r="G311" s="76"/>
+      <c r="H311" s="76"/>
+      <c r="I311" s="76"/>
+      <c r="J311" s="76"/>
+      <c r="K311" s="76"/>
+      <c r="L311" s="76"/>
+      <c r="M311" s="76"/>
     </row>
     <row r="312" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="42">
@@ -17341,20 +18482,20 @@
       <c r="M314" s="18"/>
     </row>
     <row r="316" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B316" s="70" t="s">
+      <c r="B316" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C316" s="71"/>
-      <c r="D316" s="71"/>
-      <c r="E316" s="71"/>
-      <c r="F316" s="71"/>
-      <c r="G316" s="71"/>
-      <c r="H316" s="71"/>
-      <c r="I316" s="71"/>
-      <c r="J316" s="71"/>
-      <c r="K316" s="71"/>
-      <c r="L316" s="71"/>
-      <c r="M316" s="72"/>
+      <c r="C316" s="69"/>
+      <c r="D316" s="69"/>
+      <c r="E316" s="69"/>
+      <c r="F316" s="69"/>
+      <c r="G316" s="69"/>
+      <c r="H316" s="69"/>
+      <c r="I316" s="69"/>
+      <c r="J316" s="69"/>
+      <c r="K316" s="69"/>
+      <c r="L316" s="69"/>
+      <c r="M316" s="70"/>
     </row>
     <row r="317" spans="2:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B317" s="3" t="s">
@@ -17393,52 +18534,52 @@
       </c>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B318" s="66" t="s">
+      <c r="B318" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="C318" s="67"/>
-      <c r="D318" s="67"/>
-      <c r="E318" s="67"/>
-      <c r="F318" s="67"/>
-      <c r="G318" s="67"/>
-      <c r="H318" s="67"/>
-      <c r="I318" s="67"/>
-      <c r="J318" s="67"/>
-      <c r="K318" s="67"/>
-      <c r="L318" s="67"/>
-      <c r="M318" s="68"/>
+      <c r="C318" s="74"/>
+      <c r="D318" s="74"/>
+      <c r="E318" s="74"/>
+      <c r="F318" s="74"/>
+      <c r="G318" s="74"/>
+      <c r="H318" s="74"/>
+      <c r="I318" s="74"/>
+      <c r="J318" s="74"/>
+      <c r="K318" s="74"/>
+      <c r="L318" s="74"/>
+      <c r="M318" s="75"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B319" s="66" t="s">
+      <c r="B319" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C319" s="67"/>
-      <c r="D319" s="67"/>
-      <c r="E319" s="67"/>
-      <c r="F319" s="67"/>
-      <c r="G319" s="67"/>
-      <c r="H319" s="67"/>
-      <c r="I319" s="67"/>
-      <c r="J319" s="67"/>
-      <c r="K319" s="67"/>
-      <c r="L319" s="67"/>
-      <c r="M319" s="68"/>
+      <c r="C319" s="74"/>
+      <c r="D319" s="74"/>
+      <c r="E319" s="74"/>
+      <c r="F319" s="74"/>
+      <c r="G319" s="74"/>
+      <c r="H319" s="74"/>
+      <c r="I319" s="74"/>
+      <c r="J319" s="74"/>
+      <c r="K319" s="74"/>
+      <c r="L319" s="74"/>
+      <c r="M319" s="75"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B320" s="69" t="s">
+      <c r="B320" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C320" s="69"/>
-      <c r="D320" s="69"/>
-      <c r="E320" s="69"/>
-      <c r="F320" s="69"/>
-      <c r="G320" s="69"/>
-      <c r="H320" s="69"/>
-      <c r="I320" s="69"/>
-      <c r="J320" s="69"/>
-      <c r="K320" s="69"/>
-      <c r="L320" s="69"/>
-      <c r="M320" s="69"/>
+      <c r="C320" s="76"/>
+      <c r="D320" s="76"/>
+      <c r="E320" s="76"/>
+      <c r="F320" s="76"/>
+      <c r="G320" s="76"/>
+      <c r="H320" s="76"/>
+      <c r="I320" s="76"/>
+      <c r="J320" s="76"/>
+      <c r="K320" s="76"/>
+      <c r="L320" s="76"/>
+      <c r="M320" s="76"/>
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="12"/>
@@ -17455,20 +18596,20 @@
       <c r="M321" s="12"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B322" s="66" t="s">
+      <c r="B322" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C322" s="67"/>
-      <c r="D322" s="67"/>
-      <c r="E322" s="67"/>
-      <c r="F322" s="67"/>
-      <c r="G322" s="67"/>
-      <c r="H322" s="67"/>
-      <c r="I322" s="67"/>
-      <c r="J322" s="67"/>
-      <c r="K322" s="67"/>
-      <c r="L322" s="67"/>
-      <c r="M322" s="68"/>
+      <c r="C322" s="74"/>
+      <c r="D322" s="74"/>
+      <c r="E322" s="74"/>
+      <c r="F322" s="74"/>
+      <c r="G322" s="74"/>
+      <c r="H322" s="74"/>
+      <c r="I322" s="74"/>
+      <c r="J322" s="74"/>
+      <c r="K322" s="74"/>
+      <c r="L322" s="74"/>
+      <c r="M322" s="75"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="12"/>
@@ -17485,20 +18626,20 @@
       <c r="M323" s="18"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B324" s="66" t="s">
+      <c r="B324" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C324" s="67"/>
-      <c r="D324" s="67"/>
-      <c r="E324" s="67"/>
-      <c r="F324" s="67"/>
-      <c r="G324" s="67"/>
-      <c r="H324" s="67"/>
-      <c r="I324" s="67"/>
-      <c r="J324" s="67"/>
-      <c r="K324" s="67"/>
-      <c r="L324" s="67"/>
-      <c r="M324" s="68"/>
+      <c r="C324" s="74"/>
+      <c r="D324" s="74"/>
+      <c r="E324" s="74"/>
+      <c r="F324" s="74"/>
+      <c r="G324" s="74"/>
+      <c r="H324" s="74"/>
+      <c r="I324" s="74"/>
+      <c r="J324" s="74"/>
+      <c r="K324" s="74"/>
+      <c r="L324" s="74"/>
+      <c r="M324" s="75"/>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="7"/>
@@ -17529,20 +18670,20 @@
       <c r="M326" s="18"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="66" t="s">
+      <c r="B327" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="67"/>
-      <c r="D327" s="67"/>
-      <c r="E327" s="67"/>
-      <c r="F327" s="67"/>
-      <c r="G327" s="67"/>
-      <c r="H327" s="67"/>
-      <c r="I327" s="67"/>
-      <c r="J327" s="67"/>
-      <c r="K327" s="67"/>
-      <c r="L327" s="67"/>
-      <c r="M327" s="68"/>
+      <c r="C327" s="74"/>
+      <c r="D327" s="74"/>
+      <c r="E327" s="74"/>
+      <c r="F327" s="74"/>
+      <c r="G327" s="74"/>
+      <c r="H327" s="74"/>
+      <c r="I327" s="74"/>
+      <c r="J327" s="74"/>
+      <c r="K327" s="74"/>
+      <c r="L327" s="74"/>
+      <c r="M327" s="75"/>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B328" s="27"/>
@@ -17559,20 +18700,20 @@
       <c r="M328" s="18"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="66" t="s">
+      <c r="B329" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C329" s="67"/>
-      <c r="D329" s="67"/>
-      <c r="E329" s="67"/>
-      <c r="F329" s="67"/>
-      <c r="G329" s="67"/>
-      <c r="H329" s="67"/>
-      <c r="I329" s="67"/>
-      <c r="J329" s="67"/>
-      <c r="K329" s="67"/>
-      <c r="L329" s="67"/>
-      <c r="M329" s="68"/>
+      <c r="C329" s="74"/>
+      <c r="D329" s="74"/>
+      <c r="E329" s="74"/>
+      <c r="F329" s="74"/>
+      <c r="G329" s="74"/>
+      <c r="H329" s="74"/>
+      <c r="I329" s="74"/>
+      <c r="J329" s="74"/>
+      <c r="K329" s="74"/>
+      <c r="L329" s="74"/>
+      <c r="M329" s="75"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="42">
@@ -17737,6 +18878,99 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="B322:M322"/>
+    <mergeCell ref="B324:M324"/>
+    <mergeCell ref="B327:M327"/>
+    <mergeCell ref="B329:M329"/>
+    <mergeCell ref="B309:M309"/>
+    <mergeCell ref="B311:M311"/>
+    <mergeCell ref="B316:M316"/>
+    <mergeCell ref="B318:M318"/>
+    <mergeCell ref="B319:M319"/>
+    <mergeCell ref="B320:M320"/>
+    <mergeCell ref="B299:M299"/>
+    <mergeCell ref="B301:M301"/>
+    <mergeCell ref="B302:M302"/>
+    <mergeCell ref="B303:M303"/>
+    <mergeCell ref="B304:M304"/>
+    <mergeCell ref="B306:M306"/>
+    <mergeCell ref="B278:M278"/>
+    <mergeCell ref="B281:M281"/>
+    <mergeCell ref="B284:M284"/>
+    <mergeCell ref="B287:M287"/>
+    <mergeCell ref="B292:M292"/>
+    <mergeCell ref="B294:M294"/>
+    <mergeCell ref="B262:M262"/>
+    <mergeCell ref="B264:M264"/>
+    <mergeCell ref="B267:M267"/>
+    <mergeCell ref="B269:M269"/>
+    <mergeCell ref="B274:M274"/>
+    <mergeCell ref="B276:M276"/>
+    <mergeCell ref="B245:M245"/>
+    <mergeCell ref="B247:M247"/>
+    <mergeCell ref="B253:M253"/>
+    <mergeCell ref="B255:M255"/>
+    <mergeCell ref="B256:M256"/>
+    <mergeCell ref="B259:M259"/>
+    <mergeCell ref="B234:M234"/>
+    <mergeCell ref="B236:M236"/>
+    <mergeCell ref="B237:M237"/>
+    <mergeCell ref="B240:M240"/>
+    <mergeCell ref="B241:M241"/>
+    <mergeCell ref="B243:M243"/>
+    <mergeCell ref="B216:M216"/>
+    <mergeCell ref="B219:M219"/>
+    <mergeCell ref="B222:M222"/>
+    <mergeCell ref="B224:M224"/>
+    <mergeCell ref="B227:M227"/>
+    <mergeCell ref="B229:M229"/>
+    <mergeCell ref="B197:M197"/>
+    <mergeCell ref="B199:M199"/>
+    <mergeCell ref="B204:M204"/>
+    <mergeCell ref="B206:M206"/>
+    <mergeCell ref="B212:M212"/>
+    <mergeCell ref="B214:M214"/>
+    <mergeCell ref="B180:M180"/>
+    <mergeCell ref="B182:M182"/>
+    <mergeCell ref="B187:M187"/>
+    <mergeCell ref="B189:M189"/>
+    <mergeCell ref="B191:M191"/>
+    <mergeCell ref="B194:M194"/>
+    <mergeCell ref="B165:M165"/>
+    <mergeCell ref="B167:M167"/>
+    <mergeCell ref="B169:M169"/>
+    <mergeCell ref="B172:M172"/>
+    <mergeCell ref="B175:M175"/>
+    <mergeCell ref="B177:M177"/>
+    <mergeCell ref="B143:M143"/>
+    <mergeCell ref="B146:M146"/>
+    <mergeCell ref="B152:M152"/>
+    <mergeCell ref="B154:M154"/>
+    <mergeCell ref="B157:M157"/>
+    <mergeCell ref="B159:M159"/>
+    <mergeCell ref="B124:M124"/>
+    <mergeCell ref="B126:M126"/>
+    <mergeCell ref="B129:M129"/>
+    <mergeCell ref="B131:M131"/>
+    <mergeCell ref="B139:M139"/>
+    <mergeCell ref="B141:M141"/>
+    <mergeCell ref="B105:M105"/>
+    <mergeCell ref="B113:M113"/>
+    <mergeCell ref="O113:Q113"/>
+    <mergeCell ref="B115:M115"/>
+    <mergeCell ref="B117:M117"/>
+    <mergeCell ref="B120:M120"/>
+    <mergeCell ref="B87:M87"/>
+    <mergeCell ref="B89:M89"/>
+    <mergeCell ref="B92:M92"/>
+    <mergeCell ref="B96:M96"/>
+    <mergeCell ref="B98:M98"/>
+    <mergeCell ref="B103:M103"/>
+    <mergeCell ref="B70:M70"/>
+    <mergeCell ref="B72:M72"/>
+    <mergeCell ref="B75:M75"/>
+    <mergeCell ref="B77:M77"/>
+    <mergeCell ref="B85:M85"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B14:M14"/>
@@ -17756,102 +18990,97 @@
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="B48:M48"/>
-    <mergeCell ref="B87:M87"/>
-    <mergeCell ref="B89:M89"/>
-    <mergeCell ref="B92:M92"/>
-    <mergeCell ref="B96:M96"/>
-    <mergeCell ref="B98:M98"/>
-    <mergeCell ref="B103:M103"/>
-    <mergeCell ref="B70:M70"/>
-    <mergeCell ref="B72:M72"/>
-    <mergeCell ref="B75:M75"/>
-    <mergeCell ref="B77:M77"/>
-    <mergeCell ref="B85:M85"/>
-    <mergeCell ref="B124:M124"/>
-    <mergeCell ref="B126:M126"/>
-    <mergeCell ref="B129:M129"/>
-    <mergeCell ref="B131:M131"/>
-    <mergeCell ref="B139:M139"/>
-    <mergeCell ref="B141:M141"/>
-    <mergeCell ref="B105:M105"/>
-    <mergeCell ref="B113:M113"/>
-    <mergeCell ref="O113:Q113"/>
-    <mergeCell ref="B115:M115"/>
-    <mergeCell ref="B117:M117"/>
-    <mergeCell ref="B120:M120"/>
-    <mergeCell ref="B165:M165"/>
-    <mergeCell ref="B167:M167"/>
-    <mergeCell ref="B169:M169"/>
-    <mergeCell ref="B172:M172"/>
-    <mergeCell ref="B175:M175"/>
-    <mergeCell ref="B177:M177"/>
-    <mergeCell ref="B143:M143"/>
-    <mergeCell ref="B146:M146"/>
-    <mergeCell ref="B152:M152"/>
-    <mergeCell ref="B154:M154"/>
-    <mergeCell ref="B157:M157"/>
-    <mergeCell ref="B159:M159"/>
-    <mergeCell ref="B197:M197"/>
-    <mergeCell ref="B199:M199"/>
-    <mergeCell ref="B204:M204"/>
-    <mergeCell ref="B206:M206"/>
-    <mergeCell ref="B212:M212"/>
-    <mergeCell ref="B214:M214"/>
-    <mergeCell ref="B180:M180"/>
-    <mergeCell ref="B182:M182"/>
-    <mergeCell ref="B187:M187"/>
-    <mergeCell ref="B189:M189"/>
-    <mergeCell ref="B191:M191"/>
-    <mergeCell ref="B194:M194"/>
-    <mergeCell ref="B234:M234"/>
-    <mergeCell ref="B236:M236"/>
-    <mergeCell ref="B237:M237"/>
-    <mergeCell ref="B240:M240"/>
-    <mergeCell ref="B241:M241"/>
-    <mergeCell ref="B243:M243"/>
-    <mergeCell ref="B216:M216"/>
-    <mergeCell ref="B219:M219"/>
-    <mergeCell ref="B222:M222"/>
-    <mergeCell ref="B224:M224"/>
-    <mergeCell ref="B227:M227"/>
-    <mergeCell ref="B229:M229"/>
-    <mergeCell ref="B262:M262"/>
-    <mergeCell ref="B264:M264"/>
-    <mergeCell ref="B267:M267"/>
-    <mergeCell ref="B269:M269"/>
-    <mergeCell ref="B274:M274"/>
-    <mergeCell ref="B276:M276"/>
-    <mergeCell ref="B245:M245"/>
-    <mergeCell ref="B247:M247"/>
-    <mergeCell ref="B253:M253"/>
-    <mergeCell ref="B255:M255"/>
-    <mergeCell ref="B256:M256"/>
-    <mergeCell ref="B259:M259"/>
-    <mergeCell ref="B299:M299"/>
-    <mergeCell ref="B301:M301"/>
-    <mergeCell ref="B302:M302"/>
-    <mergeCell ref="B303:M303"/>
-    <mergeCell ref="B304:M304"/>
-    <mergeCell ref="B306:M306"/>
-    <mergeCell ref="B278:M278"/>
-    <mergeCell ref="B281:M281"/>
-    <mergeCell ref="B284:M284"/>
-    <mergeCell ref="B287:M287"/>
-    <mergeCell ref="B292:M292"/>
-    <mergeCell ref="B294:M294"/>
-    <mergeCell ref="B322:M322"/>
-    <mergeCell ref="B324:M324"/>
-    <mergeCell ref="B327:M327"/>
-    <mergeCell ref="B329:M329"/>
-    <mergeCell ref="B309:M309"/>
-    <mergeCell ref="B311:M311"/>
-    <mergeCell ref="B316:M316"/>
-    <mergeCell ref="B318:M318"/>
-    <mergeCell ref="B319:M319"/>
-    <mergeCell ref="B320:M320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="48"/>
+    <col min="2" max="2" width="13.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="94" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17878,20 +19107,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18634,20 +19863,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -19626,20 +20855,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -20495,20 +21724,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -21279,20 +22508,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -21836,20 +23065,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -22598,7 +23827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
@@ -22620,20 +23849,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -22707,7 +23936,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="20">
-        <f>G3/J3</f>
+        <f t="shared" ref="K3:K13" si="0">G3/J3</f>
         <v>1</v>
       </c>
       <c r="L3" s="11" t="s">
@@ -22746,7 +23975,7 @@
         <v>1.75</v>
       </c>
       <c r="K4" s="20">
-        <f>G4/J4</f>
+        <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="L4" s="11" t="s">
@@ -22785,7 +24014,7 @@
         <v>2.75</v>
       </c>
       <c r="K5" s="20">
-        <f>G5/J5</f>
+        <f t="shared" si="0"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -22824,7 +24053,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="20">
-        <f>G6/J6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6" s="11" t="s">
@@ -22863,7 +24092,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="20">
-        <f>G7/J7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7" s="11" t="s">
@@ -22902,7 +24131,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="20">
-        <f>G8/J8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
@@ -22941,7 +24170,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" s="20">
-        <f>G9/J9</f>
+        <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -22980,7 +24209,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="20">
-        <f>G10/J10</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="L10" s="11" t="s">
@@ -23019,7 +24248,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="12">
-        <f>G11/J11</f>
+        <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
       <c r="L11" s="11" t="s">
@@ -23051,14 +24280,14 @@
       <c r="H12" s="9">
         <v>42016</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="66">
         <v>42021</v>
       </c>
       <c r="J12" s="33">
         <v>2</v>
       </c>
       <c r="K12" s="10">
-        <f>G12/J12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -23097,7 +24326,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="K13" s="10">
-        <f>G13/J13</f>
+        <f t="shared" si="0"/>
         <v>0.86956521739130443</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -23135,7 +24364,7 @@
       <c r="J14" s="12">
         <v>3</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K14" s="67">
         <v>1</v>
       </c>
       <c r="L14" s="11" t="s">
@@ -23358,88 +24587,910 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="48"/>
-    <col min="2" max="2" width="13.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="94" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="4.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>42030</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3</f>
+        <v>42030</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>42030</v>
+      </c>
+      <c r="I3" s="9">
+        <f>H3</f>
+        <v>42030</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="20">
+        <f>G3/J3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>42030</v>
+      </c>
+      <c r="F4" s="9">
+        <v>42030</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>42030</v>
+      </c>
+      <c r="I4" s="9">
+        <v>42030</v>
+      </c>
+      <c r="J4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K23" si="0">G4/J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>42030</v>
+      </c>
+      <c r="F5" s="9">
+        <v>42030</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>42030</v>
+      </c>
+      <c r="I5" s="9">
+        <v>42030</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42063</v>
+      </c>
+      <c r="F6" s="9">
+        <v>42041</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>42063</v>
+      </c>
+      <c r="I6" s="9">
+        <v>42041</v>
+      </c>
+      <c r="J6" s="13">
+        <v>6</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="F7" s="9">
+        <v>42034</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I7" s="9">
+        <v>42034</v>
+      </c>
+      <c r="J7" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42031</v>
+      </c>
+      <c r="F8" s="9">
+        <v>42034</v>
+      </c>
+      <c r="G8" s="13">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I8" s="9">
+        <v>42034</v>
+      </c>
+      <c r="J8" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42031</v>
+      </c>
+      <c r="F9" s="9">
+        <v>42031</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>42031</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42031</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42036</v>
+      </c>
+      <c r="F10" s="9">
+        <v>42037</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42036</v>
+      </c>
+      <c r="I10" s="9">
+        <v>42037</v>
+      </c>
+      <c r="J10" s="13">
+        <v>5</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42063</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>42062</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42063</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42063</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42063</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>42062</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42038</v>
+      </c>
+      <c r="F14" s="9">
+        <v>42038</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>42041</v>
+      </c>
+      <c r="I14" s="9">
+        <v>42041</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <f>F15-E15</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42030</v>
+      </c>
+      <c r="F15" s="9">
+        <v>42037</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>42042</v>
+      </c>
+      <c r="I15" s="9">
+        <v>42042</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42036</v>
+      </c>
+      <c r="F16" s="9">
+        <v>42036</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>42042</v>
+      </c>
+      <c r="I16" s="9">
+        <v>42042</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>14</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>42036</v>
+      </c>
+      <c r="F17" s="9">
+        <v>42040</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>42042</v>
+      </c>
+      <c r="I17" s="26">
+        <v>42043</v>
+      </c>
+      <c r="J17" s="19">
+        <v>8</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="0"/>
+        <v>1.0625</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="82">
+        <v>1</v>
+      </c>
+      <c r="E18" s="83">
+        <v>42031</v>
+      </c>
+      <c r="F18" s="83">
+        <v>42031</v>
+      </c>
+      <c r="G18" s="82">
+        <v>1</v>
+      </c>
+      <c r="H18" s="83">
+        <v>42031</v>
+      </c>
+      <c r="I18" s="83">
+        <v>42031</v>
+      </c>
+      <c r="J18" s="82">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42032</v>
+      </c>
+      <c r="F19" s="9">
+        <v>42063</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>42038</v>
+      </c>
+      <c r="I19" s="9">
+        <v>42038</v>
+      </c>
+      <c r="J19" s="40">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42043</v>
+      </c>
+      <c r="F20" s="9">
+        <v>42043</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>42043</v>
+      </c>
+      <c r="I20" s="9">
+        <v>42043</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>42034</v>
+      </c>
+      <c r="F21" s="9">
+        <v>42043</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>42034</v>
+      </c>
+      <c r="I21" s="9">
+        <v>42043</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42038</v>
+      </c>
+      <c r="F22" s="9">
+        <v>42038</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>42038</v>
+      </c>
+      <c r="I22" s="9">
+        <v>42038</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>42043</v>
+      </c>
+      <c r="F23" s="9">
+        <v>42043</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>42043</v>
+      </c>
+      <c r="I23" s="9">
+        <v>42043</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="890" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Iteration 6" sheetId="14" r:id="rId8"/>
     <sheet name="Iteration 7" sheetId="15" r:id="rId9"/>
     <sheet name="Iteration 8" sheetId="16" r:id="rId10"/>
-    <sheet name="By Iteration (Total Workload)" sheetId="17" r:id="rId11"/>
+    <sheet name="Iteration 9" sheetId="21" r:id="rId11"/>
     <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId12"/>
   </sheets>
   <externalReferences>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -547,6 +547,42 @@
   <si>
     <t>Added new requirements, before beta release. Managed to solve bugs within debugging time BUT hours increased BECAUSE of the ad hoc tasks.</t>
   </si>
+  <si>
+    <t>Iteration 9 (9 February 2015 - 22 February 2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update use scenario, ER diagram </t>
+  </si>
+  <si>
+    <t>Update sequence diagramm, use case diagram</t>
+  </si>
+  <si>
+    <t>Changes from previous client meeting - add in discontinue state in create state. Should have a NA</t>
+  </si>
+  <si>
+    <t>Responsive patient management, ward management</t>
+  </si>
+  <si>
+    <t>Student's Assessment - Export Submission</t>
+  </si>
+  <si>
+    <t>UI Improvements</t>
+  </si>
+  <si>
+    <t>Debugging of failed test case</t>
+  </si>
+  <si>
+    <t>Update wiki with progress, update mid term wiki</t>
+  </si>
+  <si>
+    <t>Internal Meeting 19 - prepare for midterm presentation</t>
+  </si>
+  <si>
+    <t>Mid Term Presentation</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting 4</t>
+  </si>
 </sst>
 </file>
 
@@ -629,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +847,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -968,6 +1010,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -978,20 +1033,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1063,7 +1108,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1227,9 +1271,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1271,7 +1313,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1335,11 +1376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889228496"/>
-        <c:axId val="-889227408"/>
+        <c:axId val="-158709712"/>
+        <c:axId val="-158711344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889228496"/>
+        <c:axId val="-158709712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1412,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1437,7 +1477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889227408"/>
+        <c:crossAx val="-158711344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1445,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889227408"/>
+        <c:axId val="-158711344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1492,7 +1532,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1553,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889228496"/>
+        <c:crossAx val="-158709712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1568,7 +1607,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1953,11 +1991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736637312"/>
-        <c:axId val="-736856800"/>
+        <c:axId val="-2141971984"/>
+        <c:axId val="-2141971440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736637312"/>
+        <c:axId val="-2141971984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736856800"/>
+        <c:crossAx val="-2141971440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736856800"/>
+        <c:axId val="-2141971440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2060,7 +2098,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736637312"/>
+        <c:crossAx val="-2141971984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2075,6 +2113,479 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 9'!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update use scenario, ER diagram </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Update sequence diagramm, use case diagram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Changes from previous client meeting - add in discontinue state in create state. Should have a NA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Responsive patient management, ward management</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Student's Assessment - Export Submission</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UI Improvements</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Debugging of failed test case</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Update wiki with progress, update mid term wiki</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Internal Meeting 19 - prepare for midterm presentation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mid Term Presentation</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Supervisor Meeting 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 9'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2141983408"/>
+        <c:axId val="-2141982864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2141983408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141982864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141982864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141983408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2156,7 +2667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2831,11 +3341,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-736850816"/>
-        <c:axId val="-736854624"/>
+        <c:axId val="-158723856"/>
+        <c:axId val="-158724400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-736850816"/>
+        <c:axId val="-158723856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +3388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736854624"/>
+        <c:crossAx val="-158724400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2886,7 +3396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736854624"/>
+        <c:axId val="-158724400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +3447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736850816"/>
+        <c:crossAx val="-158723856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,11 +3790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736638944"/>
-        <c:axId val="-736649824"/>
+        <c:axId val="-158713520"/>
+        <c:axId val="-158720592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736638944"/>
+        <c:axId val="-158713520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736649824"/>
+        <c:crossAx val="-158720592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3335,7 +3845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736649824"/>
+        <c:axId val="-158720592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3387,7 +3897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736638944"/>
+        <c:crossAx val="-158713520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3798,11 +4308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736652000"/>
-        <c:axId val="-736650912"/>
+        <c:axId val="-158718960"/>
+        <c:axId val="-158722224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736652000"/>
+        <c:axId val="-158718960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +4355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736650912"/>
+        <c:crossAx val="-158722224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3853,7 +4363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736650912"/>
+        <c:axId val="-158722224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3905,7 +4415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736652000"/>
+        <c:crossAx val="-158718960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4298,11 +4808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736646560"/>
-        <c:axId val="-736641664"/>
+        <c:axId val="-158720048"/>
+        <c:axId val="-158714064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736646560"/>
+        <c:axId val="-158720048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4345,7 +4855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736641664"/>
+        <c:crossAx val="-158714064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4353,7 +4863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736641664"/>
+        <c:axId val="-158714064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4405,7 +4915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736646560"/>
+        <c:crossAx val="-158720048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4768,11 +5278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736648192"/>
-        <c:axId val="-736643296"/>
+        <c:axId val="-158711888"/>
+        <c:axId val="-158710256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736648192"/>
+        <c:axId val="-158711888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,7 +5325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736643296"/>
+        <c:crossAx val="-158710256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4823,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736643296"/>
+        <c:axId val="-158710256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4875,7 +5385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736648192"/>
+        <c:crossAx val="-158711888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5220,11 +5730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736640032"/>
-        <c:axId val="-736647104"/>
+        <c:axId val="-2141980688"/>
+        <c:axId val="-2141972528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736640032"/>
+        <c:axId val="-2141980688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736647104"/>
+        <c:crossAx val="-2141972528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5275,7 +5785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736647104"/>
+        <c:axId val="-2141972528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5327,7 +5837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736640032"/>
+        <c:crossAx val="-2141980688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5708,11 +6218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736642208"/>
-        <c:axId val="-736651456"/>
+        <c:axId val="-2141981232"/>
+        <c:axId val="-2141973616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736642208"/>
+        <c:axId val="-2141981232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5755,7 +6265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736651456"/>
+        <c:crossAx val="-2141973616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5763,7 +6273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736651456"/>
+        <c:axId val="-2141973616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5815,7 +6325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736642208"/>
+        <c:crossAx val="-2141981232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6190,11 +6700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-736637856"/>
-        <c:axId val="-736646016"/>
+        <c:axId val="-2141977424"/>
+        <c:axId val="-2141976336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-736637856"/>
+        <c:axId val="-2141977424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6237,7 +6747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736646016"/>
+        <c:crossAx val="-2141976336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6245,7 +6755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-736646016"/>
+        <c:axId val="-2141976336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6297,7 +6807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-736637856"/>
+        <c:crossAx val="-2141977424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6416,6 +6926,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7279,6 +7829,509 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11877,6 +12930,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12621,7 +13711,7 @@
   </sheetPr>
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B57" sqref="A57:M83"/>
     </sheetView>
   </sheetViews>
@@ -12647,26 +13737,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="O1" s="62" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="O1" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -13545,20 +14635,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -14575,20 +15665,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -15473,20 +16563,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -16111,20 +17201,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -16634,20 +17724,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="61"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="61"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -17384,20 +18474,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="61" t="s">
+      <c r="A124" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -18098,20 +19188,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="61" t="s">
+      <c r="A144" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="61"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="61"/>
-      <c r="L144" s="61"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -18975,15 +20065,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A144:L144"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A47:L47"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="A70:L70"/>
     <mergeCell ref="A88:L88"/>
     <mergeCell ref="A103:L103"/>
     <mergeCell ref="A124:L124"/>
-    <mergeCell ref="A144:L144"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A47:L47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19016,20 +20106,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -19902,13 +20992,681 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I4" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I5" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I6" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16">
+        <f>G6/J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F7" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I7" s="28">
+        <v>42047</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="48">
+        <f>G7/J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F8" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I8" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K8" s="48">
+        <f>G8/J8</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F9" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I9" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4</v>
+      </c>
+      <c r="K9" s="48">
+        <f>G9/J9</f>
+        <v>1.25</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F10" s="28">
+        <v>42046</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I10" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="48">
+        <f>G10/J10</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42048</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42048</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42048</v>
+      </c>
+      <c r="I11" s="8">
+        <v>42048</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42047</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42048</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42049</v>
+      </c>
+      <c r="I12" s="8">
+        <v>42049</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42049</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42050</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>42049</v>
+      </c>
+      <c r="I13" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J13" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="16">
+        <f>G13/J13</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F14" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I14" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F15" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I15" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>42052</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42052</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>42052</v>
+      </c>
+      <c r="I16" s="8">
+        <v>42052</v>
+      </c>
+      <c r="J16" s="15">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23">
+        <v>42053</v>
+      </c>
+      <c r="F17" s="23">
+        <v>42053</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="23">
+        <v>42053</v>
+      </c>
+      <c r="I17" s="23">
+        <v>42053</v>
+      </c>
+      <c r="J17" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42045</v>
+      </c>
+      <c r="F18" s="8">
+        <v>42045</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>42045</v>
+      </c>
+      <c r="I18" s="8">
+        <v>42045</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <f>G18/J18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20036,20 +21794,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -20091,15 +21849,15 @@
       <c r="M2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -20140,25 +21898,25 @@
       <c r="M3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="S3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="U3" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20977,20 +22735,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -22007,20 +23765,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="60"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -22905,20 +24663,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="60"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -23543,20 +25301,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="61" t="s">
+      <c r="A88" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -24066,20 +25824,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="61"/>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="61"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="61"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -24816,20 +26574,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="61" t="s">
+      <c r="A124" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="61"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -25530,20 +27288,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="61" t="s">
+      <c r="A144" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="61"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="61"/>
-      <c r="L144" s="61"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -26445,20 +28203,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27201,20 +28959,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -28193,20 +29951,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -29062,20 +30820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -29846,20 +31604,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -30403,20 +32161,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -31187,20 +32945,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="890" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="890"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="181">
   <si>
     <t>No</t>
   </si>
@@ -539,9 +539,6 @@
     <t>Exam period</t>
   </si>
   <si>
-    <t>School start</t>
-  </si>
-  <si>
     <t>Debugging took longer</t>
   </si>
   <si>
@@ -583,12 +580,21 @@
   <si>
     <t>Supervisor Meeting 4</t>
   </si>
+  <si>
+    <t>School start, ad hoc tasks</t>
+  </si>
+  <si>
+    <t>Ad hoc - Case Management - reset case for lecturer</t>
+  </si>
+  <si>
+    <t>Ad hoc - reset lecturer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +667,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -847,7 +859,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1038,6 +1050,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,6 +1132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1183,10 +1208,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$P$3:$P$10</c:f>
+              <c:f>'By Iterations'!$P$3:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>29.5</c:v>
                 </c:pt>
@@ -1203,13 +1228,16 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,7 +1299,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1313,6 +1343,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1333,10 +1364,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$Q$3:$Q$10</c:f>
+              <c:f>'By Iterations'!$Q$3:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>25.5</c:v>
                 </c:pt>
@@ -1360,6 +1391,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>59.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158709712"/>
-        <c:axId val="-158711344"/>
+        <c:axId val="-2102403904"/>
+        <c:axId val="-2102402272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158709712"/>
+        <c:axId val="-2102403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,6 +1446,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1477,7 +1512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158711344"/>
+        <c:crossAx val="-2102402272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158711344"/>
+        <c:axId val="-2102402272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1532,6 +1567,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1592,7 +1628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158709712"/>
+        <c:crossAx val="-2102403904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1607,6 +1643,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1991,11 +2028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141971984"/>
-        <c:axId val="-2141971440"/>
+        <c:axId val="-2047110400"/>
+        <c:axId val="-2047102240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141971984"/>
+        <c:axId val="-2047110400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141971440"/>
+        <c:crossAx val="-2047102240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2046,7 +2083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141971440"/>
+        <c:axId val="-2047102240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2098,7 +2135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141971984"/>
+        <c:crossAx val="-2047110400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2463,11 +2500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141983408"/>
-        <c:axId val="-2141982864"/>
+        <c:axId val="-2047104416"/>
+        <c:axId val="-2047111488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141983408"/>
+        <c:axId val="-2047104416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141982864"/>
+        <c:crossAx val="-2047111488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2518,7 +2555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141982864"/>
+        <c:axId val="-2047111488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2570,7 +2607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141983408"/>
+        <c:crossAx val="-2047104416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3341,11 +3378,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-158723856"/>
-        <c:axId val="-158724400"/>
+        <c:axId val="-2102397920"/>
+        <c:axId val="-194119360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-158723856"/>
+        <c:axId val="-2102397920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158724400"/>
+        <c:crossAx val="-194119360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158724400"/>
+        <c:axId val="-194119360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158723856"/>
+        <c:crossAx val="-2102397920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3790,11 +3827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158713520"/>
-        <c:axId val="-158720592"/>
+        <c:axId val="-73012512"/>
+        <c:axId val="-73001632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158713520"/>
+        <c:axId val="-73012512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158720592"/>
+        <c:crossAx val="-73001632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,7 +3882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158720592"/>
+        <c:axId val="-73001632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3897,7 +3934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158713520"/>
+        <c:crossAx val="-73012512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4308,11 +4345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158718960"/>
-        <c:axId val="-158722224"/>
+        <c:axId val="-73016864"/>
+        <c:axId val="-73008704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158718960"/>
+        <c:axId val="-73016864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4355,7 +4392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158722224"/>
+        <c:crossAx val="-73008704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4363,7 +4400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158722224"/>
+        <c:axId val="-73008704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4415,7 +4452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158718960"/>
+        <c:crossAx val="-73016864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4808,11 +4845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158720048"/>
-        <c:axId val="-158714064"/>
+        <c:axId val="-73009792"/>
+        <c:axId val="-73004352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158720048"/>
+        <c:axId val="-73009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158714064"/>
+        <c:crossAx val="-73004352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4863,7 +4900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158714064"/>
+        <c:axId val="-73004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4915,7 +4952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158720048"/>
+        <c:crossAx val="-73009792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5278,11 +5315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158711888"/>
-        <c:axId val="-158710256"/>
+        <c:axId val="-73014688"/>
+        <c:axId val="-73010336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158711888"/>
+        <c:axId val="-73014688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158710256"/>
+        <c:crossAx val="-73010336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +5370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158710256"/>
+        <c:axId val="-73010336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5385,7 +5422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158711888"/>
+        <c:crossAx val="-73014688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5730,11 +5767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141980688"/>
-        <c:axId val="-2141972528"/>
+        <c:axId val="-73009248"/>
+        <c:axId val="-73016320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141980688"/>
+        <c:axId val="-73009248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,7 +5814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141972528"/>
+        <c:crossAx val="-73016320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5785,7 +5822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141972528"/>
+        <c:axId val="-73016320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5837,7 +5874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141980688"/>
+        <c:crossAx val="-73009248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6218,11 +6255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141981232"/>
-        <c:axId val="-2141973616"/>
+        <c:axId val="-73015776"/>
+        <c:axId val="-73004896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141981232"/>
+        <c:axId val="-73015776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6265,7 +6302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141973616"/>
+        <c:crossAx val="-73004896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6273,7 +6310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141973616"/>
+        <c:axId val="-73004896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6325,7 +6362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141981232"/>
+        <c:crossAx val="-73015776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6700,11 +6737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141977424"/>
-        <c:axId val="-2141976336"/>
+        <c:axId val="-73002720"/>
+        <c:axId val="-73015232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141977424"/>
+        <c:axId val="-73002720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6747,7 +6784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141976336"/>
+        <c:crossAx val="-73015232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6755,7 +6792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141976336"/>
+        <c:axId val="-73015232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6807,7 +6844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141977424"/>
+        <c:crossAx val="-73002720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -13709,16 +13746,16 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B57" sqref="A57:M83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="9" style="31" customWidth="1"/>
     <col min="5" max="6" width="9.5703125" style="31" customWidth="1"/>
@@ -14081,7 +14118,7 @@
         <v>34</v>
       </c>
       <c r="R7" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -14130,15 +14167,15 @@
         <v>6</v>
       </c>
       <c r="P8" s="54">
-        <f>SUM(G105:G122)-5</f>
-        <v>40.5</v>
+        <f>SUM(G105:G122)-6.5</f>
+        <v>39</v>
       </c>
       <c r="Q8" s="54">
         <f>SUM(J105:J122)</f>
         <v>41.25</v>
       </c>
       <c r="R8" s="54" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -14187,14 +14224,16 @@
         <v>7</v>
       </c>
       <c r="P9" s="54">
-        <f>SUM(G126:G142)</f>
-        <v>42</v>
+        <f>SUM(G126:G142)-2</f>
+        <v>40</v>
       </c>
       <c r="Q9" s="54">
         <f>SUM(J126:J142)</f>
         <v>42.15</v>
       </c>
-      <c r="R9" s="54"/>
+      <c r="R9" s="54" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -14242,15 +14281,15 @@
         <v>8</v>
       </c>
       <c r="P10" s="54">
-        <f>SUM(G146:G166)-4</f>
-        <v>54.5</v>
+        <f>SUM(G146:G166)-6</f>
+        <v>52.5</v>
       </c>
       <c r="Q10" s="54">
         <f>SUM(J146:J166)</f>
         <v>59.25</v>
       </c>
       <c r="R10" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -14295,6 +14334,18 @@
       <c r="M11" s="54" t="s">
         <v>0</v>
       </c>
+      <c r="O11" s="54">
+        <v>9</v>
+      </c>
+      <c r="P11" s="54">
+        <f>SUM(G171:G185)</f>
+        <v>42</v>
+      </c>
+      <c r="Q11" s="54">
+        <f>SUM(J171:J185)</f>
+        <v>41.5</v>
+      </c>
+      <c r="R11" s="54"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -17899,7 +17950,7 @@
       <c r="A108" s="11">
         <v>4</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="69" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -18016,7 +18067,7 @@
       <c r="A111" s="6">
         <v>7</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="68" t="s">
         <v>118</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -18728,8 +18779,8 @@
       <c r="A131" s="6">
         <v>6</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>132</v>
+      <c r="B131" s="70" t="s">
+        <v>179</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>17</v>
@@ -19559,7 +19610,7 @@
       <c r="A154" s="6">
         <v>9</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="71" t="s">
         <v>145</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -19598,7 +19649,7 @@
       <c r="A155" s="6">
         <v>10</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="71" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -19637,7 +19688,7 @@
       <c r="A156" s="6">
         <v>11</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="71" t="s">
         <v>148</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -20063,8 +20114,655 @@
         <v>12</v>
       </c>
     </row>
+    <row r="168" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="60"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="60"/>
+    </row>
+    <row r="169" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+      <c r="I170" s="67"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>2</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="7">
+        <v>1</v>
+      </c>
+      <c r="E171" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F171" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G171" s="7">
+        <v>2</v>
+      </c>
+      <c r="H171" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I171" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J171" s="7">
+        <v>2</v>
+      </c>
+      <c r="K171" s="16">
+        <v>1</v>
+      </c>
+      <c r="L171" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>3</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="7">
+        <v>1</v>
+      </c>
+      <c r="E172" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F172" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G172" s="7">
+        <v>2</v>
+      </c>
+      <c r="H172" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I172" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J172" s="7">
+        <v>2</v>
+      </c>
+      <c r="K172" s="16">
+        <v>1</v>
+      </c>
+      <c r="L172" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>1</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="7">
+        <v>1</v>
+      </c>
+      <c r="E173" s="8">
+        <v>42044</v>
+      </c>
+      <c r="F173" s="8">
+        <v>42044</v>
+      </c>
+      <c r="G173" s="7">
+        <v>2</v>
+      </c>
+      <c r="H173" s="8">
+        <v>42044</v>
+      </c>
+      <c r="I173" s="8">
+        <v>42044</v>
+      </c>
+      <c r="J173" s="7">
+        <v>2</v>
+      </c>
+      <c r="K173" s="16">
+        <f>G173/J173</f>
+        <v>1</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
+        <v>2</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="11">
+        <v>1</v>
+      </c>
+      <c r="E174" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F174" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G174" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H174" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I174" s="28">
+        <v>42047</v>
+      </c>
+      <c r="J174" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K174" s="48">
+        <f>G174/J174</f>
+        <v>1</v>
+      </c>
+      <c r="L174" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
+        <v>3</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D175" s="11">
+        <v>1</v>
+      </c>
+      <c r="E175" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F175" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G175" s="11">
+        <v>3</v>
+      </c>
+      <c r="H175" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I175" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J175" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K175" s="48">
+        <f>G175/J175</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>4</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" s="11">
+        <v>2</v>
+      </c>
+      <c r="E176" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F176" s="28">
+        <v>42047</v>
+      </c>
+      <c r="G176" s="11">
+        <v>5</v>
+      </c>
+      <c r="H176" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I176" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J176" s="11">
+        <v>4</v>
+      </c>
+      <c r="K176" s="48">
+        <f>G176/J176</f>
+        <v>1.25</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
+        <v>5</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="28">
+        <v>42044</v>
+      </c>
+      <c r="F177" s="28">
+        <v>42046</v>
+      </c>
+      <c r="G177" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H177" s="28">
+        <v>42044</v>
+      </c>
+      <c r="I177" s="28">
+        <v>42046</v>
+      </c>
+      <c r="J177" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="K177" s="48">
+        <f>G177/J177</f>
+        <v>1</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="11">
+        <v>6</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="7">
+        <v>1</v>
+      </c>
+      <c r="E178" s="8">
+        <v>42048</v>
+      </c>
+      <c r="F178" s="8">
+        <v>42048</v>
+      </c>
+      <c r="G178" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H178" s="8">
+        <v>42048</v>
+      </c>
+      <c r="I178" s="8">
+        <v>42048</v>
+      </c>
+      <c r="J178" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K178" s="16">
+        <v>1</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>7</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="7">
+        <v>2</v>
+      </c>
+      <c r="E179" s="8">
+        <v>42047</v>
+      </c>
+      <c r="F179" s="8">
+        <v>42048</v>
+      </c>
+      <c r="G179" s="7">
+        <v>6</v>
+      </c>
+      <c r="H179" s="8">
+        <v>42049</v>
+      </c>
+      <c r="I179" s="8">
+        <v>42049</v>
+      </c>
+      <c r="J179" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="K179" s="16">
+        <v>1</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="18">
+        <v>8</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="7">
+        <v>1</v>
+      </c>
+      <c r="E180" s="8">
+        <v>42049</v>
+      </c>
+      <c r="F180" s="8">
+        <v>42050</v>
+      </c>
+      <c r="G180" s="7">
+        <v>5</v>
+      </c>
+      <c r="H180" s="8">
+        <v>42049</v>
+      </c>
+      <c r="I180" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J180" s="15">
+        <v>5</v>
+      </c>
+      <c r="K180" s="16">
+        <f>G180/J180</f>
+        <v>1</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>9</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" s="7">
+        <v>1</v>
+      </c>
+      <c r="E181" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F181" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G181" s="7">
+        <v>1</v>
+      </c>
+      <c r="H181" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I181" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J181" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K181" s="16">
+        <v>1</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>10</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="7">
+        <v>1</v>
+      </c>
+      <c r="E182" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F182" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G182" s="7">
+        <v>3</v>
+      </c>
+      <c r="H182" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I182" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J182" s="15">
+        <v>3</v>
+      </c>
+      <c r="K182" s="16">
+        <v>1</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>12</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="7">
+        <v>1</v>
+      </c>
+      <c r="E183" s="8">
+        <v>42052</v>
+      </c>
+      <c r="F183" s="8">
+        <v>42052</v>
+      </c>
+      <c r="G183" s="7">
+        <v>5</v>
+      </c>
+      <c r="H183" s="8">
+        <v>42052</v>
+      </c>
+      <c r="I183" s="8">
+        <v>42052</v>
+      </c>
+      <c r="J183" s="15">
+        <v>5</v>
+      </c>
+      <c r="K183" s="16">
+        <v>1</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="21">
+        <v>13</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="22">
+        <v>1</v>
+      </c>
+      <c r="E184" s="23">
+        <v>42053</v>
+      </c>
+      <c r="F184" s="23">
+        <v>42053</v>
+      </c>
+      <c r="G184" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="H184" s="23">
+        <v>42053</v>
+      </c>
+      <c r="I184" s="23">
+        <v>42053</v>
+      </c>
+      <c r="J184" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="K184" s="24">
+        <v>1</v>
+      </c>
+      <c r="L184" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="7">
+        <v>14</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="7">
+        <v>1</v>
+      </c>
+      <c r="E185" s="8">
+        <v>42045</v>
+      </c>
+      <c r="F185" s="8">
+        <v>42045</v>
+      </c>
+      <c r="G185" s="7">
+        <v>1</v>
+      </c>
+      <c r="H185" s="8">
+        <v>42045</v>
+      </c>
+      <c r="I185" s="8">
+        <v>42045</v>
+      </c>
+      <c r="J185" s="7">
+        <v>1</v>
+      </c>
+      <c r="K185" s="9">
+        <f>G185/J185</f>
+        <v>1</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A168:L168"/>
+    <mergeCell ref="A170:L170"/>
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A21:L21"/>
@@ -20994,8 +21692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L18" sqref="A1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21017,7 +21715,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -21128,7 +21826,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -21166,7 +21864,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -21205,7 +21903,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
@@ -21244,7 +21942,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>93</v>
@@ -21283,7 +21981,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>65</v>
@@ -21322,7 +22020,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
@@ -21435,7 +22133,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>11</v>
@@ -21512,7 +22210,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>18</v>
@@ -21550,7 +22248,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>11</v>
@@ -21588,7 +22286,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>11</v>
@@ -21626,7 +22324,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>11</v>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <sheet name="Iteration 7" sheetId="15" r:id="rId9"/>
     <sheet name="Iteration 8" sheetId="16" r:id="rId10"/>
     <sheet name="Iteration 9" sheetId="21" r:id="rId11"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId12"/>
+    <sheet name="Iteration 10" sheetId="22" r:id="rId12"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="194">
   <si>
     <t>No</t>
   </si>
@@ -589,6 +590,45 @@
   <si>
     <t>Ad hoc - reset lecturer</t>
   </si>
+  <si>
+    <t>Iteration 10 (23 February 2015 - 8 March 2015)</t>
+  </si>
+  <si>
+    <t>Udpate ER Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad hoc - Refractor codes based on db changes </t>
+  </si>
+  <si>
+    <t>Grace, Shi Qi</t>
+  </si>
+  <si>
+    <t>PDF Recognition Case Setup</t>
+  </si>
+  <si>
+    <t>Wei Yi, Jocelyn, Gladys</t>
+  </si>
+  <si>
+    <t>Generation of test scenarios for functionalities in Iteration 10</t>
+  </si>
+  <si>
+    <t>Internal Meeting 20</t>
+  </si>
+  <si>
+    <t>Internal Meeting 21</t>
+  </si>
+  <si>
+    <t>Superviser Meeting</t>
+  </si>
+  <si>
+    <t>Preparing for acceptance</t>
+  </si>
+  <si>
+    <t>Restructuring database</t>
+  </si>
+  <si>
+    <t>Actual higher because got ad hoc task - restructuring db</t>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +899,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1026,6 +1066,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,6 +1089,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1046,21 +1104,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1206,12 +1249,83 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$P$3:$P$11</c:f>
+              <c:f>'By Iterations'!$P$3:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>29.5</c:v>
                 </c:pt>
@@ -1238,6 +1352,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1481,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$Q$3:$Q$11</c:f>
+              <c:f>'By Iterations'!$Q$3:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>25.5</c:v>
                 </c:pt>
@@ -1394,6 +1511,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2102403904"/>
-        <c:axId val="-2102402272"/>
+        <c:axId val="626538352"/>
+        <c:axId val="626538896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2102403904"/>
+        <c:axId val="626538352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102402272"/>
+        <c:crossAx val="626538896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1520,7 +1640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102402272"/>
+        <c:axId val="626538896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1628,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102403904"/>
+        <c:crossAx val="626538352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2028,11 +2148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2047110400"/>
-        <c:axId val="-2047102240"/>
+        <c:axId val="675958624"/>
+        <c:axId val="675964064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2047110400"/>
+        <c:axId val="675958624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047102240"/>
+        <c:crossAx val="675964064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2083,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047102240"/>
+        <c:axId val="675964064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2135,7 +2255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047110400"/>
+        <c:crossAx val="675958624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2254,6 +2374,476 @@
                 <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>Iteration 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 9'!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>Update UI Mockup</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Update use scenario, ER diagram </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Update sequence diagramm, use case diagram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Changes from previous client meeting - add in discontinue state in create state. Should have a NA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Responsive patient management, ward management</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Student's Assessment - Export Submission</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>UI Improvements</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Debugging of failed test case</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Update wiki with progress, update mid term wiki</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Internal Meeting 19 - prepare for midterm presentation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mid Term Presentation</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Supervisor Meeting 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 9'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="675953728"/>
+        <c:axId val="675965696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675953728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675965696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675965696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675953728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2382,80 +2972,80 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Iteration 9'!$B$3:$B$18</c:f>
+              <c:f>'Iteration 10'!$B$3:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Udpate ER Diagram</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>Update UI Mockup</c:v>
+                  <c:v>Ad hoc - Refractor codes based on db changes </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Update use scenario, ER diagram </c:v>
+                  <c:v>PDF Recognition Case Setup</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Update sequence diagramm, use case diagram</c:v>
+                  <c:v>Deployment</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Changes from previous client meeting - add in discontinue state in create state. Should have a NA</c:v>
+                  <c:v>Generation of test scenarios for functionalities in Iteration 10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Responsive patient management, ward management</c:v>
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Student's Assessment - Export Submission</c:v>
+                  <c:v>Debugging of failed test cases</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>UI Improvements</c:v>
+                  <c:v>Internal Meeting 20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Deployment</c:v>
+                  <c:v>Internal Meeting 21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                  <c:v>Client Meeting</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Debugging of failed test case</c:v>
+                  <c:v>Superviser Meeting</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Gather metrics and update metrics</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Update wiki with progress, update mid term wiki</c:v>
+                  <c:v>Update wiki with progress </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Internal Meeting 19 - prepare for midterm presentation</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Mid Term Presentation</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Supervisor Meeting 4</c:v>
+                  <c:v>Restructuring database</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Iteration 9'!$K$3:$K$18</c:f>
+              <c:f>'Iteration 10'!$K$3:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2467,7 +3057,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -2476,12 +3066,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2500,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2047104416"/>
-        <c:axId val="-2047111488"/>
+        <c:axId val="675958080"/>
+        <c:axId val="675954272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2047104416"/>
+        <c:axId val="675958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +3131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047111488"/>
+        <c:crossAx val="675954272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +3139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047111488"/>
+        <c:axId val="675954272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2607,7 +3191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047104416"/>
+        <c:crossAx val="675958080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2704,6 +3288,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3378,11 +3963,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2102397920"/>
-        <c:axId val="-194119360"/>
+        <c:axId val="675210864"/>
+        <c:axId val="675217392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102397920"/>
+        <c:axId val="675210864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,7 +4010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194119360"/>
+        <c:crossAx val="675217392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3433,7 +4018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-194119360"/>
+        <c:axId val="675217392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +4069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102397920"/>
+        <c:crossAx val="675210864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3827,11 +4412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73012512"/>
-        <c:axId val="-73001632"/>
+        <c:axId val="675220112"/>
+        <c:axId val="675213040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73012512"/>
+        <c:axId val="675220112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +4459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73001632"/>
+        <c:crossAx val="675213040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3882,7 +4467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73001632"/>
+        <c:axId val="675213040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3934,7 +4519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73012512"/>
+        <c:crossAx val="675220112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4345,11 +4930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73016864"/>
-        <c:axId val="-73008704"/>
+        <c:axId val="675210320"/>
+        <c:axId val="675204880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73016864"/>
+        <c:axId val="675210320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,7 +4977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73008704"/>
+        <c:crossAx val="675204880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4400,7 +4985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73008704"/>
+        <c:axId val="675204880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4452,7 +5037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73016864"/>
+        <c:crossAx val="675210320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4845,11 +5430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73009792"/>
-        <c:axId val="-73004352"/>
+        <c:axId val="675208144"/>
+        <c:axId val="675213584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73009792"/>
+        <c:axId val="675208144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4892,7 +5477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73004352"/>
+        <c:crossAx val="675213584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4900,7 +5485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73004352"/>
+        <c:axId val="675213584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4952,7 +5537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73009792"/>
+        <c:crossAx val="675208144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5315,11 +5900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73014688"/>
-        <c:axId val="-73010336"/>
+        <c:axId val="675206512"/>
+        <c:axId val="675207056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73014688"/>
+        <c:axId val="675206512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73010336"/>
+        <c:crossAx val="675207056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5370,7 +5955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73010336"/>
+        <c:axId val="675207056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5422,7 +6007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73014688"/>
+        <c:crossAx val="675206512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5767,11 +6352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73009248"/>
-        <c:axId val="-73016320"/>
+        <c:axId val="675214128"/>
+        <c:axId val="675209232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73009248"/>
+        <c:axId val="675214128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5814,7 +6399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73016320"/>
+        <c:crossAx val="675209232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5822,7 +6407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73016320"/>
+        <c:axId val="675209232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5874,7 +6459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73009248"/>
+        <c:crossAx val="675214128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6255,11 +6840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73015776"/>
-        <c:axId val="-73004896"/>
+        <c:axId val="675214672"/>
+        <c:axId val="675215216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73015776"/>
+        <c:axId val="675214672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6302,7 +6887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73004896"/>
+        <c:crossAx val="675215216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6310,7 +6895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73004896"/>
+        <c:axId val="675215216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6362,7 +6947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73015776"/>
+        <c:crossAx val="675214672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6737,11 +7322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-73002720"/>
-        <c:axId val="-73015232"/>
+        <c:axId val="675219568"/>
+        <c:axId val="675954816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-73002720"/>
+        <c:axId val="675219568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,7 +7369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73015232"/>
+        <c:crossAx val="675954816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6792,7 +7377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-73015232"/>
+        <c:axId val="675954816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6844,7 +7429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-73002720"/>
+        <c:crossAx val="675219568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7003,6 +7588,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8369,6 +8994,509 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13004,6 +14132,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>614742</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13746,10 +14911,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13774,26 +14939,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="O1" s="61" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="O1" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -14005,7 +15170,9 @@
         <f>SUM(J49:J68)</f>
         <v>37.75</v>
       </c>
-      <c r="R5" s="54"/>
+      <c r="R5" s="54" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -14347,7 +15514,7 @@
       </c>
       <c r="R11" s="54"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -14388,6 +15555,20 @@
       <c r="M12" s="54" t="s">
         <v>0</v>
       </c>
+      <c r="O12" s="54">
+        <v>10</v>
+      </c>
+      <c r="P12" s="54">
+        <f>SUM(G189:G202)-7</f>
+        <v>34</v>
+      </c>
+      <c r="Q12" s="54">
+        <f>SUM(J189:J202)</f>
+        <v>39.25</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -14686,20 +15867,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -15420,7 +16601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>17</v>
       </c>
@@ -15716,20 +16897,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="71"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -16194,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>11</v>
       </c>
@@ -16614,20 +17795,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -17252,20 +18433,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="60" t="s">
+      <c r="A88" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -17658,7 +18839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>10</v>
       </c>
@@ -17775,20 +18956,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="60" t="s">
+      <c r="A103" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -17950,7 +19131,7 @@
       <c r="A108" s="11">
         <v>4</v>
       </c>
-      <c r="B108" s="69" t="s">
+      <c r="B108" s="61" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -18063,11 +19244,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>7</v>
       </c>
-      <c r="B111" s="68" t="s">
+      <c r="B111" s="60" t="s">
         <v>118</v>
       </c>
       <c r="C111" s="14" t="s">
@@ -18293,7 +19474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>12</v>
       </c>
@@ -18525,20 +19706,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="60" t="s">
+      <c r="A124" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -18779,7 +19960,7 @@
       <c r="A131" s="6">
         <v>6</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="62" t="s">
         <v>179</v>
       </c>
       <c r="C131" s="14" t="s">
@@ -19239,20 +20420,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="60" t="s">
+      <c r="A144" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="60"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -19610,7 +20791,7 @@
       <c r="A154" s="6">
         <v>9</v>
       </c>
-      <c r="B154" s="71" t="s">
+      <c r="B154" s="63" t="s">
         <v>145</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -19649,7 +20830,7 @@
       <c r="A155" s="6">
         <v>10</v>
       </c>
-      <c r="B155" s="71" t="s">
+      <c r="B155" s="63" t="s">
         <v>147</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -19688,7 +20869,7 @@
       <c r="A156" s="6">
         <v>11</v>
       </c>
-      <c r="B156" s="71" t="s">
+      <c r="B156" s="63" t="s">
         <v>148</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -19802,7 +20983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>13</v>
       </c>
@@ -20115,20 +21296,20 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="60" t="s">
+      <c r="A168" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="60"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="65"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="65"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="65"/>
+      <c r="L168" s="65"/>
     </row>
     <row r="169" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -20169,20 +21350,20 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="67"/>
+      <c r="A170" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="68"/>
+      <c r="H170" s="68"/>
+      <c r="I170" s="68"/>
+      <c r="J170" s="68"/>
+      <c r="K170" s="68"/>
+      <c r="L170" s="68"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
@@ -20759,19 +21940,600 @@
         <v>12</v>
       </c>
     </row>
+    <row r="187" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A187" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="65"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+      <c r="F187" s="65"/>
+      <c r="G187" s="65"/>
+      <c r="H187" s="65"/>
+      <c r="I187" s="65"/>
+      <c r="J187" s="65"/>
+      <c r="K187" s="65"/>
+      <c r="L187" s="65"/>
+    </row>
+    <row r="188" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>1</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="7">
+        <v>1</v>
+      </c>
+      <c r="E189" s="8">
+        <v>42058</v>
+      </c>
+      <c r="F189" s="8">
+        <v>42058</v>
+      </c>
+      <c r="G189" s="7">
+        <v>2</v>
+      </c>
+      <c r="H189" s="8">
+        <v>42058</v>
+      </c>
+      <c r="I189" s="8">
+        <v>42058</v>
+      </c>
+      <c r="J189" s="15">
+        <v>2</v>
+      </c>
+      <c r="K189" s="16">
+        <f>G189/J189</f>
+        <v>1</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>2</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="7">
+        <v>1</v>
+      </c>
+      <c r="E190" s="8">
+        <v>42061</v>
+      </c>
+      <c r="F190" s="8">
+        <v>42061</v>
+      </c>
+      <c r="G190" s="7">
+        <v>4</v>
+      </c>
+      <c r="H190" s="8">
+        <v>42061</v>
+      </c>
+      <c r="I190" s="8">
+        <v>42061</v>
+      </c>
+      <c r="J190" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K190" s="16">
+        <v>1</v>
+      </c>
+      <c r="L190" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
+        <v>3</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D191" s="11">
+        <v>1</v>
+      </c>
+      <c r="E191" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F191" s="28">
+        <v>42063</v>
+      </c>
+      <c r="G191" s="11">
+        <v>10</v>
+      </c>
+      <c r="H191" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I191" s="28">
+        <v>42063</v>
+      </c>
+      <c r="J191" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="K191" s="16">
+        <f>G191/J191</f>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="L191" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="11">
+        <v>4</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D192" s="64">
+        <f>F192-E192</f>
+        <v>10</v>
+      </c>
+      <c r="E192" s="25">
+        <v>42058</v>
+      </c>
+      <c r="F192" s="25">
+        <v>42068</v>
+      </c>
+      <c r="G192" s="12">
+        <v>8</v>
+      </c>
+      <c r="H192" s="25">
+        <v>42058</v>
+      </c>
+      <c r="I192" s="25">
+        <v>42068</v>
+      </c>
+      <c r="J192" s="12">
+        <v>7</v>
+      </c>
+      <c r="K192" s="13">
+        <f>G192/J192</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" s="11">
+        <v>5</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="7">
+        <v>1</v>
+      </c>
+      <c r="E193" s="8">
+        <v>42060</v>
+      </c>
+      <c r="F193" s="8">
+        <v>42060</v>
+      </c>
+      <c r="G193" s="7">
+        <v>1</v>
+      </c>
+      <c r="H193" s="8">
+        <v>42065</v>
+      </c>
+      <c r="I193" s="8">
+        <v>42065</v>
+      </c>
+      <c r="J193" s="15">
+        <v>1</v>
+      </c>
+      <c r="K193" s="16">
+        <v>1</v>
+      </c>
+      <c r="L193" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" s="11">
+        <v>6</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="7">
+        <v>1</v>
+      </c>
+      <c r="E194" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F194" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G194" s="7">
+        <v>2</v>
+      </c>
+      <c r="H194" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I194" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J194" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K194" s="16">
+        <f>G194/J194</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L194" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
+        <v>7</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="7">
+        <v>1</v>
+      </c>
+      <c r="E195" s="8">
+        <v>42060</v>
+      </c>
+      <c r="F195" s="8">
+        <v>42060</v>
+      </c>
+      <c r="G195" s="7">
+        <v>4</v>
+      </c>
+      <c r="H195" s="8">
+        <v>42067</v>
+      </c>
+      <c r="I195" s="8">
+        <v>42067</v>
+      </c>
+      <c r="J195" s="15">
+        <v>4</v>
+      </c>
+      <c r="K195" s="16">
+        <f>G195/J195</f>
+        <v>1</v>
+      </c>
+      <c r="L195" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>8</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="7">
+        <v>1</v>
+      </c>
+      <c r="E196" s="8">
+        <v>42061</v>
+      </c>
+      <c r="F196" s="8">
+        <v>42069</v>
+      </c>
+      <c r="G196" s="7">
+        <v>3</v>
+      </c>
+      <c r="H196" s="8">
+        <v>42067</v>
+      </c>
+      <c r="I196" s="17">
+        <v>42068</v>
+      </c>
+      <c r="J196" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="K196" s="16">
+        <f>G196/J196</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L196" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="11">
+        <v>9</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="28">
+        <v>42060</v>
+      </c>
+      <c r="F197" s="28">
+        <v>42060</v>
+      </c>
+      <c r="G197" s="11">
+        <v>1</v>
+      </c>
+      <c r="H197" s="28">
+        <v>42060</v>
+      </c>
+      <c r="I197" s="28">
+        <v>42060</v>
+      </c>
+      <c r="J197" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K197" s="51">
+        <v>1</v>
+      </c>
+      <c r="L197" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="11">
+        <v>10</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="28">
+        <v>42068</v>
+      </c>
+      <c r="F198" s="28">
+        <v>42068</v>
+      </c>
+      <c r="G198" s="11">
+        <v>1</v>
+      </c>
+      <c r="H198" s="28">
+        <v>42068</v>
+      </c>
+      <c r="I198" s="28">
+        <v>42068</v>
+      </c>
+      <c r="J198" s="11">
+        <v>1</v>
+      </c>
+      <c r="K198" s="51">
+        <v>1</v>
+      </c>
+      <c r="L198" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="11">
+        <v>11</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F199" s="28">
+        <v>42059</v>
+      </c>
+      <c r="G199" s="11">
+        <v>1</v>
+      </c>
+      <c r="H199" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I199" s="28">
+        <v>42059</v>
+      </c>
+      <c r="J199" s="11">
+        <v>1</v>
+      </c>
+      <c r="K199" s="51">
+        <v>1</v>
+      </c>
+      <c r="L199" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="11">
+        <v>12</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F200" s="28">
+        <v>42059</v>
+      </c>
+      <c r="G200" s="11">
+        <v>1</v>
+      </c>
+      <c r="H200" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I200" s="28">
+        <v>42059</v>
+      </c>
+      <c r="J200" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K200" s="48">
+        <f>G200/J200</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L200" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="11">
+        <v>13</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" s="12">
+        <v>1</v>
+      </c>
+      <c r="E201" s="25">
+        <v>42071</v>
+      </c>
+      <c r="F201" s="25">
+        <v>42071</v>
+      </c>
+      <c r="G201" s="12">
+        <v>2</v>
+      </c>
+      <c r="H201" s="25">
+        <v>42071</v>
+      </c>
+      <c r="I201" s="25">
+        <v>42071</v>
+      </c>
+      <c r="J201" s="26">
+        <v>2</v>
+      </c>
+      <c r="K201" s="27">
+        <f>G201/J201</f>
+        <v>1</v>
+      </c>
+      <c r="L201" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="11">
+        <v>14</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" s="12">
+        <v>1</v>
+      </c>
+      <c r="E202" s="25">
+        <v>42071</v>
+      </c>
+      <c r="F202" s="25">
+        <v>42071</v>
+      </c>
+      <c r="G202" s="12">
+        <v>1</v>
+      </c>
+      <c r="H202" s="25">
+        <v>42071</v>
+      </c>
+      <c r="I202" s="25">
+        <v>42071</v>
+      </c>
+      <c r="J202" s="26">
+        <v>1</v>
+      </c>
+      <c r="K202" s="27">
+        <f>G202/J202</f>
+        <v>1</v>
+      </c>
+      <c r="L202" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="A124:L124"/>
     <mergeCell ref="A168:L168"/>
     <mergeCell ref="A170:L170"/>
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A47:L47"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="A124:L124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20804,20 +22566,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21693,7 +23455,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L18" sqref="A1:L18"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21714,20 +23476,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="A1" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21768,20 +23530,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -22369,6 +24131,620 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:AB28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>42058</v>
+      </c>
+      <c r="F3" s="8">
+        <v>42058</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>42058</v>
+      </c>
+      <c r="I3" s="8">
+        <v>42058</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16">
+        <f>G3/J3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F4" s="28">
+        <v>42063</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7</v>
+      </c>
+      <c r="H4" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I4" s="28">
+        <v>42063</v>
+      </c>
+      <c r="J4" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="K4" s="16">
+        <f>G4/J4</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="64">
+        <f>F5-E5</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="25">
+        <v>42058</v>
+      </c>
+      <c r="F5" s="25">
+        <v>42068</v>
+      </c>
+      <c r="G5" s="12">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25">
+        <v>42058</v>
+      </c>
+      <c r="I5" s="25">
+        <v>42068</v>
+      </c>
+      <c r="J5" s="12">
+        <v>7</v>
+      </c>
+      <c r="K5" s="13">
+        <f>G5/J5</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42060</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42060</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>42065</v>
+      </c>
+      <c r="I6" s="8">
+        <v>42065</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42057</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42057</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>42057</v>
+      </c>
+      <c r="I7" s="8">
+        <v>42057</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="16">
+        <f>G7/J7</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42060</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42060</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>42067</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42067</v>
+      </c>
+      <c r="J8" s="15">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <f>G8/J8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42061</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42069</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42067</v>
+      </c>
+      <c r="I9" s="17">
+        <v>42068</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="16">
+        <f>G9/J9</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="28">
+        <v>42060</v>
+      </c>
+      <c r="F10" s="28">
+        <v>42060</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28">
+        <v>42060</v>
+      </c>
+      <c r="I10" s="28">
+        <v>42060</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="28">
+        <v>42068</v>
+      </c>
+      <c r="F11" s="28">
+        <v>42068</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>42068</v>
+      </c>
+      <c r="I11" s="28">
+        <v>42068</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F12" s="28">
+        <v>42059</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I12" s="28">
+        <v>42059</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="28">
+        <v>42059</v>
+      </c>
+      <c r="F13" s="28">
+        <v>42059</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28">
+        <v>42059</v>
+      </c>
+      <c r="I13" s="28">
+        <v>42059</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="48">
+        <f>G13/J13</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>42071</v>
+      </c>
+      <c r="F14" s="25">
+        <v>42071</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="25">
+        <v>42071</v>
+      </c>
+      <c r="I14" s="25">
+        <v>42071</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+      <c r="K14" s="27">
+        <f>G14/J14</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>42071</v>
+      </c>
+      <c r="F15" s="25">
+        <v>42071</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>42071</v>
+      </c>
+      <c r="I15" s="25">
+        <v>42071</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="27">
+        <f>G15/J15</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>42061</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42061</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>42061</v>
+      </c>
+      <c r="I16" s="8">
+        <v>42061</v>
+      </c>
+      <c r="J16" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -22492,20 +24868,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -22547,14 +24923,14 @@
       <c r="M2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
       <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -23433,20 +25809,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -24463,20 +26839,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="71"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -25361,20 +27737,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -25999,20 +28375,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="60" t="s">
+      <c r="A88" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -26522,20 +28898,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="60" t="s">
+      <c r="A103" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="60"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="60"/>
-      <c r="J103" s="60"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="60"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -27272,20 +29648,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="60" t="s">
+      <c r="A124" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="60"/>
-      <c r="K124" s="60"/>
-      <c r="L124" s="60"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -27986,20 +30362,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="60" t="s">
+      <c r="A144" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="60"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -28901,20 +31277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -29657,20 +32033,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -30649,20 +33025,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -31518,20 +33894,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -32302,20 +34678,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -32859,20 +35235,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -33643,20 +36019,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="Iteration 8" sheetId="16" r:id="rId10"/>
     <sheet name="Iteration 9" sheetId="21" r:id="rId11"/>
     <sheet name="Iteration 10" sheetId="22" r:id="rId12"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId13"/>
+    <sheet name="Iteration 11" sheetId="23" r:id="rId13"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="208">
   <si>
     <t>No</t>
   </si>
@@ -628,6 +629,48 @@
   </si>
   <si>
     <t>Actual higher because got ad hoc task - restructuring db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update use case, ER diagram </t>
+  </si>
+  <si>
+    <t>PDF Recognition Case Setup (Insertion to database)</t>
+  </si>
+  <si>
+    <t>Wei Yi, Shi Qi, Grace</t>
+  </si>
+  <si>
+    <t>Auto refresh of patient management</t>
+  </si>
+  <si>
+    <t>Generation of test scenarios for functionalities in Iteration 9</t>
+  </si>
+  <si>
+    <t>Supervisor Meeting</t>
+  </si>
+  <si>
+    <t>Internal Meting</t>
+  </si>
+  <si>
+    <t>Preparing and Fliming for Pitch Video</t>
+  </si>
+  <si>
+    <t>Editing Pitch Video</t>
+  </si>
+  <si>
+    <t>Gladys, Shi Qi, Jocelyn</t>
+  </si>
+  <si>
+    <t>Designing of Poster</t>
+  </si>
+  <si>
+    <t>Iteration 10 (9 February 2015 - 22 February 2015)</t>
+  </si>
+  <si>
+    <t>Iteration 11 (9 March 2015 - 22 March 2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5 hours on pitch video and poster. </t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1365,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$P$3:$P$12</c:f>
+              <c:f>'By Iterations'!$P$3:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>29.5</c:v>
                 </c:pt>
@@ -1355,6 +1398,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,10 +1527,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$Q$3:$Q$12</c:f>
+              <c:f>'By Iterations'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>25.5</c:v>
                 </c:pt>
@@ -1514,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,11 +1579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626538352"/>
-        <c:axId val="626538896"/>
+        <c:axId val="-1964321984"/>
+        <c:axId val="-1964321440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="626538352"/>
+        <c:axId val="-1964321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626538896"/>
+        <c:crossAx val="-1964321440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="626538896"/>
+        <c:axId val="-1964321440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1748,7 +1797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626538352"/>
+        <c:crossAx val="-1964321984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1872,6 +1921,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1974,6 +2024,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2148,11 +2199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675958624"/>
-        <c:axId val="675964064"/>
+        <c:axId val="-1952638464"/>
+        <c:axId val="-1952636288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675958624"/>
+        <c:axId val="-1952638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675964064"/>
+        <c:crossAx val="-1952636288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,7 +2254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675964064"/>
+        <c:axId val="-1952636288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2255,7 +2306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675958624"/>
+        <c:crossAx val="-1952638464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2270,6 +2321,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2378,6 +2430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2480,6 +2533,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2618,11 +2672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675953728"/>
-        <c:axId val="675965696"/>
+        <c:axId val="-1952635200"/>
+        <c:axId val="-1952634656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675953728"/>
+        <c:axId val="-1952635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675965696"/>
+        <c:crossAx val="-1952634656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675965696"/>
+        <c:axId val="-1952634656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2725,7 +2779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675953728"/>
+        <c:crossAx val="-1952635200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2740,6 +2794,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3084,11 +3139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675958080"/>
-        <c:axId val="675954272"/>
+        <c:axId val="-1914751072"/>
+        <c:axId val="-1914753248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675958080"/>
+        <c:axId val="-1914751072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675954272"/>
+        <c:crossAx val="-1914753248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3139,7 +3194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675954272"/>
+        <c:axId val="-1914753248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3191,7 +3246,486 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675958080"/>
+        <c:crossAx val="-1914751072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 11</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 11'!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Review Requirements</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update use case, ER diagram </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PDF Recognition Case Setup (Insertion to database)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Auto refresh of patient management</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UI Improvements</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation of test scenarios for functionalities in Iteration 9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Regression Testing of functionalities in previous iterations + current iteration</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Supervisor Meeting</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Internal Meting</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Gather metrics and update metrics</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Preparing and Fliming for Pitch Video</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Editing Pitch Video</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Designing of Poster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 11'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1914753792"/>
+        <c:axId val="-1914761408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1914753792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1914761408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1914761408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1914753792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3288,7 +3822,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3963,11 +4496,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="675210864"/>
-        <c:axId val="675217392"/>
+        <c:axId val="-1964320352"/>
+        <c:axId val="-1964319808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="675210864"/>
+        <c:axId val="-1964320352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4010,7 +4543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675217392"/>
+        <c:crossAx val="-1964319808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4018,7 +4551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675217392"/>
+        <c:axId val="-1964319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,7 +4602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675210864"/>
+        <c:crossAx val="-1964320352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4412,11 +4945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675220112"/>
-        <c:axId val="675213040"/>
+        <c:axId val="-207409440"/>
+        <c:axId val="-207407264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675220112"/>
+        <c:axId val="-207409440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +4992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675213040"/>
+        <c:crossAx val="-207407264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4467,7 +5000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675213040"/>
+        <c:axId val="-207407264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4519,7 +5052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675220112"/>
+        <c:crossAx val="-207409440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4930,11 +5463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675210320"/>
-        <c:axId val="675204880"/>
+        <c:axId val="-2121766816"/>
+        <c:axId val="-276531104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675210320"/>
+        <c:axId val="-2121766816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4977,7 +5510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675204880"/>
+        <c:crossAx val="-276531104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4985,7 +5518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675204880"/>
+        <c:axId val="-276531104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5037,7 +5570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675210320"/>
+        <c:crossAx val="-2121766816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5430,11 +5963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675208144"/>
-        <c:axId val="675213584"/>
+        <c:axId val="-1952626496"/>
+        <c:axId val="-1952634112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675208144"/>
+        <c:axId val="-1952626496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,7 +6010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675213584"/>
+        <c:crossAx val="-1952634112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5485,7 +6018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675213584"/>
+        <c:axId val="-1952634112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5537,7 +6070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675208144"/>
+        <c:crossAx val="-1952626496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5900,11 +6433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675206512"/>
-        <c:axId val="675207056"/>
+        <c:axId val="-1952628128"/>
+        <c:axId val="-1952627584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675206512"/>
+        <c:axId val="-1952628128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,7 +6480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675207056"/>
+        <c:crossAx val="-1952627584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5955,7 +6488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675207056"/>
+        <c:axId val="-1952627584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6007,7 +6540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675206512"/>
+        <c:crossAx val="-1952628128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6352,11 +6885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675214128"/>
-        <c:axId val="675209232"/>
+        <c:axId val="-1952640096"/>
+        <c:axId val="-1952633024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675214128"/>
+        <c:axId val="-1952640096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675209232"/>
+        <c:crossAx val="-1952633024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6407,7 +6940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675209232"/>
+        <c:axId val="-1952633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6459,7 +6992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675214128"/>
+        <c:crossAx val="-1952640096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6840,11 +7373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675214672"/>
-        <c:axId val="675215216"/>
+        <c:axId val="-1952633568"/>
+        <c:axId val="-1952636832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675214672"/>
+        <c:axId val="-1952633568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6887,7 +7420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675215216"/>
+        <c:crossAx val="-1952636832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6895,7 +7428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675215216"/>
+        <c:axId val="-1952636832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6947,7 +7480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675214672"/>
+        <c:crossAx val="-1952633568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7322,11 +7855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675219568"/>
-        <c:axId val="675954816"/>
+        <c:axId val="-1952639552"/>
+        <c:axId val="-1952630848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675219568"/>
+        <c:axId val="-1952639552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7369,7 +7902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675954816"/>
+        <c:crossAx val="-1952630848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7377,7 +7910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675954816"/>
+        <c:axId val="-1952630848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7429,7 +7962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675219568"/>
+        <c:crossAx val="-1952639552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7628,6 +8161,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9497,6 +10070,509 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14028,15 +15104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
+      <xdr:colOff>520782</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>227238</xdr:rowOff>
+      <xdr:rowOff>244557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>554181</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>155862</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14146,6 +15222,43 @@
       <xdr:colOff>614742</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>605217</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14911,10 +16024,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R202"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView showGridLines="0" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L221" sqref="A206:L221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15512,7 +16625,7 @@
         <f>SUM(J171:J185)</f>
         <v>41.5</v>
       </c>
-      <c r="R11" s="54"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -15570,7 +16683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -15610,6 +16723,20 @@
       </c>
       <c r="M13" s="54" t="s">
         <v>0</v>
+      </c>
+      <c r="O13" s="54">
+        <v>11</v>
+      </c>
+      <c r="P13" s="54">
+        <f>SUM(G206:G221)</f>
+        <v>64.5</v>
+      </c>
+      <c r="Q13" s="54">
+        <f>SUM(J206:J221)</f>
+        <v>70.5</v>
+      </c>
+      <c r="R13" s="57" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -15654,6 +16781,10 @@
       <c r="M14" s="54" t="s">
         <v>156</v>
       </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -22520,8 +23651,675 @@
         <v>12</v>
       </c>
     </row>
+    <row r="204" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A204" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="70"/>
+      <c r="C204" s="70"/>
+      <c r="D204" s="70"/>
+      <c r="E204" s="70"/>
+      <c r="F204" s="70"/>
+      <c r="G204" s="70"/>
+      <c r="H204" s="70"/>
+      <c r="I204" s="70"/>
+      <c r="J204" s="70"/>
+      <c r="K204" s="70"/>
+      <c r="L204" s="71"/>
+    </row>
+    <row r="205" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>1</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="11">
+        <v>1</v>
+      </c>
+      <c r="E206" s="28">
+        <v>42072</v>
+      </c>
+      <c r="F206" s="28">
+        <v>42072</v>
+      </c>
+      <c r="G206" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H206" s="28">
+        <v>42072</v>
+      </c>
+      <c r="I206" s="28">
+        <v>42072</v>
+      </c>
+      <c r="J206" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K206" s="48">
+        <v>1</v>
+      </c>
+      <c r="L206" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>2</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="7">
+        <v>1</v>
+      </c>
+      <c r="E207" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F207" s="8">
+        <v>42072</v>
+      </c>
+      <c r="G207" s="7">
+        <v>1</v>
+      </c>
+      <c r="H207" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I207" s="8">
+        <v>42072</v>
+      </c>
+      <c r="J207" s="15">
+        <v>1</v>
+      </c>
+      <c r="K207" s="16">
+        <v>1</v>
+      </c>
+      <c r="L207" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>3</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D208" s="12">
+        <f>F208-E208</f>
+        <v>5</v>
+      </c>
+      <c r="E208" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F208" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G208" s="12">
+        <v>17</v>
+      </c>
+      <c r="H208" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I208" s="25">
+        <v>42083</v>
+      </c>
+      <c r="J208" s="12">
+        <v>20</v>
+      </c>
+      <c r="K208" s="13">
+        <f>G208/J208</f>
+        <v>0.85</v>
+      </c>
+      <c r="L208" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>4</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" s="12">
+        <v>5</v>
+      </c>
+      <c r="E209" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F209" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G209" s="12">
+        <v>5</v>
+      </c>
+      <c r="H209" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I209" s="25">
+        <v>42074</v>
+      </c>
+      <c r="J209" s="12">
+        <v>6</v>
+      </c>
+      <c r="K209" s="13">
+        <v>1</v>
+      </c>
+      <c r="L209" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>5</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="12">
+        <v>5</v>
+      </c>
+      <c r="E210" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F210" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G210" s="12">
+        <v>3</v>
+      </c>
+      <c r="H210" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I210" s="25">
+        <v>42078</v>
+      </c>
+      <c r="J210" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K210" s="13">
+        <f>G210/J210</f>
+        <v>1.2</v>
+      </c>
+      <c r="L210" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>6</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="11">
+        <v>1</v>
+      </c>
+      <c r="E211" s="28">
+        <v>42083</v>
+      </c>
+      <c r="F211" s="28">
+        <v>42080</v>
+      </c>
+      <c r="G211" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H211" s="28">
+        <v>42083</v>
+      </c>
+      <c r="I211" s="28">
+        <v>42083</v>
+      </c>
+      <c r="J211" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K211" s="48">
+        <v>1</v>
+      </c>
+      <c r="L211" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
+        <v>7</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="7">
+        <f>F212-E212</f>
+        <v>6</v>
+      </c>
+      <c r="E212" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F212" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G212" s="7">
+        <v>1</v>
+      </c>
+      <c r="H212" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I212" s="25">
+        <v>42078</v>
+      </c>
+      <c r="J212" s="15">
+        <v>1</v>
+      </c>
+      <c r="K212" s="16">
+        <f>G212/J212</f>
+        <v>1</v>
+      </c>
+      <c r="L212" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>8</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" s="7">
+        <v>1</v>
+      </c>
+      <c r="E213" s="8">
+        <v>42080</v>
+      </c>
+      <c r="F213" s="8">
+        <v>42081</v>
+      </c>
+      <c r="G213" s="7">
+        <v>4</v>
+      </c>
+      <c r="H213" s="8">
+        <v>42083</v>
+      </c>
+      <c r="I213" s="8">
+        <v>42083</v>
+      </c>
+      <c r="J213" s="15">
+        <v>4</v>
+      </c>
+      <c r="K213" s="16">
+        <v>1</v>
+      </c>
+      <c r="L213" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>9</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="7">
+        <v>1</v>
+      </c>
+      <c r="E214" s="8">
+        <v>42083</v>
+      </c>
+      <c r="F214" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G214" s="7">
+        <v>5</v>
+      </c>
+      <c r="H214" s="8">
+        <v>42083</v>
+      </c>
+      <c r="I214" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J214" s="15">
+        <v>5</v>
+      </c>
+      <c r="K214" s="16">
+        <v>1</v>
+      </c>
+      <c r="L214" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>10</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="7">
+        <v>1</v>
+      </c>
+      <c r="E215" s="8">
+        <v>42073</v>
+      </c>
+      <c r="F215" s="8">
+        <v>42073</v>
+      </c>
+      <c r="G215" s="7">
+        <v>1</v>
+      </c>
+      <c r="H215" s="8">
+        <v>42073</v>
+      </c>
+      <c r="I215" s="8">
+        <v>42073</v>
+      </c>
+      <c r="J215" s="7">
+        <v>1</v>
+      </c>
+      <c r="K215" s="9">
+        <v>1</v>
+      </c>
+      <c r="L215" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="11">
+        <v>11</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E216" s="8">
+        <v>42073</v>
+      </c>
+      <c r="F216" s="8">
+        <v>42073</v>
+      </c>
+      <c r="G216" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H216" s="8">
+        <v>42073</v>
+      </c>
+      <c r="I216" s="8">
+        <v>42073</v>
+      </c>
+      <c r="J216" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K216" s="9">
+        <v>1</v>
+      </c>
+      <c r="L216" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>12</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" s="7">
+        <v>1</v>
+      </c>
+      <c r="E217" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F217" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G217" s="7">
+        <v>1</v>
+      </c>
+      <c r="H217" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I217" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J217" s="7">
+        <v>1</v>
+      </c>
+      <c r="K217" s="9">
+        <v>1</v>
+      </c>
+      <c r="L217" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>13</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218" s="7">
+        <v>1</v>
+      </c>
+      <c r="E218" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F218" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G218" s="7">
+        <v>1</v>
+      </c>
+      <c r="H218" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I218" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J218" s="15">
+        <v>1</v>
+      </c>
+      <c r="K218" s="9">
+        <v>1</v>
+      </c>
+      <c r="L218" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>14</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="7">
+        <v>1</v>
+      </c>
+      <c r="E219" s="8">
+        <v>42078</v>
+      </c>
+      <c r="F219" s="8">
+        <v>42078</v>
+      </c>
+      <c r="G219" s="7">
+        <v>6</v>
+      </c>
+      <c r="H219" s="8">
+        <v>42078</v>
+      </c>
+      <c r="I219" s="8">
+        <v>42078</v>
+      </c>
+      <c r="J219" s="7">
+        <v>6</v>
+      </c>
+      <c r="K219" s="9">
+        <f>G219/J219</f>
+        <v>1</v>
+      </c>
+      <c r="L219" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>15</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="8">
+        <v>42078</v>
+      </c>
+      <c r="F220" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G220" s="7">
+        <v>13</v>
+      </c>
+      <c r="H220" s="8">
+        <v>42078</v>
+      </c>
+      <c r="I220" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J220" s="7">
+        <v>15</v>
+      </c>
+      <c r="K220" s="9">
+        <f>G220/J220</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L220" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>16</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D221" s="7">
+        <v>1</v>
+      </c>
+      <c r="E221" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F221" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G221" s="7">
+        <v>4</v>
+      </c>
+      <c r="H221" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I221" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J221" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K221" s="9">
+        <f>G221/J221</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L221" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A204:L204"/>
     <mergeCell ref="A187:L187"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="A70:L70"/>
@@ -24134,8 +25932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:AB28"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24157,7 +25955,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -24745,6 +26543,706 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>42072</v>
+      </c>
+      <c r="F3" s="28">
+        <v>42072</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="28">
+        <v>42072</v>
+      </c>
+      <c r="I3" s="28">
+        <v>42072</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="48">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42072</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I4" s="8">
+        <v>42072</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="12">
+        <f>F5-E5</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F5" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G5" s="12">
+        <v>17</v>
+      </c>
+      <c r="H5" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I5" s="25">
+        <v>42083</v>
+      </c>
+      <c r="J5" s="12">
+        <v>20</v>
+      </c>
+      <c r="K5" s="13">
+        <f>G5/J5</f>
+        <v>0.85</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F6" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5</v>
+      </c>
+      <c r="H6" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I6" s="25">
+        <v>42074</v>
+      </c>
+      <c r="J6" s="12">
+        <v>6</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25">
+        <v>42073</v>
+      </c>
+      <c r="F7" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3</v>
+      </c>
+      <c r="H7" s="25">
+        <v>42073</v>
+      </c>
+      <c r="I7" s="25">
+        <v>42078</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="13">
+        <f>G7/J7</f>
+        <v>1.2</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="F8" s="28">
+        <v>42080</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="I8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7">
+        <f>F9-E9</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F9" s="25">
+        <v>42078</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I9" s="25">
+        <v>42078</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16">
+        <f>G9/J9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42080</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42081</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42083</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42083</v>
+      </c>
+      <c r="J10" s="15">
+        <v>4</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42083</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42083</v>
+      </c>
+      <c r="I11" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42073</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42073</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42073</v>
+      </c>
+      <c r="I12" s="8">
+        <v>42073</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42073</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42073</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>42073</v>
+      </c>
+      <c r="I13" s="8">
+        <v>42073</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F14" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I14" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F15" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I15" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>42078</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42078</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="8">
+        <v>42078</v>
+      </c>
+      <c r="I16" s="8">
+        <v>42078</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6</v>
+      </c>
+      <c r="K16" s="9">
+        <f>G16/J16</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>42078</v>
+      </c>
+      <c r="F17" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G17" s="7">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8">
+        <v>42078</v>
+      </c>
+      <c r="I17" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15</v>
+      </c>
+      <c r="K17" s="9">
+        <f>G17/J17</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>42072</v>
+      </c>
+      <c r="F18" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>42072</v>
+      </c>
+      <c r="I18" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J18" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="9">
+        <f>G18/J18</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="208">
   <si>
     <t>No</t>
   </si>
@@ -942,7 +942,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,6 +1124,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1136,16 +1145,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,6 +1572,136 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'By Iterations'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3108920869317571E-2"/>
+                  <c:y val="1.9074868860276515E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'By Iterations'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1579,11 +1712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1964321984"/>
-        <c:axId val="-1964321440"/>
+        <c:axId val="-890808080"/>
+        <c:axId val="-890805904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1964321984"/>
+        <c:axId val="-890808080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1964321440"/>
+        <c:crossAx val="-890805904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1689,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1964321440"/>
+        <c:axId val="-890805904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1797,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1964321984"/>
+        <c:crossAx val="-890808080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1812,6 +1945,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1921,7 +2058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2024,7 +2160,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2199,11 +2334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952638464"/>
-        <c:axId val="-1952636288"/>
+        <c:axId val="-889995632"/>
+        <c:axId val="-889996176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952638464"/>
+        <c:axId val="-889995632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952636288"/>
+        <c:crossAx val="-889996176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952636288"/>
+        <c:axId val="-889996176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2306,7 +2441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952638464"/>
+        <c:crossAx val="-889995632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2321,7 +2456,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2430,7 +2564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2533,7 +2666,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2672,11 +2804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952635200"/>
-        <c:axId val="-1952634656"/>
+        <c:axId val="-889991280"/>
+        <c:axId val="-889202448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952635200"/>
+        <c:axId val="-889991280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952634656"/>
+        <c:crossAx val="-889202448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952634656"/>
+        <c:axId val="-889202448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2779,7 +2911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952635200"/>
+        <c:crossAx val="-889991280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2794,7 +2926,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2903,7 +3034,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3006,7 +3136,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3139,11 +3268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1914751072"/>
-        <c:axId val="-1914753248"/>
+        <c:axId val="-889198096"/>
+        <c:axId val="-889202992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1914751072"/>
+        <c:axId val="-889198096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,7 +3315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914753248"/>
+        <c:crossAx val="-889202992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3194,7 +3323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1914753248"/>
+        <c:axId val="-889202992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3246,7 +3375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914751072"/>
+        <c:crossAx val="-889198096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3261,7 +3390,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3618,11 +3746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1914753792"/>
-        <c:axId val="-1914761408"/>
+        <c:axId val="-889204080"/>
+        <c:axId val="-889201360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1914753792"/>
+        <c:axId val="-889204080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914761408"/>
+        <c:crossAx val="-889201360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1914761408"/>
+        <c:axId val="-889201360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3725,7 +3853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914753792"/>
+        <c:crossAx val="-889204080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4496,11 +4624,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1964320352"/>
-        <c:axId val="-1964319808"/>
+        <c:axId val="-890803184"/>
+        <c:axId val="-890809712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1964320352"/>
+        <c:axId val="-890803184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1964319808"/>
+        <c:crossAx val="-890809712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4551,7 +4679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1964319808"/>
+        <c:axId val="-890809712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1964320352"/>
+        <c:crossAx val="-890803184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4945,11 +5073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207409440"/>
-        <c:axId val="-207407264"/>
+        <c:axId val="-890807536"/>
+        <c:axId val="-890806992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207409440"/>
+        <c:axId val="-890807536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +5120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207407264"/>
+        <c:crossAx val="-890806992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5000,7 +5128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207407264"/>
+        <c:axId val="-890806992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5052,7 +5180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207409440"/>
+        <c:crossAx val="-890807536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5463,11 +5591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121766816"/>
-        <c:axId val="-276531104"/>
+        <c:axId val="-890804816"/>
+        <c:axId val="-889975248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2121766816"/>
+        <c:axId val="-890804816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-276531104"/>
+        <c:crossAx val="-889975248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5518,7 +5646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-276531104"/>
+        <c:axId val="-889975248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5570,7 +5698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121766816"/>
+        <c:crossAx val="-890804816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5963,11 +6091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952626496"/>
-        <c:axId val="-1952634112"/>
+        <c:axId val="-889974704"/>
+        <c:axId val="-889979600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952626496"/>
+        <c:axId val="-889974704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,7 +6138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952634112"/>
+        <c:crossAx val="-889979600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6018,7 +6146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952634112"/>
+        <c:axId val="-889979600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6070,7 +6198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952626496"/>
+        <c:crossAx val="-889974704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6433,11 +6561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952628128"/>
-        <c:axId val="-1952627584"/>
+        <c:axId val="-889973072"/>
+        <c:axId val="-889975792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952628128"/>
+        <c:axId val="-889973072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952627584"/>
+        <c:crossAx val="-889975792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6488,7 +6616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952627584"/>
+        <c:axId val="-889975792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6540,7 +6668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952628128"/>
+        <c:crossAx val="-889973072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6885,11 +7013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952640096"/>
-        <c:axId val="-1952633024"/>
+        <c:axId val="-889977968"/>
+        <c:axId val="-889973616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952640096"/>
+        <c:axId val="-889977968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,7 +7060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952633024"/>
+        <c:crossAx val="-889973616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6940,7 +7068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952633024"/>
+        <c:axId val="-889973616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6992,7 +7120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952640096"/>
+        <c:crossAx val="-889977968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7373,11 +7501,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952633568"/>
-        <c:axId val="-1952636832"/>
+        <c:axId val="-889992912"/>
+        <c:axId val="-889990736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952633568"/>
+        <c:axId val="-889992912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7420,7 +7548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952636832"/>
+        <c:crossAx val="-889990736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7428,7 +7556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952636832"/>
+        <c:axId val="-889990736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7480,7 +7608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952633568"/>
+        <c:crossAx val="-889992912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7855,11 +7983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952639552"/>
-        <c:axId val="-1952630848"/>
+        <c:axId val="-889992368"/>
+        <c:axId val="-889994000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952639552"/>
+        <c:axId val="-889992368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7902,7 +8030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952630848"/>
+        <c:crossAx val="-889994000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7910,7 +8038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952630848"/>
+        <c:axId val="-889994000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7962,7 +8090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952639552"/>
+        <c:crossAx val="-889992368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15103,13 +15231,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>520782</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>244557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>155862</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -15129,6 +15257,123 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Brace 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29663571" y="1768929"/>
+          <a:ext cx="231322" cy="2041071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>585107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>870857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30139821" y="2639786"/>
+          <a:ext cx="1428750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1600"/>
+            <a:t>Pitch Video</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16024,10 +16269,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A201" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L221" sqref="A206:L221"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16047,33 +16292,35 @@
     <col min="15" max="15" width="18.28515625" style="31" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="31"/>
-    <col min="18" max="18" width="29.140625" style="31" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="31"/>
+    <col min="18" max="18" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="O1" s="66" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="O1" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-    </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.3">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="73"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -16123,10 +16370,13 @@
         <v>159</v>
       </c>
       <c r="R2" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -16177,8 +16427,9 @@
         <v>25.5</v>
       </c>
       <c r="R3" s="54"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="54"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -16229,8 +16480,9 @@
         <v>52</v>
       </c>
       <c r="R4" s="54"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="54"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -16283,11 +16535,12 @@
         <f>SUM(J49:J68)</f>
         <v>37.75</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="R5" s="54"/>
+      <c r="S5" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -16340,11 +16593,12 @@
         <f>SUM(J72:J86)</f>
         <v>31</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="54"/>
+      <c r="S6" s="54" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -16397,11 +16651,12 @@
         <f>SUM(J90:J101)</f>
         <v>34</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="54"/>
+      <c r="S7" s="54" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -16454,11 +16709,12 @@
         <f>SUM(J105:J122)</f>
         <v>41.25</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="54"/>
+      <c r="S8" s="54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -16511,11 +16767,12 @@
         <f>SUM(J126:J142)</f>
         <v>42.15</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -16568,11 +16825,12 @@
         <f>SUM(J146:J166)</f>
         <v>59.25</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="54"/>
+      <c r="S10" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -16625,9 +16883,10 @@
         <f>SUM(J171:J185)</f>
         <v>41.5</v>
       </c>
-      <c r="R11" s="57"/>
-    </row>
-    <row r="12" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R11" s="54"/>
+      <c r="S11" s="57"/>
+    </row>
+    <row r="12" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -16679,11 +16938,12 @@
         <f>SUM(J189:J202)</f>
         <v>39.25</v>
       </c>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="54"/>
+      <c r="S12" s="57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -16735,11 +16995,15 @@
         <f>SUM(J206:J221)</f>
         <v>70.5</v>
       </c>
-      <c r="R13" s="57" t="s">
+      <c r="R13" s="54">
+        <f>Q13-25.5</f>
+        <v>45</v>
+      </c>
+      <c r="S13" s="57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -16784,9 +17048,10 @@
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="57"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R14" s="54"/>
+      <c r="S14" s="57"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -16829,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -16998,20 +17263,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -18028,20 +18293,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="71"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -18926,20 +19191,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -19564,20 +19829,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -20087,20 +20352,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="68"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -20837,20 +21102,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="65" t="s">
+      <c r="A124" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="65"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -21551,20 +21816,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="65"/>
-      <c r="J144" s="65"/>
-      <c r="K144" s="65"/>
-      <c r="L144" s="65"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="68"/>
+      <c r="L144" s="68"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -22427,20 +22692,20 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="65" t="s">
+      <c r="A168" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="65"/>
-      <c r="E168" s="65"/>
-      <c r="F168" s="65"/>
-      <c r="G168" s="65"/>
-      <c r="H168" s="65"/>
-      <c r="I168" s="65"/>
-      <c r="J168" s="65"/>
-      <c r="K168" s="65"/>
-      <c r="L168" s="65"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="68"/>
+      <c r="I168" s="68"/>
+      <c r="J168" s="68"/>
+      <c r="K168" s="68"/>
+      <c r="L168" s="68"/>
     </row>
     <row r="169" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -22481,20 +22746,20 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="68"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="68"/>
-      <c r="I170" s="68"/>
-      <c r="J170" s="68"/>
-      <c r="K170" s="68"/>
-      <c r="L170" s="68"/>
+      <c r="A170" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="71"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="71"/>
+      <c r="L170" s="71"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
@@ -23072,20 +23337,20 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="65" t="s">
+      <c r="A187" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B187" s="65"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="65"/>
-      <c r="G187" s="65"/>
-      <c r="H187" s="65"/>
-      <c r="I187" s="65"/>
-      <c r="J187" s="65"/>
-      <c r="K187" s="65"/>
-      <c r="L187" s="65"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="68"/>
+      <c r="F187" s="68"/>
+      <c r="G187" s="68"/>
+      <c r="H187" s="68"/>
+      <c r="I187" s="68"/>
+      <c r="J187" s="68"/>
+      <c r="K187" s="68"/>
+      <c r="L187" s="68"/>
     </row>
     <row r="188" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -23652,20 +23917,20 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="69" t="s">
+      <c r="A204" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="70"/>
-      <c r="C204" s="70"/>
-      <c r="D204" s="70"/>
-      <c r="E204" s="70"/>
-      <c r="F204" s="70"/>
-      <c r="G204" s="70"/>
-      <c r="H204" s="70"/>
-      <c r="I204" s="70"/>
-      <c r="J204" s="70"/>
-      <c r="K204" s="70"/>
-      <c r="L204" s="71"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="66"/>
+      <c r="E204" s="66"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
+      <c r="I204" s="66"/>
+      <c r="J204" s="66"/>
+      <c r="K204" s="66"/>
+      <c r="L204" s="67"/>
     </row>
     <row r="205" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -24364,20 +24629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -25274,20 +25539,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -25328,20 +25593,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="A3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -25954,20 +26219,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26546,7 +26811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -26568,20 +26833,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27366,20 +27631,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -28307,20 +28572,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -29337,20 +29602,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="71"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -30235,20 +30500,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -30873,20 +31138,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -31396,20 +31661,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="68"/>
+      <c r="H103" s="68"/>
+      <c r="I103" s="68"/>
+      <c r="J103" s="68"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="68"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -32146,20 +32411,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="65" t="s">
+      <c r="A124" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-      <c r="G124" s="65"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="65"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -32860,20 +33125,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="65"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="65"/>
-      <c r="J144" s="65"/>
-      <c r="K144" s="65"/>
-      <c r="L144" s="65"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68"/>
+      <c r="H144" s="68"/>
+      <c r="I144" s="68"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="68"/>
+      <c r="L144" s="68"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -33775,20 +34040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -34531,20 +34796,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -35523,20 +35788,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -36392,20 +36657,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -37176,20 +37441,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -37733,20 +37998,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -38517,20 +38782,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -1124,6 +1124,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1146,9 +1149,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,7 +1403,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.5</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,6 +1455,27 @@
                 <c:manualLayout>
                   <c:x val="-1.8595712330507403E-2"/>
                   <c:y val="7.0786117332730658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7095308986273345E-2"/>
+                  <c:y val="1.1075623531843857E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1565,7 +1586,7 @@
                   <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +1690,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1695,7 +1715,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,11 +1732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890808080"/>
-        <c:axId val="-890805904"/>
+        <c:axId val="1787077312"/>
+        <c:axId val="1787063168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890808080"/>
+        <c:axId val="1787077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890805904"/>
+        <c:crossAx val="1787063168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890805904"/>
+        <c:axId val="1787063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1930,7 +1950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890808080"/>
+        <c:crossAx val="1787077312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2058,6 +2078,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2160,6 +2181,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2334,11 +2356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889995632"/>
-        <c:axId val="-889996176"/>
+        <c:axId val="91318064"/>
+        <c:axId val="91327312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889995632"/>
+        <c:axId val="91318064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889996176"/>
+        <c:crossAx val="91327312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2389,7 +2411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889996176"/>
+        <c:axId val="91327312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2441,7 +2463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889995632"/>
+        <c:crossAx val="91318064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2456,6 +2478,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2564,6 +2587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2666,6 +2690,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2804,11 +2829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889991280"/>
-        <c:axId val="-889202448"/>
+        <c:axId val="91322960"/>
+        <c:axId val="91323504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889991280"/>
+        <c:axId val="91322960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889202448"/>
+        <c:crossAx val="91323504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +2884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889202448"/>
+        <c:axId val="91323504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2911,7 +2936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889991280"/>
+        <c:crossAx val="91322960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2926,6 +2951,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,6 +3060,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3136,6 +3163,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3268,11 +3296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889198096"/>
-        <c:axId val="-889202992"/>
+        <c:axId val="93218336"/>
+        <c:axId val="93205280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889198096"/>
+        <c:axId val="93218336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,7 +3343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889202992"/>
+        <c:crossAx val="93205280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3323,7 +3351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889202992"/>
+        <c:axId val="93205280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3375,7 +3403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889198096"/>
+        <c:crossAx val="93218336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3390,6 +3418,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3689,7 +3718,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.56666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3725,7 +3754,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.88888888888888884</c:v>
@@ -3746,11 +3775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889204080"/>
-        <c:axId val="-889201360"/>
+        <c:axId val="93213984"/>
+        <c:axId val="93218880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889204080"/>
+        <c:axId val="93213984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3793,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889201360"/>
+        <c:crossAx val="93218880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3801,7 +3830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889201360"/>
+        <c:axId val="93218880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3853,7 +3882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889204080"/>
+        <c:crossAx val="93213984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4624,11 +4653,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-890803184"/>
-        <c:axId val="-890809712"/>
+        <c:axId val="1787066976"/>
+        <c:axId val="1787069696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-890803184"/>
+        <c:axId val="1787066976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890809712"/>
+        <c:crossAx val="1787069696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4679,7 +4708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890809712"/>
+        <c:axId val="1787069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890803184"/>
+        <c:crossAx val="1787066976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5073,11 +5102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890807536"/>
-        <c:axId val="-890806992"/>
+        <c:axId val="1787072960"/>
+        <c:axId val="1787071872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890807536"/>
+        <c:axId val="1787072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,7 +5149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890806992"/>
+        <c:crossAx val="1787071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5128,7 +5157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-890806992"/>
+        <c:axId val="1787071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5180,7 +5209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890807536"/>
+        <c:crossAx val="1787072960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5591,11 +5620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-890804816"/>
-        <c:axId val="-889975248"/>
+        <c:axId val="1786911120"/>
+        <c:axId val="1786909488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-890804816"/>
+        <c:axId val="1786911120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5638,7 +5667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889975248"/>
+        <c:crossAx val="1786909488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5646,7 +5675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889975248"/>
+        <c:axId val="1786909488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5698,7 +5727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-890804816"/>
+        <c:crossAx val="1786911120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6091,11 +6120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889974704"/>
-        <c:axId val="-889979600"/>
+        <c:axId val="91316976"/>
+        <c:axId val="91321328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889974704"/>
+        <c:axId val="91316976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889979600"/>
+        <c:crossAx val="91321328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6146,7 +6175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889979600"/>
+        <c:axId val="91321328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6198,7 +6227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889974704"/>
+        <c:crossAx val="91316976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6561,11 +6590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889973072"/>
-        <c:axId val="-889975792"/>
+        <c:axId val="91330576"/>
+        <c:axId val="91325136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889973072"/>
+        <c:axId val="91330576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6608,7 +6637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889975792"/>
+        <c:crossAx val="91325136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6616,7 +6645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889975792"/>
+        <c:axId val="91325136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6668,7 +6697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889973072"/>
+        <c:crossAx val="91330576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7013,11 +7042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889977968"/>
-        <c:axId val="-889973616"/>
+        <c:axId val="91327856"/>
+        <c:axId val="91319696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889977968"/>
+        <c:axId val="91327856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7060,7 +7089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889973616"/>
+        <c:crossAx val="91319696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7068,7 +7097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889973616"/>
+        <c:axId val="91319696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7120,7 +7149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889977968"/>
+        <c:crossAx val="91327856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7501,11 +7530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889992912"/>
-        <c:axId val="-889990736"/>
+        <c:axId val="91328400"/>
+        <c:axId val="91324592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889992912"/>
+        <c:axId val="91328400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7548,7 +7577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889990736"/>
+        <c:crossAx val="91324592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7556,7 +7585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889990736"/>
+        <c:axId val="91324592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7608,7 +7637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889992912"/>
+        <c:crossAx val="91328400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7983,11 +8012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-889992368"/>
-        <c:axId val="-889994000"/>
+        <c:axId val="91320240"/>
+        <c:axId val="91321872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889992368"/>
+        <c:axId val="91320240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8030,7 +8059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889994000"/>
+        <c:crossAx val="91321872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8038,7 +8067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889994000"/>
+        <c:axId val="91321872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8090,7 +8119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889992368"/>
+        <c:crossAx val="91320240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15262,15 +15291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
+      <xdr:colOff>258536</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>299357</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>816428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15279,8 +15308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29663571" y="1768929"/>
-          <a:ext cx="231322" cy="2041071"/>
+          <a:off x="29595536" y="1768929"/>
+          <a:ext cx="299357" cy="1102178"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -16271,8 +16300,8 @@
   </sheetPr>
   <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView showGridLines="0" topLeftCell="A195" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J206" sqref="J206:J221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16298,27 +16327,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="O1" s="69" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="O1" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="73"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="65"/>
     </row>
     <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -16772,7 +16801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -16886,7 +16915,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="57"/>
     </row>
-    <row r="12" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -16989,15 +17018,15 @@
       </c>
       <c r="P13" s="54">
         <f>SUM(G206:G221)</f>
-        <v>64.5</v>
+        <v>77.5</v>
       </c>
       <c r="Q13" s="54">
         <f>SUM(J206:J221)</f>
-        <v>70.5</v>
+        <v>75.5</v>
       </c>
       <c r="R13" s="54">
-        <f>Q13-25.5</f>
-        <v>45</v>
+        <f>Q13-16</f>
+        <v>59.5</v>
       </c>
       <c r="S13" s="57" t="s">
         <v>207</v>
@@ -17263,20 +17292,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -18293,20 +18322,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -19191,20 +19220,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -19829,20 +19858,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -20352,20 +20381,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="68"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -21102,20 +21131,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="68" t="s">
+      <c r="A124" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="68"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -21816,20 +21845,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="68"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="69"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -22692,20 +22721,20 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="68" t="s">
+      <c r="A168" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="68"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="68"/>
-      <c r="J168" s="68"/>
-      <c r="K168" s="68"/>
-      <c r="L168" s="68"/>
+      <c r="B168" s="69"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="69"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="69"/>
+      <c r="I168" s="69"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
     </row>
     <row r="169" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -22746,20 +22775,20 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B170" s="71"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="71"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="71"/>
-      <c r="J170" s="71"/>
-      <c r="K170" s="71"/>
-      <c r="L170" s="71"/>
+      <c r="A170" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="72"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="72"/>
+      <c r="F170" s="72"/>
+      <c r="G170" s="72"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="72"/>
+      <c r="J170" s="72"/>
+      <c r="K170" s="72"/>
+      <c r="L170" s="72"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
@@ -23337,20 +23366,20 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A187" s="68" t="s">
+      <c r="A187" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B187" s="68"/>
-      <c r="C187" s="68"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="68"/>
-      <c r="F187" s="68"/>
-      <c r="G187" s="68"/>
-      <c r="H187" s="68"/>
-      <c r="I187" s="68"/>
-      <c r="J187" s="68"/>
-      <c r="K187" s="68"/>
-      <c r="L187" s="68"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="69"/>
+      <c r="E187" s="69"/>
+      <c r="F187" s="69"/>
+      <c r="G187" s="69"/>
+      <c r="H187" s="69"/>
+      <c r="I187" s="69"/>
+      <c r="J187" s="69"/>
+      <c r="K187" s="69"/>
+      <c r="L187" s="69"/>
     </row>
     <row r="188" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -23917,20 +23946,20 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A204" s="65" t="s">
+      <c r="A204" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="66"/>
-      <c r="C204" s="66"/>
-      <c r="D204" s="66"/>
-      <c r="E204" s="66"/>
-      <c r="F204" s="66"/>
-      <c r="G204" s="66"/>
-      <c r="H204" s="66"/>
-      <c r="I204" s="66"/>
-      <c r="J204" s="66"/>
-      <c r="K204" s="66"/>
-      <c r="L204" s="67"/>
+      <c r="B204" s="67"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="67"/>
+      <c r="F204" s="67"/>
+      <c r="G204" s="67"/>
+      <c r="H204" s="67"/>
+      <c r="I204" s="67"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="67"/>
+      <c r="L204" s="68"/>
     </row>
     <row r="205" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -24067,7 +24096,7 @@
         <v>42078</v>
       </c>
       <c r="G208" s="12">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H208" s="25">
         <v>42073</v>
@@ -24076,11 +24105,11 @@
         <v>42083</v>
       </c>
       <c r="J208" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K208" s="13">
         <f>G208/J208</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="L208" s="10" t="s">
         <v>12</v>
@@ -24533,11 +24562,11 @@
         <v>42085</v>
       </c>
       <c r="J220" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K220" s="9">
         <f>G220/J220</f>
-        <v>0.8666666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="L220" s="10" t="s">
         <v>12</v>
@@ -24629,20 +24658,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -25517,8 +25546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25539,20 +25568,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -25593,20 +25622,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="A3" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -26219,20 +26248,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26811,8 +26840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26833,20 +26862,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26992,11 +27021,11 @@
         <v>42083</v>
       </c>
       <c r="J5" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5" s="13">
         <f>G5/J5</f>
-        <v>0.85</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>12</v>
@@ -27449,11 +27478,11 @@
         <v>42085</v>
       </c>
       <c r="J17" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K17" s="9">
         <f>G17/J17</f>
-        <v>0.8666666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>12</v>
@@ -27631,20 +27660,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -27686,14 +27715,14 @@
       <c r="M2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -28572,20 +28601,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -29602,20 +29631,20 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -30500,20 +30529,20 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -31138,20 +31167,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -31661,20 +31690,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="68"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="69"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -32411,20 +32440,20 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="68" t="s">
+      <c r="A124" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="68"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -33125,20 +33154,20 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="68"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="69"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -34040,20 +34069,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -34796,20 +34825,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -35788,20 +35817,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -36657,20 +36686,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -37441,20 +37470,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -37998,20 +38027,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -38782,20 +38811,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -670,7 +670,7 @@
     <t>Iteration 11 (9 March 2015 - 22 March 2015)</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5 hours on pitch video and poster. </t>
+    <t>25.5 hours on pitch video and poster, not refelcted here</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1403,7 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,7 +1586,7 @@
                   <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,9 +1714,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="10">
-                  <c:v>59.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1732,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1787077312"/>
-        <c:axId val="1787063168"/>
+        <c:axId val="-1056531408"/>
+        <c:axId val="-1056530864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1787077312"/>
+        <c:axId val="-1056531408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787063168"/>
+        <c:crossAx val="-1056530864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787063168"/>
+        <c:axId val="-1056530864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1950,7 +1947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787077312"/>
+        <c:crossAx val="-1056531408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2078,7 +2075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2181,7 +2177,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2356,11 +2351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91318064"/>
-        <c:axId val="91327312"/>
+        <c:axId val="-914045552"/>
+        <c:axId val="-914040656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91318064"/>
+        <c:axId val="-914045552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91327312"/>
+        <c:crossAx val="-914040656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91327312"/>
+        <c:axId val="-914040656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2463,7 +2458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91318064"/>
+        <c:crossAx val="-914045552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2478,7 +2473,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2587,7 +2581,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2690,7 +2683,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2829,11 +2821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91322960"/>
-        <c:axId val="91323504"/>
+        <c:axId val="-914036848"/>
+        <c:axId val="-914037392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91322960"/>
+        <c:axId val="-914036848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +2868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91323504"/>
+        <c:crossAx val="-914037392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2884,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91323504"/>
+        <c:axId val="-914037392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2936,7 +2928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91322960"/>
+        <c:crossAx val="-914036848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2951,7 +2943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3296,11 +3287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93218336"/>
-        <c:axId val="93205280"/>
+        <c:axId val="-914046096"/>
+        <c:axId val="-914044464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93218336"/>
+        <c:axId val="-914046096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +3334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93205280"/>
+        <c:crossAx val="-914044464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3351,7 +3342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93205280"/>
+        <c:axId val="-914044464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3403,7 +3394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93218336"/>
+        <c:crossAx val="-914046096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3775,11 +3766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93213984"/>
-        <c:axId val="93218880"/>
+        <c:axId val="-914043920"/>
+        <c:axId val="-914036304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93213984"/>
+        <c:axId val="-914043920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93218880"/>
+        <c:crossAx val="-914036304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3830,7 +3821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93218880"/>
+        <c:axId val="-914036304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3882,7 +3873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93213984"/>
+        <c:crossAx val="-914043920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4653,11 +4644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1787066976"/>
-        <c:axId val="1787069696"/>
+        <c:axId val="-1184186448"/>
+        <c:axId val="-1184189168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1787066976"/>
+        <c:axId val="-1184186448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,7 +4691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787069696"/>
+        <c:crossAx val="-1184189168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4708,7 +4699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787069696"/>
+        <c:axId val="-1184189168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,7 +4750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787066976"/>
+        <c:crossAx val="-1184186448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5102,11 +5093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1787072960"/>
-        <c:axId val="1787071872"/>
+        <c:axId val="-911277424"/>
+        <c:axId val="-911279600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1787072960"/>
+        <c:axId val="-911277424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787071872"/>
+        <c:crossAx val="-911279600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5157,7 +5148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1787071872"/>
+        <c:axId val="-911279600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5209,7 +5200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1787072960"/>
+        <c:crossAx val="-911277424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5620,11 +5611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1786911120"/>
-        <c:axId val="1786909488"/>
+        <c:axId val="-911278512"/>
+        <c:axId val="-911276880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1786911120"/>
+        <c:axId val="-911278512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5667,7 +5658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1786909488"/>
+        <c:crossAx val="-911276880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5675,7 +5666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1786909488"/>
+        <c:axId val="-911276880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5727,7 +5718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1786911120"/>
+        <c:crossAx val="-911278512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6120,11 +6111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91316976"/>
-        <c:axId val="91321328"/>
+        <c:axId val="-911275792"/>
+        <c:axId val="-911277968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91316976"/>
+        <c:axId val="-911275792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6167,7 +6158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91321328"/>
+        <c:crossAx val="-911277968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6175,7 +6166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91321328"/>
+        <c:axId val="-911277968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6227,7 +6218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91316976"/>
+        <c:crossAx val="-911275792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6590,11 +6581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91330576"/>
-        <c:axId val="91325136"/>
+        <c:axId val="-911275248"/>
+        <c:axId val="-911269264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91330576"/>
+        <c:axId val="-911275248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,7 +6628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91325136"/>
+        <c:crossAx val="-911269264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6645,7 +6636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91325136"/>
+        <c:axId val="-911269264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6697,7 +6688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91330576"/>
+        <c:crossAx val="-911275248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7042,11 +7033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91327856"/>
-        <c:axId val="91319696"/>
+        <c:axId val="-911279056"/>
+        <c:axId val="-911271440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91327856"/>
+        <c:axId val="-911279056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,7 +7080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91319696"/>
+        <c:crossAx val="-911271440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7097,7 +7088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91319696"/>
+        <c:axId val="-911271440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7149,7 +7140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91327856"/>
+        <c:crossAx val="-911279056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7530,11 +7521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91328400"/>
-        <c:axId val="91324592"/>
+        <c:axId val="-911270896"/>
+        <c:axId val="-911268176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91328400"/>
+        <c:axId val="-911270896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7577,7 +7568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91324592"/>
+        <c:crossAx val="-911268176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7585,7 +7576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91324592"/>
+        <c:axId val="-911268176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7637,7 +7628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91328400"/>
+        <c:crossAx val="-911270896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -8012,11 +8003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91320240"/>
-        <c:axId val="91321872"/>
+        <c:axId val="-911272528"/>
+        <c:axId val="-911280688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91320240"/>
+        <c:axId val="-911272528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,7 +8050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91321872"/>
+        <c:crossAx val="-911280688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8067,7 +8058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91321872"/>
+        <c:axId val="-911280688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8119,7 +8110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91320240"/>
+        <c:crossAx val="-911272528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -16300,8 +16291,8 @@
   </sheetPr>
   <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A195" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206:J221"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17017,17 +17008,13 @@
         <v>11</v>
       </c>
       <c r="P13" s="54">
-        <f>SUM(G206:G221)</f>
-        <v>77.5</v>
+        <f>SUM(G206:G221)-16</f>
+        <v>61.5</v>
       </c>
       <c r="Q13" s="54">
-        <f>SUM(J206:J221)</f>
-        <v>75.5</v>
-      </c>
-      <c r="R13" s="54">
-        <f>Q13-16</f>
         <v>59.5</v>
       </c>
+      <c r="R13" s="54"/>
       <c r="S13" s="57" t="s">
         <v>207</v>
       </c>
@@ -26840,7 +26827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J18"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -25,10 +25,11 @@
     <sheet name="Iteration 9" sheetId="21" r:id="rId11"/>
     <sheet name="Iteration 10" sheetId="22" r:id="rId12"/>
     <sheet name="Iteration 11" sheetId="23" r:id="rId13"/>
-    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId14"/>
+    <sheet name="Iteration 12" sheetId="24" r:id="rId14"/>
+    <sheet name="Guidelines for Task Metrics" sheetId="4" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="221">
   <si>
     <t>No</t>
   </si>
@@ -672,6 +673,45 @@
   <si>
     <t>25.5 hours on pitch video and poster, not refelcted here</t>
   </si>
+  <si>
+    <t>Changes after User Testing</t>
+  </si>
+  <si>
+    <t>Deployment at NP Local Server</t>
+  </si>
+  <si>
+    <t>Gladys, Wei Yi</t>
+  </si>
+  <si>
+    <t>Conduct User Test 3</t>
+  </si>
+  <si>
+    <t>Prepare documents for user testing</t>
+  </si>
+  <si>
+    <t>5-Apr-205</t>
+  </si>
+  <si>
+    <t>Team Meeting - Prepare for Final Presentation</t>
+  </si>
+  <si>
+    <t>User Manual Guide</t>
+  </si>
+  <si>
+    <t>Shi Qi, Wei Yi, Grace</t>
+  </si>
+  <si>
+    <t>Deployment Guide</t>
+  </si>
+  <si>
+    <t>Final Deployment</t>
+  </si>
+  <si>
+    <t>Iteration 12 (24 March 2015 - 6 Apr 2015)</t>
+  </si>
+  <si>
+    <t>Iteration 11 (9 March 2015 - 23 March 2015)</t>
+  </si>
 </sst>
 </file>
 
@@ -1368,10 +1408,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$P$3:$P$13</c:f>
+              <c:f>'By Iterations'!$P$3:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>29.5</c:v>
                 </c:pt>
@@ -1404,6 +1444,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,10 +1594,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$Q$3:$Q$13</c:f>
+              <c:f>'By Iterations'!$Q$3:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>25.5</c:v>
                 </c:pt>
@@ -1587,6 +1630,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,9 +1693,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1710,10 +1754,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$R$3:$R$13</c:f>
+              <c:f>'By Iterations'!$R$3:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1729,11 +1773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1056531408"/>
-        <c:axId val="-1056530864"/>
+        <c:axId val="-884886016"/>
+        <c:axId val="-884880032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1056531408"/>
+        <c:axId val="-884886016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056530864"/>
+        <c:crossAx val="-884880032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1839,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1056530864"/>
+        <c:axId val="-884880032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1947,7 +1991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056531408"/>
+        <c:crossAx val="-884886016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2351,11 +2395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-914045552"/>
-        <c:axId val="-914040656"/>
+        <c:axId val="-883903536"/>
+        <c:axId val="-883897008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-914045552"/>
+        <c:axId val="-883903536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,7 +2442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914040656"/>
+        <c:crossAx val="-883897008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2406,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-914040656"/>
+        <c:axId val="-883897008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2458,7 +2502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914045552"/>
+        <c:crossAx val="-883903536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2821,11 +2865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-914036848"/>
-        <c:axId val="-914037392"/>
+        <c:axId val="-883905712"/>
+        <c:axId val="-883898640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-914036848"/>
+        <c:axId val="-883905712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914037392"/>
+        <c:crossAx val="-883898640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2876,7 +2920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-914037392"/>
+        <c:axId val="-883898640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2928,7 +2972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914036848"/>
+        <c:crossAx val="-883905712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3287,11 +3331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-914046096"/>
-        <c:axId val="-914044464"/>
+        <c:axId val="-883895920"/>
+        <c:axId val="-883895376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-914046096"/>
+        <c:axId val="-883895920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914044464"/>
+        <c:crossAx val="-883895376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-914044464"/>
+        <c:axId val="-883895376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3394,7 +3438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914046096"/>
+        <c:crossAx val="-883895920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3766,11 +3810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-914043920"/>
-        <c:axId val="-914036304"/>
+        <c:axId val="-883898096"/>
+        <c:axId val="-883906256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-914043920"/>
+        <c:axId val="-883898096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914036304"/>
+        <c:crossAx val="-883906256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3821,7 +3865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-914036304"/>
+        <c:axId val="-883906256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3873,7 +3917,456 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-914043920"/>
+        <c:crossAx val="-883898096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG" sz="3600">
+                <a:latin typeface="Bebas Neue" panose="020B0606020202050201" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Iteration 12</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration 12'!$B$3:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Changes after User Testing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Deployment at NP Local Server</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conduct User Test 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prepare documents for user testing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Debugging of failed test cases</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Meeting - Prepare for Final Presentation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Update wiki with progress </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual Guide</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Deployment Guide</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Final Deployment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration 12'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1277437632"/>
+        <c:axId val="-1277434368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1277437632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1277434368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1277434368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1277437632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4644,11 +5137,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1184186448"/>
-        <c:axId val="-1184189168"/>
+        <c:axId val="-884875680"/>
+        <c:axId val="-884887648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1184186448"/>
+        <c:axId val="-884875680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,7 +5184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1184189168"/>
+        <c:crossAx val="-884887648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4699,7 +5192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1184189168"/>
+        <c:axId val="-884887648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,7 +5243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1184186448"/>
+        <c:crossAx val="-884875680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5093,11 +5586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911277424"/>
-        <c:axId val="-911279600"/>
+        <c:axId val="-884874592"/>
+        <c:axId val="-884882752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911277424"/>
+        <c:axId val="-884874592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911279600"/>
+        <c:crossAx val="-884882752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911279600"/>
+        <c:axId val="-884882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5200,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911277424"/>
+        <c:crossAx val="-884874592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5611,11 +6104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911278512"/>
-        <c:axId val="-911276880"/>
+        <c:axId val="-884882208"/>
+        <c:axId val="-884881664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911278512"/>
+        <c:axId val="-884882208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5658,7 +6151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911276880"/>
+        <c:crossAx val="-884881664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5666,7 +6159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911276880"/>
+        <c:axId val="-884881664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5718,7 +6211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911278512"/>
+        <c:crossAx val="-884882208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6111,11 +6604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911275792"/>
-        <c:axId val="-911277968"/>
+        <c:axId val="-750346416"/>
+        <c:axId val="-750349680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911275792"/>
+        <c:axId val="-750346416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911277968"/>
+        <c:crossAx val="-750349680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6166,7 +6659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911277968"/>
+        <c:axId val="-750349680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6218,7 +6711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911275792"/>
+        <c:crossAx val="-750346416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6581,11 +7074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911275248"/>
-        <c:axId val="-911269264"/>
+        <c:axId val="-750338800"/>
+        <c:axId val="-750338256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911275248"/>
+        <c:axId val="-750338800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6628,7 +7121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911269264"/>
+        <c:crossAx val="-750338256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6636,7 +7129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911269264"/>
+        <c:axId val="-750338256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6688,7 +7181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911275248"/>
+        <c:crossAx val="-750338800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7033,11 +7526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911279056"/>
-        <c:axId val="-911271440"/>
+        <c:axId val="-750351312"/>
+        <c:axId val="-750350224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911279056"/>
+        <c:axId val="-750351312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7080,7 +7573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911271440"/>
+        <c:crossAx val="-750350224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7088,7 +7581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911271440"/>
+        <c:axId val="-750350224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7140,7 +7633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911279056"/>
+        <c:crossAx val="-750351312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7521,11 +8014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911270896"/>
-        <c:axId val="-911268176"/>
+        <c:axId val="-1065043536"/>
+        <c:axId val="-1065047888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911270896"/>
+        <c:axId val="-1065043536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7568,7 +8061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911268176"/>
+        <c:crossAx val="-1065047888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7576,7 +8069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911268176"/>
+        <c:axId val="-1065047888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7628,7 +8121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911270896"/>
+        <c:crossAx val="-1065043536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -8003,11 +8496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-911272528"/>
-        <c:axId val="-911280688"/>
+        <c:axId val="-1277640336"/>
+        <c:axId val="-1277641424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-911272528"/>
+        <c:axId val="-1277640336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8050,7 +8543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911280688"/>
+        <c:crossAx val="-1277641424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8058,7 +8551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-911280688"/>
+        <c:axId val="-1277641424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8110,7 +8603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911272528"/>
+        <c:crossAx val="-1277640336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -8349,6 +8842,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11223,6 +11756,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15277,123 +16313,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>816428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Brace 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29595536" y="1768929"/>
-          <a:ext cx="299357" cy="1102178"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>585107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>870857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30139821" y="2639786"/>
-          <a:ext cx="1428750" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1600"/>
-            <a:t>Pitch Video</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15511,6 +16430,43 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>605217</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16289,10 +17245,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S221"/>
+  <dimension ref="A1:S235"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17061,9 +18017,17 @@
       <c r="M14" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
+      <c r="O14" s="54">
+        <v>12</v>
+      </c>
+      <c r="P14" s="54">
+        <f>SUM(G225:G235)</f>
+        <v>30</v>
+      </c>
+      <c r="Q14" s="54">
+        <f>SUM(J225:J235)</f>
+        <v>31.5</v>
+      </c>
       <c r="R14" s="54"/>
       <c r="S14" s="57"/>
     </row>
@@ -24598,8 +25562,486 @@
         <v>12</v>
       </c>
     </row>
+    <row r="223" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A223" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B223" s="67"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="67"/>
+      <c r="E223" s="67"/>
+      <c r="F223" s="67"/>
+      <c r="G223" s="67"/>
+      <c r="H223" s="67"/>
+      <c r="I223" s="67"/>
+      <c r="J223" s="67"/>
+      <c r="K223" s="67"/>
+      <c r="L223" s="68"/>
+    </row>
+    <row r="224" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" s="11">
+        <v>1</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="11">
+        <v>6</v>
+      </c>
+      <c r="E225" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F225" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G225" s="11">
+        <v>4</v>
+      </c>
+      <c r="H225" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I225" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J225" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="K225" s="48">
+        <f>G225/J225</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L225" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>2</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D226" s="7">
+        <v>1</v>
+      </c>
+      <c r="E226" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F226" s="8">
+        <v>42086</v>
+      </c>
+      <c r="G226" s="7">
+        <v>4</v>
+      </c>
+      <c r="H226" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I226" s="8">
+        <v>42086</v>
+      </c>
+      <c r="J226" s="15">
+        <v>4</v>
+      </c>
+      <c r="K226" s="16">
+        <v>1</v>
+      </c>
+      <c r="L226" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>3</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D227" s="7">
+        <v>1</v>
+      </c>
+      <c r="E227" s="8">
+        <v>42088</v>
+      </c>
+      <c r="F227" s="8">
+        <v>42088</v>
+      </c>
+      <c r="G227" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H227" s="8">
+        <v>42088</v>
+      </c>
+      <c r="I227" s="8">
+        <v>42088</v>
+      </c>
+      <c r="J227" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K227" s="16">
+        <v>1</v>
+      </c>
+      <c r="L227" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>4</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="7">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F228" s="8">
+        <v>42086</v>
+      </c>
+      <c r="G228" s="7">
+        <v>3</v>
+      </c>
+      <c r="H228" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I228" s="8">
+        <v>42086</v>
+      </c>
+      <c r="J228" s="15">
+        <v>3</v>
+      </c>
+      <c r="K228" s="16">
+        <v>1</v>
+      </c>
+      <c r="L228" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A229" s="18">
+        <v>5</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="7">
+        <v>1</v>
+      </c>
+      <c r="E229" s="8">
+        <v>42098</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G229" s="7">
+        <v>4</v>
+      </c>
+      <c r="H229" s="8">
+        <v>42098</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J229" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K229" s="16">
+        <f>G229/J229</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L229" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>6</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="11">
+        <v>1</v>
+      </c>
+      <c r="E230" s="28">
+        <v>42083</v>
+      </c>
+      <c r="F230" s="28">
+        <v>42080</v>
+      </c>
+      <c r="G230" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H230" s="28">
+        <v>42083</v>
+      </c>
+      <c r="I230" s="28">
+        <v>42083</v>
+      </c>
+      <c r="J230" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K230" s="48">
+        <v>1</v>
+      </c>
+      <c r="L230" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>7</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" s="7">
+        <v>1</v>
+      </c>
+      <c r="E231" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F231" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G231" s="7">
+        <v>3</v>
+      </c>
+      <c r="H231" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I231" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J231" s="15">
+        <v>3</v>
+      </c>
+      <c r="K231" s="16">
+        <v>1</v>
+      </c>
+      <c r="L231" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>8</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D232" s="7">
+        <v>1</v>
+      </c>
+      <c r="E232" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F232" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G232" s="7">
+        <v>1</v>
+      </c>
+      <c r="H232" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I232" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J232" s="15">
+        <v>1</v>
+      </c>
+      <c r="K232" s="16">
+        <v>1</v>
+      </c>
+      <c r="L232" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A233" s="18">
+        <v>9</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D233" s="7">
+        <f>F233-E233</f>
+        <v>5</v>
+      </c>
+      <c r="E233" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F233" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G233" s="7">
+        <v>4</v>
+      </c>
+      <c r="H233" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I233" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J233" s="15">
+        <v>5</v>
+      </c>
+      <c r="K233" s="16">
+        <f>G233/J233</f>
+        <v>0.8</v>
+      </c>
+      <c r="L233" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A234" s="18">
+        <v>10</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D234" s="7">
+        <f>F234-E234</f>
+        <v>5</v>
+      </c>
+      <c r="E234" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F234" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G234" s="7">
+        <v>2</v>
+      </c>
+      <c r="H234" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I234" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J234" s="15">
+        <v>2</v>
+      </c>
+      <c r="K234" s="16">
+        <v>1</v>
+      </c>
+      <c r="L234" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>11</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="7">
+        <v>1</v>
+      </c>
+      <c r="E235" s="8">
+        <v>42100</v>
+      </c>
+      <c r="F235" s="8">
+        <v>42100</v>
+      </c>
+      <c r="G235" s="7">
+        <v>3</v>
+      </c>
+      <c r="H235" s="8">
+        <v>42100</v>
+      </c>
+      <c r="I235" s="8">
+        <v>42100</v>
+      </c>
+      <c r="J235" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K235" s="9">
+        <v>1</v>
+      </c>
+      <c r="L235" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A223:L223"/>
     <mergeCell ref="A204:L204"/>
     <mergeCell ref="A187:L187"/>
     <mergeCell ref="O1:R1"/>
@@ -26827,8 +28269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J18"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26850,7 +28292,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -27524,6 +28966,517 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F3" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I3" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="K3" s="48">
+        <f>G3/J3</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F4" s="8">
+        <v>42086</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I4" s="8">
+        <v>42086</v>
+      </c>
+      <c r="J4" s="15">
+        <v>4</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42088</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42088</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>42088</v>
+      </c>
+      <c r="I5" s="8">
+        <v>42088</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42086</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I6" s="8">
+        <v>42086</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42098</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>42098</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="K7" s="16">
+        <f>G7/J7</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="F8" s="28">
+        <v>42080</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="I8" s="28">
+        <v>42083</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I9" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J9" s="15">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42085</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42085</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42085</v>
+      </c>
+      <c r="I10" s="8">
+        <v>42085</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="7">
+        <f>F11-E11</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F11" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I11" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="16">
+        <f>G11/J11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="7">
+        <f>F12-E12</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42086</v>
+      </c>
+      <c r="F12" s="28">
+        <v>42091</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>42086</v>
+      </c>
+      <c r="I12" s="28">
+        <v>42091</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>42100</v>
+      </c>
+      <c r="F13" s="8">
+        <v>42100</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>42100</v>
+      </c>
+      <c r="I13" s="8">
+        <v>42100</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>

--- a/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
+++ b/Documents/Project Management/Metrics/Task Metrics/Task Metrics Tracking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" tabRatio="849"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="7935" tabRatio="811" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="By Iterations" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="229">
   <si>
     <t>No</t>
   </si>
@@ -712,6 +712,30 @@
   <si>
     <t>Iteration 11 (9 March 2015 - 23 March 2015)</t>
   </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Actual Hours x Manpower</t>
+  </si>
+  <si>
+    <t>Estimated  x Manpower</t>
+  </si>
+  <si>
+    <t>Effort Each Iteration (Old)</t>
+  </si>
+  <si>
+    <t>average per person</t>
+  </si>
+  <si>
+    <t>First time deploy on openshift, expected more issues there hence more time</t>
+  </si>
+  <si>
+    <t>Debugging took longer, hence there is a big gap</t>
+  </si>
+  <si>
+    <t>Exam period, bugs score of 5 in that iteration hence we did not utilize all the debugging hours planned</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'By Iterations'!$P$2</c:f>
+              <c:f>'By Iterations'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1337,7 +1361,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1408,45 +1432,45 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$P$3:$P$14</c:f>
+              <c:f>'By Iterations'!$S$3:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>29.5</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.25</c:v>
+                  <c:v>84.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>67.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.5</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>98.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.5</c:v>
+                  <c:v>120.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.5</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>90.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1482,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'By Iterations'!$Q$2</c:f>
+              <c:f>'By Iterations'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,27 +1522,6 @@
                 <c:manualLayout>
                   <c:x val="-1.8595712330507403E-2"/>
                   <c:y val="7.0786117332730658E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.7095308986273345E-2"/>
-                  <c:y val="1.1075623531843857E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1594,174 +1597,50 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'By Iterations'!$Q$3:$Q$14</c:f>
+              <c:f>'By Iterations'!$T$3:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.75</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>67.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.25</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.15</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.25</c:v>
+                  <c:v>127.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.25</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.5</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'By Iterations'!$R$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3108920869317571E-2"/>
-                  <c:y val="1.9074868860276515E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'By Iterations'!$R$3:$R$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1773,11 +1652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-884886016"/>
-        <c:axId val="-884880032"/>
+        <c:axId val="-1526339120"/>
+        <c:axId val="-1526346736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-884886016"/>
+        <c:axId val="-1526339120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884880032"/>
+        <c:crossAx val="-1526346736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-884880032"/>
+        <c:axId val="-1526346736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1991,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884886016"/>
+        <c:crossAx val="-1526339120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2006,10 +1885,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2119,6 +1994,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,6 +2097,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2395,11 +2272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-883903536"/>
-        <c:axId val="-883897008"/>
+        <c:axId val="-1460363728"/>
+        <c:axId val="-1460362096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-883903536"/>
+        <c:axId val="-1460363728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883897008"/>
+        <c:crossAx val="-1460362096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-883897008"/>
+        <c:axId val="-1460362096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2502,7 +2379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883903536"/>
+        <c:crossAx val="-1460363728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2517,6 +2394,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2865,11 +2743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-883905712"/>
-        <c:axId val="-883898640"/>
+        <c:axId val="-1459180032"/>
+        <c:axId val="-1459186016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-883905712"/>
+        <c:axId val="-1459180032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883898640"/>
+        <c:crossAx val="-1459186016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,7 +2798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-883898640"/>
+        <c:axId val="-1459186016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2972,7 +2850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883905712"/>
+        <c:crossAx val="-1459180032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3331,11 +3209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-883895920"/>
-        <c:axId val="-883895376"/>
+        <c:axId val="-1459187648"/>
+        <c:axId val="-1459184928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-883895920"/>
+        <c:axId val="-1459187648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,7 +3256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883895376"/>
+        <c:crossAx val="-1459184928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3386,7 +3264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-883895376"/>
+        <c:axId val="-1459184928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3438,7 +3316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883895920"/>
+        <c:crossAx val="-1459187648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3810,11 +3688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-883898096"/>
-        <c:axId val="-883906256"/>
+        <c:axId val="-1459181120"/>
+        <c:axId val="-1459186560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-883898096"/>
+        <c:axId val="-1459181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883906256"/>
+        <c:crossAx val="-1459186560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3865,7 +3743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-883906256"/>
+        <c:axId val="-1459186560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3917,7 +3795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-883898096"/>
+        <c:crossAx val="-1459181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4259,11 +4137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1277437632"/>
-        <c:axId val="-1277434368"/>
+        <c:axId val="-1459182208"/>
+        <c:axId val="-1459174592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277437632"/>
+        <c:axId val="-1459182208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4306,7 +4184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277434368"/>
+        <c:crossAx val="-1459174592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4314,7 +4192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277434368"/>
+        <c:axId val="-1459174592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4366,7 +4244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277437632"/>
+        <c:crossAx val="-1459182208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -5137,11 +5015,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-884875680"/>
-        <c:axId val="-884887648"/>
+        <c:axId val="-1526345648"/>
+        <c:axId val="-1526340208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-884875680"/>
+        <c:axId val="-1526345648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5184,7 +5062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884887648"/>
+        <c:crossAx val="-1526340208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5192,7 +5070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-884887648"/>
+        <c:axId val="-1526340208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884875680"/>
+        <c:crossAx val="-1526345648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5586,11 +5464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-884874592"/>
-        <c:axId val="-884882752"/>
+        <c:axId val="-1526339664"/>
+        <c:axId val="-1460372432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-884874592"/>
+        <c:axId val="-1526339664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5633,7 +5511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884882752"/>
+        <c:crossAx val="-1460372432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5641,7 +5519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-884882752"/>
+        <c:axId val="-1460372432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5693,7 +5571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884874592"/>
+        <c:crossAx val="-1526339664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6104,11 +5982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-884882208"/>
-        <c:axId val="-884881664"/>
+        <c:axId val="-1460363184"/>
+        <c:axId val="-1460372976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-884882208"/>
+        <c:axId val="-1460363184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6151,7 +6029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884881664"/>
+        <c:crossAx val="-1460372976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6159,7 +6037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-884881664"/>
+        <c:axId val="-1460372976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6211,7 +6089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-884882208"/>
+        <c:crossAx val="-1460363184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -6604,11 +6482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-750346416"/>
-        <c:axId val="-750349680"/>
+        <c:axId val="-1460370800"/>
+        <c:axId val="-1460359920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-750346416"/>
+        <c:axId val="-1460370800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6651,7 +6529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750349680"/>
+        <c:crossAx val="-1460359920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6659,7 +6537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-750349680"/>
+        <c:axId val="-1460359920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6711,7 +6589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750346416"/>
+        <c:crossAx val="-1460370800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7074,11 +6952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-750338800"/>
-        <c:axId val="-750338256"/>
+        <c:axId val="-1460360464"/>
+        <c:axId val="-1460362640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-750338800"/>
+        <c:axId val="-1460360464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7121,7 +6999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750338256"/>
+        <c:crossAx val="-1460362640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7129,7 +7007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-750338256"/>
+        <c:axId val="-1460362640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7181,7 +7059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750338800"/>
+        <c:crossAx val="-1460360464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -7526,11 +7404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-750351312"/>
-        <c:axId val="-750350224"/>
+        <c:axId val="-1460370256"/>
+        <c:axId val="-1460361552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-750351312"/>
+        <c:axId val="-1460370256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750350224"/>
+        <c:crossAx val="-1460361552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7581,7 +7459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-750350224"/>
+        <c:axId val="-1460361552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7633,7 +7511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750351312"/>
+        <c:crossAx val="-1460370256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -8014,11 +7892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1065043536"/>
-        <c:axId val="-1065047888"/>
+        <c:axId val="-1460368624"/>
+        <c:axId val="-1460368080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1065043536"/>
+        <c:axId val="-1460368624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8061,7 +7939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1065047888"/>
+        <c:crossAx val="-1460368080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8069,7 +7947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1065047888"/>
+        <c:axId val="-1460368080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8121,7 +7999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1065043536"/>
+        <c:crossAx val="-1460368624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -8496,11 +8374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1277640336"/>
-        <c:axId val="-1277641424"/>
+        <c:axId val="-1460366992"/>
+        <c:axId val="-1460366448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1277640336"/>
+        <c:axId val="-1460366992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8543,7 +8421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277641424"/>
+        <c:crossAx val="-1460366448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8551,7 +8429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1277641424"/>
+        <c:axId val="-1460366448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8603,7 +8481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1277640336"/>
+        <c:crossAx val="-1460366992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -16287,13 +16165,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>520782</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>244557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>155862</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
@@ -17245,35 +17123,37 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S235"/>
+  <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="31" customWidth="1"/>
     <col min="4" max="4" width="9" style="31" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="31" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="31" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="11" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="31"/>
-    <col min="15" max="15" width="18.28515625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="15.42578125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="31" customWidth="1"/>
+    <col min="16" max="16" width="11" style="31" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="31"/>
-    <col min="18" max="18" width="9.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="31"/>
+    <col min="18" max="18" width="18.28515625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="31"/>
+    <col min="21" max="21" width="9.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="31" customWidth="1"/>
+    <col min="23" max="23" width="86.42578125" style="31" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
@@ -17288,15 +17168,19 @@
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
-      <c r="O1" s="70" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="R1" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="65"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+    </row>
+    <row r="2" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -17327,32 +17211,42 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="R2" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="S2" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="T2" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="R2" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="56" t="s">
+      <c r="U2" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -17381,31 +17275,47 @@
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
+        <f>IF(C3="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="7">
+        <f>G3*K3</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="7">
+        <f>K3*J3</f>
+        <v>5</v>
+      </c>
+      <c r="N3" s="9">
         <f>G3/J3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="54" t="s">
+      <c r="O3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="54">
-        <v>1</v>
-      </c>
-      <c r="P3" s="54">
-        <f>SUM(G3:G19)</f>
-        <v>29.5</v>
-      </c>
-      <c r="Q3" s="54">
-        <f>SUM(J3:J19)</f>
-        <v>25.5</v>
-      </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="54">
+        <v>1</v>
+      </c>
+      <c r="S3" s="54">
+        <f>SUM(L3:L19)</f>
+        <v>61.5</v>
+      </c>
+      <c r="T3" s="54">
+        <f>SUM(M3:M19)</f>
+        <v>44.5</v>
+      </c>
+      <c r="U3" s="54">
+        <f>T3/5</f>
+        <v>8.9</v>
+      </c>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -17434,31 +17344,48 @@
       <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L19" si="0">G4*K4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M19" si="1">K4*J4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
         <f>G4/J4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="54" t="s">
+      <c r="O4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="54">
+      <c r="R4" s="54">
         <v>2</v>
       </c>
-      <c r="P4" s="54">
-        <f>SUM(G23:G45)</f>
-        <v>54.25</v>
-      </c>
-      <c r="Q4" s="54">
-        <f>SUM(J23:J45)</f>
-        <v>52</v>
-      </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S4" s="54">
+        <f>SUM(L23:L45)</f>
+        <v>84.75</v>
+      </c>
+      <c r="T4" s="54">
+        <f>SUM(M23:M45)</f>
+        <v>82.5</v>
+      </c>
+      <c r="U4" s="54">
+        <f t="shared" ref="U4:U14" si="2">T4/5</f>
+        <v>16.5</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -17490,33 +17417,47 @@
       <c r="J5" s="7">
         <v>1.75</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="N5" s="9">
         <f>G5/J5</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="54" t="s">
+      <c r="O5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="54">
+      <c r="R5" s="54">
         <v>3</v>
       </c>
-      <c r="P5" s="54">
-        <f>SUM(G49:G68)</f>
-        <v>40.5</v>
-      </c>
-      <c r="Q5" s="54">
-        <f>SUM(J49:J68)</f>
-        <v>37.75</v>
-      </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="54">
+        <f>SUM(L49:L68)</f>
+        <v>72.5</v>
+      </c>
+      <c r="T5" s="54">
+        <v>75.5</v>
+      </c>
+      <c r="U5" s="54">
+        <f t="shared" si="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -17527,7 +17468,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6" si="0">(F6-E6)+1</f>
+        <f t="shared" ref="D6" si="3">(F6-E6)+1</f>
         <v>1</v>
       </c>
       <c r="E6" s="8">
@@ -17548,33 +17489,47 @@
       <c r="J6" s="7">
         <v>1.75</v>
       </c>
-      <c r="K6" s="9">
-        <f t="shared" ref="K6:K15" si="1">G6/J6</f>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" ref="N6:N15" si="4">G6/J6</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="54" t="s">
+      <c r="O6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="54">
+      <c r="R6" s="54">
         <v>4</v>
       </c>
-      <c r="P6" s="54">
-        <f>SUM(G72:G86)</f>
-        <v>33</v>
-      </c>
-      <c r="Q6" s="54">
-        <f>SUM(J72:J86)</f>
-        <v>31</v>
-      </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S6" s="54">
+        <f>SUM(L72:L86)</f>
+        <v>67.75</v>
+      </c>
+      <c r="T6" s="54">
+        <v>54.7</v>
+      </c>
+      <c r="U6" s="54">
+        <f t="shared" si="2"/>
+        <v>10.940000000000001</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -17606,33 +17561,46 @@
       <c r="J7" s="7">
         <v>1.5</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="54" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O7" s="54">
+      <c r="R7" s="54">
         <v>5</v>
       </c>
-      <c r="P7" s="54">
-        <f>SUM(G90:G101)</f>
-        <v>31.5</v>
-      </c>
-      <c r="Q7" s="54">
-        <f>SUM(J90:J101)</f>
-        <v>34</v>
-      </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="54">
+        <v>56.5</v>
+      </c>
+      <c r="T7" s="54">
+        <v>67.75</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" si="2"/>
+        <v>13.55</v>
+      </c>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -17664,33 +17632,46 @@
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="54" t="s">
+      <c r="N8" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O8" s="54">
+      <c r="R8" s="54">
         <v>6</v>
       </c>
-      <c r="P8" s="54">
-        <f>SUM(G105:G122)-6.5</f>
-        <v>39</v>
-      </c>
-      <c r="Q8" s="54">
-        <f>SUM(J105:J122)</f>
-        <v>41.25</v>
-      </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="54">
+        <v>98.25</v>
+      </c>
+      <c r="T8" s="54">
+        <v>97.5</v>
+      </c>
+      <c r="U8" s="54">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -17722,33 +17703,46 @@
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="54" t="s">
+      <c r="N9" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="54">
+      <c r="R9" s="54">
         <v>7</v>
       </c>
-      <c r="P9" s="54">
-        <f>SUM(G126:G142)-2</f>
-        <v>40</v>
-      </c>
-      <c r="Q9" s="54">
-        <f>SUM(J126:J142)</f>
-        <v>42.15</v>
-      </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54" t="s">
+      <c r="S9" s="54">
+        <v>91.5</v>
+      </c>
+      <c r="T9" s="54">
+        <v>89</v>
+      </c>
+      <c r="U9" s="54">
+        <f t="shared" si="2"/>
+        <v>17.8</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -17780,33 +17774,46 @@
       <c r="J10" s="7">
         <v>3</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="54" t="s">
+      <c r="O10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O10" s="54">
+      <c r="R10" s="54">
         <v>8</v>
       </c>
-      <c r="P10" s="54">
-        <f>SUM(G146:G166)-6</f>
-        <v>52.5</v>
-      </c>
-      <c r="Q10" s="54">
-        <f>SUM(J146:J166)</f>
-        <v>59.25</v>
-      </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="54">
+        <v>120.5</v>
+      </c>
+      <c r="T10" s="54">
+        <v>127.75</v>
+      </c>
+      <c r="U10" s="54">
+        <f t="shared" si="2"/>
+        <v>25.55</v>
+      </c>
+      <c r="V10" s="54"/>
+      <c r="W10" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -17838,31 +17845,44 @@
       <c r="J11" s="7">
         <v>1.75</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="54" t="s">
+      <c r="O11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="54">
+      <c r="R11" s="54">
         <v>9</v>
       </c>
-      <c r="P11" s="54">
-        <f>SUM(G171:G185)</f>
-        <v>42</v>
-      </c>
-      <c r="Q11" s="54">
-        <f>SUM(J171:J185)</f>
-        <v>41.5</v>
-      </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="57"/>
-    </row>
-    <row r="12" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="S11" s="54">
+        <v>100</v>
+      </c>
+      <c r="T11" s="54">
+        <v>99</v>
+      </c>
+      <c r="U11" s="54">
+        <f t="shared" si="2"/>
+        <v>19.8</v>
+      </c>
+      <c r="V11" s="54"/>
+      <c r="W11" s="57"/>
+    </row>
+    <row r="12" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -17893,33 +17913,46 @@
       <c r="J12" s="7">
         <v>1.75</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
         <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="54" t="s">
+      <c r="O12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="54">
+      <c r="R12" s="54">
         <v>10</v>
       </c>
-      <c r="P12" s="54">
-        <f>SUM(G189:G202)-7</f>
-        <v>34</v>
-      </c>
-      <c r="Q12" s="54">
-        <f>SUM(J189:J202)</f>
-        <v>39.25</v>
-      </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="57" t="s">
+      <c r="S12" s="31">
+        <v>96</v>
+      </c>
+      <c r="T12" s="54">
+        <v>93.75</v>
+      </c>
+      <c r="U12" s="54">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="V12" s="54"/>
+      <c r="W12" s="57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -17950,32 +17983,47 @@
       <c r="J13" s="7">
         <v>2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="54">
+      <c r="R13" s="54">
         <v>11</v>
       </c>
-      <c r="P13" s="54">
-        <f>SUM(G206:G221)-16</f>
-        <v>61.5</v>
-      </c>
-      <c r="Q13" s="54">
-        <v>59.5</v>
-      </c>
-      <c r="R13" s="54"/>
-      <c r="S13" s="57" t="s">
+      <c r="S13" s="54">
+        <v>134.5</v>
+      </c>
+      <c r="T13" s="54">
+        <f>218-60</f>
+        <v>158</v>
+      </c>
+      <c r="U13" s="54">
+        <f t="shared" si="2"/>
+        <v>31.6</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="W13" s="57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -18007,31 +18055,45 @@
       <c r="J14" s="7">
         <v>0.75</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
+        <f t="shared" ref="K14:K19" si="5">IF(C14="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="7">
         <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="54" t="s">
+      <c r="O14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="54">
-        <v>12</v>
-      </c>
-      <c r="P14" s="54">
-        <f>SUM(G225:G235)</f>
-        <v>30</v>
-      </c>
-      <c r="Q14" s="54">
-        <f>SUM(J225:J235)</f>
-        <v>31.5</v>
-      </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="57"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R14" s="54">
+        <v>12</v>
+      </c>
+      <c r="S14" s="54">
+        <v>90.5</v>
+      </c>
+      <c r="T14" s="54">
+        <v>96</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="2"/>
+        <v>19.2</v>
+      </c>
+      <c r="V14" s="54"/>
+      <c r="W14" s="57"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -18063,18 +18125,29 @@
       <c r="J15" s="7">
         <v>1.75</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="7">
         <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="4"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="54" t="s">
+      <c r="O15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -18106,17 +18179,36 @@
       <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="9">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="54" t="s">
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R16" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -18148,17 +18240,44 @@
       <c r="J17" s="7">
         <v>2</v>
       </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="54" t="s">
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R17" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="U17" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -18189,18 +18308,44 @@
       <c r="J18" s="15">
         <v>1</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="16">
         <f>G18/J18</f>
         <v>1</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="54" t="s">
+      <c r="O18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R18" s="54">
+        <v>1</v>
+      </c>
+      <c r="S18" s="54">
+        <f>SUM(G18:G34)</f>
+        <v>27.75</v>
+      </c>
+      <c r="T18" s="54">
+        <f>SUM(J18:J34)</f>
+        <v>25.75</v>
+      </c>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -18231,18 +18376,62 @@
       <c r="J19" s="15">
         <v>1.5</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="N19" s="16">
         <f>G19/J19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="54" t="s">
+      <c r="O19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="R19" s="54">
+        <v>2</v>
+      </c>
+      <c r="S19" s="54">
+        <f>SUM(G38:G60)</f>
+        <v>45.5</v>
+      </c>
+      <c r="T19" s="54">
+        <f>SUM(J38:J60)</f>
+        <v>43.6</v>
+      </c>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R20" s="54">
+        <v>3</v>
+      </c>
+      <c r="S20" s="54">
+        <f>SUM(G64:G83)</f>
+        <v>32.5</v>
+      </c>
+      <c r="T20" s="54">
+        <f>SUM(J64:J83)</f>
+        <v>29.9</v>
+      </c>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A21" s="66" t="s">
         <v>39</v>
       </c>
@@ -18256,9 +18445,28 @@
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68"/>
+      <c r="R21" s="54">
+        <v>4</v>
+      </c>
+      <c r="S21" s="54">
+        <f>SUM(G87:G101)</f>
+        <v>31.5</v>
+      </c>
+      <c r="T21" s="54">
+        <f>SUM(J87:J101)</f>
+        <v>32</v>
+      </c>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -18289,17 +18497,42 @@
       <c r="J22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="55" t="s">
+      <c r="P22" s="55" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R22" s="54">
+        <v>5</v>
+      </c>
+      <c r="S22" s="54">
+        <f>SUM(G105:G116)</f>
+        <v>30.5</v>
+      </c>
+      <c r="T22" s="54">
+        <f>SUM(J105:J116)</f>
+        <v>32</v>
+      </c>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -18332,17 +18565,45 @@
       <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="42">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="54" t="s">
+      <c r="K23" s="7">
+        <f>IF(C23="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L23" s="7">
+        <f>G23*K23</f>
+        <v>5</v>
+      </c>
+      <c r="M23" s="7">
+        <f>K23*J23</f>
+        <v>5</v>
+      </c>
+      <c r="N23" s="42">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R23" s="54">
+        <v>6</v>
+      </c>
+      <c r="S23" s="54">
+        <f>SUM(G120:G137)-6.5</f>
+        <v>32.5</v>
+      </c>
+      <c r="T23" s="54">
+        <f>SUM(J120:J137)</f>
+        <v>39.4</v>
+      </c>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>2</v>
       </c>
@@ -18375,18 +18636,45 @@
       <c r="J24" s="6">
         <v>1.5</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24:L45" si="6">G24*K24</f>
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" ref="M24:M45" si="7">K24*J24</f>
+        <v>1.5</v>
+      </c>
+      <c r="N24" s="42">
         <f>G24/J24</f>
         <v>1</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="54" t="s">
+      <c r="O24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R24" s="54">
+        <v>7</v>
+      </c>
+      <c r="S24" s="54">
+        <f>SUM(G141:G157)-2</f>
+        <v>34.5</v>
+      </c>
+      <c r="T24" s="54">
+        <f>SUM(J141:J157)</f>
+        <v>38.5</v>
+      </c>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -18417,18 +18705,45 @@
       <c r="J25" s="7">
         <v>3.25</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="7"/>
+        <v>3.25</v>
+      </c>
+      <c r="N25" s="9">
         <f>G25/J25</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="54" t="s">
+      <c r="O25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R25" s="54">
+        <v>8</v>
+      </c>
+      <c r="S25" s="54">
+        <f>SUM(G161:G181)-6</f>
+        <v>34.5</v>
+      </c>
+      <c r="T25" s="54">
+        <f>SUM(J161:J181)</f>
+        <v>40</v>
+      </c>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>4</v>
       </c>
@@ -18459,18 +18774,43 @@
       <c r="J26" s="7">
         <v>2.75</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
+      <c r="N26" s="9">
         <f>G26/J26</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="54" t="s">
+      <c r="O26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R26" s="54">
+        <v>9</v>
+      </c>
+      <c r="S26" s="54">
+        <f>SUM(G186:G200)</f>
+        <v>38</v>
+      </c>
+      <c r="T26" s="54">
+        <f>SUM(J186:J200)</f>
+        <v>36.25</v>
+      </c>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="57"/>
+    </row>
+    <row r="27" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>5</v>
       </c>
@@ -18501,18 +18841,45 @@
       <c r="J27" s="7">
         <v>3.75</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="N27" s="9">
         <f>G27/J27</f>
         <v>1.0666666666666667</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="54" t="s">
+      <c r="O27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R27" s="54">
+        <v>10</v>
+      </c>
+      <c r="S27" s="54">
+        <f>SUM(G204:G217)-7</f>
+        <v>46.5</v>
+      </c>
+      <c r="T27" s="54">
+        <f>SUM(J204:J217)</f>
+        <v>54</v>
+      </c>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>6</v>
       </c>
@@ -18544,18 +18911,44 @@
       <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="K28" s="42">
-        <f t="shared" ref="K28:K36" si="2">G28/J28</f>
+      <c r="K28" s="7">
+        <v>2</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N28" s="42">
+        <f t="shared" ref="N28:N36" si="8">G28/J28</f>
         <v>1.5</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="54" t="s">
+      <c r="O28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R28" s="54">
+        <v>11</v>
+      </c>
+      <c r="S28" s="54">
+        <f>SUM(G221:G236)-16</f>
+        <v>18</v>
+      </c>
+      <c r="T28" s="54">
+        <v>59.5</v>
+      </c>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>7</v>
       </c>
@@ -18587,18 +18980,43 @@
       <c r="J29" s="6">
         <v>1.5</v>
       </c>
-      <c r="K29" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="54" t="s">
+      <c r="K29" s="7">
+        <v>2</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N29" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="54" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R29" s="54">
+        <v>12</v>
+      </c>
+      <c r="S29" s="54">
+        <f>SUM(G240:G250)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="54">
+        <f>SUM(J240:J250)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="57"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>8</v>
       </c>
@@ -18629,18 +19047,29 @@
       <c r="J30" s="6">
         <v>2.5</v>
       </c>
-      <c r="K30" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="54" t="s">
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="N30" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>9</v>
       </c>
@@ -18671,18 +19100,29 @@
       <c r="J31" s="6">
         <v>1.5</v>
       </c>
-      <c r="K31" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="54" t="s">
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N31" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>10</v>
       </c>
@@ -18713,18 +19153,29 @@
       <c r="J32" s="6">
         <v>1.5</v>
       </c>
-      <c r="K32" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="54" t="s">
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>11</v>
       </c>
@@ -18755,18 +19206,29 @@
       <c r="J33" s="6">
         <v>1.5</v>
       </c>
-      <c r="K33" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="54" t="s">
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>12</v>
       </c>
@@ -18797,18 +19259,29 @@
       <c r="J34" s="6">
         <v>0.5</v>
       </c>
-      <c r="K34" s="42">
-        <f t="shared" si="2"/>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="42">
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="54" t="s">
+      <c r="O34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>13</v>
       </c>
@@ -18839,18 +19312,29 @@
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="42">
-        <f t="shared" si="2"/>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N35" s="42">
+        <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="54" t="s">
+      <c r="O35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>14</v>
       </c>
@@ -18881,18 +19365,29 @@
       <c r="J36" s="6">
         <v>6</v>
       </c>
-      <c r="K36" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="54" t="s">
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="N36" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>15</v>
       </c>
@@ -18923,18 +19418,29 @@
       <c r="J37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="42">
         <f>J37/G37</f>
         <v>1</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="54" t="s">
+      <c r="O37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>16</v>
       </c>
@@ -18966,18 +19472,29 @@
       <c r="J38" s="6">
         <v>1.25</v>
       </c>
-      <c r="K38" s="42">
-        <f t="shared" ref="K38:K45" si="3">G38/J38</f>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="7"/>
+        <v>1.25</v>
+      </c>
+      <c r="N38" s="42">
+        <f t="shared" ref="N38:N45" si="9">G38/J38</f>
         <v>1.2</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="54" t="s">
+      <c r="O38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>17</v>
       </c>
@@ -19008,18 +19525,29 @@
       <c r="J39" s="7">
         <v>2</v>
       </c>
-      <c r="K39" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="54" t="s">
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>18</v>
       </c>
@@ -19050,18 +19578,29 @@
       <c r="J40" s="7">
         <v>3.75</v>
       </c>
-      <c r="K40" s="9">
-        <f t="shared" si="3"/>
+      <c r="K40" s="7">
+        <v>2</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="9"/>
         <v>1.0666666666666667</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="54" t="s">
+      <c r="O40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>19</v>
       </c>
@@ -19092,18 +19631,30 @@
       <c r="J41" s="7">
         <v>1.5</v>
       </c>
-      <c r="K41" s="9">
-        <f t="shared" si="3"/>
+      <c r="K41" s="7">
+        <f t="shared" ref="K41:K42" si="10">IF(C41="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="54" t="s">
+      <c r="O41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>20</v>
       </c>
@@ -19134,18 +19685,30 @@
       <c r="J42" s="7">
         <v>1</v>
       </c>
-      <c r="K42" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="54" t="s">
+      <c r="K42" s="7">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>21</v>
       </c>
@@ -19176,18 +19739,29 @@
       <c r="J43" s="7">
         <v>1</v>
       </c>
-      <c r="K43" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="54" t="s">
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>22</v>
       </c>
@@ -19218,18 +19792,29 @@
       <c r="J44" s="7">
         <v>1.75</v>
       </c>
-      <c r="K44" s="9">
-        <f t="shared" si="3"/>
+      <c r="K44" s="7">
+        <v>2</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="9"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="54" t="s">
+      <c r="O44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>23</v>
       </c>
@@ -19261,18 +19846,29 @@
       <c r="J45" s="7">
         <v>4.5</v>
       </c>
-      <c r="K45" s="9">
-        <f t="shared" si="3"/>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="9"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="L45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="54" t="s">
+      <c r="O45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
         <v>48</v>
       </c>
@@ -19286,9 +19882,12 @@
       <c r="I47" s="67"/>
       <c r="J47" s="67"/>
       <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="68"/>
+    </row>
+    <row r="48" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -19319,17 +19918,26 @@
       <c r="J48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N48" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="O48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="54" t="s">
+      <c r="P48" s="54" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -19362,17 +19970,29 @@
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="42">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="54" t="s">
+      <c r="K49" s="7">
+        <f>IF(C49="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L49" s="7">
+        <f>G49*K49</f>
+        <v>5</v>
+      </c>
+      <c r="M49" s="7">
+        <f>K49*J49</f>
+        <v>5</v>
+      </c>
+      <c r="N49" s="42">
+        <v>1</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2</v>
       </c>
@@ -19403,18 +20023,29 @@
       <c r="J50" s="15">
         <v>1.5</v>
       </c>
-      <c r="K50" s="16">
-        <f t="shared" ref="K50:K68" si="4">G50/J50</f>
-        <v>1</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="54" t="s">
+      <c r="K50" s="15">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" ref="L50:L68" si="11">G50*K50</f>
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="7">
+        <f t="shared" ref="M50:M68" si="12">K50*J50</f>
+        <v>1.5</v>
+      </c>
+      <c r="N50" s="16">
+        <f t="shared" ref="N50:N68" si="13">G50/J50</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>3</v>
       </c>
@@ -19445,18 +20076,29 @@
       <c r="J51" s="15">
         <v>2</v>
       </c>
-      <c r="K51" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="54" t="s">
+      <c r="K51" s="15">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="N51" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>4</v>
       </c>
@@ -19487,18 +20129,29 @@
       <c r="J52" s="15">
         <v>2.1</v>
       </c>
-      <c r="K52" s="16">
-        <f t="shared" si="4"/>
+      <c r="K52" s="15">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M52" s="7">
+        <f t="shared" si="12"/>
+        <v>4.2</v>
+      </c>
+      <c r="N52" s="16">
+        <f t="shared" si="13"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="54" t="s">
+      <c r="O52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>5</v>
       </c>
@@ -19529,18 +20182,29 @@
       <c r="J53" s="15">
         <v>2</v>
       </c>
-      <c r="K53" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="54" t="s">
+      <c r="K53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M53" s="7">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="N53" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>6</v>
       </c>
@@ -19571,18 +20235,29 @@
       <c r="J54" s="15">
         <v>2.5</v>
       </c>
-      <c r="K54" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="54" t="s">
+      <c r="K54" s="15">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="M54" s="7">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="N54" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>7</v>
       </c>
@@ -19613,18 +20288,29 @@
       <c r="J55" s="15">
         <v>1.75</v>
       </c>
-      <c r="K55" s="16">
-        <f t="shared" si="4"/>
+      <c r="K55" s="15">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M55" s="7">
+        <f t="shared" si="12"/>
+        <v>1.75</v>
+      </c>
+      <c r="N55" s="16">
+        <f t="shared" si="13"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="54" t="s">
+      <c r="O55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>8</v>
       </c>
@@ -19655,18 +20341,29 @@
       <c r="J56" s="15">
         <v>5.75</v>
       </c>
-      <c r="K56" s="16">
-        <f t="shared" si="4"/>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="12"/>
+        <v>5.75</v>
+      </c>
+      <c r="N56" s="16">
+        <f t="shared" si="13"/>
         <v>1.0434782608695652</v>
       </c>
-      <c r="L56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="54" t="s">
+      <c r="O56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>9</v>
       </c>
@@ -19697,18 +20394,29 @@
       <c r="J57" s="15">
         <v>0.5</v>
       </c>
-      <c r="K57" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="54" t="s">
+      <c r="K57" s="15">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="7">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>10</v>
       </c>
@@ -19740,18 +20448,29 @@
       <c r="J58" s="15">
         <v>1.75</v>
       </c>
-      <c r="K58" s="16">
-        <f t="shared" si="4"/>
+      <c r="K58" s="15">
+        <v>1</v>
+      </c>
+      <c r="L58" s="7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M58" s="7">
+        <f t="shared" si="12"/>
+        <v>1.75</v>
+      </c>
+      <c r="N58" s="16">
+        <f t="shared" si="13"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="54" t="s">
+      <c r="O58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>11</v>
       </c>
@@ -19782,18 +20501,29 @@
       <c r="J59" s="15">
         <v>3</v>
       </c>
-      <c r="K59" s="16">
-        <f t="shared" si="4"/>
+      <c r="K59" s="15">
+        <v>1</v>
+      </c>
+      <c r="L59" s="7">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="M59" s="7">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N59" s="16">
+        <f t="shared" si="13"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="54" t="s">
+      <c r="O59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>12</v>
       </c>
@@ -19824,18 +20554,29 @@
       <c r="J60" s="15">
         <v>3</v>
       </c>
-      <c r="K60" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="54" t="s">
+      <c r="K60" s="15">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="M60" s="7">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N60" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>13</v>
       </c>
@@ -19866,18 +20607,29 @@
       <c r="J61" s="7">
         <v>1</v>
       </c>
-      <c r="K61" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="54" t="s">
+      <c r="K61" s="7">
+        <v>5</v>
+      </c>
+      <c r="L61" s="7">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="M61" s="7">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N61" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P61" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>14</v>
       </c>
@@ -19908,18 +20660,29 @@
       <c r="J62" s="15">
         <v>1.5</v>
       </c>
-      <c r="K62" s="16">
-        <f t="shared" si="4"/>
+      <c r="K62" s="15">
+        <v>5</v>
+      </c>
+      <c r="L62" s="7">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M62" s="7">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="N62" s="16">
+        <f t="shared" si="13"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="54" t="s">
+      <c r="O62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P62" s="54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>15</v>
       </c>
@@ -19950,18 +20713,29 @@
       <c r="J63" s="20">
         <v>1</v>
       </c>
-      <c r="K63" s="9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="54" t="s">
+      <c r="K63" s="20">
+        <v>5</v>
+      </c>
+      <c r="L63" s="7">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="M63" s="7">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P63" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>16</v>
       </c>
@@ -19992,18 +20766,29 @@
       <c r="J64" s="20">
         <v>1</v>
       </c>
-      <c r="K64" s="9">
-        <f t="shared" si="4"/>
+      <c r="K64" s="20">
+        <v>5</v>
+      </c>
+      <c r="L64" s="7">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="M64" s="7">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N64" s="9">
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
-      <c r="L64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" s="54" t="s">
+      <c r="O64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P64" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>17</v>
       </c>
@@ -20034,18 +20819,29 @@
       <c r="J65" s="15">
         <v>1</v>
       </c>
-      <c r="K65" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="54" t="s">
+      <c r="K65" s="15">
+        <v>1</v>
+      </c>
+      <c r="L65" s="7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="7">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>18</v>
       </c>
@@ -20076,18 +20872,29 @@
       <c r="J66" s="15">
         <v>3.5</v>
       </c>
-      <c r="K66" s="16">
-        <f t="shared" si="4"/>
+      <c r="K66" s="15">
+        <v>2</v>
+      </c>
+      <c r="L66" s="7">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M66" s="7">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N66" s="16">
+        <f t="shared" si="13"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="54" t="s">
+      <c r="O66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P66" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>19</v>
       </c>
@@ -20119,18 +20926,29 @@
       <c r="J67" s="15">
         <v>1.4</v>
       </c>
-      <c r="K67" s="16">
-        <f t="shared" si="4"/>
+      <c r="K67" s="15">
+        <v>1</v>
+      </c>
+      <c r="L67" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="M67" s="7">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="N67" s="16">
+        <f t="shared" si="13"/>
         <v>1.0714285714285714</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" s="54" t="s">
+      <c r="O67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>21</v>
       </c>
@@ -20159,18 +20977,29 @@
       <c r="J68" s="22">
         <v>0.5</v>
       </c>
-      <c r="K68" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M68" s="54" t="s">
+      <c r="K68" s="22">
+        <v>1</v>
+      </c>
+      <c r="L68" s="22">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="M68" s="22">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="24">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" s="54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
         <v>57</v>
       </c>
@@ -20185,8 +21014,11 @@
       <c r="J70" s="69"/>
       <c r="K70" s="69"/>
       <c r="L70" s="69"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+    </row>
+    <row r="71" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -20217,14 +21049,23 @@
       <c r="J71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K71" s="40" t="s">
+      <c r="K71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N71" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="O71" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>1</v>
       </c>
@@ -20257,14 +21098,26 @@
       <c r="J72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="45">
-        <v>1</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K72" s="6">
+        <f>IF(C49="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L72" s="6">
+        <f>G72*K72</f>
+        <v>5</v>
+      </c>
+      <c r="M72" s="7">
+        <f>K72*J72</f>
+        <v>5</v>
+      </c>
+      <c r="N72" s="45">
+        <v>1</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>2</v>
       </c>
@@ -20295,15 +21148,26 @@
       <c r="J73" s="14">
         <v>1</v>
       </c>
-      <c r="K73" s="45">
+      <c r="K73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" ref="L73:L86" si="14">G73*K73</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" ref="M73:M86" si="15">K73*J73</f>
+        <v>1</v>
+      </c>
+      <c r="N73" s="45">
         <f>G73/J73</f>
         <v>1</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O73" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>3</v>
       </c>
@@ -20334,15 +21198,26 @@
       <c r="J74" s="14">
         <v>2.25</v>
       </c>
-      <c r="K74" s="45">
+      <c r="K74" s="6">
+        <v>1</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="M74" s="7">
+        <f>K74*J74</f>
+        <v>2.25</v>
+      </c>
+      <c r="N74" s="45">
         <f>G74/J74</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O74" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>4</v>
       </c>
@@ -20373,15 +21248,26 @@
       <c r="J75" s="14">
         <v>1</v>
       </c>
-      <c r="K75" s="45">
+      <c r="K75" s="6">
+        <v>2</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="M75" s="7">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="N75" s="45">
         <f>G75/J75</f>
         <v>1</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O75" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>5</v>
       </c>
@@ -20412,15 +21298,26 @@
       <c r="J76" s="14">
         <v>1</v>
       </c>
-      <c r="K76" s="45">
+      <c r="K76" s="6">
+        <v>1</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="7">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N76" s="45">
         <f>G76/J76</f>
         <v>1</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O76" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>6</v>
       </c>
@@ -20452,15 +21349,26 @@
       <c r="J77" s="14">
         <v>6</v>
       </c>
-      <c r="K77" s="45">
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="6">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="N77" s="45">
         <f>G77/J77</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L77" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O77" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>8</v>
       </c>
@@ -20491,14 +21399,25 @@
       <c r="J78" s="14">
         <v>0.5</v>
       </c>
-      <c r="K78" s="45">
-        <v>1</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="6">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="N78" s="45">
+        <v>1</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>9</v>
       </c>
@@ -20530,15 +21449,26 @@
       <c r="J79" s="14">
         <v>1.75</v>
       </c>
-      <c r="K79" s="45">
+      <c r="K79" s="6">
+        <v>1</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" si="15"/>
+        <v>1.75</v>
+      </c>
+      <c r="N79" s="45">
         <f>G79/J79</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L79" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O79" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>10</v>
       </c>
@@ -20569,15 +21499,26 @@
       <c r="J80" s="14">
         <v>3.25</v>
       </c>
-      <c r="K80" s="45">
+      <c r="K80" s="6">
+        <v>1</v>
+      </c>
+      <c r="L80" s="6">
+        <f t="shared" si="14"/>
+        <v>3.5</v>
+      </c>
+      <c r="M80" s="7">
+        <f t="shared" si="15"/>
+        <v>3.25</v>
+      </c>
+      <c r="N80" s="45">
         <f>J80/G80</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O80" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>11</v>
       </c>
@@ -20608,15 +21549,24 @@
       <c r="J81" s="14">
         <v>2.25</v>
       </c>
-      <c r="K81" s="45">
+      <c r="K81" s="6">
+        <v>5</v>
+      </c>
+      <c r="L81" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="M81" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="N81" s="45">
         <f>G81/J81</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O81" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>12</v>
       </c>
@@ -20647,14 +21597,25 @@
       <c r="J82" s="14">
         <v>1</v>
       </c>
-      <c r="K82" s="45">
-        <v>1</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K82" s="6">
+        <v>5</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M82" s="7">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="N82" s="45">
+        <v>1</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>13</v>
       </c>
@@ -20685,14 +21646,25 @@
       <c r="J83" s="14">
         <v>1.5</v>
       </c>
-      <c r="K83" s="45">
-        <v>1</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="N83" s="45">
+        <v>1</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>14</v>
       </c>
@@ -20723,15 +21695,27 @@
       <c r="J84" s="14">
         <v>1</v>
       </c>
-      <c r="K84" s="45">
+      <c r="K84" s="6">
+        <f t="shared" ref="K84:K86" si="16">IF(C61="All",5)</f>
+        <v>5</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M84" s="7">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="N84" s="45">
         <f>G84/J84</f>
         <v>1</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O84" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>15</v>
       </c>
@@ -20763,15 +21747,25 @@
       <c r="J85" s="14">
         <v>6.5</v>
       </c>
-      <c r="K85" s="45">
+      <c r="K85" s="6">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L85" s="6">
+        <v>25</v>
+      </c>
+      <c r="M85" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="N85" s="45">
         <f>G85/J85</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O85" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>16</v>
       </c>
@@ -20800,15 +21794,27 @@
       <c r="J86" s="21">
         <v>1</v>
       </c>
-      <c r="K86" s="47">
+      <c r="K86" s="21">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="L86" s="21">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M86" s="21">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="N86" s="47">
         <f>J86/G86</f>
         <v>1</v>
       </c>
-      <c r="L86" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="O86" s="47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A88" s="69" t="s">
         <v>124</v>
       </c>
@@ -20823,8 +21829,11 @@
       <c r="J88" s="69"/>
       <c r="K88" s="69"/>
       <c r="L88" s="69"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+    </row>
+    <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -20855,14 +21864,23 @@
       <c r="J89" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K89" s="40" t="s">
+      <c r="K89" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N89" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>1</v>
       </c>
@@ -20893,15 +21911,26 @@
       <c r="J90" s="11">
         <v>1</v>
       </c>
-      <c r="K90" s="48">
+      <c r="K90" s="11">
+        <v>1</v>
+      </c>
+      <c r="L90" s="11">
+        <f>G90*K90</f>
+        <v>1</v>
+      </c>
+      <c r="M90" s="11">
+        <f>J90*K90</f>
+        <v>1</v>
+      </c>
+      <c r="N90" s="48">
         <f>J90/G90</f>
         <v>1</v>
       </c>
-      <c r="L90" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O90" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>2</v>
       </c>
@@ -20932,15 +21961,26 @@
       <c r="J91" s="15">
         <v>1.5</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="15">
+        <v>1</v>
+      </c>
+      <c r="L91" s="11">
+        <f t="shared" ref="L91:L101" si="17">G91*K91</f>
+        <v>1.5</v>
+      </c>
+      <c r="M91" s="11">
+        <f t="shared" ref="M91:M101" si="18">J91*K91</f>
+        <v>1.5</v>
+      </c>
+      <c r="N91" s="16">
         <f>J91/G91</f>
         <v>1</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O91" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>3</v>
       </c>
@@ -20972,15 +22012,26 @@
       <c r="J92" s="14">
         <v>2.75</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K92" s="14">
+        <v>1</v>
+      </c>
+      <c r="L92" s="11">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="M92" s="11">
+        <f t="shared" si="18"/>
+        <v>2.75</v>
+      </c>
+      <c r="N92" s="45">
         <f>J92/G92</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L92" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O92" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>4</v>
       </c>
@@ -20991,7 +22042,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" ref="D93:D94" si="5">F93-E93+1</f>
+        <f t="shared" ref="D93:D94" si="19">F93-E93+1</f>
         <v>5</v>
       </c>
       <c r="E93" s="8">
@@ -21012,15 +22063,26 @@
       <c r="J93" s="14">
         <v>2.75</v>
       </c>
-      <c r="K93" s="27">
+      <c r="K93" s="14">
+        <v>2</v>
+      </c>
+      <c r="L93" s="11">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="M93" s="11">
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="N93" s="27">
         <f>J93/G93</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="L93" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O93" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>5</v>
       </c>
@@ -21031,7 +22093,7 @@
         <v>65</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="E94" s="8">
@@ -21052,15 +22114,26 @@
       <c r="J94" s="15">
         <v>11</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="15">
+        <v>2</v>
+      </c>
+      <c r="L94" s="11">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="M94" s="11">
+        <f>J94*K94</f>
+        <v>22</v>
+      </c>
+      <c r="N94" s="16">
         <f>J94/G94</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L94" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O94" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>6</v>
       </c>
@@ -21091,15 +22164,26 @@
       <c r="J95" s="15">
         <v>1</v>
       </c>
-      <c r="K95" s="48">
-        <f t="shared" ref="K95:K96" si="6">J95/G95</f>
-        <v>1</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="K95" s="15">
+        <v>1</v>
+      </c>
+      <c r="L95" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M95" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N95" s="48">
+        <f t="shared" ref="N95:N96" si="20">J95/G95</f>
+        <v>1</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>7</v>
       </c>
@@ -21130,15 +22214,26 @@
       <c r="J96" s="15">
         <v>1</v>
       </c>
-      <c r="K96" s="48">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L96" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K96" s="15">
+        <v>1</v>
+      </c>
+      <c r="L96" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M96" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N96" s="48">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>8</v>
       </c>
@@ -21169,14 +22264,25 @@
       <c r="J97" s="15">
         <v>1</v>
       </c>
-      <c r="K97" s="16">
-        <v>1</v>
-      </c>
-      <c r="L97" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K97" s="15">
+        <v>1</v>
+      </c>
+      <c r="L97" s="11">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="M97" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N97" s="16">
+        <v>1</v>
+      </c>
+      <c r="O97" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>9</v>
       </c>
@@ -21208,14 +22314,25 @@
       <c r="J98" s="15">
         <v>2</v>
       </c>
-      <c r="K98" s="16">
-        <v>1</v>
-      </c>
-      <c r="L98" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="K98" s="15">
+        <v>1</v>
+      </c>
+      <c r="L98" s="11">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M98" s="11">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="N98" s="16">
+        <v>1</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>10</v>
       </c>
@@ -21246,15 +22363,26 @@
       <c r="J99" s="15">
         <v>4</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="15">
+        <v>1</v>
+      </c>
+      <c r="L99" s="11">
+        <f t="shared" si="17"/>
+        <v>4.5</v>
+      </c>
+      <c r="M99" s="11">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="N99" s="16">
         <f>J99/G99</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L99" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O99" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>11</v>
       </c>
@@ -21283,17 +22411,28 @@
         <v>42002</v>
       </c>
       <c r="J100" s="15">
+        <v>3</v>
+      </c>
+      <c r="K100" s="15">
         <v>5</v>
       </c>
-      <c r="K100" s="16">
+      <c r="L100" s="11">
+        <f>G100*K100</f>
+        <v>15</v>
+      </c>
+      <c r="M100" s="11">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="N100" s="16">
         <f>G100/J100</f>
-        <v>0.6</v>
-      </c>
-      <c r="L100" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>12</v>
       </c>
@@ -21324,14 +22463,35 @@
       <c r="J101" s="15">
         <v>1</v>
       </c>
-      <c r="K101" s="16">
-        <v>1</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="K101" s="15">
+        <v>1</v>
+      </c>
+      <c r="L101" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M101" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N101" s="16">
+        <v>1</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L102" s="31">
+        <f>SUM(L90:L101)</f>
+        <v>56.5</v>
+      </c>
+      <c r="M102" s="31">
+        <f>SUM(M90:M101)</f>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A103" s="69" t="s">
         <v>125</v>
       </c>
@@ -21346,8 +22506,11 @@
       <c r="J103" s="69"/>
       <c r="K103" s="69"/>
       <c r="L103" s="69"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M103" s="69"/>
+      <c r="N103" s="69"/>
+      <c r="O103" s="69"/>
+    </row>
+    <row r="104" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>0</v>
       </c>
@@ -21378,14 +22541,23 @@
       <c r="J104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K104" s="40" t="s">
+      <c r="K104" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N104" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -21418,14 +22590,25 @@
       <c r="J105" s="15">
         <v>1</v>
       </c>
-      <c r="K105" s="16">
-        <v>1</v>
-      </c>
-      <c r="L105" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105" s="15">
+        <v>5</v>
+      </c>
+      <c r="L105" s="15">
+        <f>G105*K105</f>
+        <v>5</v>
+      </c>
+      <c r="M105" s="15">
+        <f>K105*J105</f>
+        <v>5</v>
+      </c>
+      <c r="N105" s="16">
+        <v>1</v>
+      </c>
+      <c r="O105" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>2</v>
       </c>
@@ -21456,15 +22639,26 @@
       <c r="J106" s="15">
         <v>2</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="15">
+        <v>1</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" ref="L106:L122" si="21">G106*K106</f>
+        <v>2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" ref="M106:M122" si="22">K106*J106</f>
+        <v>2</v>
+      </c>
+      <c r="N106" s="16">
         <f>G106/J106</f>
         <v>1</v>
       </c>
-      <c r="L106" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O106" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>3</v>
       </c>
@@ -21495,15 +22689,26 @@
       <c r="J107" s="15">
         <v>2</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="15">
+        <v>1</v>
+      </c>
+      <c r="L107" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="M107" s="15">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N107" s="16">
         <f>G107/J107</f>
         <v>1</v>
       </c>
-      <c r="L107" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O107" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>4</v>
       </c>
@@ -21534,15 +22739,26 @@
       <c r="J108" s="11">
         <v>3.5</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="11">
+        <v>2</v>
+      </c>
+      <c r="L108" s="15">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="M108" s="15">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="N108" s="16">
         <f>G108/J108</f>
         <v>1</v>
       </c>
-      <c r="L108" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O108" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>5</v>
       </c>
@@ -21573,15 +22789,26 @@
       <c r="J109" s="11">
         <v>5.25</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="11">
+        <v>2</v>
+      </c>
+      <c r="L109" s="15">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="M109" s="15">
+        <f t="shared" si="22"/>
+        <v>10.5</v>
+      </c>
+      <c r="N109" s="16">
         <f>J109/G109</f>
         <v>1.05</v>
       </c>
-      <c r="L109" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O109" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>6</v>
       </c>
@@ -21612,15 +22839,26 @@
       <c r="J110" s="15">
         <v>3</v>
       </c>
-      <c r="K110" s="16">
-        <f t="shared" ref="K110" si="7">G110/J110</f>
-        <v>1</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="K110" s="15">
+        <v>2</v>
+      </c>
+      <c r="L110" s="15">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="M110" s="15">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="N110" s="16">
+        <f t="shared" ref="N110" si="23">G110/J110</f>
+        <v>1</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>7</v>
       </c>
@@ -21652,15 +22890,26 @@
       <c r="J111" s="15">
         <v>3</v>
       </c>
-      <c r="K111" s="16">
-        <f t="shared" ref="K111" si="8">J111/G111</f>
-        <v>1</v>
-      </c>
-      <c r="L111" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K111" s="15">
+        <v>2</v>
+      </c>
+      <c r="L111" s="15">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="M111" s="15">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="N111" s="16">
+        <f t="shared" ref="N111" si="24">J111/G111</f>
+        <v>1</v>
+      </c>
+      <c r="O111" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>8</v>
       </c>
@@ -21689,15 +22938,26 @@
       <c r="J112" s="15">
         <v>1</v>
       </c>
-      <c r="K112" s="16">
-        <f t="shared" ref="K112" si="9">G112/J112</f>
-        <v>1</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K112" s="15">
+        <v>2</v>
+      </c>
+      <c r="L112" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="M112" s="15">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N112" s="16">
+        <f t="shared" ref="N112" si="25">G112/J112</f>
+        <v>1</v>
+      </c>
+      <c r="O112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>9</v>
       </c>
@@ -21726,15 +22986,26 @@
       <c r="J113" s="15">
         <v>4</v>
       </c>
-      <c r="K113" s="16">
-        <f t="shared" ref="K113" si="10">J113/G113</f>
+      <c r="K113" s="15">
+        <v>2</v>
+      </c>
+      <c r="L113" s="15">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="M113" s="15">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="N113" s="16">
+        <f t="shared" ref="N113" si="26">J113/G113</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L113" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="O113" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>9</v>
       </c>
@@ -21765,15 +23036,26 @@
       <c r="J114" s="15">
         <v>3.5</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="15">
+        <v>1</v>
+      </c>
+      <c r="L114" s="15">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="M114" s="15">
+        <f t="shared" si="22"/>
+        <v>3.5</v>
+      </c>
+      <c r="N114" s="16">
         <f>J114/G114</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L114" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O114" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>10</v>
       </c>
@@ -21802,15 +23084,26 @@
       <c r="J115" s="15">
         <v>1</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="15">
+        <v>1</v>
+      </c>
+      <c r="L115" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M115" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N115" s="16">
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="L115" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O115" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>11</v>
       </c>
@@ -21842,15 +23135,26 @@
       <c r="J116" s="15">
         <v>2.75</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="15">
+        <v>1</v>
+      </c>
+      <c r="L116" s="15">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="M116" s="15">
+        <f t="shared" si="22"/>
+        <v>2.75</v>
+      </c>
+      <c r="N116" s="16">
         <f>G116/J116</f>
         <v>1.0909090909090908</v>
       </c>
-      <c r="L116" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="O116" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>12</v>
       </c>
@@ -21881,15 +23185,26 @@
       <c r="J117" s="15">
         <v>5</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="15">
+        <v>1</v>
+      </c>
+      <c r="L117" s="15">
+        <f t="shared" si="21"/>
+        <v>4.5</v>
+      </c>
+      <c r="M117" s="15">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="N117" s="16">
         <f>G117/J117</f>
         <v>0.9</v>
       </c>
-      <c r="L117" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O117" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>13</v>
       </c>
@@ -21918,18 +23233,28 @@
         <v>42015</v>
       </c>
       <c r="J118" s="15">
-        <f>0.5+0</f>
-        <v>0.5</v>
-      </c>
-      <c r="K118" s="16">
+        <v>5</v>
+      </c>
+      <c r="K118" s="15">
+        <v>5</v>
+      </c>
+      <c r="L118" s="15">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="M118" s="15">
+        <f>K118*J118</f>
+        <v>25</v>
+      </c>
+      <c r="N118" s="16">
         <f>E118/F118</f>
         <v>0.99995239682010761</v>
       </c>
-      <c r="L118" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O118" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>14</v>
       </c>
@@ -21958,15 +23283,26 @@
       <c r="J119" s="11">
         <v>0.5</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="11">
+        <v>5</v>
+      </c>
+      <c r="L119" s="15">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="M119" s="15">
+        <f t="shared" si="22"/>
+        <v>2.5</v>
+      </c>
+      <c r="N119" s="16">
         <f>J119/G119</f>
         <v>0.5</v>
       </c>
-      <c r="L119" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O119" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>15</v>
       </c>
@@ -21995,15 +23331,26 @@
       <c r="J120" s="26">
         <v>1.25</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="26">
+        <v>5</v>
+      </c>
+      <c r="L120" s="15">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="M120" s="15">
+        <f t="shared" si="22"/>
+        <v>6.25</v>
+      </c>
+      <c r="N120" s="16">
         <f>G120/J120</f>
         <v>1.2</v>
       </c>
-      <c r="L120" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O120" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>16</v>
       </c>
@@ -22034,15 +23381,26 @@
       <c r="J121" s="7">
         <v>1</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="7">
+        <v>1</v>
+      </c>
+      <c r="L121" s="15">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M121" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N121" s="16">
         <f>G121/J121</f>
         <v>1</v>
       </c>
-      <c r="L121" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O121" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>17</v>
       </c>
@@ -22073,15 +23431,36 @@
       <c r="J122" s="15">
         <v>1</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="15">
+        <v>2</v>
+      </c>
+      <c r="L122" s="15">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="M122" s="15">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="N122" s="16">
         <f>G122/J122</f>
         <v>1</v>
       </c>
-      <c r="L122" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="O122" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L123" s="31">
+        <f>SUM(L105:L122)</f>
+        <v>103</v>
+      </c>
+      <c r="M123" s="31">
+        <f>SUM(M105:M122)</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A124" s="69" t="s">
         <v>67</v>
       </c>
@@ -22096,8 +23475,11 @@
       <c r="J124" s="69"/>
       <c r="K124" s="69"/>
       <c r="L124" s="69"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="69"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="69"/>
+    </row>
+    <row r="125" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>0</v>
       </c>
@@ -22128,14 +23510,23 @@
       <c r="J125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K125" s="40" t="s">
+      <c r="K125" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N125" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="O125" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>1</v>
       </c>
@@ -22168,15 +23559,26 @@
       <c r="J126" s="15">
         <v>1</v>
       </c>
-      <c r="K126" s="16">
-        <f t="shared" ref="K126:K136" si="11">G126/J126</f>
-        <v>1</v>
-      </c>
-      <c r="L126" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K126" s="15">
+        <v>5</v>
+      </c>
+      <c r="L126" s="15">
+        <f>G126*K126</f>
+        <v>5</v>
+      </c>
+      <c r="M126" s="15">
+        <f>K126*J126</f>
+        <v>5</v>
+      </c>
+      <c r="N126" s="16">
+        <f t="shared" ref="N126:N136" si="27">G126/J126</f>
+        <v>1</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>2</v>
       </c>
@@ -22207,15 +23609,26 @@
       <c r="J127" s="15">
         <v>1.75</v>
       </c>
-      <c r="K127" s="16">
-        <f t="shared" si="11"/>
+      <c r="K127" s="15">
+        <v>1</v>
+      </c>
+      <c r="L127" s="15">
+        <f t="shared" ref="L127:L142" si="28">G127*K127</f>
+        <v>2</v>
+      </c>
+      <c r="M127" s="15">
+        <f t="shared" ref="M127:M142" si="29">K127*J127</f>
+        <v>1.75</v>
+      </c>
+      <c r="N127" s="16">
+        <f t="shared" si="27"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="L127" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O127" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>3</v>
       </c>
@@ -22246,15 +23659,26 @@
       <c r="J128" s="15">
         <v>2.75</v>
       </c>
-      <c r="K128" s="16">
-        <f t="shared" si="11"/>
+      <c r="K128" s="15">
+        <v>2</v>
+      </c>
+      <c r="L128" s="15">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="M128" s="15">
+        <f t="shared" si="29"/>
+        <v>5.5</v>
+      </c>
+      <c r="N128" s="16">
+        <f t="shared" si="27"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="L128" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O128" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>4</v>
       </c>
@@ -22285,15 +23709,26 @@
       <c r="J129" s="15">
         <v>9</v>
       </c>
-      <c r="K129" s="16">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L129" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K129" s="15">
+        <v>2</v>
+      </c>
+      <c r="L129" s="15">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="M129" s="15">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="N129" s="16">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>5</v>
       </c>
@@ -22324,15 +23759,26 @@
       <c r="J130" s="15">
         <v>2</v>
       </c>
-      <c r="K130" s="16">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L130" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K130" s="15">
+        <v>1</v>
+      </c>
+      <c r="L130" s="15">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="M130"